--- a/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
@@ -88,46 +88,46 @@
     <t>categoria_previsao</t>
   </si>
   <si>
-    <t>304.0-500.6</t>
-  </si>
-  <si>
-    <t>0.0-165.0</t>
-  </si>
-  <si>
-    <t>1021.2-1196.4</t>
-  </si>
-  <si>
-    <t>687.0-856.0</t>
-  </si>
-  <si>
-    <t>856.0-1021.2</t>
-  </si>
-  <si>
-    <t>1671.0-2488.0</t>
-  </si>
-  <si>
-    <t>165.0-304.0</t>
-  </si>
-  <si>
-    <t>1196.4-1403.6</t>
-  </si>
-  <si>
-    <t>500.6-687.0</t>
-  </si>
-  <si>
-    <t>1403.6-1671.0</t>
+    <t>305.0-501.0</t>
+  </si>
+  <si>
+    <t>0.0-166.0</t>
+  </si>
+  <si>
+    <t>1022.0-1197.0</t>
+  </si>
+  <si>
+    <t>688.0-857.0</t>
+  </si>
+  <si>
+    <t>857.0-1022.0</t>
+  </si>
+  <si>
+    <t>1672.0-2489.0</t>
+  </si>
+  <si>
+    <t>166.0-305.0</t>
+  </si>
+  <si>
+    <t>1197.0-1404.0</t>
+  </si>
+  <si>
+    <t>501.0-688.0</t>
+  </si>
+  <si>
+    <t>1404.0-1672.0</t>
   </si>
   <si>
     <t>2.0-35.0</t>
   </si>
   <si>
-    <t>847.4-1500.0</t>
+    <t>845.0-1500.0</t>
   </si>
   <si>
     <t>1500.0-16278.0</t>
   </si>
   <si>
-    <t>630.0-847.4</t>
+    <t>630.0-845.0</t>
   </si>
   <si>
     <t>485.0-630.0</t>
@@ -136,34 +136,34 @@
     <t>390.0-485.0</t>
   </si>
   <si>
-    <t>1709.0-2488.0</t>
-  </si>
-  <si>
-    <t>1493.0-1709.0</t>
-  </si>
-  <si>
-    <t>1311.0-1493.0</t>
-  </si>
-  <si>
-    <t>1133.0-1311.0</t>
-  </si>
-  <si>
-    <t>979.0-1133.0</t>
-  </si>
-  <si>
-    <t>620.0-812.6</t>
-  </si>
-  <si>
-    <t>812.6-979.0</t>
-  </si>
-  <si>
-    <t>416.0-620.0</t>
-  </si>
-  <si>
-    <t>219.2-416.0</t>
-  </si>
-  <si>
-    <t>1.0-219.2</t>
+    <t>1710.0-2489.0</t>
+  </si>
+  <si>
+    <t>1494.0-1710.0</t>
+  </si>
+  <si>
+    <t>1311.5-1494.0</t>
+  </si>
+  <si>
+    <t>1134.0-1311.5</t>
+  </si>
+  <si>
+    <t>979.5-1134.0</t>
+  </si>
+  <si>
+    <t>621.0-812.0</t>
+  </si>
+  <si>
+    <t>812.0-979.5</t>
+  </si>
+  <si>
+    <t>417.0-621.0</t>
+  </si>
+  <si>
+    <t>220.0-417.0</t>
+  </si>
+  <si>
+    <t>0.0-220.0</t>
   </si>
   <si>
     <t>Sumidos</t>
@@ -2991,7 +2991,7 @@
         <v>244</v>
       </c>
       <c r="B2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3000,7 +3000,7 @@
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -3042,10 +3042,10 @@
         <v>1575</v>
       </c>
       <c r="V2">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="W2">
-        <v>0.04570541290859151</v>
+        <v>0.04564627128765796</v>
       </c>
       <c r="X2" t="s">
         <v>843</v>
@@ -3056,7 +3056,7 @@
         <v>339</v>
       </c>
       <c r="B3">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3065,7 +3065,7 @@
         <v>6300</v>
       </c>
       <c r="E3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -3110,10 +3110,10 @@
         <v>1606</v>
       </c>
       <c r="V3">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="W3">
-        <v>0.1128974850055332</v>
+        <v>0.112078172253346</v>
       </c>
       <c r="X3" t="s">
         <v>844</v>
@@ -3124,7 +3124,7 @@
         <v>351</v>
       </c>
       <c r="B4">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -3133,7 +3133,7 @@
         <v>1760</v>
       </c>
       <c r="E4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -3181,10 +3181,10 @@
         <v>1555</v>
       </c>
       <c r="V4">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="W4">
-        <v>0.06632310647090567</v>
+        <v>0.0662201181895743</v>
       </c>
       <c r="X4" t="s">
         <v>844</v>
@@ -3195,7 +3195,7 @@
         <v>490</v>
       </c>
       <c r="B5">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3204,7 +3204,7 @@
         <v>1420</v>
       </c>
       <c r="E5">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -3249,10 +3249,10 @@
         <v>1932</v>
       </c>
       <c r="V5">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="W5">
-        <v>0.06799563338683877</v>
+        <v>0.06793617710074198</v>
       </c>
       <c r="X5" t="s">
         <v>844</v>
@@ -3263,7 +3263,7 @@
         <v>623</v>
       </c>
       <c r="B6">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3272,7 +3272,7 @@
         <v>700</v>
       </c>
       <c r="E6">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3317,10 +3317,10 @@
         <v>790</v>
       </c>
       <c r="V6">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="W6">
-        <v>0.01400335258925733</v>
+        <v>0.01395955564832942</v>
       </c>
       <c r="X6" t="s">
         <v>843</v>
@@ -3331,7 +3331,7 @@
         <v>632</v>
       </c>
       <c r="B7">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -3340,7 +3340,7 @@
         <v>1015</v>
       </c>
       <c r="E7">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -3382,10 +3382,10 @@
         <v>1079</v>
       </c>
       <c r="V7">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="W7">
-        <v>0.02976249856713793</v>
+        <v>0.02969531491203501</v>
       </c>
       <c r="X7" t="s">
         <v>843</v>
@@ -3396,7 +3396,7 @@
         <v>640</v>
       </c>
       <c r="B8">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3405,7 +3405,7 @@
         <v>800</v>
       </c>
       <c r="E8">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3447,10 +3447,10 @@
         <v>1070</v>
       </c>
       <c r="V8">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="W8">
-        <v>0.02927558363999127</v>
+        <v>0.02920874414981819</v>
       </c>
       <c r="X8" t="s">
         <v>843</v>
@@ -3461,7 +3461,7 @@
         <v>657</v>
       </c>
       <c r="B9">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3470,7 +3470,7 @@
         <v>3520</v>
       </c>
       <c r="E9">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3515,10 +3515,10 @@
         <v>956</v>
       </c>
       <c r="V9">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="W9">
-        <v>0.02310323394059069</v>
+        <v>0.02304270035740867</v>
       </c>
       <c r="X9" t="s">
         <v>843</v>
@@ -3529,7 +3529,7 @@
         <v>688</v>
       </c>
       <c r="B10">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3538,7 +3538,7 @@
         <v>3980</v>
       </c>
       <c r="E10">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3583,10 +3583,10 @@
         <v>1824</v>
       </c>
       <c r="V10">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="W10">
-        <v>0.06973020867679765</v>
+        <v>0.06966556663492883</v>
       </c>
       <c r="X10" t="s">
         <v>844</v>
@@ -3597,7 +3597,7 @@
         <v>739</v>
       </c>
       <c r="B11">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3606,7 +3606,7 @@
         <v>829.9</v>
       </c>
       <c r="E11">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3651,10 +3651,10 @@
         <v>1007</v>
       </c>
       <c r="V11">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="W11">
-        <v>0.02703834224755172</v>
+        <v>0.02697221020052298</v>
       </c>
       <c r="X11" t="s">
         <v>843</v>
@@ -3665,7 +3665,7 @@
         <v>745</v>
       </c>
       <c r="B12">
-        <v>1714</v>
+        <v>1715</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3674,7 +3674,7 @@
         <v>900</v>
       </c>
       <c r="E12">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3719,10 +3719,10 @@
         <v>196</v>
       </c>
       <c r="V12">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="W12">
-        <v>0.0002511049804013866</v>
+        <v>0.000249769060714348</v>
       </c>
       <c r="X12" t="s">
         <v>843</v>
@@ -3733,7 +3733,7 @@
         <v>772</v>
       </c>
       <c r="B13">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3742,7 +3742,7 @@
         <v>2743</v>
       </c>
       <c r="E13">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -3787,10 +3787,10 @@
         <v>1847</v>
       </c>
       <c r="V13">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="W13">
-        <v>0.05555781193095719</v>
+        <v>0.05550459040014155</v>
       </c>
       <c r="X13" t="s">
         <v>843</v>
@@ -3801,7 +3801,7 @@
         <v>777</v>
       </c>
       <c r="B14">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3810,7 +3810,7 @@
         <v>825</v>
       </c>
       <c r="E14">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -3855,10 +3855,10 @@
         <v>1616</v>
       </c>
       <c r="V14">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="W14">
-        <v>0.0517034871718434</v>
+        <v>0.05164329884482557</v>
       </c>
       <c r="X14" t="s">
         <v>843</v>
@@ -3869,7 +3869,7 @@
         <v>781</v>
       </c>
       <c r="B15">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3878,7 +3878,7 @@
         <v>2045</v>
       </c>
       <c r="E15">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3926,10 +3926,10 @@
         <v>1019</v>
       </c>
       <c r="V15">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="W15">
-        <v>0.02804358819577195</v>
+        <v>0.02797618902297663</v>
       </c>
       <c r="X15" t="s">
         <v>843</v>
@@ -3940,7 +3940,7 @@
         <v>785</v>
       </c>
       <c r="B16">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3949,7 +3949,7 @@
         <v>4350</v>
       </c>
       <c r="E16">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3997,10 +3997,10 @@
         <v>678</v>
       </c>
       <c r="V16">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="W16">
-        <v>0.009711017193015734</v>
+        <v>0.009677426890173592</v>
       </c>
       <c r="X16" t="s">
         <v>843</v>
@@ -4011,7 +4011,7 @@
         <v>790</v>
       </c>
       <c r="B17">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -4020,7 +4020,7 @@
         <v>1380.01</v>
       </c>
       <c r="E17">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4065,10 +4065,10 @@
         <v>1574</v>
       </c>
       <c r="V17">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="W17">
-        <v>0.05096581981861744</v>
+        <v>0.05090411305869282</v>
       </c>
       <c r="X17" t="s">
         <v>843</v>
@@ -4079,7 +4079,7 @@
         <v>834</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -4088,7 +4088,7 @@
         <v>1290</v>
       </c>
       <c r="E18">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4133,10 +4133,10 @@
         <v>1884</v>
       </c>
       <c r="V18">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="W18">
-        <v>0.05678238301508326</v>
+        <v>0.05672978232717229</v>
       </c>
       <c r="X18" t="s">
         <v>843</v>
@@ -4147,7 +4147,7 @@
         <v>866</v>
       </c>
       <c r="B19">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4156,7 +4156,7 @@
         <v>1390</v>
       </c>
       <c r="E19">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -4201,10 +4201,10 @@
         <v>533</v>
       </c>
       <c r="V19">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="W19">
-        <v>0.004871973673724666</v>
+        <v>0.004853056453020395</v>
       </c>
       <c r="X19" t="s">
         <v>843</v>
@@ -4215,7 +4215,7 @@
         <v>980</v>
       </c>
       <c r="B20">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4224,7 +4224,7 @@
         <v>1550</v>
       </c>
       <c r="E20">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4266,10 +4266,10 @@
         <v>175</v>
       </c>
       <c r="V20">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="W20">
-        <v>0.0001494489147822595</v>
+        <v>0.0001486434612882674</v>
       </c>
       <c r="X20" t="s">
         <v>843</v>
@@ -4280,7 +4280,7 @@
         <v>1223</v>
       </c>
       <c r="B21">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4289,7 +4289,7 @@
         <v>2905</v>
       </c>
       <c r="E21">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4334,10 +4334,10 @@
         <v>743</v>
       </c>
       <c r="V21">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="W21">
-        <v>0.0160672275492624</v>
+        <v>0.01601493969875327</v>
       </c>
       <c r="X21" t="s">
         <v>843</v>
@@ -4348,7 +4348,7 @@
         <v>1236</v>
       </c>
       <c r="B22">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4357,7 +4357,7 @@
         <v>2219.01</v>
       </c>
       <c r="E22">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -4405,10 +4405,10 @@
         <v>1523</v>
       </c>
       <c r="V22">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="W22">
-        <v>0.06853267884032817</v>
+        <v>0.06844882590470644</v>
       </c>
       <c r="X22" t="s">
         <v>844</v>
@@ -4419,7 +4419,7 @@
         <v>1290</v>
       </c>
       <c r="B23">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4428,7 +4428,7 @@
         <v>940</v>
       </c>
       <c r="E23">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -4476,10 +4476,10 @@
         <v>643</v>
       </c>
       <c r="V23">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="W23">
-        <v>0.007508750355668329</v>
+        <v>0.007474493915517382</v>
       </c>
       <c r="X23" t="s">
         <v>843</v>
@@ -4490,7 +4490,7 @@
         <v>1358</v>
       </c>
       <c r="B24">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4499,7 +4499,7 @@
         <v>1075</v>
       </c>
       <c r="E24">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -4544,10 +4544,10 @@
         <v>1680</v>
       </c>
       <c r="V24">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="W24">
-        <v>0.07470974917815069</v>
+        <v>0.07463652636117228</v>
       </c>
       <c r="X24" t="s">
         <v>844</v>
@@ -4558,7 +4558,7 @@
         <v>1412</v>
       </c>
       <c r="B25">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4567,7 +4567,7 @@
         <v>489</v>
       </c>
       <c r="E25">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -4612,10 +4612,10 @@
         <v>991</v>
       </c>
       <c r="V25">
-        <v>1744</v>
+        <v>1745</v>
       </c>
       <c r="W25">
-        <v>0.03433870609136588</v>
+        <v>0.03425836576189575</v>
       </c>
       <c r="X25" t="s">
         <v>843</v>
@@ -4626,7 +4626,7 @@
         <v>1671</v>
       </c>
       <c r="B26">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4635,7 +4635,7 @@
         <v>1230</v>
       </c>
       <c r="E26">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="F26">
         <v>3</v>
@@ -4680,10 +4680,10 @@
         <v>472</v>
       </c>
       <c r="V26">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="W26">
-        <v>0.005448956712926098</v>
+        <v>0.005425879443215878</v>
       </c>
       <c r="X26" t="s">
         <v>843</v>
@@ -4694,7 +4694,7 @@
         <v>1684</v>
       </c>
       <c r="B27">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -4703,7 +4703,7 @@
         <v>4315</v>
       </c>
       <c r="E27">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -4748,10 +4748,10 @@
         <v>1656</v>
       </c>
       <c r="V27">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="W27">
-        <v>0.1432380137810427</v>
+        <v>0.1431141315158158</v>
       </c>
       <c r="X27" t="s">
         <v>844</v>
@@ -4762,7 +4762,7 @@
         <v>1698</v>
       </c>
       <c r="B28">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4771,7 +4771,7 @@
         <v>1629</v>
       </c>
       <c r="E28">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -4816,10 +4816,10 @@
         <v>1419</v>
       </c>
       <c r="V28">
-        <v>1682</v>
+        <v>1683</v>
       </c>
       <c r="W28">
-        <v>0.07185270712420654</v>
+        <v>0.07175938318127571</v>
       </c>
       <c r="X28" t="s">
         <v>844</v>
@@ -4830,7 +4830,7 @@
         <v>1744</v>
       </c>
       <c r="B29">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4839,7 +4839,7 @@
         <v>1614</v>
       </c>
       <c r="E29">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -4884,10 +4884,10 @@
         <v>364</v>
       </c>
       <c r="V29">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="W29">
-        <v>0.002620384067062079</v>
+        <v>0.00260814390576371</v>
       </c>
       <c r="X29" t="s">
         <v>843</v>
@@ -4898,7 +4898,7 @@
         <v>1767</v>
       </c>
       <c r="B30">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4907,7 +4907,7 @@
         <v>2225</v>
       </c>
       <c r="E30">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4952,10 +4952,10 @@
         <v>1104</v>
       </c>
       <c r="V30">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="W30">
-        <v>0.0461380218268887</v>
+        <v>0.04605080688956003</v>
       </c>
       <c r="X30" t="s">
         <v>843</v>
@@ -4966,7 +4966,7 @@
         <v>1773</v>
       </c>
       <c r="B31">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4975,7 +4975,7 @@
         <v>1350</v>
       </c>
       <c r="E31">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5020,10 +5020,10 @@
         <v>1104</v>
       </c>
       <c r="V31">
-        <v>1661</v>
+        <v>1662</v>
       </c>
       <c r="W31">
-        <v>0.04620177918140679</v>
+        <v>0.04611449979148043</v>
       </c>
       <c r="X31" t="s">
         <v>843</v>
@@ -5034,7 +5034,7 @@
         <v>1776</v>
       </c>
       <c r="B32">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5043,7 +5043,7 @@
         <v>1425</v>
       </c>
       <c r="E32">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="F32">
         <v>8</v>
@@ -5088,10 +5088,10 @@
         <v>1316</v>
       </c>
       <c r="V32">
-        <v>1658</v>
+        <v>1659</v>
       </c>
       <c r="W32">
-        <v>0.05589539465288289</v>
+        <v>0.05581689918360452</v>
       </c>
       <c r="X32" t="s">
         <v>843</v>
@@ -5102,7 +5102,7 @@
         <v>1783</v>
       </c>
       <c r="B33">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C33">
         <v>5</v>
@@ -5111,7 +5111,7 @@
         <v>3330</v>
       </c>
       <c r="E33">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="F33">
         <v>7</v>
@@ -5156,10 +5156,10 @@
         <v>1057</v>
       </c>
       <c r="V33">
-        <v>1655</v>
+        <v>1656</v>
       </c>
       <c r="W33">
-        <v>0.04990068166032142</v>
+        <v>0.04977825746933815</v>
       </c>
       <c r="X33" t="s">
         <v>843</v>
@@ -5170,7 +5170,7 @@
         <v>1898</v>
       </c>
       <c r="B34">
-        <v>1459</v>
+        <v>1460</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5179,7 +5179,7 @@
         <v>1695</v>
       </c>
       <c r="E34">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5227,10 +5227,10 @@
         <v>553</v>
       </c>
       <c r="V34">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W34">
-        <v>0.002025911405976222</v>
+        <v>0.002016557718769164</v>
       </c>
       <c r="X34" t="s">
         <v>843</v>
@@ -5241,7 +5241,7 @@
         <v>1919</v>
       </c>
       <c r="B35">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C35">
         <v>4</v>
@@ -5250,7 +5250,7 @@
         <v>1410</v>
       </c>
       <c r="E35">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F35">
         <v>8</v>
@@ -5295,10 +5295,10 @@
         <v>1275</v>
       </c>
       <c r="V35">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="W35">
-        <v>0.0569670933517662</v>
+        <v>0.05688508953366238</v>
       </c>
       <c r="X35" t="s">
         <v>843</v>
@@ -5309,7 +5309,7 @@
         <v>1945</v>
       </c>
       <c r="B36">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5318,7 +5318,7 @@
         <v>670</v>
       </c>
       <c r="E36">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="F36">
         <v>7</v>
@@ -5363,10 +5363,10 @@
         <v>926</v>
       </c>
       <c r="V36">
-        <v>1606</v>
+        <v>1607</v>
       </c>
       <c r="W36">
-        <v>0.03836199311943592</v>
+        <v>0.0382696786926897</v>
       </c>
       <c r="X36" t="s">
         <v>843</v>
@@ -5377,7 +5377,7 @@
         <v>2097</v>
       </c>
       <c r="B37">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5386,7 +5386,7 @@
         <v>1451</v>
       </c>
       <c r="E37">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="F37">
         <v>9</v>
@@ -5431,10 +5431,10 @@
         <v>1303</v>
       </c>
       <c r="V37">
-        <v>1546</v>
+        <v>1547</v>
       </c>
       <c r="W37">
-        <v>0.07763696212575256</v>
+        <v>0.07753059005550486</v>
       </c>
       <c r="X37" t="s">
         <v>844</v>
@@ -5445,7 +5445,7 @@
         <v>2100</v>
       </c>
       <c r="B38">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5454,7 +5454,7 @@
         <v>2667</v>
       </c>
       <c r="E38">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F38">
         <v>4</v>
@@ -5499,10 +5499,10 @@
         <v>407</v>
       </c>
       <c r="V38">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="W38">
-        <v>0.002701867144837459</v>
+        <v>0.002686290775742274</v>
       </c>
       <c r="X38" t="s">
         <v>843</v>
@@ -5513,7 +5513,7 @@
         <v>2112</v>
       </c>
       <c r="B39">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5522,7 +5522,7 @@
         <v>2010</v>
       </c>
       <c r="E39">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="F39">
         <v>3</v>
@@ -5564,10 +5564,10 @@
         <v>275</v>
       </c>
       <c r="V39">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="W39">
-        <v>0.001706008030928139</v>
+        <v>0.001696965068545323</v>
       </c>
       <c r="X39" t="s">
         <v>843</v>
@@ -5578,7 +5578,7 @@
         <v>2131</v>
       </c>
       <c r="B40">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5587,7 +5587,7 @@
         <v>1475</v>
       </c>
       <c r="E40">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -5632,10 +5632,10 @@
         <v>342</v>
       </c>
       <c r="V40">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="W40">
-        <v>0.003250672656187919</v>
+        <v>0.003234577075243138</v>
       </c>
       <c r="X40" t="s">
         <v>843</v>
@@ -5646,7 +5646,7 @@
         <v>2135</v>
       </c>
       <c r="B41">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5655,7 +5655,7 @@
         <v>720</v>
       </c>
       <c r="E41">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="F41">
         <v>8</v>
@@ -5700,10 +5700,10 @@
         <v>982</v>
       </c>
       <c r="V41">
-        <v>1431</v>
+        <v>1432</v>
       </c>
       <c r="W41">
-        <v>0.06557234384118381</v>
+        <v>0.06542193927639489</v>
       </c>
       <c r="X41" t="s">
         <v>844</v>
@@ -5714,7 +5714,7 @@
         <v>2178</v>
       </c>
       <c r="B42">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C42">
         <v>4</v>
@@ -5723,7 +5723,7 @@
         <v>1435</v>
       </c>
       <c r="E42">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -5768,10 +5768,10 @@
         <v>388</v>
       </c>
       <c r="V42">
-        <v>1524</v>
+        <v>1525</v>
       </c>
       <c r="W42">
-        <v>0.004855739576079027</v>
+        <v>0.004832692756313183</v>
       </c>
       <c r="X42" t="s">
         <v>843</v>
@@ -5782,7 +5782,7 @@
         <v>2196</v>
       </c>
       <c r="B43">
-        <v>1376</v>
+        <v>1377</v>
       </c>
       <c r="C43">
         <v>5</v>
@@ -5791,7 +5791,7 @@
         <v>3080</v>
       </c>
       <c r="E43">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -5833,10 +5833,10 @@
         <v>144</v>
       </c>
       <c r="V43">
-        <v>1520</v>
+        <v>1521</v>
       </c>
       <c r="W43">
-        <v>9.785378067267398E-05</v>
+        <v>9.707064592653778E-05</v>
       </c>
       <c r="X43" t="s">
         <v>843</v>
@@ -5847,7 +5847,7 @@
         <v>2290</v>
       </c>
       <c r="B44">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5856,7 +5856,7 @@
         <v>5259.9</v>
       </c>
       <c r="E44">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -5901,10 +5901,10 @@
         <v>1395</v>
       </c>
       <c r="V44">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="W44">
-        <v>0.08564484536670547</v>
+        <v>0.08554783850151935</v>
       </c>
       <c r="X44" t="s">
         <v>844</v>
@@ -5915,7 +5915,7 @@
         <v>2338</v>
       </c>
       <c r="B45">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5924,7 +5924,7 @@
         <v>3409.9</v>
       </c>
       <c r="E45">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -5966,10 +5966,10 @@
         <v>1459</v>
       </c>
       <c r="V45">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="W45">
-        <v>0.1063994672378398</v>
+        <v>0.1062929498176103</v>
       </c>
       <c r="X45" t="s">
         <v>844</v>
@@ -5980,7 +5980,7 @@
         <v>2371</v>
       </c>
       <c r="B46">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5989,7 +5989,7 @@
         <v>2375</v>
       </c>
       <c r="E46">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="F46">
         <v>6</v>
@@ -6034,10 +6034,10 @@
         <v>721</v>
       </c>
       <c r="V46">
-        <v>1475</v>
+        <v>1476</v>
       </c>
       <c r="W46">
-        <v>0.02811829647466817</v>
+        <v>0.0280036972006827</v>
       </c>
       <c r="X46" t="s">
         <v>843</v>
@@ -6048,7 +6048,7 @@
         <v>2410</v>
       </c>
       <c r="B47">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -6057,7 +6057,7 @@
         <v>3319</v>
       </c>
       <c r="E47">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -6102,10 +6102,10 @@
         <v>873</v>
       </c>
       <c r="V47">
-        <v>1464</v>
+        <v>1465</v>
       </c>
       <c r="W47">
-        <v>0.04882457194684211</v>
+        <v>0.04867697333189377</v>
       </c>
       <c r="X47" t="s">
         <v>843</v>
@@ -6116,7 +6116,7 @@
         <v>2419</v>
       </c>
       <c r="B48">
-        <v>1364</v>
+        <v>1365</v>
       </c>
       <c r="C48">
         <v>4</v>
@@ -6125,7 +6125,7 @@
         <v>1040</v>
       </c>
       <c r="E48">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="F48">
         <v>3</v>
@@ -6173,10 +6173,10 @@
         <v>98</v>
       </c>
       <c r="V48">
-        <v>1462</v>
+        <v>1463</v>
       </c>
       <c r="W48">
-        <v>0.0002133728519330221</v>
+        <v>0.0002118146820238327</v>
       </c>
       <c r="X48" t="s">
         <v>843</v>
@@ -6187,7 +6187,7 @@
         <v>2475</v>
       </c>
       <c r="B49">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -6196,7 +6196,7 @@
         <v>3635</v>
       </c>
       <c r="E49">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F49">
         <v>9</v>
@@ -6241,10 +6241,10 @@
         <v>1155</v>
       </c>
       <c r="V49">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="W49">
-        <v>0.1186279647022927</v>
+        <v>0.1183688665332287</v>
       </c>
       <c r="X49" t="s">
         <v>844</v>
@@ -6255,7 +6255,7 @@
         <v>2476</v>
       </c>
       <c r="B50">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6264,7 +6264,7 @@
         <v>860</v>
       </c>
       <c r="E50">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -6309,10 +6309,10 @@
         <v>575</v>
       </c>
       <c r="V50">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="W50">
-        <v>0.01867856947531571</v>
+        <v>0.01860608146608291</v>
       </c>
       <c r="X50" t="s">
         <v>843</v>
@@ -6323,7 +6323,7 @@
         <v>2502</v>
       </c>
       <c r="B51">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C51">
         <v>8</v>
@@ -6332,7 +6332,7 @@
         <v>3885</v>
       </c>
       <c r="E51">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="F51">
         <v>8</v>
@@ -6377,10 +6377,10 @@
         <v>1030</v>
       </c>
       <c r="V51">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="W51">
-        <v>0.09221390273413108</v>
+        <v>0.09189931456097331</v>
       </c>
       <c r="X51" t="s">
         <v>844</v>
@@ -6391,7 +6391,7 @@
         <v>2525</v>
       </c>
       <c r="B52">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -6400,7 +6400,7 @@
         <v>2125</v>
       </c>
       <c r="E52">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -6445,10 +6445,10 @@
         <v>410</v>
       </c>
       <c r="V52">
-        <v>1480</v>
+        <v>1481</v>
       </c>
       <c r="W52">
-        <v>0.0007982968008853193</v>
+        <v>0.0007919207166947783</v>
       </c>
       <c r="X52" t="s">
         <v>843</v>
@@ -6459,7 +6459,7 @@
         <v>2537</v>
       </c>
       <c r="B53">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6468,7 +6468,7 @@
         <v>1030</v>
       </c>
       <c r="E53">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="F53">
         <v>9</v>
@@ -6510,10 +6510,10 @@
         <v>1242</v>
       </c>
       <c r="V53">
-        <v>1433</v>
+        <v>1434</v>
       </c>
       <c r="W53">
-        <v>0.06812796254607358</v>
+        <v>0.06803754514477246</v>
       </c>
       <c r="X53" t="s">
         <v>844</v>
@@ -6524,7 +6524,7 @@
         <v>2543</v>
       </c>
       <c r="B54">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6533,7 +6533,7 @@
         <v>13500</v>
       </c>
       <c r="E54">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="F54">
         <v>5</v>
@@ -6578,10 +6578,10 @@
         <v>433</v>
       </c>
       <c r="V54">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="W54">
-        <v>0.008834460455074694</v>
+        <v>0.008793651315421241</v>
       </c>
       <c r="X54" t="s">
         <v>843</v>
@@ -6592,7 +6592,7 @@
         <v>2552</v>
       </c>
       <c r="B55">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="C55">
         <v>5</v>
@@ -6601,7 +6601,7 @@
         <v>1860</v>
       </c>
       <c r="E55">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -6646,10 +6646,10 @@
         <v>238</v>
       </c>
       <c r="V55">
-        <v>1432</v>
+        <v>1433</v>
       </c>
       <c r="W55">
-        <v>0.0006131855760169629</v>
+        <v>0.0006088528846153069</v>
       </c>
       <c r="X55" t="s">
         <v>843</v>
@@ -6660,7 +6660,7 @@
         <v>2588</v>
       </c>
       <c r="B56">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6669,7 +6669,7 @@
         <v>820</v>
       </c>
       <c r="E56">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -6714,10 +6714,10 @@
         <v>461</v>
       </c>
       <c r="V56">
-        <v>1409</v>
+        <v>1410</v>
       </c>
       <c r="W56">
-        <v>0.01132555343423861</v>
+        <v>0.01127472738832463</v>
       </c>
       <c r="X56" t="s">
         <v>843</v>
@@ -6728,7 +6728,7 @@
         <v>2610</v>
       </c>
       <c r="B57">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C57">
         <v>8</v>
@@ -6737,7 +6737,7 @@
         <v>7258</v>
       </c>
       <c r="E57">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F57">
         <v>10</v>
@@ -6785,10 +6785,10 @@
         <v>1319</v>
       </c>
       <c r="V57">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="W57">
-        <v>0.1445364016167645</v>
+        <v>0.1443653880766825</v>
       </c>
       <c r="X57" t="s">
         <v>844</v>
@@ -6799,7 +6799,7 @@
         <v>2612</v>
       </c>
       <c r="B58">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6808,7 +6808,7 @@
         <v>2310</v>
       </c>
       <c r="E58">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -6853,10 +6853,10 @@
         <v>195</v>
       </c>
       <c r="V58">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="W58">
-        <v>0.001054456302151253</v>
+        <v>0.001047997572194456</v>
       </c>
       <c r="X58" t="s">
         <v>843</v>
@@ -6867,7 +6867,7 @@
         <v>2684</v>
       </c>
       <c r="B59">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="C59">
         <v>5</v>
@@ -6876,7 +6876,7 @@
         <v>984.9</v>
       </c>
       <c r="E59">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -6918,10 +6918,10 @@
         <v>105</v>
       </c>
       <c r="V59">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="W59">
-        <v>7.290517035107801E-05</v>
+        <v>7.224685311865475E-05</v>
       </c>
       <c r="X59" t="s">
         <v>843</v>
@@ -6932,7 +6932,7 @@
         <v>2750</v>
       </c>
       <c r="B60">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6941,7 +6941,7 @@
         <v>3913</v>
       </c>
       <c r="E60">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F60">
         <v>7</v>
@@ -6986,10 +6986,10 @@
         <v>768</v>
       </c>
       <c r="V60">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="W60">
-        <v>0.04340298303885001</v>
+        <v>0.04324891141467076</v>
       </c>
       <c r="X60" t="s">
         <v>843</v>
@@ -7000,7 +7000,7 @@
         <v>2767</v>
       </c>
       <c r="B61">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -7009,7 +7009,7 @@
         <v>1150</v>
       </c>
       <c r="E61">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="F61">
         <v>6</v>
@@ -7054,10 +7054,10 @@
         <v>551</v>
       </c>
       <c r="V61">
-        <v>1381</v>
+        <v>1382</v>
       </c>
       <c r="W61">
-        <v>0.01538582721399409</v>
+        <v>0.01530665127476302</v>
       </c>
       <c r="X61" t="s">
         <v>843</v>
@@ -7068,7 +7068,7 @@
         <v>2797</v>
       </c>
       <c r="B62">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="C62">
         <v>6</v>
@@ -7077,7 +7077,7 @@
         <v>2160</v>
       </c>
       <c r="E62">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -7122,10 +7122,10 @@
         <v>548</v>
       </c>
       <c r="V62">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="W62">
-        <v>0.01061843063629428</v>
+        <v>0.01055126562907678</v>
       </c>
       <c r="X62" t="s">
         <v>843</v>
@@ -7136,7 +7136,7 @@
         <v>2866</v>
       </c>
       <c r="B63">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C63">
         <v>7</v>
@@ -7145,7 +7145,7 @@
         <v>9453</v>
       </c>
       <c r="E63">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -7187,10 +7187,10 @@
         <v>1015</v>
       </c>
       <c r="V63">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="W63">
-        <v>0.01063103333700543</v>
+        <v>0.01057962028117375</v>
       </c>
       <c r="X63" t="s">
         <v>843</v>
@@ -7201,7 +7201,7 @@
         <v>2881</v>
       </c>
       <c r="B64">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -7210,7 +7210,7 @@
         <v>3570</v>
       </c>
       <c r="E64">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -7255,10 +7255,10 @@
         <v>398</v>
       </c>
       <c r="V64">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="W64">
-        <v>0.005113360076289826</v>
+        <v>0.005082076103507974</v>
       </c>
       <c r="X64" t="s">
         <v>843</v>
@@ -7269,7 +7269,7 @@
         <v>2894</v>
       </c>
       <c r="B65">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -7278,7 +7278,7 @@
         <v>1750</v>
       </c>
       <c r="E65">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -7323,10 +7323,10 @@
         <v>935</v>
       </c>
       <c r="V65">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="W65">
-        <v>0.07077842861322531</v>
+        <v>0.07061433672112997</v>
       </c>
       <c r="X65" t="s">
         <v>844</v>
@@ -7337,7 +7337,7 @@
         <v>2908</v>
       </c>
       <c r="B66">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -7346,7 +7346,7 @@
         <v>1388.9</v>
       </c>
       <c r="E66">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F66">
         <v>10</v>
@@ -7391,10 +7391,10 @@
         <v>1274</v>
       </c>
       <c r="V66">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="W66">
-        <v>0.09490397022173611</v>
+        <v>0.09479217924154809</v>
       </c>
       <c r="X66" t="s">
         <v>844</v>
@@ -7405,7 +7405,7 @@
         <v>2913</v>
       </c>
       <c r="B67">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -7414,7 +7414,7 @@
         <v>2125</v>
       </c>
       <c r="E67">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F67">
         <v>8</v>
@@ -7459,10 +7459,10 @@
         <v>1031</v>
       </c>
       <c r="V67">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="W67">
-        <v>0.06591870042241915</v>
+        <v>0.06580782971192978</v>
       </c>
       <c r="X67" t="s">
         <v>844</v>
@@ -7473,7 +7473,7 @@
         <v>2936</v>
       </c>
       <c r="B68">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -7482,7 +7482,7 @@
         <v>3155</v>
       </c>
       <c r="E68">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -7527,10 +7527,10 @@
         <v>1234</v>
       </c>
       <c r="V68">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="W68">
-        <v>0.1892891643493939</v>
+        <v>0.1890374595687082</v>
       </c>
       <c r="X68" t="s">
         <v>844</v>
@@ -7541,7 +7541,7 @@
         <v>2978</v>
       </c>
       <c r="B69">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C69">
         <v>5</v>
@@ -7550,7 +7550,7 @@
         <v>4230</v>
       </c>
       <c r="E69">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -7592,10 +7592,10 @@
         <v>686</v>
       </c>
       <c r="V69">
-        <v>1406</v>
+        <v>1407</v>
       </c>
       <c r="W69">
-        <v>0.02961117885779986</v>
+        <v>0.02948644962583502</v>
       </c>
       <c r="X69" t="s">
         <v>843</v>
@@ -7606,7 +7606,7 @@
         <v>3117</v>
       </c>
       <c r="B70">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -7615,7 +7615,7 @@
         <v>1365</v>
       </c>
       <c r="E70">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F70">
         <v>7</v>
@@ -7660,10 +7660,10 @@
         <v>789</v>
       </c>
       <c r="V70">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="W70">
-        <v>0.05263472226522607</v>
+        <v>0.05250286870114584</v>
       </c>
       <c r="X70" t="s">
         <v>843</v>
@@ -7674,7 +7674,7 @@
         <v>3138</v>
       </c>
       <c r="B71">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -7683,7 +7683,7 @@
         <v>7900</v>
       </c>
       <c r="E71">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F71">
         <v>9</v>
@@ -7725,10 +7725,10 @@
         <v>1024</v>
       </c>
       <c r="V71">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="W71">
-        <v>0.07099243612489599</v>
+        <v>0.07087741484232563</v>
       </c>
       <c r="X71" t="s">
         <v>844</v>
@@ -7739,7 +7739,7 @@
         <v>3151</v>
       </c>
       <c r="B72">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -7748,7 +7748,7 @@
         <v>1580</v>
       </c>
       <c r="E72">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="F72">
         <v>6</v>
@@ -7793,10 +7793,10 @@
         <v>537</v>
       </c>
       <c r="V72">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="W72">
-        <v>0.02014445903674318</v>
+        <v>0.02003942911813185</v>
       </c>
       <c r="X72" t="s">
         <v>843</v>
@@ -7807,7 +7807,7 @@
         <v>3154</v>
       </c>
       <c r="B73">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -7816,7 +7816,7 @@
         <v>2615</v>
       </c>
       <c r="E73">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -7861,10 +7861,10 @@
         <v>1029</v>
       </c>
       <c r="V73">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="W73">
-        <v>0.07154104262490693</v>
+        <v>0.07142633701604442</v>
       </c>
       <c r="X73" t="s">
         <v>844</v>
@@ -7875,7 +7875,7 @@
         <v>3212</v>
       </c>
       <c r="B74">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -7884,7 +7884,7 @@
         <v>4249</v>
       </c>
       <c r="E74">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="F74">
         <v>8</v>
@@ -7929,10 +7929,10 @@
         <v>869</v>
       </c>
       <c r="V74">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="W74">
-        <v>0.06197905402989123</v>
+        <v>0.06184850854034312</v>
       </c>
       <c r="X74" t="s">
         <v>844</v>
@@ -7943,7 +7943,7 @@
         <v>3265</v>
       </c>
       <c r="B75">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -7952,7 +7952,7 @@
         <v>3110</v>
       </c>
       <c r="E75">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="F75">
         <v>5</v>
@@ -7997,10 +7997,10 @@
         <v>311</v>
       </c>
       <c r="V75">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="W75">
-        <v>0.006203437304287312</v>
+        <v>0.006169136117344598</v>
       </c>
       <c r="X75" t="s">
         <v>843</v>
@@ -8011,7 +8011,7 @@
         <v>3320</v>
       </c>
       <c r="B76">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C76">
         <v>5</v>
@@ -8020,7 +8020,7 @@
         <v>1194.9</v>
       </c>
       <c r="E76">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F76">
         <v>8</v>
@@ -8062,10 +8062,10 @@
         <v>850</v>
       </c>
       <c r="V76">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="W76">
-        <v>0.07444787485367893</v>
+        <v>0.07426015477060237</v>
       </c>
       <c r="X76" t="s">
         <v>844</v>
@@ -8076,7 +8076,7 @@
         <v>3342</v>
       </c>
       <c r="B77">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C77">
         <v>4</v>
@@ -8085,7 +8085,7 @@
         <v>1720</v>
       </c>
       <c r="E77">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -8130,10 +8130,10 @@
         <v>35</v>
       </c>
       <c r="V77">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="W77">
-        <v>0.0001286127765635489</v>
+        <v>0.0001273963355055232</v>
       </c>
       <c r="X77" t="s">
         <v>843</v>
@@ -8144,7 +8144,7 @@
         <v>3358</v>
       </c>
       <c r="B78">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C78">
         <v>6</v>
@@ -8153,7 +8153,7 @@
         <v>3649</v>
       </c>
       <c r="E78">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -8198,10 +8198,10 @@
         <v>1233</v>
       </c>
       <c r="V78">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="W78">
-        <v>0.06763546018718204</v>
+        <v>0.06749020058212807</v>
       </c>
       <c r="X78" t="s">
         <v>844</v>
@@ -8212,7 +8212,7 @@
         <v>3361</v>
       </c>
       <c r="B79">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C79">
         <v>9</v>
@@ -8221,7 +8221,7 @@
         <v>6787</v>
       </c>
       <c r="E79">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -8266,10 +8266,10 @@
         <v>1099</v>
       </c>
       <c r="V79">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="W79">
-        <v>0.1782761659794289</v>
+        <v>0.177992201858695</v>
       </c>
       <c r="X79" t="s">
         <v>844</v>
@@ -8280,7 +8280,7 @@
         <v>3367</v>
       </c>
       <c r="B80">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -8289,7 +8289,7 @@
         <v>670</v>
       </c>
       <c r="E80">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F80">
         <v>8</v>
@@ -8331,10 +8331,10 @@
         <v>832</v>
       </c>
       <c r="V80">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="W80">
-        <v>0.06303718035941004</v>
+        <v>0.06289925907035593</v>
       </c>
       <c r="X80" t="s">
         <v>844</v>
@@ -8345,7 +8345,7 @@
         <v>3368</v>
       </c>
       <c r="B81">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -8354,7 +8354,7 @@
         <v>1345</v>
       </c>
       <c r="E81">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="F81">
         <v>10</v>
@@ -8399,10 +8399,10 @@
         <v>1224</v>
       </c>
       <c r="V81">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="W81">
-        <v>0.1053311562185505</v>
+        <v>0.1052109348591656</v>
       </c>
       <c r="X81" t="s">
         <v>844</v>
@@ -8413,7 +8413,7 @@
         <v>3396</v>
       </c>
       <c r="B82">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -8422,7 +8422,7 @@
         <v>1403.9</v>
       </c>
       <c r="E82">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="F82">
         <v>5</v>
@@ -8467,10 +8467,10 @@
         <v>207</v>
       </c>
       <c r="V82">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="W82">
-        <v>0.002437968467895365</v>
+        <v>0.002422326073900087</v>
       </c>
       <c r="X82" t="s">
         <v>843</v>
@@ -8481,7 +8481,7 @@
         <v>3419</v>
       </c>
       <c r="B83">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -8490,7 +8490,7 @@
         <v>1596.5</v>
       </c>
       <c r="E83">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="F83">
         <v>10</v>
@@ -8535,10 +8535,10 @@
         <v>1074</v>
       </c>
       <c r="V83">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="W83">
-        <v>0.1001144989092738</v>
+        <v>0.09997051013413651</v>
       </c>
       <c r="X83" t="s">
         <v>844</v>
@@ -8549,7 +8549,7 @@
         <v>3465</v>
       </c>
       <c r="B84">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -8558,7 +8558,7 @@
         <v>1765</v>
       </c>
       <c r="E84">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="F84">
         <v>9</v>
@@ -8603,10 +8603,10 @@
         <v>978</v>
       </c>
       <c r="V84">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="W84">
-        <v>0.07653376444277361</v>
+        <v>0.07640891183671741</v>
       </c>
       <c r="X84" t="s">
         <v>844</v>
@@ -8617,7 +8617,7 @@
         <v>3544</v>
       </c>
       <c r="B85">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -8626,7 +8626,7 @@
         <v>1904.9</v>
       </c>
       <c r="E85">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -8668,10 +8668,10 @@
         <v>166</v>
       </c>
       <c r="V85">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="W85">
-        <v>0.0006056984443891406</v>
+        <v>0.0006005224873776021</v>
       </c>
       <c r="X85" t="s">
         <v>843</v>
@@ -8682,7 +8682,7 @@
         <v>3547</v>
       </c>
       <c r="B86">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -8733,13 +8733,13 @@
         <v>3</v>
       </c>
       <c r="U86">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="V86">
         <v>1699</v>
       </c>
       <c r="W86">
-        <v>0.05523896530652309</v>
+        <v>0.05518819995795807</v>
       </c>
       <c r="X86" t="s">
         <v>843</v>
@@ -8750,7 +8750,7 @@
         <v>3630</v>
       </c>
       <c r="B87">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="C87">
         <v>5</v>
@@ -8759,7 +8759,7 @@
         <v>1779.9</v>
       </c>
       <c r="E87">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -8804,10 +8804,10 @@
         <v>356</v>
       </c>
       <c r="V87">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="W87">
-        <v>0.008044465105509086</v>
+        <v>0.007990305545513623</v>
       </c>
       <c r="X87" t="s">
         <v>843</v>
@@ -8818,7 +8818,7 @@
         <v>3631</v>
       </c>
       <c r="B88">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -8827,7 +8827,7 @@
         <v>2580</v>
       </c>
       <c r="E88">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -8872,10 +8872,10 @@
         <v>356</v>
       </c>
       <c r="V88">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="W88">
-        <v>0.007971409094660134</v>
+        <v>0.0079177661768334</v>
       </c>
       <c r="X88" t="s">
         <v>843</v>
@@ -8886,7 +8886,7 @@
         <v>3645</v>
       </c>
       <c r="B89">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C89">
         <v>8</v>
@@ -8895,7 +8895,7 @@
         <v>2780</v>
       </c>
       <c r="E89">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="F89">
         <v>10</v>
@@ -8940,10 +8940,10 @@
         <v>999</v>
       </c>
       <c r="V89">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="W89">
-        <v>0.1630228049410965</v>
+        <v>0.1627279472257784</v>
       </c>
       <c r="X89" t="s">
         <v>844</v>
@@ -8954,7 +8954,7 @@
         <v>3649</v>
       </c>
       <c r="B90">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C90">
         <v>4</v>
@@ -8963,7 +8963,7 @@
         <v>1570</v>
       </c>
       <c r="E90">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F90">
         <v>5</v>
@@ -9005,10 +9005,10 @@
         <v>170</v>
       </c>
       <c r="V90">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="W90">
-        <v>0.001981569069003308</v>
+        <v>0.001967776914879446</v>
       </c>
       <c r="X90" t="s">
         <v>843</v>
@@ -9019,7 +9019,7 @@
         <v>3653</v>
       </c>
       <c r="B91">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -9028,7 +9028,7 @@
         <v>2512.01</v>
       </c>
       <c r="E91">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F91">
         <v>7</v>
@@ -9073,10 +9073,10 @@
         <v>527</v>
       </c>
       <c r="V91">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="W91">
-        <v>0.02489683831754296</v>
+        <v>0.02473625859614376</v>
       </c>
       <c r="X91" t="s">
         <v>843</v>
@@ -9087,7 +9087,7 @@
         <v>3672</v>
       </c>
       <c r="B92">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="C92">
         <v>4</v>
@@ -9096,7 +9096,7 @@
         <v>2364.8</v>
       </c>
       <c r="E92">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="F92">
         <v>5</v>
@@ -9141,10 +9141,10 @@
         <v>134</v>
       </c>
       <c r="V92">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="W92">
-        <v>0.001216852179061499</v>
+        <v>0.001207790741293023</v>
       </c>
       <c r="X92" t="s">
         <v>843</v>
@@ -9155,7 +9155,7 @@
         <v>3695</v>
       </c>
       <c r="B93">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -9164,7 +9164,7 @@
         <v>1845</v>
       </c>
       <c r="E93">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="F93">
         <v>10</v>
@@ -9209,10 +9209,10 @@
         <v>1041</v>
       </c>
       <c r="V93">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="W93">
-        <v>0.08570831548150218</v>
+        <v>0.08558712759183389</v>
       </c>
       <c r="X93" t="s">
         <v>844</v>
@@ -9223,7 +9223,7 @@
         <v>3710</v>
       </c>
       <c r="B94">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -9232,7 +9232,7 @@
         <v>2578</v>
       </c>
       <c r="E94">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -9274,10 +9274,10 @@
         <v>1112</v>
       </c>
       <c r="V94">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="W94">
-        <v>0.1569731095136694</v>
+        <v>0.1567848504096259</v>
       </c>
       <c r="X94" t="s">
         <v>844</v>
@@ -9288,7 +9288,7 @@
         <v>3711</v>
       </c>
       <c r="B95">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C95">
         <v>8</v>
@@ -9297,7 +9297,7 @@
         <v>3435.01</v>
       </c>
       <c r="E95">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="F95">
         <v>8</v>
@@ -9342,10 +9342,10 @@
         <v>752</v>
       </c>
       <c r="V95">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="W95">
-        <v>0.08932706791273368</v>
+        <v>0.08886581677976825</v>
       </c>
       <c r="X95" t="s">
         <v>844</v>
@@ -9356,7 +9356,7 @@
         <v>3722</v>
       </c>
       <c r="B96">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="C96">
         <v>4</v>
@@ -9365,7 +9365,7 @@
         <v>2420</v>
       </c>
       <c r="E96">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="F96">
         <v>5</v>
@@ -9407,10 +9407,10 @@
         <v>176</v>
       </c>
       <c r="V96">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="W96">
-        <v>0.002279404410446524</v>
+        <v>0.002263611652787061</v>
       </c>
       <c r="X96" t="s">
         <v>843</v>
@@ -9421,7 +9421,7 @@
         <v>3749</v>
       </c>
       <c r="B97">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -9430,7 +9430,7 @@
         <v>1764.9</v>
       </c>
       <c r="E97">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="F97">
         <v>7</v>
@@ -9475,10 +9475,10 @@
         <v>449</v>
       </c>
       <c r="V97">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="W97">
-        <v>0.02556226314396257</v>
+        <v>0.02544589048914679</v>
       </c>
       <c r="X97" t="s">
         <v>843</v>
@@ -9489,7 +9489,7 @@
         <v>3799</v>
       </c>
       <c r="B98">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -9498,7 +9498,7 @@
         <v>1815</v>
       </c>
       <c r="E98">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -9543,10 +9543,10 @@
         <v>360</v>
       </c>
       <c r="V98">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="W98">
-        <v>0.005945875235247283</v>
+        <v>0.00589746079853979</v>
       </c>
       <c r="X98" t="s">
         <v>843</v>
@@ -9557,7 +9557,7 @@
         <v>3805</v>
       </c>
       <c r="B99">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C99">
         <v>5</v>
@@ -9566,7 +9566,7 @@
         <v>2430</v>
       </c>
       <c r="E99">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -9611,10 +9611,10 @@
         <v>386</v>
       </c>
       <c r="V99">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="W99">
-        <v>0.01305136646717834</v>
+        <v>0.01296628604073862</v>
       </c>
       <c r="X99" t="s">
         <v>843</v>
@@ -9625,7 +9625,7 @@
         <v>3829</v>
       </c>
       <c r="B100">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -9634,7 +9634,7 @@
         <v>2150</v>
       </c>
       <c r="E100">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -9679,10 +9679,10 @@
         <v>357</v>
       </c>
       <c r="V100">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="W100">
-        <v>0.01028506649966152</v>
+        <v>0.01021516697890091</v>
       </c>
       <c r="X100" t="s">
         <v>843</v>
@@ -9693,7 +9693,7 @@
         <v>3926</v>
       </c>
       <c r="B101">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C101">
         <v>6</v>
@@ -9702,7 +9702,7 @@
         <v>2400</v>
       </c>
       <c r="E101">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -9747,10 +9747,10 @@
         <v>938</v>
       </c>
       <c r="V101">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="W101">
-        <v>0.1308541865526764</v>
+        <v>0.1306339227548514</v>
       </c>
       <c r="X101" t="s">
         <v>844</v>
@@ -9761,7 +9761,7 @@
         <v>3963</v>
       </c>
       <c r="B102">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="C102">
         <v>4</v>
@@ -9770,7 +9770,7 @@
         <v>2823.8</v>
       </c>
       <c r="E102">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F102">
         <v>4</v>
@@ -9815,10 +9815,10 @@
         <v>63</v>
       </c>
       <c r="V102">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="W102">
-        <v>0.0003947646432344649</v>
+        <v>0.0003912371807150501</v>
       </c>
       <c r="X102" t="s">
         <v>843</v>
@@ -9829,7 +9829,7 @@
         <v>3964</v>
       </c>
       <c r="B103">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -9838,7 +9838,7 @@
         <v>1208</v>
       </c>
       <c r="E103">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F103">
         <v>9</v>
@@ -9883,10 +9883,10 @@
         <v>854</v>
       </c>
       <c r="V103">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="W103">
-        <v>0.08342109293378161</v>
+        <v>0.08327001481335443</v>
       </c>
       <c r="X103" t="s">
         <v>844</v>
@@ -9897,7 +9897,7 @@
         <v>4016</v>
       </c>
       <c r="B104">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C104">
         <v>5</v>
@@ -9906,7 +9906,7 @@
         <v>1320</v>
       </c>
       <c r="E104">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F104">
         <v>8</v>
@@ -9951,10 +9951,10 @@
         <v>588</v>
       </c>
       <c r="V104">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="W104">
-        <v>0.05734422875259771</v>
+        <v>0.05710429620616954</v>
       </c>
       <c r="X104" t="s">
         <v>844</v>
@@ -9965,7 +9965,7 @@
         <v>4020</v>
       </c>
       <c r="B105">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -9974,7 +9974,7 @@
         <v>1795</v>
       </c>
       <c r="E105">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F105">
         <v>10</v>
@@ -10019,10 +10019,10 @@
         <v>776</v>
       </c>
       <c r="V105">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="W105">
-        <v>0.1499480967854213</v>
+        <v>0.1497085807930507</v>
       </c>
       <c r="X105" t="s">
         <v>844</v>
@@ -10033,7 +10033,7 @@
         <v>4053</v>
       </c>
       <c r="B106">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C106">
         <v>4</v>
@@ -10042,7 +10042,7 @@
         <v>1095</v>
       </c>
       <c r="E106">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -10087,10 +10087,10 @@
         <v>762</v>
       </c>
       <c r="V106">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="W106">
-        <v>0.08262829165424561</v>
+        <v>0.08245667827366807</v>
       </c>
       <c r="X106" t="s">
         <v>844</v>
@@ -10101,7 +10101,7 @@
         <v>4121</v>
       </c>
       <c r="B107">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -10110,7 +10110,7 @@
         <v>5780</v>
       </c>
       <c r="E107">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -10155,10 +10155,10 @@
         <v>981</v>
       </c>
       <c r="V107">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="W107">
-        <v>0.09523145414663446</v>
+        <v>0.09509601186188087</v>
       </c>
       <c r="X107" t="s">
         <v>844</v>
@@ -10169,7 +10169,7 @@
         <v>4123</v>
       </c>
       <c r="B108">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -10178,7 +10178,7 @@
         <v>1383</v>
       </c>
       <c r="E108">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F108">
         <v>9</v>
@@ -10220,10 +10220,10 @@
         <v>869</v>
       </c>
       <c r="V108">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="W108">
-        <v>0.1107742389541029</v>
+        <v>0.1105764953686219</v>
       </c>
       <c r="X108" t="s">
         <v>844</v>
@@ -10234,7 +10234,7 @@
         <v>4165</v>
       </c>
       <c r="B109">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C109">
         <v>19</v>
@@ -10243,7 +10243,7 @@
         <v>2638</v>
       </c>
       <c r="E109">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="F109">
         <v>10</v>
@@ -10288,10 +10288,10 @@
         <v>993</v>
       </c>
       <c r="V109">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="W109">
-        <v>0.470955957200551</v>
+        <v>0.4702862663837473</v>
       </c>
       <c r="X109" t="s">
         <v>844</v>
@@ -10302,7 +10302,7 @@
         <v>4218</v>
       </c>
       <c r="B110">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -10311,7 +10311,7 @@
         <v>1150</v>
       </c>
       <c r="E110">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -10356,10 +10356,10 @@
         <v>914</v>
       </c>
       <c r="V110">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="W110">
-        <v>0.09540744413084966</v>
+        <v>0.09526054568523695</v>
       </c>
       <c r="X110" t="s">
         <v>844</v>
@@ -10370,7 +10370,7 @@
         <v>4240</v>
       </c>
       <c r="B111">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -10379,7 +10379,7 @@
         <v>1520</v>
       </c>
       <c r="E111">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="F111">
         <v>6</v>
@@ -10424,10 +10424,10 @@
         <v>288</v>
       </c>
       <c r="V111">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="W111">
-        <v>0.01347025497790031</v>
+        <v>0.013388774795379</v>
       </c>
       <c r="X111" t="s">
         <v>843</v>
@@ -10438,7 +10438,7 @@
         <v>4264</v>
       </c>
       <c r="B112">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -10447,7 +10447,7 @@
         <v>1065</v>
       </c>
       <c r="E112">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F112">
         <v>10</v>
@@ -10489,10 +10489,10 @@
         <v>988</v>
       </c>
       <c r="V112">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="W112">
-        <v>0.1006049077735714</v>
+        <v>0.100467109092631</v>
       </c>
       <c r="X112" t="s">
         <v>844</v>
@@ -10503,7 +10503,7 @@
         <v>4298</v>
       </c>
       <c r="B113">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C113">
         <v>6</v>
@@ -10512,7 +10512,7 @@
         <v>1618.9</v>
       </c>
       <c r="E113">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="F113">
         <v>5</v>
@@ -10557,10 +10557,10 @@
         <v>392</v>
       </c>
       <c r="V113">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="W113">
-        <v>0.002282006600340158</v>
+        <v>0.002265384162760352</v>
       </c>
       <c r="X113" t="s">
         <v>843</v>
@@ -10571,7 +10571,7 @@
         <v>4524</v>
       </c>
       <c r="B114">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -10580,7 +10580,7 @@
         <v>1880</v>
       </c>
       <c r="E114">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -10625,10 +10625,10 @@
         <v>907</v>
       </c>
       <c r="V114">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="W114">
-        <v>0.1352489006295974</v>
+        <v>0.1350588835189237</v>
       </c>
       <c r="X114" t="s">
         <v>844</v>
@@ -10639,7 +10639,7 @@
         <v>4594</v>
       </c>
       <c r="B115">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C115">
         <v>6</v>
@@ -10648,7 +10648,7 @@
         <v>2710</v>
       </c>
       <c r="E115">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F115">
         <v>8</v>
@@ -10693,10 +10693,10 @@
         <v>573</v>
       </c>
       <c r="V115">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="W115">
-        <v>0.09950313198984465</v>
+        <v>0.09907042214715704</v>
       </c>
       <c r="X115" t="s">
         <v>844</v>
@@ -10707,7 +10707,7 @@
         <v>4623</v>
       </c>
       <c r="B116">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -10716,7 +10716,7 @@
         <v>3355</v>
       </c>
       <c r="E116">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="F116">
         <v>6</v>
@@ -10761,10 +10761,10 @@
         <v>653</v>
       </c>
       <c r="V116">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="W116">
-        <v>0.02980078401488912</v>
+        <v>0.02967035709131849</v>
       </c>
       <c r="X116" t="s">
         <v>843</v>
@@ -10775,7 +10775,7 @@
         <v>4683</v>
       </c>
       <c r="B117">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -10784,7 +10784,7 @@
         <v>1430</v>
       </c>
       <c r="E117">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F117">
         <v>9</v>
@@ -10829,10 +10829,10 @@
         <v>690</v>
       </c>
       <c r="V117">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="W117">
-        <v>0.144896890609717</v>
+        <v>0.144534887113917</v>
       </c>
       <c r="X117" t="s">
         <v>844</v>
@@ -10843,7 +10843,7 @@
         <v>4703</v>
       </c>
       <c r="B118">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -10852,7 +10852,7 @@
         <v>2360</v>
       </c>
       <c r="E118">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="F118">
         <v>8</v>
@@ -10897,10 +10897,10 @@
         <v>466</v>
       </c>
       <c r="V118">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="W118">
-        <v>0.0672486261963219</v>
+        <v>0.06691768405902587</v>
       </c>
       <c r="X118" t="s">
         <v>844</v>
@@ -10911,7 +10911,7 @@
         <v>4755</v>
       </c>
       <c r="B119">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="C119">
         <v>4</v>
@@ -10920,7 +10920,7 @@
         <v>830</v>
       </c>
       <c r="E119">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F119">
         <v>8</v>
@@ -10965,10 +10965,10 @@
         <v>497</v>
       </c>
       <c r="V119">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="W119">
-        <v>0.07293102417335651</v>
+        <v>0.07268002807137701</v>
       </c>
       <c r="X119" t="s">
         <v>844</v>
@@ -10979,7 +10979,7 @@
         <v>4874</v>
       </c>
       <c r="B120">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -10988,7 +10988,7 @@
         <v>2214</v>
       </c>
       <c r="E120">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="F120">
         <v>7</v>
@@ -11033,10 +11033,10 @@
         <v>936</v>
       </c>
       <c r="V120">
-        <v>1593</v>
+        <v>1594</v>
       </c>
       <c r="W120">
-        <v>0.03996628644851741</v>
+        <v>0.03987229818367616</v>
       </c>
       <c r="X120" t="s">
         <v>843</v>
@@ -11047,7 +11047,7 @@
         <v>4943</v>
       </c>
       <c r="B121">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -11056,7 +11056,7 @@
         <v>830</v>
       </c>
       <c r="E121">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F121">
         <v>9</v>
@@ -11101,10 +11101,10 @@
         <v>563</v>
       </c>
       <c r="V121">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="W121">
-        <v>0.0944442380406085</v>
+        <v>0.09419010631665986</v>
       </c>
       <c r="X121" t="s">
         <v>844</v>
@@ -11115,7 +11115,7 @@
         <v>4956</v>
       </c>
       <c r="B122">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -11124,7 +11124,7 @@
         <v>1485</v>
       </c>
       <c r="E122">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -11169,10 +11169,10 @@
         <v>505</v>
       </c>
       <c r="V122">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="W122">
-        <v>0.04511325023799801</v>
+        <v>0.04493754602628208</v>
       </c>
       <c r="X122" t="s">
         <v>843</v>
@@ -11183,7 +11183,7 @@
         <v>4957</v>
       </c>
       <c r="B123">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -11192,7 +11192,7 @@
         <v>1740.03</v>
       </c>
       <c r="E123">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="F123">
         <v>10</v>
@@ -11237,10 +11237,10 @@
         <v>774</v>
       </c>
       <c r="V123">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="W123">
-        <v>0.1196416600073893</v>
+        <v>0.1194465744949019</v>
       </c>
       <c r="X123" t="s">
         <v>844</v>
@@ -11251,7 +11251,7 @@
         <v>5056</v>
       </c>
       <c r="B124">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -11260,7 +11260,7 @@
         <v>1276.9</v>
       </c>
       <c r="E124">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -11305,10 +11305,10 @@
         <v>651</v>
       </c>
       <c r="V124">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="W124">
-        <v>0.1153391625005148</v>
+        <v>0.1151054209500339</v>
       </c>
       <c r="X124" t="s">
         <v>844</v>
@@ -11319,7 +11319,7 @@
         <v>5133</v>
       </c>
       <c r="B125">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C125">
         <v>7</v>
@@ -11328,7 +11328,7 @@
         <v>3460</v>
       </c>
       <c r="E125">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="F125">
         <v>9</v>
@@ -11370,10 +11370,10 @@
         <v>574</v>
       </c>
       <c r="V125">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="W125">
-        <v>0.1834947243499573</v>
+        <v>0.1828768425157622</v>
       </c>
       <c r="X125" t="s">
         <v>844</v>
@@ -11384,7 +11384,7 @@
         <v>5151</v>
       </c>
       <c r="B126">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -11393,7 +11393,7 @@
         <v>1359</v>
       </c>
       <c r="E126">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -11435,10 +11435,10 @@
         <v>609</v>
       </c>
       <c r="V126">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="W126">
-        <v>0.1175534495498584</v>
+        <v>0.1172993317015061</v>
       </c>
       <c r="X126" t="s">
         <v>844</v>
@@ -11449,7 +11449,7 @@
         <v>5195</v>
       </c>
       <c r="B127">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C127">
         <v>6</v>
@@ -11458,7 +11458,7 @@
         <v>2795.01</v>
       </c>
       <c r="E127">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F127">
         <v>6</v>
@@ -11500,10 +11500,10 @@
         <v>457</v>
       </c>
       <c r="V127">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="W127">
-        <v>0.01179290776032034</v>
+        <v>0.0117083408747232</v>
       </c>
       <c r="X127" t="s">
         <v>843</v>
@@ -11514,7 +11514,7 @@
         <v>5219</v>
       </c>
       <c r="B128">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C128">
         <v>5</v>
@@ -11523,7 +11523,7 @@
         <v>1828</v>
       </c>
       <c r="E128">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="F128">
         <v>7</v>
@@ -11565,10 +11565,10 @@
         <v>916</v>
       </c>
       <c r="V128">
-        <v>1565</v>
+        <v>1566</v>
       </c>
       <c r="W128">
-        <v>0.04357078802417842</v>
+        <v>0.04343992308424181</v>
       </c>
       <c r="X128" t="s">
         <v>843</v>
@@ -11579,7 +11579,7 @@
         <v>5260</v>
       </c>
       <c r="B129">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C129">
         <v>5</v>
@@ -11588,7 +11588,7 @@
         <v>2750</v>
       </c>
       <c r="E129">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -11630,10 +11630,10 @@
         <v>973</v>
       </c>
       <c r="V129">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="W129">
-        <v>0.03863566915883844</v>
+        <v>0.03852178633045037</v>
       </c>
       <c r="X129" t="s">
         <v>843</v>
@@ -11644,7 +11644,7 @@
         <v>5262</v>
       </c>
       <c r="B130">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C130">
         <v>7</v>
@@ -11653,7 +11653,7 @@
         <v>3974</v>
       </c>
       <c r="E130">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="F130">
         <v>8</v>
@@ -11698,10 +11698,10 @@
         <v>286</v>
       </c>
       <c r="V130">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="W130">
-        <v>0.02231225077151975</v>
+        <v>0.02205185523812329</v>
       </c>
       <c r="X130" t="s">
         <v>843</v>
@@ -11712,7 +11712,7 @@
         <v>5340</v>
       </c>
       <c r="B131">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -11721,7 +11721,7 @@
         <v>858</v>
       </c>
       <c r="E131">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="F131">
         <v>7</v>
@@ -11766,10 +11766,10 @@
         <v>336</v>
       </c>
       <c r="V131">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="W131">
-        <v>0.01392983789947182</v>
+        <v>0.013830537296979</v>
       </c>
       <c r="X131" t="s">
         <v>843</v>
@@ -11780,7 +11780,7 @@
         <v>5464</v>
       </c>
       <c r="B132">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C132">
         <v>6</v>
@@ -11789,7 +11789,7 @@
         <v>4298.9</v>
       </c>
       <c r="E132">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="F132">
         <v>10</v>
@@ -11831,10 +11831,10 @@
         <v>479</v>
       </c>
       <c r="V132">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="W132">
-        <v>0.1841767226468502</v>
+        <v>0.1835541754009629</v>
       </c>
       <c r="X132" t="s">
         <v>844</v>
@@ -11845,7 +11845,7 @@
         <v>5475</v>
       </c>
       <c r="B133">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C133">
         <v>4</v>
@@ -11854,7 +11854,7 @@
         <v>1750</v>
       </c>
       <c r="E133">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F133">
         <v>9</v>
@@ -11896,10 +11896,10 @@
         <v>577</v>
       </c>
       <c r="V133">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="W133">
-        <v>0.1073467736625515</v>
+        <v>0.1070857739947724</v>
       </c>
       <c r="X133" t="s">
         <v>844</v>
@@ -11910,7 +11910,7 @@
         <v>5476</v>
       </c>
       <c r="B134">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C134">
         <v>7</v>
@@ -11919,7 +11919,7 @@
         <v>1950</v>
       </c>
       <c r="E134">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="F134">
         <v>9</v>
@@ -11964,10 +11964,10 @@
         <v>453</v>
       </c>
       <c r="V134">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="W134">
-        <v>0.1945161668940053</v>
+        <v>0.1936335740787343</v>
       </c>
       <c r="X134" t="s">
         <v>844</v>
@@ -11978,7 +11978,7 @@
         <v>5558</v>
       </c>
       <c r="B135">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -11987,7 +11987,7 @@
         <v>880</v>
       </c>
       <c r="E135">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="F135">
         <v>9</v>
@@ -12029,10 +12029,10 @@
         <v>385</v>
       </c>
       <c r="V135">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="W135">
-        <v>0.1157914215321581</v>
+        <v>0.1153771315777196</v>
       </c>
       <c r="X135" t="s">
         <v>844</v>
@@ -12043,7 +12043,7 @@
         <v>5582</v>
       </c>
       <c r="B136">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C136">
         <v>4</v>
@@ -12052,7 +12052,7 @@
         <v>860</v>
       </c>
       <c r="E136">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="F136">
         <v>8</v>
@@ -12097,10 +12097,10 @@
         <v>261</v>
       </c>
       <c r="V136">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="W136">
-        <v>0.07092357444443514</v>
+        <v>0.07050658195957808</v>
       </c>
       <c r="X136" t="s">
         <v>844</v>
@@ -12111,7 +12111,7 @@
         <v>5603</v>
       </c>
       <c r="B137">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -12120,7 +12120,7 @@
         <v>2045</v>
       </c>
       <c r="E137">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="F137">
         <v>10</v>
@@ -12165,10 +12165,10 @@
         <v>523</v>
       </c>
       <c r="V137">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="W137">
-        <v>0.1500272190830903</v>
+        <v>0.1496958972419862</v>
       </c>
       <c r="X137" t="s">
         <v>844</v>
@@ -12179,7 +12179,7 @@
         <v>5611</v>
       </c>
       <c r="B138">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="C138">
         <v>6</v>
@@ -12188,7 +12188,7 @@
         <v>517</v>
       </c>
       <c r="E138">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F138">
         <v>9</v>
@@ -12236,10 +12236,10 @@
         <v>167</v>
       </c>
       <c r="V138">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="W138">
-        <v>0.07992656178500961</v>
+        <v>0.07892099771599158</v>
       </c>
       <c r="X138" t="s">
         <v>844</v>
@@ -12250,7 +12250,7 @@
         <v>5625</v>
       </c>
       <c r="B139">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -12259,7 +12259,7 @@
         <v>2150</v>
       </c>
       <c r="E139">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F139">
         <v>6</v>
@@ -12304,10 +12304,10 @@
         <v>938</v>
       </c>
       <c r="V139">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="W139">
-        <v>0.03282972880818773</v>
+        <v>0.03274814313408166</v>
       </c>
       <c r="X139" t="s">
         <v>843</v>
@@ -12318,7 +12318,7 @@
         <v>5744</v>
       </c>
       <c r="B140">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C140">
         <v>10</v>
@@ -12327,7 +12327,7 @@
         <v>7860</v>
       </c>
       <c r="E140">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F140">
         <v>10</v>
@@ -12369,10 +12369,10 @@
         <v>393</v>
       </c>
       <c r="V140">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="W140">
-        <v>0.3098949678838541</v>
+        <v>0.3077781674162687</v>
       </c>
       <c r="X140" t="s">
         <v>844</v>
@@ -12383,7 +12383,7 @@
         <v>5754</v>
       </c>
       <c r="B141">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C141">
         <v>9</v>
@@ -12392,7 +12392,7 @@
         <v>2465</v>
       </c>
       <c r="E141">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F141">
         <v>10</v>
@@ -12437,10 +12437,10 @@
         <v>511</v>
       </c>
       <c r="V141">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="W141">
-        <v>0.3895176676139608</v>
+        <v>0.3887166421494923</v>
       </c>
       <c r="X141" t="s">
         <v>844</v>
@@ -12451,7 +12451,7 @@
         <v>5899</v>
       </c>
       <c r="B142">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142">
         <v>4</v>
@@ -12460,7 +12460,7 @@
         <v>3429</v>
       </c>
       <c r="E142">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -12505,10 +12505,10 @@
         <v>447</v>
       </c>
       <c r="V142">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="W142">
-        <v>0.1832327695383311</v>
+        <v>0.1828056444583938</v>
       </c>
       <c r="X142" t="s">
         <v>844</v>
@@ -12519,7 +12519,7 @@
         <v>5945</v>
       </c>
       <c r="B143">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C143">
         <v>4</v>
@@ -12528,7 +12528,7 @@
         <v>1310</v>
       </c>
       <c r="E143">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F143">
         <v>9</v>
@@ -12570,10 +12570,10 @@
         <v>268</v>
       </c>
       <c r="V143">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="W143">
-        <v>0.1395445241326429</v>
+        <v>0.1389054205647955</v>
       </c>
       <c r="X143" t="s">
         <v>844</v>
@@ -12584,7 +12584,7 @@
         <v>5986</v>
       </c>
       <c r="B144">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C144">
         <v>25</v>
@@ -12593,7 +12593,7 @@
         <v>6694.1</v>
       </c>
       <c r="E144">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -12641,10 +12641,10 @@
         <v>1321</v>
       </c>
       <c r="V144">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="W144">
-        <v>0.5035807233826232</v>
+        <v>0.5031264464236261</v>
       </c>
       <c r="X144" t="s">
         <v>844</v>
@@ -12655,7 +12655,7 @@
         <v>5988</v>
       </c>
       <c r="B145">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C145">
         <v>27</v>
@@ -12664,7 +12664,7 @@
         <v>6850.9</v>
       </c>
       <c r="E145">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -12706,10 +12706,10 @@
         <v>361</v>
       </c>
       <c r="V145">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W145">
-        <v>0.8900989212260201</v>
+        <v>0.8720710070917936</v>
       </c>
       <c r="X145" t="s">
         <v>844</v>
@@ -12720,7 +12720,7 @@
         <v>5993</v>
       </c>
       <c r="B146">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C146">
         <v>4</v>
@@ -12729,7 +12729,7 @@
         <v>1505</v>
       </c>
       <c r="E146">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="F146">
         <v>9</v>
@@ -12774,10 +12774,10 @@
         <v>417</v>
       </c>
       <c r="V146">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="W146">
-        <v>0.09219458623204474</v>
+        <v>0.091854358712516</v>
       </c>
       <c r="X146" t="s">
         <v>844</v>
@@ -12788,7 +12788,7 @@
         <v>6006</v>
       </c>
       <c r="B147">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -12797,7 +12797,7 @@
         <v>10580</v>
       </c>
       <c r="E147">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="F147">
         <v>9</v>
@@ -12842,10 +12842,10 @@
         <v>1432</v>
       </c>
       <c r="V147">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="W147">
-        <v>0.05539705003152731</v>
+        <v>0.05532607956668247</v>
       </c>
       <c r="X147" t="s">
         <v>843</v>
@@ -12856,7 +12856,7 @@
         <v>6010</v>
       </c>
       <c r="B148">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -12865,7 +12865,7 @@
         <v>1265</v>
       </c>
       <c r="E148">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F148">
         <v>9</v>
@@ -12910,10 +12910,10 @@
         <v>126</v>
       </c>
       <c r="V148">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="W148">
-        <v>0.06863987180433166</v>
+        <v>0.0680149658227157</v>
       </c>
       <c r="X148" t="s">
         <v>844</v>
@@ -12924,7 +12924,7 @@
         <v>6047</v>
       </c>
       <c r="B149">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -12933,7 +12933,7 @@
         <v>1130</v>
       </c>
       <c r="E149">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F149">
         <v>10</v>
@@ -12978,10 +12978,10 @@
         <v>528</v>
       </c>
       <c r="V149">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="W149">
-        <v>0.1698243912762526</v>
+        <v>0.1694774687638466</v>
       </c>
       <c r="X149" t="s">
         <v>844</v>
@@ -12992,7 +12992,7 @@
         <v>6115</v>
       </c>
       <c r="B150">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -13001,7 +13001,7 @@
         <v>1265</v>
       </c>
       <c r="E150">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F150">
         <v>10</v>
@@ -13049,10 +13049,10 @@
         <v>250</v>
       </c>
       <c r="V150">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="W150">
-        <v>0.1722591390850599</v>
+        <v>0.1715080286916398</v>
       </c>
       <c r="X150" t="s">
         <v>844</v>
@@ -13063,7 +13063,7 @@
         <v>6132</v>
       </c>
       <c r="B151">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -13072,7 +13072,7 @@
         <v>4630</v>
       </c>
       <c r="E151">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F151">
         <v>8</v>
@@ -13117,10 +13117,10 @@
         <v>55</v>
       </c>
       <c r="V151">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W151">
-        <v>0.03107174308715734</v>
+        <v>0.03068056522168571</v>
       </c>
       <c r="X151" t="s">
         <v>843</v>
@@ -13131,7 +13131,7 @@
         <v>6136</v>
       </c>
       <c r="B152">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C152">
         <v>10</v>
@@ -13140,7 +13140,7 @@
         <v>1538</v>
       </c>
       <c r="E152">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F152">
         <v>10</v>
@@ -13188,10 +13188,10 @@
         <v>276</v>
       </c>
       <c r="V152">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="W152">
-        <v>0.4163839114259209</v>
+        <v>0.4130274320024631</v>
       </c>
       <c r="X152" t="s">
         <v>844</v>
@@ -13202,7 +13202,7 @@
         <v>6219</v>
       </c>
       <c r="B153">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -13211,7 +13211,7 @@
         <v>5430</v>
       </c>
       <c r="E153">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F153">
         <v>9</v>
@@ -13253,10 +13253,10 @@
         <v>167</v>
       </c>
       <c r="V153">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="W153">
-        <v>0.1296712466543689</v>
+        <v>0.1287883140558859</v>
       </c>
       <c r="X153" t="s">
         <v>844</v>
@@ -13267,7 +13267,7 @@
         <v>6293</v>
       </c>
       <c r="B154">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C154">
         <v>7</v>
@@ -13276,7 +13276,7 @@
         <v>4940</v>
       </c>
       <c r="E154">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="F154">
         <v>8</v>
@@ -13318,10 +13318,10 @@
         <v>1012</v>
       </c>
       <c r="V154">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="W154">
-        <v>0.1086101762346132</v>
+        <v>0.1083506778264479</v>
       </c>
       <c r="X154" t="s">
         <v>844</v>
@@ -13332,7 +13332,7 @@
         <v>6352</v>
       </c>
       <c r="B155">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C155">
         <v>5</v>
@@ -13341,7 +13341,7 @@
         <v>1650</v>
       </c>
       <c r="E155">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="F155">
         <v>10</v>
@@ -13386,10 +13386,10 @@
         <v>996</v>
       </c>
       <c r="V155">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="W155">
-        <v>0.1104421138291869</v>
+        <v>0.1102800768802204</v>
       </c>
       <c r="X155" t="s">
         <v>844</v>
@@ -13400,7 +13400,7 @@
         <v>6390</v>
       </c>
       <c r="B156">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C156">
         <v>4</v>
@@ -13409,7 +13409,7 @@
         <v>1000</v>
       </c>
       <c r="E156">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F156">
         <v>9</v>
@@ -13451,10 +13451,10 @@
         <v>158</v>
       </c>
       <c r="V156">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="W156">
-        <v>0.08468678975320953</v>
+        <v>0.08402260270437538</v>
       </c>
       <c r="X156" t="s">
         <v>844</v>
@@ -13465,7 +13465,7 @@
         <v>6460</v>
       </c>
       <c r="B157">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C157">
         <v>7</v>
@@ -13474,7 +13474,7 @@
         <v>656</v>
       </c>
       <c r="E157">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F157">
         <v>10</v>
@@ -13516,10 +13516,10 @@
         <v>355</v>
       </c>
       <c r="V157">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="W157">
-        <v>0.3425809506569327</v>
+        <v>0.3414705227366924</v>
       </c>
       <c r="X157" t="s">
         <v>844</v>
@@ -13530,16 +13530,16 @@
         <v>6486</v>
       </c>
       <c r="B158">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="C158">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D158">
-        <v>1260</v>
+        <v>1510</v>
       </c>
       <c r="E158">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F158">
         <v>10</v>
@@ -13548,7 +13548,7 @@
         <v>2</v>
       </c>
       <c r="H158">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I158">
         <v>2</v>
@@ -13560,13 +13560,13 @@
         <v>34</v>
       </c>
       <c r="L158" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="M158" t="s">
         <v>48</v>
       </c>
       <c r="N158" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="O158" t="s">
         <v>212</v>
@@ -13581,16 +13581,16 @@
         <v>767</v>
       </c>
       <c r="T158">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="U158">
-        <v>204</v>
+        <v>223</v>
       </c>
       <c r="V158">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="W158">
-        <v>0.3046457344254035</v>
+        <v>0.3911070853679949</v>
       </c>
       <c r="X158" t="s">
         <v>844</v>
@@ -13601,7 +13601,7 @@
         <v>6539</v>
       </c>
       <c r="B159">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C159">
         <v>6</v>
@@ -13610,7 +13610,7 @@
         <v>590</v>
       </c>
       <c r="E159">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="F159">
         <v>10</v>
@@ -13652,10 +13652,10 @@
         <v>177</v>
       </c>
       <c r="V159">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="W159">
-        <v>0.4810228010417106</v>
+        <v>0.4789513706239284</v>
       </c>
       <c r="X159" t="s">
         <v>844</v>
@@ -13666,7 +13666,7 @@
         <v>6544</v>
       </c>
       <c r="B160">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -13675,7 +13675,7 @@
         <v>3917.5</v>
       </c>
       <c r="E160">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -13717,10 +13717,10 @@
         <v>70</v>
       </c>
       <c r="V160">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W160">
-        <v>0.3031875165113</v>
+        <v>0.3000089024526599</v>
       </c>
       <c r="X160" t="s">
         <v>844</v>
@@ -13731,7 +13731,7 @@
         <v>6634</v>
       </c>
       <c r="B161">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C161">
         <v>4</v>
@@ -13740,7 +13740,7 @@
         <v>1456</v>
       </c>
       <c r="E161">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="F161">
         <v>9</v>
@@ -13782,10 +13782,10 @@
         <v>899</v>
       </c>
       <c r="V161">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="W161">
-        <v>0.08761046448136675</v>
+        <v>0.08746554017395425</v>
       </c>
       <c r="X161" t="s">
         <v>844</v>
@@ -13796,7 +13796,7 @@
         <v>6929</v>
       </c>
       <c r="B162">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C162">
         <v>5</v>
@@ -13805,7 +13805,7 @@
         <v>1580</v>
       </c>
       <c r="E162">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F162">
         <v>10</v>
@@ -13850,10 +13850,10 @@
         <v>1060</v>
       </c>
       <c r="V162">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="W162">
-        <v>0.112958518710807</v>
+        <v>0.1128099871117081</v>
       </c>
       <c r="X162" t="s">
         <v>844</v>
@@ -13864,7 +13864,7 @@
         <v>7244</v>
       </c>
       <c r="B163">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -13873,7 +13873,7 @@
         <v>609</v>
       </c>
       <c r="E163">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="F163">
         <v>7</v>
@@ -13918,10 +13918,10 @@
         <v>1396</v>
       </c>
       <c r="V163">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="W163">
-        <v>0.03900998167518178</v>
+        <v>0.03894731392852283</v>
       </c>
       <c r="X163" t="s">
         <v>843</v>
@@ -13932,7 +13932,7 @@
         <v>7465</v>
       </c>
       <c r="B164">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C164">
         <v>4</v>
@@ -13941,7 +13941,7 @@
         <v>1325</v>
       </c>
       <c r="E164">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="F164">
         <v>6</v>
@@ -13983,10 +13983,10 @@
         <v>1154</v>
       </c>
       <c r="V164">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="W164">
-        <v>0.03092387575451467</v>
+        <v>0.03085874703292311</v>
       </c>
       <c r="X164" t="s">
         <v>843</v>
@@ -13997,7 +13997,7 @@
         <v>7517</v>
       </c>
       <c r="B165">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -14006,7 +14006,7 @@
         <v>809</v>
       </c>
       <c r="E165">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="F165">
         <v>10</v>
@@ -14051,10 +14051,10 @@
         <v>1973</v>
       </c>
       <c r="V165">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="W165">
-        <v>0.05414999311893401</v>
+        <v>0.05410096433115042</v>
       </c>
       <c r="X165" t="s">
         <v>843</v>
@@ -14065,7 +14065,7 @@
         <v>7891</v>
       </c>
       <c r="B166">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="C166">
         <v>5</v>
@@ -14074,7 +14074,7 @@
         <v>1480</v>
       </c>
       <c r="E166">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="F166">
         <v>6</v>
@@ -14119,10 +14119,10 @@
         <v>966</v>
       </c>
       <c r="V166">
-        <v>1732</v>
+        <v>1733</v>
       </c>
       <c r="W166">
-        <v>0.03453943048308115</v>
+        <v>0.03443364158022606</v>
       </c>
       <c r="X166" t="s">
         <v>843</v>
@@ -14133,7 +14133,7 @@
         <v>7962</v>
       </c>
       <c r="B167">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C167">
         <v>6</v>
@@ -14142,7 +14142,7 @@
         <v>4000</v>
       </c>
       <c r="E167">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F167">
         <v>6</v>
@@ -14184,10 +14184,10 @@
         <v>551</v>
       </c>
       <c r="V167">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="W167">
-        <v>0.01283817552781288</v>
+        <v>0.01275702650452475</v>
       </c>
       <c r="X167" t="s">
         <v>843</v>
@@ -14198,7 +14198,7 @@
         <v>8054</v>
       </c>
       <c r="B168">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -14207,7 +14207,7 @@
         <v>1055</v>
       </c>
       <c r="E168">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="F168">
         <v>6</v>
@@ -14252,10 +14252,10 @@
         <v>832</v>
       </c>
       <c r="V168">
-        <v>1651</v>
+        <v>1652</v>
       </c>
       <c r="W168">
-        <v>0.02852920556441797</v>
+        <v>0.02844847581596025</v>
       </c>
       <c r="X168" t="s">
         <v>843</v>
@@ -14266,7 +14266,7 @@
         <v>8514</v>
       </c>
       <c r="B169">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C169">
         <v>4</v>
@@ -14275,7 +14275,7 @@
         <v>1315</v>
       </c>
       <c r="E169">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F169">
         <v>6</v>
@@ -14320,10 +14320,10 @@
         <v>543</v>
       </c>
       <c r="V169">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="W169">
-        <v>0.02583038270447497</v>
+        <v>0.025727754114815</v>
       </c>
       <c r="X169" t="s">
         <v>843</v>
@@ -14334,7 +14334,7 @@
         <v>8658</v>
       </c>
       <c r="B170">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="C170">
         <v>4</v>
@@ -14343,7 +14343,7 @@
         <v>1229.8</v>
       </c>
       <c r="E170">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F170">
         <v>4</v>
@@ -14385,10 +14385,10 @@
         <v>182</v>
       </c>
       <c r="V170">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="W170">
-        <v>0.001412656495618709</v>
+        <v>0.00140344080485388</v>
       </c>
       <c r="X170" t="s">
         <v>843</v>
@@ -14399,7 +14399,7 @@
         <v>8704</v>
       </c>
       <c r="B171">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -14408,7 +14408,7 @@
         <v>2145</v>
       </c>
       <c r="E171">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="F171">
         <v>5</v>
@@ -14450,10 +14450,10 @@
         <v>749</v>
       </c>
       <c r="V171">
-        <v>1676</v>
+        <v>1677</v>
       </c>
       <c r="W171">
-        <v>0.0211238502415225</v>
+        <v>0.02105654370804157</v>
       </c>
       <c r="X171" t="s">
         <v>843</v>
@@ -14464,7 +14464,7 @@
         <v>9084</v>
       </c>
       <c r="B172">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C172">
         <v>5</v>
@@ -14473,7 +14473,7 @@
         <v>2164</v>
       </c>
       <c r="E172">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F172">
         <v>8</v>
@@ -14515,10 +14515,10 @@
         <v>464</v>
       </c>
       <c r="V172">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="W172">
-        <v>0.06147075158692784</v>
+        <v>0.06115937754115817</v>
       </c>
       <c r="X172" t="s">
         <v>844</v>
@@ -14529,7 +14529,7 @@
         <v>9094</v>
       </c>
       <c r="B173">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C173">
         <v>5</v>
@@ -14538,7 +14538,7 @@
         <v>2057.91</v>
       </c>
       <c r="E173">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F173">
         <v>6</v>
@@ -14583,10 +14583,10 @@
         <v>172</v>
       </c>
       <c r="V173">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="W173">
-        <v>0.00327482293937459</v>
+        <v>0.003243624998869344</v>
       </c>
       <c r="X173" t="s">
         <v>843</v>
@@ -14597,7 +14597,7 @@
         <v>9230</v>
       </c>
       <c r="B174">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -14606,7 +14606,7 @@
         <v>1350</v>
       </c>
       <c r="E174">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F174">
         <v>6</v>
@@ -14651,10 +14651,10 @@
         <v>183</v>
       </c>
       <c r="V174">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="W174">
-        <v>0.006007366153332938</v>
+        <v>0.005963114189137112</v>
       </c>
       <c r="X174" t="s">
         <v>843</v>
@@ -14665,7 +14665,7 @@
         <v>9247</v>
       </c>
       <c r="B175">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C175">
         <v>28</v>
@@ -14674,7 +14674,7 @@
         <v>3856</v>
       </c>
       <c r="E175">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="F175">
         <v>10</v>
@@ -14719,10 +14719,10 @@
         <v>690</v>
       </c>
       <c r="V175">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="W175">
-        <v>0.8979277857840076</v>
+        <v>0.895114357465746</v>
       </c>
       <c r="X175" t="s">
         <v>844</v>
@@ -14733,7 +14733,7 @@
         <v>9621</v>
       </c>
       <c r="B176">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C176">
         <v>9</v>
@@ -14742,7 +14742,7 @@
         <v>1184</v>
       </c>
       <c r="E176">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F176">
         <v>8</v>
@@ -14784,10 +14784,10 @@
         <v>134</v>
       </c>
       <c r="V176">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="W176">
-        <v>0.006026462701757074</v>
+        <v>0.005891731140759415</v>
       </c>
       <c r="X176" t="s">
         <v>843</v>
@@ -14798,7 +14798,7 @@
         <v>9658</v>
       </c>
       <c r="B177">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C177">
         <v>8</v>
@@ -14807,7 +14807,7 @@
         <v>628</v>
       </c>
       <c r="E177">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F177">
         <v>9</v>
@@ -14849,10 +14849,10 @@
         <v>132</v>
       </c>
       <c r="V177">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="W177">
-        <v>0.01785020362590623</v>
+        <v>0.01748515028595971</v>
       </c>
       <c r="X177" t="s">
         <v>843</v>
@@ -14863,7 +14863,7 @@
         <v>9764</v>
       </c>
       <c r="B178">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C178">
         <v>4</v>
@@ -14872,7 +14872,7 @@
         <v>825</v>
       </c>
       <c r="E178">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F178">
         <v>9</v>
@@ -14914,10 +14914,10 @@
         <v>144</v>
       </c>
       <c r="V178">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="W178">
-        <v>0.1374382327503288</v>
+        <v>0.1364283255217663</v>
       </c>
       <c r="X178" t="s">
         <v>844</v>
@@ -14928,7 +14928,7 @@
         <v>9781</v>
       </c>
       <c r="B179">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C179">
         <v>4</v>
@@ -14937,7 +14937,7 @@
         <v>1275</v>
       </c>
       <c r="E179">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F179">
         <v>10</v>
@@ -14982,10 +14982,10 @@
         <v>187</v>
       </c>
       <c r="V179">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="W179">
-        <v>0.1900810907555684</v>
+        <v>0.1890725923084058</v>
       </c>
       <c r="X179" t="s">
         <v>844</v>
@@ -14996,7 +14996,7 @@
         <v>9807</v>
       </c>
       <c r="B180">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C180">
         <v>11</v>
@@ -15005,7 +15005,7 @@
         <v>614</v>
       </c>
       <c r="E180">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F180">
         <v>10</v>
@@ -15047,10 +15047,10 @@
         <v>202</v>
       </c>
       <c r="V180">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="W180">
-        <v>0.7639709734550066</v>
+        <v>0.7595389035436796</v>
       </c>
       <c r="X180" t="s">
         <v>844</v>
@@ -15061,7 +15061,7 @@
         <v>9890</v>
       </c>
       <c r="B181">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C181">
         <v>11</v>
@@ -15070,7 +15070,7 @@
         <v>2521</v>
       </c>
       <c r="E181">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F181">
         <v>10</v>
@@ -15112,10 +15112,10 @@
         <v>179</v>
       </c>
       <c r="V181">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="W181">
-        <v>0.7759708024353462</v>
+        <v>0.7705164104984811</v>
       </c>
       <c r="X181" t="s">
         <v>844</v>
@@ -15126,7 +15126,7 @@
         <v>10087</v>
       </c>
       <c r="B182">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C182">
         <v>5</v>
@@ -15135,7 +15135,7 @@
         <v>3687.9</v>
       </c>
       <c r="E182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F182">
         <v>10</v>
@@ -15180,10 +15180,10 @@
         <v>175</v>
       </c>
       <c r="V182">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="W182">
-        <v>0.4369586477500013</v>
+        <v>0.4352466175083975</v>
       </c>
       <c r="X182" t="s">
         <v>844</v>
@@ -15194,7 +15194,7 @@
         <v>19765</v>
       </c>
       <c r="B183">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C183">
         <v>8</v>
@@ -15203,7 +15203,7 @@
         <v>664</v>
       </c>
       <c r="E183">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F183">
         <v>10</v>
@@ -15245,10 +15245,10 @@
         <v>1606</v>
       </c>
       <c r="V183">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="W183">
-        <v>0.1320520796622314</v>
+        <v>0.1319356264318739</v>
       </c>
       <c r="X183" t="s">
         <v>844</v>
@@ -15259,7 +15259,7 @@
         <v>20544</v>
       </c>
       <c r="B184">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="C184">
         <v>4</v>
@@ -15268,7 +15268,7 @@
         <v>1005</v>
       </c>
       <c r="E184">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="F184">
         <v>6</v>
@@ -15313,10 +15313,10 @@
         <v>201</v>
       </c>
       <c r="V184">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="W184">
-        <v>0.005840757518189526</v>
+        <v>0.005799813461026147</v>
       </c>
       <c r="X184" t="s">
         <v>843</v>
@@ -15327,7 +15327,7 @@
         <v>20552</v>
       </c>
       <c r="B185">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -15336,7 +15336,7 @@
         <v>1104</v>
       </c>
       <c r="E185">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="F185">
         <v>9</v>
@@ -15381,10 +15381,10 @@
         <v>736</v>
       </c>
       <c r="V185">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="W185">
-        <v>0.08513664392886204</v>
+        <v>0.08495594615486696</v>
       </c>
       <c r="X185" t="s">
         <v>844</v>
@@ -15395,7 +15395,7 @@
         <v>20569</v>
       </c>
       <c r="B186">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -15404,7 +15404,7 @@
         <v>1200</v>
       </c>
       <c r="E186">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F186">
         <v>7</v>
@@ -15452,10 +15452,10 @@
         <v>460</v>
       </c>
       <c r="V186">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="W186">
-        <v>0.04392066151890216</v>
+        <v>0.04373552465595359</v>
       </c>
       <c r="X186" t="s">
         <v>843</v>
@@ -15466,7 +15466,7 @@
         <v>20724</v>
       </c>
       <c r="B187">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C187">
         <v>5</v>
@@ -15475,7 +15475,7 @@
         <v>1965</v>
       </c>
       <c r="E187">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F187">
         <v>8</v>
@@ -15523,10 +15523,10 @@
         <v>1604</v>
       </c>
       <c r="V187">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="W187">
-        <v>0.05792032115744639</v>
+        <v>0.05784378398165051</v>
       </c>
       <c r="X187" t="s">
         <v>844</v>
@@ -15537,7 +15537,7 @@
         <v>20738</v>
       </c>
       <c r="B188">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -15546,7 +15546,7 @@
         <v>2230</v>
       </c>
       <c r="E188">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="F188">
         <v>6</v>
@@ -15594,10 +15594,10 @@
         <v>425</v>
       </c>
       <c r="V188">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="W188">
-        <v>0.01395087143102528</v>
+        <v>0.01388447990419615</v>
       </c>
       <c r="X188" t="s">
         <v>843</v>
@@ -15608,7 +15608,7 @@
         <v>20741</v>
       </c>
       <c r="B189">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C189">
         <v>5</v>
@@ -15617,7 +15617,7 @@
         <v>1373</v>
       </c>
       <c r="E189">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F189">
         <v>7</v>
@@ -15665,10 +15665,10 @@
         <v>371</v>
       </c>
       <c r="V189">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="W189">
-        <v>0.02493363684237488</v>
+        <v>0.02476682039734239</v>
       </c>
       <c r="X189" t="s">
         <v>843</v>
@@ -15679,7 +15679,7 @@
         <v>20757</v>
       </c>
       <c r="B190">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -15688,7 +15688,7 @@
         <v>2338</v>
       </c>
       <c r="E190">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="F190">
         <v>8</v>
@@ -15736,10 +15736,10 @@
         <v>606</v>
       </c>
       <c r="V190">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="W190">
-        <v>0.08900656805458607</v>
+        <v>0.0887069808482598</v>
       </c>
       <c r="X190" t="s">
         <v>844</v>
@@ -15750,7 +15750,7 @@
         <v>20764</v>
       </c>
       <c r="B191">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C191">
         <v>6</v>
@@ -15759,7 +15759,7 @@
         <v>4348.02</v>
       </c>
       <c r="E191">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="F191">
         <v>9</v>
@@ -15807,10 +15807,10 @@
         <v>753</v>
       </c>
       <c r="V191">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="W191">
-        <v>0.1393753049620582</v>
+        <v>0.1390594993194885</v>
       </c>
       <c r="X191" t="s">
         <v>844</v>
@@ -15821,7 +15821,7 @@
         <v>20798</v>
       </c>
       <c r="B192">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -15830,7 +15830,7 @@
         <v>940</v>
       </c>
       <c r="E192">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="F192">
         <v>9</v>
@@ -15875,10 +15875,10 @@
         <v>653</v>
       </c>
       <c r="V192">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="W192">
-        <v>0.1068375941127479</v>
+        <v>0.1065461680779925</v>
       </c>
       <c r="X192" t="s">
         <v>844</v>
@@ -15889,7 +15889,7 @@
         <v>20937</v>
       </c>
       <c r="B193">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C193">
         <v>8</v>
@@ -15898,7 +15898,7 @@
         <v>3240</v>
       </c>
       <c r="E193">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F193">
         <v>10</v>
@@ -15946,10 +15946,10 @@
         <v>826</v>
       </c>
       <c r="V193">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="W193">
-        <v>0.219931690018485</v>
+        <v>0.2195741363216195</v>
       </c>
       <c r="X193" t="s">
         <v>844</v>
@@ -15960,7 +15960,7 @@
         <v>20940</v>
       </c>
       <c r="B194">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C194">
         <v>4</v>
@@ -15969,7 +15969,7 @@
         <v>5004</v>
       </c>
       <c r="E194">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F194">
         <v>9</v>
@@ -16014,10 +16014,10 @@
         <v>591</v>
       </c>
       <c r="V194">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="W194">
-        <v>0.08508754111831505</v>
+        <v>0.08485766424913137</v>
       </c>
       <c r="X194" t="s">
         <v>844</v>
@@ -16028,7 +16028,7 @@
         <v>20941</v>
       </c>
       <c r="B195">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C195">
         <v>5</v>
@@ -16037,7 +16037,7 @@
         <v>1535.02</v>
       </c>
       <c r="E195">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F195">
         <v>9</v>
@@ -16085,10 +16085,10 @@
         <v>633</v>
       </c>
       <c r="V195">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="W195">
-        <v>0.1102387557074656</v>
+        <v>0.109933129112879</v>
       </c>
       <c r="X195" t="s">
         <v>844</v>
@@ -16099,7 +16099,7 @@
         <v>20970</v>
       </c>
       <c r="B196">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C196">
         <v>8</v>
@@ -16108,7 +16108,7 @@
         <v>4775.01</v>
       </c>
       <c r="E196">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F196">
         <v>10</v>
@@ -16156,10 +16156,10 @@
         <v>729</v>
       </c>
       <c r="V196">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="W196">
-        <v>0.2055801864551781</v>
+        <v>0.2050837569520876</v>
       </c>
       <c r="X196" t="s">
         <v>844</v>
@@ -16170,7 +16170,7 @@
         <v>20982</v>
       </c>
       <c r="B197">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C197">
         <v>4</v>
@@ -16179,7 +16179,7 @@
         <v>1020.01</v>
       </c>
       <c r="E197">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F197">
         <v>7</v>
@@ -16224,10 +16224,10 @@
         <v>230</v>
       </c>
       <c r="V197">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="W197">
-        <v>0.01480276131976613</v>
+        <v>0.01470062315978122</v>
       </c>
       <c r="X197" t="s">
         <v>843</v>
@@ -16238,7 +16238,7 @@
         <v>21003</v>
       </c>
       <c r="B198">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C198">
         <v>10</v>
@@ -16247,7 +16247,7 @@
         <v>2747.01</v>
       </c>
       <c r="E198">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="F198">
         <v>10</v>
@@ -16292,10 +16292,10 @@
         <v>777</v>
       </c>
       <c r="V198">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="W198">
-        <v>0.2822622823346999</v>
+        <v>0.2817303471089624</v>
       </c>
       <c r="X198" t="s">
         <v>844</v>
@@ -16306,7 +16306,7 @@
         <v>21128</v>
       </c>
       <c r="B199">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C199">
         <v>5</v>
@@ -16315,7 +16315,7 @@
         <v>2395</v>
       </c>
       <c r="E199">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F199">
         <v>8</v>
@@ -16357,10 +16357,10 @@
         <v>400</v>
       </c>
       <c r="V199">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="W199">
-        <v>0.05420372340541405</v>
+        <v>0.05388483079337764</v>
       </c>
       <c r="X199" t="s">
         <v>843</v>
@@ -16371,7 +16371,7 @@
         <v>21132</v>
       </c>
       <c r="B200">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C200">
         <v>4</v>
@@ -16380,7 +16380,7 @@
         <v>2795.1</v>
       </c>
       <c r="E200">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="F200">
         <v>8</v>
@@ -16425,10 +16425,10 @@
         <v>465</v>
       </c>
       <c r="V200">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="W200">
-        <v>0.07162458165705558</v>
+        <v>0.07136075272983908</v>
       </c>
       <c r="X200" t="s">
         <v>844</v>
@@ -16439,7 +16439,7 @@
         <v>21142</v>
       </c>
       <c r="B201">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C201">
         <v>4</v>
@@ -16448,7 +16448,7 @@
         <v>1184</v>
       </c>
       <c r="E201">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="F201">
         <v>8</v>
@@ -16493,10 +16493,10 @@
         <v>375</v>
       </c>
       <c r="V201">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="W201">
-        <v>0.05060838946997397</v>
+        <v>0.05036500390163237</v>
       </c>
       <c r="X201" t="s">
         <v>843</v>
@@ -16507,7 +16507,7 @@
         <v>21162</v>
       </c>
       <c r="B202">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C202">
         <v>6</v>
@@ -16516,7 +16516,7 @@
         <v>2660.02</v>
       </c>
       <c r="E202">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F202">
         <v>7</v>
@@ -16561,10 +16561,10 @@
         <v>603</v>
       </c>
       <c r="V202">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="W202">
-        <v>0.03128918191641313</v>
+        <v>0.03111002923708005</v>
       </c>
       <c r="X202" t="s">
         <v>843</v>
@@ -16575,7 +16575,7 @@
         <v>21164</v>
       </c>
       <c r="B203">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C203">
         <v>6</v>
@@ -16584,7 +16584,7 @@
         <v>16278</v>
       </c>
       <c r="E203">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="F203">
         <v>10</v>
@@ -16632,10 +16632,10 @@
         <v>715</v>
       </c>
       <c r="V203">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="W203">
-        <v>0.1716972894297732</v>
+        <v>0.1713662077057892</v>
       </c>
       <c r="X203" t="s">
         <v>844</v>
@@ -16646,7 +16646,7 @@
         <v>21329</v>
       </c>
       <c r="B204">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C204">
         <v>7</v>
@@ -16655,7 +16655,7 @@
         <v>3429.01</v>
       </c>
       <c r="E204">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="F204">
         <v>10</v>
@@ -16700,10 +16700,10 @@
         <v>640</v>
       </c>
       <c r="V204">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="W204">
-        <v>0.1984549803888901</v>
+        <v>0.1979564948991094</v>
       </c>
       <c r="X204" t="s">
         <v>844</v>
@@ -16714,7 +16714,7 @@
         <v>21571</v>
       </c>
       <c r="B205">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C205">
         <v>6</v>
@@ -16723,7 +16723,7 @@
         <v>3149.01</v>
       </c>
       <c r="E205">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="F205">
         <v>9</v>
@@ -16765,10 +16765,10 @@
         <v>462</v>
       </c>
       <c r="V205">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="W205">
-        <v>0.1390247885418707</v>
+        <v>0.1383950627559316</v>
       </c>
       <c r="X205" t="s">
         <v>844</v>
@@ -16779,7 +16779,7 @@
         <v>21721</v>
       </c>
       <c r="B206">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C206">
         <v>5</v>
@@ -16788,7 +16788,7 @@
         <v>1165</v>
       </c>
       <c r="E206">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F206">
         <v>10</v>
@@ -16833,10 +16833,10 @@
         <v>588</v>
       </c>
       <c r="V206">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="W206">
-        <v>0.1653816571684463</v>
+        <v>0.1650250151963778</v>
       </c>
       <c r="X206" t="s">
         <v>844</v>
@@ -16847,7 +16847,7 @@
         <v>21741</v>
       </c>
       <c r="B207">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C207">
         <v>4</v>
@@ -16856,7 +16856,7 @@
         <v>1780</v>
       </c>
       <c r="E207">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="F207">
         <v>10</v>
@@ -16898,10 +16898,10 @@
         <v>653</v>
       </c>
       <c r="V207">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="W207">
-        <v>0.140952623965462</v>
+        <v>0.1406993254493272</v>
       </c>
       <c r="X207" t="s">
         <v>844</v>
@@ -16912,7 +16912,7 @@
         <v>21759</v>
       </c>
       <c r="B208">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C208">
         <v>4</v>
@@ -16921,7 +16921,7 @@
         <v>1525.01</v>
       </c>
       <c r="E208">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="F208">
         <v>8</v>
@@ -16966,10 +16966,10 @@
         <v>254</v>
       </c>
       <c r="V208">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="W208">
-        <v>0.04998666757235127</v>
+        <v>0.0496702886293454</v>
       </c>
       <c r="X208" t="s">
         <v>843</v>
@@ -16980,7 +16980,7 @@
         <v>21816</v>
       </c>
       <c r="B209">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C209">
         <v>6</v>
@@ -16989,7 +16989,7 @@
         <v>850.04</v>
       </c>
       <c r="E209">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F209">
         <v>8</v>
@@ -17034,10 +17034,10 @@
         <v>214</v>
       </c>
       <c r="V209">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W209">
-        <v>0.02520173893453041</v>
+        <v>0.02490967203423563</v>
       </c>
       <c r="X209" t="s">
         <v>843</v>
@@ -17048,7 +17048,7 @@
         <v>21933</v>
       </c>
       <c r="B210">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -17057,7 +17057,7 @@
         <v>1380</v>
       </c>
       <c r="E210">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F210">
         <v>8</v>
@@ -17102,10 +17102,10 @@
         <v>236</v>
       </c>
       <c r="V210">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W210">
-        <v>0.04762201417166163</v>
+        <v>0.04720970928616578</v>
       </c>
       <c r="X210" t="s">
         <v>843</v>
@@ -17116,7 +17116,7 @@
         <v>21944</v>
       </c>
       <c r="B211">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C211">
         <v>6</v>
@@ -17125,7 +17125,7 @@
         <v>970.02</v>
       </c>
       <c r="E211">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F211">
         <v>10</v>
@@ -17170,10 +17170,10 @@
         <v>1337</v>
       </c>
       <c r="V211">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="W211">
-        <v>0.1067395670844553</v>
+        <v>0.1066158947112867</v>
       </c>
       <c r="X211" t="s">
         <v>844</v>
@@ -17184,7 +17184,7 @@
         <v>21959</v>
       </c>
       <c r="B212">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C212">
         <v>4</v>
@@ -17193,7 +17193,7 @@
         <v>1299.02</v>
       </c>
       <c r="E212">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F212">
         <v>9</v>
@@ -17238,10 +17238,10 @@
         <v>407</v>
       </c>
       <c r="V212">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W212">
-        <v>0.1225062224026428</v>
+        <v>0.1221042740710975</v>
       </c>
       <c r="X212" t="s">
         <v>844</v>
@@ -17252,7 +17252,7 @@
         <v>22130</v>
       </c>
       <c r="B213">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C213">
         <v>11</v>
@@ -17261,7 +17261,7 @@
         <v>5960</v>
       </c>
       <c r="E213">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F213">
         <v>9</v>
@@ -17306,10 +17306,10 @@
         <v>260</v>
       </c>
       <c r="V213">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="W213">
-        <v>0.01878604938621244</v>
+        <v>0.01839770874588713</v>
       </c>
       <c r="X213" t="s">
         <v>843</v>
@@ -17320,7 +17320,7 @@
         <v>22180</v>
       </c>
       <c r="B214">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C214">
         <v>4</v>
@@ -17329,7 +17329,7 @@
         <v>1135.01</v>
       </c>
       <c r="E214">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F214">
         <v>10</v>
@@ -17374,10 +17374,10 @@
         <v>507</v>
       </c>
       <c r="V214">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="W214">
-        <v>0.1637150279049324</v>
+        <v>0.163359407736265</v>
       </c>
       <c r="X214" t="s">
         <v>844</v>
@@ -17388,7 +17388,7 @@
         <v>22194</v>
       </c>
       <c r="B215">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C215">
         <v>5</v>
@@ -17397,7 +17397,7 @@
         <v>2020</v>
       </c>
       <c r="E215">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="F215">
         <v>7</v>
@@ -17439,10 +17439,10 @@
         <v>1155</v>
       </c>
       <c r="V215">
-        <v>1685</v>
+        <v>1686</v>
       </c>
       <c r="W215">
-        <v>0.05581182273034425</v>
+        <v>0.05569544820704345</v>
       </c>
       <c r="X215" t="s">
         <v>843</v>
@@ -17453,7 +17453,7 @@
         <v>22213</v>
       </c>
       <c r="B216">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C216">
         <v>4</v>
@@ -17504,13 +17504,13 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V216">
         <v>519</v>
       </c>
       <c r="W216">
-        <v>0.04945117376530218</v>
+        <v>0.04885011590723516</v>
       </c>
       <c r="X216" t="s">
         <v>843</v>
@@ -17521,7 +17521,7 @@
         <v>22349</v>
       </c>
       <c r="B217">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C217">
         <v>5</v>
@@ -17530,7 +17530,7 @@
         <v>1186.91</v>
       </c>
       <c r="E217">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F217">
         <v>9</v>
@@ -17572,10 +17572,10 @@
         <v>295</v>
       </c>
       <c r="V217">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="W217">
-        <v>0.1436292949581199</v>
+        <v>0.1428380790522313</v>
       </c>
       <c r="X217" t="s">
         <v>844</v>
@@ -17586,7 +17586,7 @@
         <v>22389</v>
       </c>
       <c r="B218">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -17595,7 +17595,7 @@
         <v>1370.01</v>
       </c>
       <c r="E218">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F218">
         <v>9</v>
@@ -17640,10 +17640,10 @@
         <v>202</v>
       </c>
       <c r="V218">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="W218">
-        <v>0.0850392807592269</v>
+        <v>0.08446628567243061</v>
       </c>
       <c r="X218" t="s">
         <v>844</v>
@@ -17654,7 +17654,7 @@
         <v>22579</v>
       </c>
       <c r="B219">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C219">
         <v>5</v>
@@ -17663,7 +17663,7 @@
         <v>4323.9</v>
       </c>
       <c r="E219">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="F219">
         <v>9</v>
@@ -17708,10 +17708,10 @@
         <v>745</v>
       </c>
       <c r="V219">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="W219">
-        <v>0.09379073245496036</v>
+        <v>0.09355275237499942</v>
       </c>
       <c r="X219" t="s">
         <v>844</v>
@@ -17722,7 +17722,7 @@
         <v>22738</v>
       </c>
       <c r="B220">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C220">
         <v>11</v>
@@ -17731,7 +17731,7 @@
         <v>1221</v>
       </c>
       <c r="E220">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F220">
         <v>8</v>
@@ -17779,10 +17779,10 @@
         <v>41</v>
       </c>
       <c r="V220">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="W220">
-        <v>9.517475948955017E-05</v>
+        <v>9.18506117516277E-05</v>
       </c>
       <c r="X220" t="s">
         <v>843</v>
@@ -17793,7 +17793,7 @@
         <v>22780</v>
       </c>
       <c r="B221">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C221">
         <v>9</v>
@@ -17802,7 +17802,7 @@
         <v>8458.9</v>
       </c>
       <c r="E221">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F221">
         <v>9</v>
@@ -17844,10 +17844,10 @@
         <v>1040</v>
       </c>
       <c r="V221">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="W221">
-        <v>0.1363202801641508</v>
+        <v>0.1359352711013775</v>
       </c>
       <c r="X221" t="s">
         <v>844</v>
@@ -17858,7 +17858,7 @@
         <v>24357</v>
       </c>
       <c r="B222">
-        <v>1390</v>
+        <v>1391</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -17867,7 +17867,7 @@
         <v>2108</v>
       </c>
       <c r="E222">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="F222">
         <v>3</v>
@@ -17909,10 +17909,10 @@
         <v>622</v>
       </c>
       <c r="V222">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="W222">
-        <v>0.003280058909444628</v>
+        <v>0.003265504186931744</v>
       </c>
       <c r="X222" t="s">
         <v>843</v>
@@ -17923,7 +17923,7 @@
         <v>24369</v>
       </c>
       <c r="B223">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C223">
         <v>4</v>
@@ -17932,7 +17932,7 @@
         <v>789</v>
       </c>
       <c r="E223">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="F223">
         <v>7</v>
@@ -17974,10 +17974,10 @@
         <v>1490</v>
       </c>
       <c r="V223">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="W223">
-        <v>0.04369590406025347</v>
+        <v>0.04363417490149812</v>
       </c>
       <c r="X223" t="s">
         <v>843</v>
@@ -17988,7 +17988,7 @@
         <v>25430</v>
       </c>
       <c r="B224">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C224">
         <v>5</v>
@@ -17997,7 +17997,7 @@
         <v>1950</v>
       </c>
       <c r="E224">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="F224">
         <v>6</v>
@@ -18045,10 +18045,10 @@
         <v>994</v>
       </c>
       <c r="V224">
-        <v>1731</v>
+        <v>1732</v>
       </c>
       <c r="W224">
-        <v>0.03733037082585187</v>
+        <v>0.03722138810496182</v>
       </c>
       <c r="X224" t="s">
         <v>843</v>
@@ -18059,7 +18059,7 @@
         <v>25533</v>
       </c>
       <c r="B225">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C225">
         <v>4</v>
@@ -18068,7 +18068,7 @@
         <v>639</v>
       </c>
       <c r="E225">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F225">
         <v>6</v>
@@ -18113,10 +18113,10 @@
         <v>906</v>
       </c>
       <c r="V225">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="W225">
-        <v>0.03062128728637801</v>
+        <v>0.03054161647814909</v>
       </c>
       <c r="X225" t="s">
         <v>843</v>
@@ -18127,7 +18127,7 @@
         <v>25539</v>
       </c>
       <c r="B226">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C226">
         <v>4</v>
@@ -18136,7 +18136,7 @@
         <v>1270</v>
       </c>
       <c r="E226">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="F226">
         <v>6</v>
@@ -18181,10 +18181,10 @@
         <v>1016</v>
       </c>
       <c r="V226">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W226">
-        <v>0.03821457360675048</v>
+        <v>0.03813004792349078</v>
       </c>
       <c r="X226" t="s">
         <v>843</v>
@@ -18195,7 +18195,7 @@
         <v>25547</v>
       </c>
       <c r="B227">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -18204,7 +18204,7 @@
         <v>1785</v>
       </c>
       <c r="E227">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="F227">
         <v>3</v>
@@ -18249,10 +18249,10 @@
         <v>383</v>
       </c>
       <c r="V227">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W227">
-        <v>0.002773069779733041</v>
+        <v>0.002760449198830724</v>
       </c>
       <c r="X227" t="s">
         <v>843</v>
@@ -18263,7 +18263,7 @@
         <v>25552</v>
       </c>
       <c r="B228">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C228">
         <v>5</v>
@@ -18272,7 +18272,7 @@
         <v>2535</v>
       </c>
       <c r="E228">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="F228">
         <v>3</v>
@@ -18317,10 +18317,10 @@
         <v>465</v>
       </c>
       <c r="V228">
-        <v>1703</v>
+        <v>1704</v>
       </c>
       <c r="W228">
-        <v>0.002612708044033038</v>
+        <v>0.002598912992198351</v>
       </c>
       <c r="X228" t="s">
         <v>843</v>
@@ -18331,7 +18331,7 @@
         <v>25553</v>
       </c>
       <c r="B229">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C229">
         <v>10</v>
@@ -18340,7 +18340,7 @@
         <v>6956.4</v>
       </c>
       <c r="E229">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="F229">
         <v>7</v>
@@ -18385,10 +18385,10 @@
         <v>1189</v>
       </c>
       <c r="V229">
-        <v>1702</v>
+        <v>1703</v>
       </c>
       <c r="W229">
-        <v>0.07158382213682556</v>
+        <v>0.07124786801933763</v>
       </c>
       <c r="X229" t="s">
         <v>844</v>
@@ -18399,7 +18399,7 @@
         <v>25820</v>
       </c>
       <c r="B230">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C230">
         <v>5</v>
@@ -18408,7 +18408,7 @@
         <v>988</v>
       </c>
       <c r="E230">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F230">
         <v>8</v>
@@ -18450,10 +18450,10 @@
         <v>1207</v>
       </c>
       <c r="V230">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="W230">
-        <v>0.06458919289508597</v>
+        <v>0.06447398072748922</v>
       </c>
       <c r="X230" t="s">
         <v>844</v>
@@ -18464,7 +18464,7 @@
         <v>25845</v>
       </c>
       <c r="B231">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C231">
         <v>4</v>
@@ -18473,7 +18473,7 @@
         <v>2510</v>
       </c>
       <c r="E231">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="F231">
         <v>5</v>
@@ -18515,10 +18515,10 @@
         <v>638</v>
       </c>
       <c r="V231">
-        <v>1623</v>
+        <v>1624</v>
       </c>
       <c r="W231">
-        <v>0.01565486880148998</v>
+        <v>0.01559813851098267</v>
       </c>
       <c r="X231" t="s">
         <v>843</v>
@@ -18529,7 +18529,7 @@
         <v>25859</v>
       </c>
       <c r="B232">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C232">
         <v>4</v>
@@ -18538,7 +18538,7 @@
         <v>1469</v>
       </c>
       <c r="E232">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="F232">
         <v>10</v>
@@ -18580,10 +18580,10 @@
         <v>1474</v>
       </c>
       <c r="V232">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="W232">
-        <v>0.0626101632536821</v>
+        <v>0.06253830415542699</v>
       </c>
       <c r="X232" t="s">
         <v>844</v>
@@ -18594,7 +18594,7 @@
         <v>25864</v>
       </c>
       <c r="B233">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C233">
         <v>12</v>
@@ -18603,7 +18603,7 @@
         <v>4087</v>
       </c>
       <c r="E233">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="F233">
         <v>10</v>
@@ -18645,10 +18645,10 @@
         <v>1476</v>
       </c>
       <c r="V233">
-        <v>1618</v>
+        <v>1619</v>
       </c>
       <c r="W233">
-        <v>0.187873969694014</v>
+        <v>0.1876235504308012</v>
       </c>
       <c r="X233" t="s">
         <v>844</v>
@@ -18659,7 +18659,7 @@
         <v>25879</v>
       </c>
       <c r="B234">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C234">
         <v>4</v>
@@ -18668,7 +18668,7 @@
         <v>1089</v>
       </c>
       <c r="E234">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F234">
         <v>5</v>
@@ -18710,10 +18710,10 @@
         <v>618</v>
       </c>
       <c r="V234">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="W234">
-        <v>0.01458806115510452</v>
+        <v>0.01453398464157744</v>
       </c>
       <c r="X234" t="s">
         <v>843</v>
@@ -18724,7 +18724,7 @@
         <v>25918</v>
       </c>
       <c r="B235">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -18733,7 +18733,7 @@
         <v>542.9</v>
       </c>
       <c r="E235">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F235">
         <v>7</v>
@@ -18775,10 +18775,10 @@
         <v>731</v>
       </c>
       <c r="V235">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="W235">
-        <v>0.05218027593705397</v>
+        <v>0.05203909746161414</v>
       </c>
       <c r="X235" t="s">
         <v>843</v>
@@ -18789,7 +18789,7 @@
         <v>25941</v>
       </c>
       <c r="B236">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C236">
         <v>5</v>
@@ -18798,7 +18798,7 @@
         <v>435</v>
       </c>
       <c r="E236">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="F236">
         <v>9</v>
@@ -18843,10 +18843,10 @@
         <v>1106</v>
       </c>
       <c r="V236">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="W236">
-        <v>0.08958674580287587</v>
+        <v>0.08944997595221665</v>
       </c>
       <c r="X236" t="s">
         <v>844</v>
@@ -18857,7 +18857,7 @@
         <v>26149</v>
       </c>
       <c r="B237">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="C237">
         <v>4</v>
@@ -18866,7 +18866,7 @@
         <v>670</v>
       </c>
       <c r="E237">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="F237">
         <v>2</v>
@@ -18908,10 +18908,10 @@
         <v>1</v>
       </c>
       <c r="V237">
-        <v>1544</v>
+        <v>1545</v>
       </c>
       <c r="W237">
-        <v>1.800374707161058E-05</v>
+        <v>1.781789404689229E-05</v>
       </c>
       <c r="X237" t="s">
         <v>843</v>
@@ -18922,7 +18922,7 @@
         <v>26164</v>
       </c>
       <c r="B238">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="C238">
         <v>4</v>
@@ -18931,7 +18931,7 @@
         <v>1200</v>
       </c>
       <c r="E238">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="F238">
         <v>3</v>
@@ -18973,10 +18973,10 @@
         <v>210</v>
       </c>
       <c r="V238">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="W238">
-        <v>0.0008440558113944111</v>
+        <v>0.000839191978885857</v>
       </c>
       <c r="X238" t="s">
         <v>843</v>
@@ -18987,7 +18987,7 @@
         <v>26206</v>
       </c>
       <c r="B239">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C239">
         <v>8</v>
@@ -18996,7 +18996,7 @@
         <v>3649</v>
       </c>
       <c r="E239">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="F239">
         <v>10</v>
@@ -19038,10 +19038,10 @@
         <v>1513</v>
       </c>
       <c r="V239">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="W239">
-        <v>0.1390885248361466</v>
+        <v>0.1389600959335335</v>
       </c>
       <c r="X239" t="s">
         <v>844</v>
@@ -19052,7 +19052,7 @@
         <v>26221</v>
       </c>
       <c r="B240">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C240">
         <v>6</v>
@@ -19061,7 +19061,7 @@
         <v>781.9</v>
       </c>
       <c r="E240">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="F240">
         <v>7</v>
@@ -19106,10 +19106,10 @@
         <v>890</v>
       </c>
       <c r="V240">
-        <v>1528</v>
+        <v>1529</v>
       </c>
       <c r="W240">
-        <v>0.04398524390448829</v>
+        <v>0.04381573992465263</v>
       </c>
       <c r="X240" t="s">
         <v>843</v>
@@ -19120,7 +19120,7 @@
         <v>26273</v>
       </c>
       <c r="B241">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -19129,7 +19129,7 @@
         <v>1084</v>
       </c>
       <c r="E241">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="F241">
         <v>6</v>
@@ -19171,10 +19171,10 @@
         <v>740</v>
       </c>
       <c r="V241">
-        <v>1516</v>
+        <v>1517</v>
       </c>
       <c r="W241">
-        <v>0.0292009417627056</v>
+        <v>0.02911052276036591</v>
       </c>
       <c r="X241" t="s">
         <v>843</v>
@@ -19185,7 +19185,7 @@
         <v>26358</v>
       </c>
       <c r="B242">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -19194,7 +19194,7 @@
         <v>1859</v>
       </c>
       <c r="E242">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="F242">
         <v>7</v>
@@ -19236,10 +19236,10 @@
         <v>837</v>
       </c>
       <c r="V242">
-        <v>1494</v>
+        <v>1495</v>
       </c>
       <c r="W242">
-        <v>0.03924073986999906</v>
+        <v>0.03913798647191282</v>
       </c>
       <c r="X242" t="s">
         <v>843</v>
@@ -19250,7 +19250,7 @@
         <v>26458</v>
       </c>
       <c r="B243">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C243">
         <v>4</v>
@@ -19259,7 +19259,7 @@
         <v>2400</v>
       </c>
       <c r="E243">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="F243">
         <v>7</v>
@@ -19304,10 +19304,10 @@
         <v>830</v>
       </c>
       <c r="V243">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="W243">
-        <v>0.04117154928169619</v>
+        <v>0.04106444748673874</v>
       </c>
       <c r="X243" t="s">
         <v>843</v>
@@ -19318,7 +19318,7 @@
         <v>26522</v>
       </c>
       <c r="B244">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C244">
         <v>4</v>
@@ -19327,7 +19327,7 @@
         <v>534.9</v>
       </c>
       <c r="E244">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F244">
         <v>8</v>
@@ -19372,10 +19372,10 @@
         <v>988</v>
       </c>
       <c r="V244">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="W244">
-        <v>0.0546757425726717</v>
+        <v>0.05456877674415347</v>
       </c>
       <c r="X244" t="s">
         <v>843</v>
@@ -19386,7 +19386,7 @@
         <v>26539</v>
       </c>
       <c r="B245">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C245">
         <v>7</v>
@@ -19395,7 +19395,7 @@
         <v>4960</v>
       </c>
       <c r="E245">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F245">
         <v>8</v>
@@ -19440,10 +19440,10 @@
         <v>1055</v>
       </c>
       <c r="V245">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="W245">
-        <v>0.09115101252268583</v>
+        <v>0.09090829950999169</v>
       </c>
       <c r="X245" t="s">
         <v>844</v>
@@ -19454,7 +19454,7 @@
         <v>26563</v>
       </c>
       <c r="B246">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="C246">
         <v>4</v>
@@ -19463,7 +19463,7 @@
         <v>1519</v>
       </c>
       <c r="E246">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="F246">
         <v>6</v>
@@ -19508,10 +19508,10 @@
         <v>614</v>
       </c>
       <c r="V246">
-        <v>1436</v>
+        <v>1437</v>
       </c>
       <c r="W246">
-        <v>0.02270285888679863</v>
+        <v>0.02261958976454391</v>
       </c>
       <c r="X246" t="s">
         <v>843</v>
@@ -19522,7 +19522,7 @@
         <v>26587</v>
       </c>
       <c r="B247">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C247">
         <v>5</v>
@@ -19531,7 +19531,7 @@
         <v>1340</v>
       </c>
       <c r="E247">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="F247">
         <v>7</v>
@@ -19576,10 +19576,10 @@
         <v>838</v>
       </c>
       <c r="V247">
-        <v>1430</v>
+        <v>1431</v>
       </c>
       <c r="W247">
-        <v>0.04806445349878179</v>
+        <v>0.04791227996047669</v>
       </c>
       <c r="X247" t="s">
         <v>843</v>
@@ -19590,7 +19590,7 @@
         <v>26621</v>
       </c>
       <c r="B248">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C248">
         <v>4</v>
@@ -19599,7 +19599,7 @@
         <v>1250</v>
       </c>
       <c r="E248">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="F248">
         <v>7</v>
@@ -19644,10 +19644,10 @@
         <v>741</v>
       </c>
       <c r="V248">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="W248">
-        <v>0.03636598258011114</v>
+        <v>0.03625806008001167</v>
       </c>
       <c r="X248" t="s">
         <v>843</v>
@@ -19658,7 +19658,7 @@
         <v>26656</v>
       </c>
       <c r="B249">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C249">
         <v>4</v>
@@ -19667,7 +19667,7 @@
         <v>895.9</v>
       </c>
       <c r="E249">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F249">
         <v>10</v>
@@ -19715,10 +19715,10 @@
         <v>1295</v>
       </c>
       <c r="V249">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="W249">
-        <v>0.07158088500352593</v>
+        <v>0.07149307408801631</v>
       </c>
       <c r="X249" t="s">
         <v>844</v>
@@ -19729,7 +19729,7 @@
         <v>26674</v>
       </c>
       <c r="B250">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -19738,7 +19738,7 @@
         <v>1265</v>
       </c>
       <c r="E250">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="F250">
         <v>7</v>
@@ -19786,10 +19786,10 @@
         <v>757</v>
       </c>
       <c r="V250">
-        <v>1403</v>
+        <v>1404</v>
       </c>
       <c r="W250">
-        <v>0.03979956308563139</v>
+        <v>0.03965321514124663</v>
       </c>
       <c r="X250" t="s">
         <v>843</v>
@@ -19800,7 +19800,7 @@
         <v>26694</v>
       </c>
       <c r="B251">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C251">
         <v>4</v>
@@ -19809,7 +19809,7 @@
         <v>3142.9</v>
       </c>
       <c r="E251">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F251">
         <v>7</v>
@@ -19857,10 +19857,10 @@
         <v>498</v>
       </c>
       <c r="V251">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="W251">
-        <v>0.02999478758007733</v>
+        <v>0.02986948105489728</v>
       </c>
       <c r="X251" t="s">
         <v>843</v>
@@ -19871,7 +19871,7 @@
         <v>26800</v>
       </c>
       <c r="B252">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C252">
         <v>6</v>
@@ -19880,7 +19880,7 @@
         <v>1055</v>
       </c>
       <c r="E252">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="F252">
         <v>6</v>
@@ -19925,10 +19925,10 @@
         <v>662</v>
       </c>
       <c r="V252">
-        <v>1361</v>
+        <v>1362</v>
       </c>
       <c r="W252">
-        <v>0.02575310663753714</v>
+        <v>0.02561349769676308</v>
       </c>
       <c r="X252" t="s">
         <v>843</v>
@@ -19939,7 +19939,7 @@
         <v>26827</v>
       </c>
       <c r="B253">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C253">
         <v>6</v>
@@ -19948,7 +19948,7 @@
         <v>1910</v>
       </c>
       <c r="E253">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="F253">
         <v>9</v>
@@ -19996,10 +19996,10 @@
         <v>1085</v>
       </c>
       <c r="V253">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="W253">
-        <v>0.09957999415757207</v>
+        <v>0.09939998675884015</v>
       </c>
       <c r="X253" t="s">
         <v>844</v>
@@ -20010,7 +20010,7 @@
         <v>26865</v>
       </c>
       <c r="B254">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C254">
         <v>6</v>
@@ -20019,7 +20019,7 @@
         <v>5934.9</v>
       </c>
       <c r="E254">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="F254">
         <v>6</v>
@@ -20061,10 +20061,10 @@
         <v>624</v>
       </c>
       <c r="V254">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="W254">
-        <v>0.02239165832072504</v>
+        <v>0.02226351271528662</v>
       </c>
       <c r="X254" t="s">
         <v>843</v>
@@ -20075,7 +20075,7 @@
         <v>26881</v>
       </c>
       <c r="B255">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -20084,7 +20084,7 @@
         <v>2357</v>
       </c>
       <c r="E255">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="F255">
         <v>5</v>
@@ -20129,10 +20129,10 @@
         <v>462</v>
       </c>
       <c r="V255">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="W255">
-        <v>0.01469158111432744</v>
+        <v>0.01462531513729159</v>
       </c>
       <c r="X255" t="s">
         <v>843</v>
@@ -20143,7 +20143,7 @@
         <v>26892</v>
       </c>
       <c r="B256">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -20152,7 +20152,7 @@
         <v>5903</v>
       </c>
       <c r="E256">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F256">
         <v>4</v>
@@ -20200,10 +20200,10 @@
         <v>185</v>
       </c>
       <c r="V256">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="W256">
-        <v>0.001289676151603348</v>
+        <v>0.001281402751254572</v>
       </c>
       <c r="X256" t="s">
         <v>843</v>
@@ -20214,7 +20214,7 @@
         <v>26923</v>
       </c>
       <c r="B257">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C257">
         <v>4</v>
@@ -20223,7 +20223,7 @@
         <v>553</v>
       </c>
       <c r="E257">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F257">
         <v>6</v>
@@ -20268,10 +20268,10 @@
         <v>485</v>
       </c>
       <c r="V257">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="W257">
-        <v>0.02240777043328466</v>
+        <v>0.022310475426789</v>
       </c>
       <c r="X257" t="s">
         <v>843</v>
@@ -20282,7 +20282,7 @@
         <v>26925</v>
       </c>
       <c r="B258">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C258">
         <v>6</v>
@@ -20291,7 +20291,7 @@
         <v>1419</v>
       </c>
       <c r="E258">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="F258">
         <v>8</v>
@@ -20339,10 +20339,10 @@
         <v>887</v>
       </c>
       <c r="V258">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="W258">
-        <v>0.0779037496029443</v>
+        <v>0.07767055989278669</v>
       </c>
       <c r="X258" t="s">
         <v>844</v>
@@ -20353,7 +20353,7 @@
         <v>26965</v>
       </c>
       <c r="B259">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -20362,7 +20362,7 @@
         <v>4860</v>
       </c>
       <c r="E259">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F259">
         <v>8</v>
@@ -20404,10 +20404,10 @@
         <v>867</v>
       </c>
       <c r="V259">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="W259">
-        <v>0.05957730478689764</v>
+        <v>0.05944898049259755</v>
       </c>
       <c r="X259" t="s">
         <v>844</v>
@@ -20418,7 +20418,7 @@
         <v>26973</v>
       </c>
       <c r="B260">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -20427,7 +20427,7 @@
         <v>835</v>
       </c>
       <c r="E260">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F260">
         <v>4</v>
@@ -20475,10 +20475,10 @@
         <v>217</v>
       </c>
       <c r="V260">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="W260">
-        <v>0.00212491897973307</v>
+        <v>0.002111787985713845</v>
       </c>
       <c r="X260" t="s">
         <v>843</v>
@@ -20489,7 +20489,7 @@
         <v>26994</v>
       </c>
       <c r="B261">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C261">
         <v>6</v>
@@ -20498,7 +20498,7 @@
         <v>2105</v>
       </c>
       <c r="E261">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F261">
         <v>10</v>
@@ -20543,10 +20543,10 @@
         <v>1132</v>
       </c>
       <c r="V261">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="W261">
-        <v>0.1142697688688739</v>
+        <v>0.1141064422173742</v>
       </c>
       <c r="X261" t="s">
         <v>844</v>
@@ -20557,7 +20557,7 @@
         <v>27008</v>
       </c>
       <c r="B262">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C262">
         <v>5</v>
@@ -20566,7 +20566,7 @@
         <v>1455</v>
       </c>
       <c r="E262">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F262">
         <v>10</v>
@@ -20611,10 +20611,10 @@
         <v>1154</v>
       </c>
       <c r="V262">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="W262">
-        <v>0.09692879888934525</v>
+        <v>0.09679952354258546</v>
       </c>
       <c r="X262" t="s">
         <v>844</v>
@@ -20625,7 +20625,7 @@
         <v>27016</v>
       </c>
       <c r="B263">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="C263">
         <v>5</v>
@@ -20634,7 +20634,7 @@
         <v>3994</v>
       </c>
       <c r="E263">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F263">
         <v>5</v>
@@ -20679,10 +20679,10 @@
         <v>305</v>
       </c>
       <c r="V263">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="W263">
-        <v>0.002776513859291633</v>
+        <v>0.002757364385909087</v>
       </c>
       <c r="X263" t="s">
         <v>843</v>
@@ -20693,7 +20693,7 @@
         <v>27049</v>
       </c>
       <c r="B264">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C264">
         <v>4</v>
@@ -20702,7 +20702,7 @@
         <v>1270</v>
       </c>
       <c r="E264">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="F264">
         <v>9</v>
@@ -20744,10 +20744,10 @@
         <v>980</v>
       </c>
       <c r="V264">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="W264">
-        <v>0.07068788927151157</v>
+        <v>0.07056705819741553</v>
       </c>
       <c r="X264" t="s">
         <v>844</v>
@@ -20758,7 +20758,7 @@
         <v>27079</v>
       </c>
       <c r="B265">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C265">
         <v>4</v>
@@ -20767,7 +20767,7 @@
         <v>588.9</v>
       </c>
       <c r="E265">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="F265">
         <v>5</v>
@@ -20812,10 +20812,10 @@
         <v>275</v>
       </c>
       <c r="V265">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="W265">
-        <v>0.004658388639428708</v>
+        <v>0.004631335805808941</v>
       </c>
       <c r="X265" t="s">
         <v>843</v>
@@ -20826,7 +20826,7 @@
         <v>27217</v>
       </c>
       <c r="B266">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C266">
         <v>4</v>
@@ -20835,7 +20835,7 @@
         <v>1860</v>
       </c>
       <c r="E266">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F266">
         <v>7</v>
@@ -20880,10 +20880,10 @@
         <v>653</v>
       </c>
       <c r="V266">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="W266">
-        <v>0.04665876045742889</v>
+        <v>0.04651366969111276</v>
       </c>
       <c r="X266" t="s">
         <v>843</v>
@@ -20894,7 +20894,7 @@
         <v>27243</v>
       </c>
       <c r="B267">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C267">
         <v>4</v>
@@ -20903,7 +20903,7 @@
         <v>1280</v>
       </c>
       <c r="E267">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F267">
         <v>8</v>
@@ -20945,10 +20945,10 @@
         <v>805</v>
       </c>
       <c r="V267">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="W267">
-        <v>0.06459094997148157</v>
+        <v>0.06444635037455154</v>
       </c>
       <c r="X267" t="s">
         <v>844</v>
@@ -20959,7 +20959,7 @@
         <v>27270</v>
       </c>
       <c r="B268">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C268">
         <v>5</v>
@@ -20968,7 +20968,7 @@
         <v>1280</v>
       </c>
       <c r="E268">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F268">
         <v>9</v>
@@ -21013,10 +21013,10 @@
         <v>888</v>
       </c>
       <c r="V268">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="W268">
-        <v>0.08912827136973027</v>
+        <v>0.08894175070445998</v>
       </c>
       <c r="X268" t="s">
         <v>844</v>
@@ -21027,7 +21027,7 @@
         <v>27290</v>
       </c>
       <c r="B269">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="C269">
         <v>5</v>
@@ -21036,7 +21036,7 @@
         <v>2310</v>
       </c>
       <c r="E269">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="F269">
         <v>5</v>
@@ -21081,10 +21081,10 @@
         <v>243</v>
       </c>
       <c r="V269">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="W269">
-        <v>0.002027062388676676</v>
+        <v>0.002011503201433252</v>
       </c>
       <c r="X269" t="s">
         <v>843</v>
@@ -21095,7 +21095,7 @@
         <v>27292</v>
       </c>
       <c r="B270">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C270">
         <v>5</v>
@@ -21104,7 +21104,7 @@
         <v>1794.9</v>
       </c>
       <c r="E270">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F270">
         <v>6</v>
@@ -21146,10 +21146,10 @@
         <v>280</v>
       </c>
       <c r="V270">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="W270">
-        <v>0.004167546600306204</v>
+        <v>0.004136427481902346</v>
       </c>
       <c r="X270" t="s">
         <v>843</v>
@@ -21160,7 +21160,7 @@
         <v>27514</v>
       </c>
       <c r="B271">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C271">
         <v>7</v>
@@ -21169,7 +21169,7 @@
         <v>1409</v>
       </c>
       <c r="E271">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F271">
         <v>10</v>
@@ -21214,10 +21214,10 @@
         <v>903</v>
       </c>
       <c r="V271">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="W271">
-        <v>0.1510489258188936</v>
+        <v>0.1507577059226563</v>
       </c>
       <c r="X271" t="s">
         <v>844</v>
@@ -21228,7 +21228,7 @@
         <v>27665</v>
       </c>
       <c r="B272">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C272">
         <v>4</v>
@@ -21237,7 +21237,7 @@
         <v>1410</v>
       </c>
       <c r="E272">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="F272">
         <v>10</v>
@@ -21282,10 +21282,10 @@
         <v>854</v>
       </c>
       <c r="V272">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="W272">
-        <v>0.09373370076847524</v>
+        <v>0.09357586501029397</v>
       </c>
       <c r="X272" t="s">
         <v>844</v>
@@ -21296,7 +21296,7 @@
         <v>27814</v>
       </c>
       <c r="B273">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C273">
         <v>4</v>
@@ -21305,7 +21305,7 @@
         <v>1450</v>
       </c>
       <c r="E273">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F273">
         <v>8</v>
@@ -21347,10 +21347,10 @@
         <v>469</v>
       </c>
       <c r="V273">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W273">
-        <v>0.05755694469517165</v>
+        <v>0.05733182999223064</v>
       </c>
       <c r="X273" t="s">
         <v>844</v>
@@ -21361,7 +21361,7 @@
         <v>27829</v>
       </c>
       <c r="B274">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C274">
         <v>5</v>
@@ -21370,7 +21370,7 @@
         <v>1360</v>
       </c>
       <c r="E274">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="F274">
         <v>7</v>
@@ -21415,10 +21415,10 @@
         <v>261</v>
       </c>
       <c r="V274">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="W274">
-        <v>0.01041649210645614</v>
+        <v>0.01033103414018793</v>
       </c>
       <c r="X274" t="s">
         <v>843</v>
@@ -21429,7 +21429,7 @@
         <v>27899</v>
       </c>
       <c r="B275">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C275">
         <v>4</v>
@@ -21438,7 +21438,7 @@
         <v>1965</v>
       </c>
       <c r="E275">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F275">
         <v>9</v>
@@ -21483,10 +21483,10 @@
         <v>655</v>
       </c>
       <c r="V275">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="W275">
-        <v>0.09976956898715544</v>
+        <v>0.09954983375363001</v>
       </c>
       <c r="X275" t="s">
         <v>844</v>
@@ -21497,7 +21497,7 @@
         <v>28131</v>
       </c>
       <c r="B276">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -21506,7 +21506,7 @@
         <v>1440</v>
       </c>
       <c r="E276">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F276">
         <v>7</v>
@@ -21551,10 +21551,10 @@
         <v>75</v>
       </c>
       <c r="V276">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="W276">
-        <v>0.003224667677588636</v>
+        <v>0.003192219481243583</v>
       </c>
       <c r="X276" t="s">
         <v>843</v>
@@ -21565,7 +21565,7 @@
         <v>28268</v>
       </c>
       <c r="B277">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C277">
         <v>4</v>
@@ -21574,7 +21574,7 @@
         <v>1580</v>
       </c>
       <c r="E277">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="F277">
         <v>9</v>
@@ -21619,10 +21619,10 @@
         <v>447</v>
       </c>
       <c r="V277">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="W277">
-        <v>0.1158714475107887</v>
+        <v>0.1155157006814588</v>
       </c>
       <c r="X277" t="s">
         <v>844</v>
@@ -21633,7 +21633,7 @@
         <v>28502</v>
       </c>
       <c r="B278">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C278">
         <v>9</v>
@@ -21642,7 +21642,7 @@
         <v>1935</v>
       </c>
       <c r="E278">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F278">
         <v>10</v>
@@ -21684,10 +21684,10 @@
         <v>405</v>
       </c>
       <c r="V278">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="W278">
-        <v>0.3924256124957689</v>
+        <v>0.3910813063103744</v>
       </c>
       <c r="X278" t="s">
         <v>844</v>

--- a/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
@@ -88,46 +88,46 @@
     <t>categoria_previsao</t>
   </si>
   <si>
-    <t>305.0-501.0</t>
+    <t>305.0-501.7</t>
   </si>
   <si>
     <t>0.0-166.0</t>
   </si>
   <si>
-    <t>1023.0-1198.0</t>
-  </si>
-  <si>
-    <t>687.2-858.0</t>
-  </si>
-  <si>
-    <t>858.0-1023.0</t>
-  </si>
-  <si>
-    <t>1673.0-2490.0</t>
+    <t>1023.4-1199.0</t>
+  </si>
+  <si>
+    <t>858.0-1023.4</t>
+  </si>
+  <si>
+    <t>1674.0-2491.0</t>
   </si>
   <si>
     <t>166.0-305.0</t>
   </si>
   <si>
-    <t>1198.0-1405.0</t>
-  </si>
-  <si>
-    <t>501.0-687.2</t>
-  </si>
-  <si>
-    <t>1405.0-1673.0</t>
+    <t>1199.0-1406.0</t>
+  </si>
+  <si>
+    <t>688.0-858.0</t>
+  </si>
+  <si>
+    <t>501.7-688.0</t>
+  </si>
+  <si>
+    <t>1406.0-1674.0</t>
   </si>
   <si>
     <t>2.0-35.0</t>
   </si>
   <si>
-    <t>849.4-1500.0</t>
+    <t>850.0-1500.0</t>
   </si>
   <si>
     <t>1500.0-16278.0</t>
   </si>
   <si>
-    <t>630.0-849.4</t>
+    <t>630.0-850.0</t>
   </si>
   <si>
     <t>485.0-630.0</t>
@@ -136,31 +136,31 @@
     <t>390.0-485.0</t>
   </si>
   <si>
-    <t>1711.0-2490.0</t>
-  </si>
-  <si>
-    <t>1495.0-1711.0</t>
-  </si>
-  <si>
-    <t>1312.0-1495.0</t>
-  </si>
-  <si>
-    <t>1135.0-1312.0</t>
-  </si>
-  <si>
-    <t>980.0-1135.0</t>
-  </si>
-  <si>
-    <t>620.4-812.2</t>
-  </si>
-  <si>
-    <t>812.2-980.0</t>
-  </si>
-  <si>
-    <t>417.6-620.4</t>
-  </si>
-  <si>
-    <t>220.0-417.6</t>
+    <t>1712.0-2491.0</t>
+  </si>
+  <si>
+    <t>1496.0-1712.0</t>
+  </si>
+  <si>
+    <t>1313.0-1496.0</t>
+  </si>
+  <si>
+    <t>1135.0-1313.0</t>
+  </si>
+  <si>
+    <t>980.5-1135.0</t>
+  </si>
+  <si>
+    <t>621.0-812.6</t>
+  </si>
+  <si>
+    <t>812.6-980.5</t>
+  </si>
+  <si>
+    <t>418.0-621.0</t>
+  </si>
+  <si>
+    <t>220.0-418.0</t>
   </si>
   <si>
     <t>0.0-220.0</t>
@@ -2997,7 +2997,7 @@
         <v>244</v>
       </c>
       <c r="B2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3006,7 +3006,7 @@
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -3048,10 +3048,10 @@
         <v>1575</v>
       </c>
       <c r="V2">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W2">
-        <v>0.04563275630703739</v>
+        <v>0.04558252821063518</v>
       </c>
       <c r="X2" t="s">
         <v>845</v>
@@ -3119,7 +3119,7 @@
         <v>2005</v>
       </c>
       <c r="W3">
-        <v>0.1115705566736112</v>
+        <v>0.1114887242347875</v>
       </c>
       <c r="X3" t="s">
         <v>846</v>
@@ -3130,7 +3130,7 @@
         <v>351</v>
       </c>
       <c r="B4">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -3139,7 +3139,7 @@
         <v>1760</v>
       </c>
       <c r="E4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -3187,10 +3187,10 @@
         <v>1555</v>
       </c>
       <c r="V4">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="W4">
-        <v>0.06617460798245982</v>
+        <v>0.06607840705164117</v>
       </c>
       <c r="X4" t="s">
         <v>846</v>
@@ -3201,7 +3201,7 @@
         <v>490</v>
       </c>
       <c r="B5">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3210,7 +3210,7 @@
         <v>1420</v>
       </c>
       <c r="E5">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -3255,10 +3255,10 @@
         <v>1932</v>
       </c>
       <c r="V5">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="W5">
-        <v>0.06790897406264751</v>
+        <v>0.06785855767702602</v>
       </c>
       <c r="X5" t="s">
         <v>846</v>
@@ -3278,7 +3278,7 @@
         <v>700</v>
       </c>
       <c r="E6">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3320,13 +3320,13 @@
         <v>3</v>
       </c>
       <c r="U6">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="V6">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="W6">
-        <v>0.01395162191670209</v>
+        <v>0.01395894959041825</v>
       </c>
       <c r="X6" t="s">
         <v>845</v>
@@ -3337,7 +3337,7 @@
         <v>632</v>
       </c>
       <c r="B7">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -3346,10 +3346,10 @@
         <v>1015</v>
       </c>
       <c r="E7">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="F7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7">
         <v>2</v>
@@ -3388,10 +3388,10 @@
         <v>1079</v>
       </c>
       <c r="V7">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="W7">
-        <v>0.02967943593930201</v>
+        <v>0.02961615935314424</v>
       </c>
       <c r="X7" t="s">
         <v>845</v>
@@ -3402,7 +3402,7 @@
         <v>640</v>
       </c>
       <c r="B8">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3411,7 +3411,7 @@
         <v>800</v>
       </c>
       <c r="E8">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3426,7 +3426,7 @@
         <v>10</v>
       </c>
       <c r="J8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K8" t="s">
         <v>34</v>
@@ -3453,10 +3453,10 @@
         <v>1070</v>
       </c>
       <c r="V8">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="W8">
-        <v>0.02919300485035934</v>
+        <v>0.02912996635681066</v>
       </c>
       <c r="X8" t="s">
         <v>845</v>
@@ -3467,7 +3467,7 @@
         <v>657</v>
       </c>
       <c r="B9">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3476,7 +3476,7 @@
         <v>3520</v>
       </c>
       <c r="E9">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3491,7 +3491,7 @@
         <v>10</v>
       </c>
       <c r="J9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" t="s">
         <v>34</v>
@@ -3521,10 +3521,10 @@
         <v>956</v>
       </c>
       <c r="V9">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="W9">
-        <v>0.02302927646213752</v>
+        <v>0.02297140990135072</v>
       </c>
       <c r="X9" t="s">
         <v>845</v>
@@ -3535,7 +3535,7 @@
         <v>688</v>
       </c>
       <c r="B10">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3544,7 +3544,7 @@
         <v>3980</v>
       </c>
       <c r="E10">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3589,10 +3589,10 @@
         <v>1824</v>
       </c>
       <c r="V10">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="W10">
-        <v>0.06963446368367907</v>
+        <v>0.06957861840185818</v>
       </c>
       <c r="X10" t="s">
         <v>846</v>
@@ -3603,7 +3603,7 @@
         <v>739</v>
       </c>
       <c r="B11">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3612,7 +3612,7 @@
         <v>829.9</v>
       </c>
       <c r="E11">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3627,7 +3627,7 @@
         <v>10</v>
       </c>
       <c r="J11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K11" t="s">
         <v>34</v>
@@ -3657,10 +3657,10 @@
         <v>1007</v>
       </c>
       <c r="V11">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="W11">
-        <v>0.02695666187042093</v>
+        <v>0.02689392210472829</v>
       </c>
       <c r="X11" t="s">
         <v>845</v>
@@ -3695,7 +3695,7 @@
         <v>10</v>
       </c>
       <c r="J12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K12" t="s">
         <v>34</v>
@@ -3728,7 +3728,7 @@
         <v>1912</v>
       </c>
       <c r="W12">
-        <v>0.0002505623437796897</v>
+        <v>0.0002503437591451079</v>
       </c>
       <c r="X12" t="s">
         <v>845</v>
@@ -3748,7 +3748,7 @@
         <v>2743</v>
       </c>
       <c r="E13">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -3790,13 +3790,13 @@
         <v>3</v>
       </c>
       <c r="U13">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="V13">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="W13">
-        <v>0.05548898016336112</v>
+        <v>0.05546028498427971</v>
       </c>
       <c r="X13" t="s">
         <v>845</v>
@@ -3807,7 +3807,7 @@
         <v>777</v>
       </c>
       <c r="B14">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3816,7 +3816,7 @@
         <v>825</v>
       </c>
       <c r="E14">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -3831,7 +3831,7 @@
         <v>10</v>
       </c>
       <c r="J14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K14" t="s">
         <v>34</v>
@@ -3861,10 +3861,10 @@
         <v>1616</v>
       </c>
       <c r="V14">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="W14">
-        <v>0.05162648800254686</v>
+        <v>0.05157636769021353</v>
       </c>
       <c r="X14" t="s">
         <v>845</v>
@@ -3875,7 +3875,7 @@
         <v>781</v>
       </c>
       <c r="B15">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3884,7 +3884,7 @@
         <v>2045</v>
       </c>
       <c r="E15">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3899,7 +3899,7 @@
         <v>10</v>
       </c>
       <c r="J15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" t="s">
         <v>34</v>
@@ -3932,10 +3932,10 @@
         <v>1020</v>
       </c>
       <c r="V15">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="W15">
-        <v>0.02801714786848418</v>
+        <v>0.02795330091681115</v>
       </c>
       <c r="X15" t="s">
         <v>845</v>
@@ -3946,7 +3946,7 @@
         <v>785</v>
       </c>
       <c r="B16">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3955,7 +3955,7 @@
         <v>4350</v>
       </c>
       <c r="E16">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3970,7 +3970,7 @@
         <v>10</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K16" t="s">
         <v>34</v>
@@ -4003,10 +4003,10 @@
         <v>678</v>
       </c>
       <c r="V16">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="W16">
-        <v>0.009672675113452876</v>
+        <v>0.009640733702829474</v>
       </c>
       <c r="X16" t="s">
         <v>845</v>
@@ -4026,7 +4026,7 @@
         <v>1380.01</v>
       </c>
       <c r="E17">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4068,13 +4068,13 @@
         <v>3</v>
       </c>
       <c r="U17">
-        <v>1574</v>
+        <v>1575</v>
       </c>
       <c r="V17">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="W17">
-        <v>0.05088689578176801</v>
+        <v>0.05085890531243779</v>
       </c>
       <c r="X17" t="s">
         <v>845</v>
@@ -4142,7 +4142,7 @@
         <v>1889</v>
       </c>
       <c r="W18">
-        <v>0.056713649282218</v>
+        <v>0.05671222625342551</v>
       </c>
       <c r="X18" t="s">
         <v>845</v>
@@ -4153,7 +4153,7 @@
         <v>866</v>
       </c>
       <c r="B19">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4162,7 +4162,7 @@
         <v>1390</v>
       </c>
       <c r="E19">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -4177,7 +4177,7 @@
         <v>10</v>
       </c>
       <c r="J19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K19" t="s">
         <v>34</v>
@@ -4207,10 +4207,10 @@
         <v>533</v>
       </c>
       <c r="V19">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="W19">
-        <v>0.004852216458873823</v>
+        <v>0.004834868092198255</v>
       </c>
       <c r="X19" t="s">
         <v>845</v>
@@ -4221,7 +4221,7 @@
         <v>980</v>
       </c>
       <c r="B20">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4245,7 +4245,7 @@
         <v>10</v>
       </c>
       <c r="J20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K20" t="s">
         <v>34</v>
@@ -4269,13 +4269,13 @@
         <v>3</v>
       </c>
       <c r="U20">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V20">
         <v>2010</v>
       </c>
       <c r="W20">
-        <v>0.0001492058108273148</v>
+        <v>0.0001470905191921254</v>
       </c>
       <c r="X20" t="s">
         <v>845</v>
@@ -4343,7 +4343,7 @@
         <v>1793</v>
       </c>
       <c r="W21">
-        <v>0.01600463506788638</v>
+        <v>0.0159899651941669</v>
       </c>
       <c r="X21" t="s">
         <v>845</v>
@@ -4354,7 +4354,7 @@
         <v>1236</v>
       </c>
       <c r="B22">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4378,7 +4378,7 @@
         <v>10</v>
       </c>
       <c r="J22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K22" t="s">
         <v>34</v>
@@ -4408,13 +4408,13 @@
         <v>4</v>
       </c>
       <c r="U22">
-        <v>1523</v>
+        <v>1522</v>
       </c>
       <c r="V22">
         <v>1788</v>
       </c>
       <c r="W22">
-        <v>0.06840905159182305</v>
+        <v>0.06836360366857323</v>
       </c>
       <c r="X22" t="s">
         <v>846</v>
@@ -4425,7 +4425,7 @@
         <v>1290</v>
       </c>
       <c r="B23">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4479,13 +4479,13 @@
         <v>4</v>
       </c>
       <c r="U23">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="V23">
         <v>1776</v>
       </c>
       <c r="W23">
-        <v>0.007470252777350313</v>
+        <v>0.007416605714168904</v>
       </c>
       <c r="X23" t="s">
         <v>845</v>
@@ -4553,7 +4553,7 @@
         <v>1760</v>
       </c>
       <c r="W24">
-        <v>0.07459676007754497</v>
+        <v>0.07459183487177803</v>
       </c>
       <c r="X24" t="s">
         <v>846</v>
@@ -4564,7 +4564,7 @@
         <v>1412</v>
       </c>
       <c r="B25">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4573,7 +4573,7 @@
         <v>489</v>
       </c>
       <c r="E25">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -4588,7 +4588,7 @@
         <v>10</v>
       </c>
       <c r="J25" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K25" t="s">
         <v>34</v>
@@ -4618,10 +4618,10 @@
         <v>991</v>
       </c>
       <c r="V25">
-        <v>1746</v>
+        <v>1747</v>
       </c>
       <c r="W25">
-        <v>0.03423588225290135</v>
+        <v>0.03416053421790868</v>
       </c>
       <c r="X25" t="s">
         <v>845</v>
@@ -4656,7 +4656,7 @@
         <v>9</v>
       </c>
       <c r="J26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K26" t="s">
         <v>34</v>
@@ -4689,7 +4689,7 @@
         <v>1691</v>
       </c>
       <c r="W26">
-        <v>0.005425100580273777</v>
+        <v>0.005419201910282803</v>
       </c>
       <c r="X26" t="s">
         <v>845</v>
@@ -4700,7 +4700,7 @@
         <v>1684</v>
       </c>
       <c r="B27">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C27">
         <v>9</v>
@@ -4709,7 +4709,7 @@
         <v>4315</v>
       </c>
       <c r="E27">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="F27">
         <v>10</v>
@@ -4754,10 +4754,10 @@
         <v>1656</v>
       </c>
       <c r="V27">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="W27">
-        <v>0.1429889697324918</v>
+        <v>0.142859081389326</v>
       </c>
       <c r="X27" t="s">
         <v>846</v>
@@ -4768,7 +4768,7 @@
         <v>1698</v>
       </c>
       <c r="B28">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28">
         <v>5</v>
@@ -4777,7 +4777,7 @@
         <v>1629</v>
       </c>
       <c r="E28">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="F28">
         <v>9</v>
@@ -4792,7 +4792,7 @@
         <v>9</v>
       </c>
       <c r="J28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K28" t="s">
         <v>34</v>
@@ -4822,10 +4822,10 @@
         <v>1419</v>
       </c>
       <c r="V28">
-        <v>1684</v>
+        <v>1685</v>
       </c>
       <c r="W28">
-        <v>0.07171172363041591</v>
+        <v>0.07162607617825925</v>
       </c>
       <c r="X28" t="s">
         <v>846</v>
@@ -4836,7 +4836,7 @@
         <v>1744</v>
       </c>
       <c r="B29">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C29">
         <v>4</v>
@@ -4845,7 +4845,7 @@
         <v>1614</v>
       </c>
       <c r="E29">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="F29">
         <v>3</v>
@@ -4860,7 +4860,7 @@
         <v>9</v>
       </c>
       <c r="J29" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K29" t="s">
         <v>34</v>
@@ -4890,10 +4890,10 @@
         <v>364</v>
       </c>
       <c r="V29">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="W29">
-        <v>0.00260948004241275</v>
+        <v>0.00259934020756491</v>
       </c>
       <c r="X29" t="s">
         <v>845</v>
@@ -4904,7 +4904,7 @@
         <v>1767</v>
       </c>
       <c r="B30">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4913,7 +4913,7 @@
         <v>2225</v>
       </c>
       <c r="E30">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="F30">
         <v>7</v>
@@ -4958,10 +4958,10 @@
         <v>1104</v>
       </c>
       <c r="V30">
-        <v>1664</v>
+        <v>1665</v>
       </c>
       <c r="W30">
-        <v>0.04602178706121379</v>
+        <v>0.04594175350196607</v>
       </c>
       <c r="X30" t="s">
         <v>845</v>
@@ -4981,7 +4981,7 @@
         <v>1350</v>
       </c>
       <c r="E31">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5023,13 +5023,13 @@
         <v>3</v>
       </c>
       <c r="U31">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="V31">
-        <v>1663</v>
+        <v>1664</v>
       </c>
       <c r="W31">
-        <v>0.04608541956279651</v>
+        <v>0.04606069586351213</v>
       </c>
       <c r="X31" t="s">
         <v>845</v>
@@ -5097,7 +5097,7 @@
         <v>1660</v>
       </c>
       <c r="W32">
-        <v>0.05578770807230893</v>
+        <v>0.05577773894496653</v>
       </c>
       <c r="X32" t="s">
         <v>845</v>
@@ -5165,7 +5165,7 @@
         <v>1657</v>
       </c>
       <c r="W33">
-        <v>0.04973115576860982</v>
+        <v>0.04970652907025273</v>
       </c>
       <c r="X33" t="s">
         <v>845</v>
@@ -5176,7 +5176,7 @@
         <v>1898</v>
       </c>
       <c r="B34">
-        <v>1461</v>
+        <v>1462</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5185,7 +5185,7 @@
         <v>1695</v>
       </c>
       <c r="E34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -5233,10 +5233,10 @@
         <v>553</v>
       </c>
       <c r="V34">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="W34">
-        <v>0.002016812040341624</v>
+        <v>0.002008738566270464</v>
       </c>
       <c r="X34" t="s">
         <v>845</v>
@@ -5304,7 +5304,7 @@
         <v>1618</v>
       </c>
       <c r="W35">
-        <v>0.05685324167366607</v>
+        <v>0.05684273639814418</v>
       </c>
       <c r="X35" t="s">
         <v>845</v>
@@ -5372,7 +5372,7 @@
         <v>1608</v>
       </c>
       <c r="W36">
-        <v>0.03824050953793363</v>
+        <v>0.03822037718517633</v>
       </c>
       <c r="X36" t="s">
         <v>845</v>
@@ -5383,7 +5383,7 @@
         <v>2097</v>
       </c>
       <c r="B37">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C37">
         <v>5</v>
@@ -5407,7 +5407,7 @@
         <v>9</v>
       </c>
       <c r="J37" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K37" t="s">
         <v>34</v>
@@ -5434,13 +5434,13 @@
         <v>4</v>
       </c>
       <c r="U37">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="V37">
         <v>1548</v>
       </c>
       <c r="W37">
-        <v>0.07747030127519633</v>
+        <v>0.07740951388255891</v>
       </c>
       <c r="X37" t="s">
         <v>846</v>
@@ -5508,7 +5508,7 @@
         <v>1547</v>
       </c>
       <c r="W38">
-        <v>0.002687200701167438</v>
+        <v>0.00268449677375983</v>
       </c>
       <c r="X38" t="s">
         <v>845</v>
@@ -5519,7 +5519,7 @@
         <v>2112</v>
       </c>
       <c r="B39">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C39">
         <v>4</v>
@@ -5543,7 +5543,7 @@
         <v>9</v>
       </c>
       <c r="J39" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K39" t="s">
         <v>34</v>
@@ -5567,13 +5567,13 @@
         <v>3</v>
       </c>
       <c r="U39">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="V39">
         <v>1546</v>
       </c>
       <c r="W39">
-        <v>0.001699117160612618</v>
+        <v>0.001680533856076402</v>
       </c>
       <c r="X39" t="s">
         <v>845</v>
@@ -5584,7 +5584,7 @@
         <v>2131</v>
       </c>
       <c r="B40">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5593,7 +5593,7 @@
         <v>1475</v>
       </c>
       <c r="E40">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="F40">
         <v>4</v>
@@ -5638,10 +5638,10 @@
         <v>342</v>
       </c>
       <c r="V40">
-        <v>1537</v>
+        <v>1538</v>
       </c>
       <c r="W40">
-        <v>0.003236147996147241</v>
+        <v>0.003223032319873368</v>
       </c>
       <c r="X40" t="s">
         <v>845</v>
@@ -5652,7 +5652,7 @@
         <v>2135</v>
       </c>
       <c r="B41">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C41">
         <v>5</v>
@@ -5703,13 +5703,13 @@
         <v>4</v>
       </c>
       <c r="U41">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V41">
         <v>1433</v>
       </c>
       <c r="W41">
-        <v>0.06534917404134769</v>
+        <v>0.0652170367396695</v>
       </c>
       <c r="X41" t="s">
         <v>846</v>
@@ -5729,7 +5729,7 @@
         <v>1435</v>
       </c>
       <c r="E42">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="F42">
         <v>4</v>
@@ -5771,13 +5771,13 @@
         <v>3</v>
       </c>
       <c r="U42">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="V42">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="W42">
-        <v>0.004833112208635788</v>
+        <v>0.004850104341044835</v>
       </c>
       <c r="X42" t="s">
         <v>845</v>
@@ -5797,7 +5797,7 @@
         <v>3080</v>
       </c>
       <c r="E43">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="F43">
         <v>3</v>
@@ -5812,7 +5812,7 @@
         <v>9</v>
       </c>
       <c r="J43" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K43" t="s">
         <v>34</v>
@@ -5836,13 +5836,13 @@
         <v>4</v>
       </c>
       <c r="U43">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V43">
-        <v>1522</v>
+        <v>1523</v>
       </c>
       <c r="W43">
-        <v>9.763658318812571E-05</v>
+        <v>9.90403051406733E-05</v>
       </c>
       <c r="X43" t="s">
         <v>845</v>
@@ -5862,7 +5862,7 @@
         <v>5259.9</v>
       </c>
       <c r="E44">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="F44">
         <v>10</v>
@@ -5904,13 +5904,13 @@
         <v>4</v>
       </c>
       <c r="U44">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="V44">
-        <v>1497</v>
+        <v>1498</v>
       </c>
       <c r="W44">
-        <v>0.08548419312096242</v>
+        <v>0.08542660012555878</v>
       </c>
       <c r="X44" t="s">
         <v>846</v>
@@ -5921,7 +5921,7 @@
         <v>2338</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C45">
         <v>6</v>
@@ -5969,13 +5969,13 @@
         <v>5</v>
       </c>
       <c r="U45">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="V45">
         <v>1487</v>
       </c>
       <c r="W45">
-        <v>0.1062369504495363</v>
+        <v>0.106196946059788</v>
       </c>
       <c r="X45" t="s">
         <v>846</v>
@@ -5986,7 +5986,7 @@
         <v>2371</v>
       </c>
       <c r="B46">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -6010,7 +6010,7 @@
         <v>8</v>
       </c>
       <c r="J46" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K46" t="s">
         <v>34</v>
@@ -6037,13 +6037,13 @@
         <v>4</v>
       </c>
       <c r="U46">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="V46">
         <v>1477</v>
       </c>
       <c r="W46">
-        <v>0.02796981019628487</v>
+        <v>0.02782472524942542</v>
       </c>
       <c r="X46" t="s">
         <v>845</v>
@@ -6054,7 +6054,7 @@
         <v>2410</v>
       </c>
       <c r="B47">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -6063,7 +6063,7 @@
         <v>3319</v>
       </c>
       <c r="E47">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="F47">
         <v>7</v>
@@ -6108,10 +6108,10 @@
         <v>873</v>
       </c>
       <c r="V47">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="W47">
-        <v>0.04861830579074358</v>
+        <v>0.04847947345173394</v>
       </c>
       <c r="X47" t="s">
         <v>845</v>
@@ -6146,7 +6146,7 @@
         <v>8</v>
       </c>
       <c r="J48" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K48" t="s">
         <v>34</v>
@@ -6182,7 +6182,7 @@
         <v>1464</v>
       </c>
       <c r="W48">
-        <v>0.0002130614748136494</v>
+        <v>0.0002129853232958429</v>
       </c>
       <c r="X48" t="s">
         <v>845</v>
@@ -6193,7 +6193,7 @@
         <v>2475</v>
       </c>
       <c r="B49">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C49">
         <v>8</v>
@@ -6217,7 +6217,7 @@
         <v>8</v>
       </c>
       <c r="J49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K49" t="s">
         <v>34</v>
@@ -6244,13 +6244,13 @@
         <v>7</v>
       </c>
       <c r="U49">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V49">
         <v>1450</v>
       </c>
       <c r="W49">
-        <v>0.1181901644605521</v>
+        <v>0.1179740588551428</v>
       </c>
       <c r="X49" t="s">
         <v>846</v>
@@ -6261,7 +6261,7 @@
         <v>2476</v>
       </c>
       <c r="B50">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C50">
         <v>4</v>
@@ -6270,7 +6270,7 @@
         <v>860</v>
       </c>
       <c r="E50">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F50">
         <v>5</v>
@@ -6285,7 +6285,7 @@
         <v>8</v>
       </c>
       <c r="J50" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K50" t="s">
         <v>34</v>
@@ -6315,10 +6315,10 @@
         <v>575</v>
       </c>
       <c r="V50">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="W50">
-        <v>0.01859055973341608</v>
+        <v>0.01852404608311676</v>
       </c>
       <c r="X50" t="s">
         <v>845</v>
@@ -6386,7 +6386,7 @@
         <v>1443</v>
       </c>
       <c r="W51">
-        <v>0.09172273122750747</v>
+        <v>0.09167670411233994</v>
       </c>
       <c r="X51" t="s">
         <v>846</v>
@@ -6397,7 +6397,7 @@
         <v>2525</v>
       </c>
       <c r="B52">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C52">
         <v>7</v>
@@ -6406,7 +6406,7 @@
         <v>2125</v>
       </c>
       <c r="E52">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F52">
         <v>4</v>
@@ -6451,10 +6451,10 @@
         <v>410</v>
       </c>
       <c r="V52">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="W52">
-        <v>0.0007925645799778724</v>
+        <v>0.0007879313381898428</v>
       </c>
       <c r="X52" t="s">
         <v>845</v>
@@ -6465,7 +6465,7 @@
         <v>2537</v>
       </c>
       <c r="B53">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C53">
         <v>4</v>
@@ -6489,7 +6489,7 @@
         <v>8</v>
       </c>
       <c r="J53" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K53" t="s">
         <v>34</v>
@@ -6513,13 +6513,13 @@
         <v>3</v>
       </c>
       <c r="U53">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V53">
         <v>1435</v>
       </c>
       <c r="W53">
-        <v>0.06799204607417572</v>
+        <v>0.06794979854098304</v>
       </c>
       <c r="X53" t="s">
         <v>846</v>
@@ -6530,7 +6530,7 @@
         <v>2543</v>
       </c>
       <c r="B54">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6554,7 +6554,7 @@
         <v>8</v>
       </c>
       <c r="J54" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K54" t="s">
         <v>34</v>
@@ -6581,13 +6581,13 @@
         <v>3</v>
       </c>
       <c r="U54">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="V54">
         <v>1434</v>
       </c>
       <c r="W54">
-        <v>0.008790381217593322</v>
+        <v>0.008723491925679552</v>
       </c>
       <c r="X54" t="s">
         <v>845</v>
@@ -6655,7 +6655,7 @@
         <v>1434</v>
       </c>
       <c r="W55">
-        <v>0.0006104219077747387</v>
+        <v>0.000609989893173967</v>
       </c>
       <c r="X55" t="s">
         <v>845</v>
@@ -6675,7 +6675,7 @@
         <v>820</v>
       </c>
       <c r="E56">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="F56">
         <v>5</v>
@@ -6690,7 +6690,7 @@
         <v>8</v>
       </c>
       <c r="J56" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K56" t="s">
         <v>34</v>
@@ -6717,13 +6717,13 @@
         <v>3</v>
       </c>
       <c r="U56">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="V56">
-        <v>1411</v>
+        <v>1412</v>
       </c>
       <c r="W56">
-        <v>0.01126847075153569</v>
+        <v>0.01129241052276998</v>
       </c>
       <c r="X56" t="s">
         <v>845</v>
@@ -6794,7 +6794,7 @@
         <v>1418</v>
       </c>
       <c r="W57">
-        <v>0.1442023632057553</v>
+        <v>0.1441851099920813</v>
       </c>
       <c r="X57" t="s">
         <v>846</v>
@@ -6805,7 +6805,7 @@
         <v>2612</v>
       </c>
       <c r="B58">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6814,7 +6814,7 @@
         <v>2310</v>
       </c>
       <c r="E58">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -6829,7 +6829,7 @@
         <v>8</v>
       </c>
       <c r="J58" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K58" t="s">
         <v>34</v>
@@ -6859,10 +6859,10 @@
         <v>195</v>
       </c>
       <c r="V58">
-        <v>1417</v>
+        <v>1418</v>
       </c>
       <c r="W58">
-        <v>0.001050560846187898</v>
+        <v>0.001046228109856478</v>
       </c>
       <c r="X58" t="s">
         <v>845</v>
@@ -6882,7 +6882,7 @@
         <v>984.9</v>
       </c>
       <c r="E59">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -6897,7 +6897,7 @@
         <v>8</v>
       </c>
       <c r="J59" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K59" t="s">
         <v>34</v>
@@ -6921,13 +6921,13 @@
         <v>4</v>
       </c>
       <c r="U59">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="V59">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="W59">
-        <v>7.278959733668132E-05</v>
+        <v>7.404926774861006E-05</v>
       </c>
       <c r="X59" t="s">
         <v>845</v>
@@ -6995,7 +6995,7 @@
         <v>1387</v>
       </c>
       <c r="W60">
-        <v>0.04319092081057366</v>
+        <v>0.0431618814460815</v>
       </c>
       <c r="X60" t="s">
         <v>845</v>
@@ -7030,7 +7030,7 @@
         <v>8</v>
       </c>
       <c r="J61" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K61" t="s">
         <v>34</v>
@@ -7063,7 +7063,7 @@
         <v>1383</v>
       </c>
       <c r="W61">
-        <v>0.01529089767685436</v>
+        <v>0.01527629173801453</v>
       </c>
       <c r="X61" t="s">
         <v>845</v>
@@ -7098,7 +7098,7 @@
         <v>8</v>
       </c>
       <c r="J62" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K62" t="s">
         <v>34</v>
@@ -7131,7 +7131,7 @@
         <v>1377</v>
       </c>
       <c r="W62">
-        <v>0.01053941459318005</v>
+        <v>0.010529129325175</v>
       </c>
       <c r="X62" t="s">
         <v>845</v>
@@ -7151,7 +7151,7 @@
         <v>9453</v>
       </c>
       <c r="E63">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="F63">
         <v>4</v>
@@ -7190,13 +7190,13 @@
         <v>6</v>
       </c>
       <c r="U63">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="V63">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="W63">
-        <v>0.01056817703151831</v>
+        <v>0.01058052621242155</v>
       </c>
       <c r="X63" t="s">
         <v>845</v>
@@ -7207,7 +7207,7 @@
         <v>2881</v>
       </c>
       <c r="B64">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C64">
         <v>5</v>
@@ -7231,7 +7231,7 @@
         <v>8</v>
       </c>
       <c r="J64" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K64" t="s">
         <v>34</v>
@@ -7258,13 +7258,13 @@
         <v>4</v>
       </c>
       <c r="U64">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="V64">
         <v>1358</v>
       </c>
       <c r="W64">
-        <v>0.0050815463436082</v>
+        <v>0.005029657844534372</v>
       </c>
       <c r="X64" t="s">
         <v>845</v>
@@ -7275,7 +7275,7 @@
         <v>2894</v>
       </c>
       <c r="B65">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -7284,7 +7284,7 @@
         <v>1750</v>
       </c>
       <c r="E65">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="F65">
         <v>8</v>
@@ -7329,10 +7329,10 @@
         <v>935</v>
       </c>
       <c r="V65">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="W65">
-        <v>0.07052931917063675</v>
+        <v>0.07037289495460403</v>
       </c>
       <c r="X65" t="s">
         <v>846</v>
@@ -7343,7 +7343,7 @@
         <v>2908</v>
       </c>
       <c r="B66">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -7394,13 +7394,13 @@
         <v>4</v>
       </c>
       <c r="U66">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V66">
         <v>1348</v>
       </c>
       <c r="W66">
-        <v>0.09470907830216957</v>
+        <v>0.09466330587591607</v>
       </c>
       <c r="X66" t="s">
         <v>846</v>
@@ -7468,7 +7468,7 @@
         <v>1347</v>
       </c>
       <c r="W67">
-        <v>0.06575245628957567</v>
+        <v>0.06573822161840683</v>
       </c>
       <c r="X67" t="s">
         <v>846</v>
@@ -7479,7 +7479,7 @@
         <v>2936</v>
       </c>
       <c r="B68">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C68">
         <v>10</v>
@@ -7488,7 +7488,7 @@
         <v>3155</v>
       </c>
       <c r="E68">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="F68">
         <v>10</v>
@@ -7533,10 +7533,10 @@
         <v>1234</v>
       </c>
       <c r="V68">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="W68">
-        <v>0.1887750875317722</v>
+        <v>0.1885041763388982</v>
       </c>
       <c r="X68" t="s">
         <v>846</v>
@@ -7556,7 +7556,7 @@
         <v>4230</v>
       </c>
       <c r="E69">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F69">
         <v>6</v>
@@ -7571,7 +7571,7 @@
         <v>8</v>
       </c>
       <c r="J69" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K69" t="s">
         <v>34</v>
@@ -7595,13 +7595,13 @@
         <v>4</v>
       </c>
       <c r="U69">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="V69">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="W69">
-        <v>0.02944841778685998</v>
+        <v>0.02946730414030584</v>
       </c>
       <c r="X69" t="s">
         <v>845</v>
@@ -7612,7 +7612,7 @@
         <v>3117</v>
       </c>
       <c r="B70">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C70">
         <v>4</v>
@@ -7663,13 +7663,13 @@
         <v>3</v>
       </c>
       <c r="U70">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="V70">
         <v>1292</v>
       </c>
       <c r="W70">
-        <v>0.05244655490935515</v>
+        <v>0.05232409704421885</v>
       </c>
       <c r="X70" t="s">
         <v>845</v>
@@ -7680,7 +7680,7 @@
         <v>3138</v>
       </c>
       <c r="B71">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -7704,7 +7704,7 @@
         <v>7</v>
       </c>
       <c r="J71" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K71" t="s">
         <v>34</v>
@@ -7728,13 +7728,13 @@
         <v>3</v>
       </c>
       <c r="U71">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="V71">
         <v>1287</v>
       </c>
       <c r="W71">
-        <v>0.07081473374804843</v>
+        <v>0.07074723326439658</v>
       </c>
       <c r="X71" t="s">
         <v>846</v>
@@ -7745,7 +7745,7 @@
         <v>3151</v>
       </c>
       <c r="B72">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C72">
         <v>5</v>
@@ -7769,7 +7769,7 @@
         <v>7</v>
       </c>
       <c r="J72" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K72" t="s">
         <v>34</v>
@@ -7796,13 +7796,13 @@
         <v>4</v>
       </c>
       <c r="U72">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="V72">
         <v>1285</v>
       </c>
       <c r="W72">
-        <v>0.0200145549161726</v>
+        <v>0.0198694112982946</v>
       </c>
       <c r="X72" t="s">
         <v>845</v>
@@ -7813,7 +7813,7 @@
         <v>3154</v>
       </c>
       <c r="B73">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C73">
         <v>4</v>
@@ -7822,7 +7822,7 @@
         <v>2615</v>
       </c>
       <c r="E73">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F73">
         <v>9</v>
@@ -7837,7 +7837,7 @@
         <v>7</v>
       </c>
       <c r="J73" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K73" t="s">
         <v>34</v>
@@ -7867,10 +7867,10 @@
         <v>1029</v>
       </c>
       <c r="V73">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="W73">
-        <v>0.07136328283173127</v>
+        <v>0.07125689771716621</v>
       </c>
       <c r="X73" t="s">
         <v>846</v>
@@ -7881,7 +7881,7 @@
         <v>3212</v>
       </c>
       <c r="B74">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -7932,13 +7932,13 @@
         <v>3</v>
       </c>
       <c r="U74">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="V74">
         <v>1272</v>
       </c>
       <c r="W74">
-        <v>0.06178539345633906</v>
+        <v>0.06168255862819658</v>
       </c>
       <c r="X74" t="s">
         <v>846</v>
@@ -7949,7 +7949,7 @@
         <v>3265</v>
       </c>
       <c r="B75">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -7973,7 +7973,7 @@
         <v>7</v>
       </c>
       <c r="J75" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K75" t="s">
         <v>34</v>
@@ -8000,13 +8000,13 @@
         <v>3</v>
       </c>
       <c r="U75">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="V75">
         <v>1259</v>
       </c>
       <c r="W75">
-        <v>0.006170054021349138</v>
+        <v>0.006110254204937787</v>
       </c>
       <c r="X75" t="s">
         <v>845</v>
@@ -8071,7 +8071,7 @@
         <v>1247</v>
       </c>
       <c r="W76">
-        <v>0.07415853996747425</v>
+        <v>0.07412959492321655</v>
       </c>
       <c r="X76" t="s">
         <v>846</v>
@@ -8091,7 +8091,7 @@
         <v>1720</v>
       </c>
       <c r="E77">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F77">
         <v>3</v>
@@ -8106,7 +8106,7 @@
         <v>7</v>
       </c>
       <c r="J77" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K77" t="s">
         <v>34</v>
@@ -8133,13 +8133,13 @@
         <v>3</v>
       </c>
       <c r="U77">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V77">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="W77">
-        <v>0.0001286401089158975</v>
+        <v>0.00013129685107721</v>
       </c>
       <c r="X77" t="s">
         <v>845</v>
@@ -8159,7 +8159,7 @@
         <v>3649</v>
       </c>
       <c r="E78">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F78">
         <v>8</v>
@@ -8201,13 +8201,13 @@
         <v>5</v>
       </c>
       <c r="U78">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="V78">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="W78">
-        <v>0.0674218429917556</v>
+        <v>0.06738634188366981</v>
       </c>
       <c r="X78" t="s">
         <v>846</v>
@@ -8227,7 +8227,7 @@
         <v>6787</v>
       </c>
       <c r="E79">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F79">
         <v>10</v>
@@ -8269,13 +8269,13 @@
         <v>8</v>
       </c>
       <c r="U79">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="V79">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="W79">
-        <v>0.1777152691489366</v>
+        <v>0.1775713221920016</v>
       </c>
       <c r="X79" t="s">
         <v>846</v>
@@ -8286,7 +8286,7 @@
         <v>3367</v>
       </c>
       <c r="B80">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C80">
         <v>4</v>
@@ -8334,13 +8334,13 @@
         <v>3</v>
       </c>
       <c r="U80">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="V80">
         <v>1232</v>
       </c>
       <c r="W80">
-        <v>0.06283107127062228</v>
+        <v>0.06272037969079702</v>
       </c>
       <c r="X80" t="s">
         <v>846</v>
@@ -8351,7 +8351,7 @@
         <v>3368</v>
       </c>
       <c r="B81">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81">
         <v>5</v>
@@ -8402,13 +8402,13 @@
         <v>4</v>
       </c>
       <c r="U81">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V81">
         <v>1231</v>
       </c>
       <c r="W81">
-        <v>0.1051089016730467</v>
+        <v>0.1050668400851715</v>
       </c>
       <c r="X81" t="s">
         <v>846</v>
@@ -8419,7 +8419,7 @@
         <v>3396</v>
       </c>
       <c r="B82">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C82">
         <v>4</v>
@@ -8428,7 +8428,7 @@
         <v>1403.9</v>
       </c>
       <c r="E82">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="F82">
         <v>5</v>
@@ -8443,7 +8443,7 @@
         <v>7</v>
       </c>
       <c r="J82" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K82" t="s">
         <v>34</v>
@@ -8473,10 +8473,10 @@
         <v>207</v>
       </c>
       <c r="V82">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="W82">
-        <v>0.00242631245704304</v>
+        <v>0.00241526548252576</v>
       </c>
       <c r="X82" t="s">
         <v>845</v>
@@ -8487,7 +8487,7 @@
         <v>3419</v>
       </c>
       <c r="B83">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C83">
         <v>5</v>
@@ -8538,13 +8538,13 @@
         <v>4</v>
       </c>
       <c r="U83">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V83">
         <v>1217</v>
       </c>
       <c r="W83">
-        <v>0.09986133824687926</v>
+        <v>0.09978691926419694</v>
       </c>
       <c r="X83" t="s">
         <v>846</v>
@@ -8555,7 +8555,7 @@
         <v>3465</v>
       </c>
       <c r="B84">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C84">
         <v>4</v>
@@ -8564,7 +8564,7 @@
         <v>1765</v>
       </c>
       <c r="E84">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="F84">
         <v>9</v>
@@ -8579,7 +8579,7 @@
         <v>7</v>
       </c>
       <c r="J84" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K84" t="s">
         <v>34</v>
@@ -8609,10 +8609,10 @@
         <v>978</v>
       </c>
       <c r="V84">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="W84">
-        <v>0.07633438689254121</v>
+        <v>0.07621726406474255</v>
       </c>
       <c r="X84" t="s">
         <v>846</v>
@@ -8623,7 +8623,7 @@
         <v>3544</v>
       </c>
       <c r="B85">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="C85">
         <v>5</v>
@@ -8632,7 +8632,7 @@
         <v>1904.9</v>
       </c>
       <c r="E85">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="F85">
         <v>5</v>
@@ -8647,7 +8647,7 @@
         <v>7</v>
       </c>
       <c r="J85" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K85" t="s">
         <v>34</v>
@@ -8674,10 +8674,10 @@
         <v>166</v>
       </c>
       <c r="V85">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="W85">
-        <v>0.0006027932312765662</v>
+        <v>0.0005997118309508738</v>
       </c>
       <c r="X85" t="s">
         <v>845</v>
@@ -8688,7 +8688,7 @@
         <v>3547</v>
       </c>
       <c r="B86">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C86">
         <v>4</v>
@@ -8697,7 +8697,7 @@
         <v>1450</v>
       </c>
       <c r="E86">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="F86">
         <v>8</v>
@@ -8742,10 +8742,10 @@
         <v>1367</v>
       </c>
       <c r="V86">
-        <v>1700</v>
+        <v>1701</v>
       </c>
       <c r="W86">
-        <v>0.05519362101435344</v>
+        <v>0.05512826663907204</v>
       </c>
       <c r="X86" t="s">
         <v>845</v>
@@ -8765,7 +8765,7 @@
         <v>1779.9</v>
       </c>
       <c r="E87">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="F87">
         <v>6</v>
@@ -8780,7 +8780,7 @@
         <v>7</v>
       </c>
       <c r="J87" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K87" t="s">
         <v>34</v>
@@ -8807,13 +8807,13 @@
         <v>4</v>
       </c>
       <c r="U87">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="V87">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="W87">
-        <v>0.007986896535735873</v>
+        <v>0.008022441850466392</v>
       </c>
       <c r="X87" t="s">
         <v>845</v>
@@ -8824,7 +8824,7 @@
         <v>3631</v>
       </c>
       <c r="B88">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -8833,7 +8833,7 @@
         <v>2580</v>
       </c>
       <c r="E88">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -8848,7 +8848,7 @@
         <v>7</v>
       </c>
       <c r="J88" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K88" t="s">
         <v>34</v>
@@ -8878,10 +8878,10 @@
         <v>357</v>
       </c>
       <c r="V88">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="W88">
-        <v>0.00799306109064586</v>
+        <v>0.007949759978404504</v>
       </c>
       <c r="X88" t="s">
         <v>845</v>
@@ -8949,7 +8949,7 @@
         <v>1158</v>
       </c>
       <c r="W89">
-        <v>0.1624578052020743</v>
+        <v>0.1624250581620271</v>
       </c>
       <c r="X89" t="s">
         <v>846</v>
@@ -8984,7 +8984,7 @@
         <v>7</v>
       </c>
       <c r="J90" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K90" t="s">
         <v>34</v>
@@ -9014,7 +9014,7 @@
         <v>1156</v>
       </c>
       <c r="W90">
-        <v>0.001972331515081055</v>
+        <v>0.001971017179700223</v>
       </c>
       <c r="X90" t="s">
         <v>845</v>
@@ -9025,7 +9025,7 @@
         <v>3653</v>
       </c>
       <c r="B91">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C91">
         <v>6</v>
@@ -9076,13 +9076,13 @@
         <v>5</v>
       </c>
       <c r="U91">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="V91">
         <v>1156</v>
       </c>
       <c r="W91">
-        <v>0.02468998300993722</v>
+        <v>0.02447706694931947</v>
       </c>
       <c r="X91" t="s">
         <v>845</v>
@@ -9117,7 +9117,7 @@
         <v>7</v>
       </c>
       <c r="J92" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K92" t="s">
         <v>34</v>
@@ -9150,7 +9150,7 @@
         <v>1149</v>
       </c>
       <c r="W92">
-        <v>0.001211950342507547</v>
+        <v>0.001211318574318826</v>
       </c>
       <c r="X92" t="s">
         <v>845</v>
@@ -9161,7 +9161,7 @@
         <v>3695</v>
       </c>
       <c r="B93">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -9212,13 +9212,13 @@
         <v>3</v>
       </c>
       <c r="U93">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V93">
         <v>1147</v>
       </c>
       <c r="W93">
-        <v>0.08550368919150711</v>
+        <v>0.08545180983415743</v>
       </c>
       <c r="X93" t="s">
         <v>846</v>
@@ -9229,7 +9229,7 @@
         <v>3710</v>
       </c>
       <c r="B94">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C94">
         <v>7</v>
@@ -9277,13 +9277,13 @@
         <v>6</v>
       </c>
       <c r="U94">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V94">
         <v>1144</v>
       </c>
       <c r="W94">
-        <v>0.1566465838112304</v>
+        <v>0.1565641535185163</v>
       </c>
       <c r="X94" t="s">
         <v>846</v>
@@ -9303,7 +9303,7 @@
         <v>3435.01</v>
       </c>
       <c r="E95">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="F95">
         <v>8</v>
@@ -9345,13 +9345,13 @@
         <v>7</v>
       </c>
       <c r="U95">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="V95">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="W95">
-        <v>0.08861396405433823</v>
+        <v>0.08862431562401098</v>
       </c>
       <c r="X95" t="s">
         <v>846</v>
@@ -9386,7 +9386,7 @@
         <v>7</v>
       </c>
       <c r="J96" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K96" t="s">
         <v>34</v>
@@ -9416,7 +9416,7 @@
         <v>1141</v>
       </c>
       <c r="W96">
-        <v>0.002268351779774132</v>
+        <v>0.00226680125729896</v>
       </c>
       <c r="X96" t="s">
         <v>845</v>
@@ -9427,7 +9427,7 @@
         <v>3749</v>
       </c>
       <c r="B97">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -9436,7 +9436,7 @@
         <v>1764.9</v>
       </c>
       <c r="E97">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="F97">
         <v>7</v>
@@ -9481,10 +9481,10 @@
         <v>449</v>
       </c>
       <c r="V97">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="W97">
-        <v>0.02541607278973415</v>
+        <v>0.02531216594006679</v>
       </c>
       <c r="X97" t="s">
         <v>845</v>
@@ -9495,7 +9495,7 @@
         <v>3799</v>
       </c>
       <c r="B98">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="C98">
         <v>6</v>
@@ -9504,7 +9504,7 @@
         <v>1815</v>
       </c>
       <c r="E98">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="F98">
         <v>6</v>
@@ -9519,7 +9519,7 @@
         <v>6</v>
       </c>
       <c r="J98" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K98" t="s">
         <v>34</v>
@@ -9549,10 +9549,10 @@
         <v>360</v>
       </c>
       <c r="V98">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="W98">
-        <v>0.005894380366094779</v>
+        <v>0.005856873437713651</v>
       </c>
       <c r="X98" t="s">
         <v>845</v>
@@ -9572,7 +9572,7 @@
         <v>2430</v>
       </c>
       <c r="E99">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -9587,7 +9587,7 @@
         <v>6</v>
       </c>
       <c r="J99" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K99" t="s">
         <v>34</v>
@@ -9614,13 +9614,13 @@
         <v>4</v>
       </c>
       <c r="U99">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="V99">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="W99">
-        <v>0.012954061995837</v>
+        <v>0.01299956352349956</v>
       </c>
       <c r="X99" t="s">
         <v>845</v>
@@ -9640,7 +9640,7 @@
         <v>2150</v>
       </c>
       <c r="E100">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -9655,7 +9655,7 @@
         <v>6</v>
       </c>
       <c r="J100" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K100" t="s">
         <v>34</v>
@@ -9682,13 +9682,13 @@
         <v>4</v>
       </c>
       <c r="U100">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="V100">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="W100">
-        <v>0.01020823743916842</v>
+        <v>0.01025072523818042</v>
       </c>
       <c r="X100" t="s">
         <v>845</v>
@@ -9699,7 +9699,7 @@
         <v>3926</v>
       </c>
       <c r="B101">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C101">
         <v>6</v>
@@ -9708,7 +9708,7 @@
         <v>2400</v>
       </c>
       <c r="E101">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="F101">
         <v>10</v>
@@ -9753,10 +9753,10 @@
         <v>938</v>
       </c>
       <c r="V101">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="W101">
-        <v>0.1304405757369423</v>
+        <v>0.1302149043068065</v>
       </c>
       <c r="X101" t="s">
         <v>846</v>
@@ -9776,7 +9776,7 @@
         <v>2823.8</v>
       </c>
       <c r="E102">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="F102">
         <v>4</v>
@@ -9818,13 +9818,13 @@
         <v>3</v>
       </c>
       <c r="U102">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="V102">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="W102">
-        <v>0.0003939666034044006</v>
+        <v>0.0004005039114209857</v>
       </c>
       <c r="X102" t="s">
         <v>845</v>
@@ -9844,7 +9844,7 @@
         <v>1208</v>
       </c>
       <c r="E103">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="F103">
         <v>9</v>
@@ -9859,7 +9859,7 @@
         <v>6</v>
       </c>
       <c r="J103" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K103" t="s">
         <v>34</v>
@@ -9886,13 +9886,13 @@
         <v>3</v>
       </c>
       <c r="U103">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="V103">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="W103">
-        <v>0.08317105554418765</v>
+        <v>0.08310015908048013</v>
       </c>
       <c r="X103" t="s">
         <v>846</v>
@@ -9960,7 +9960,7 @@
         <v>1067</v>
       </c>
       <c r="W104">
-        <v>0.05699686346117754</v>
+        <v>0.05696097211041394</v>
       </c>
       <c r="X104" t="s">
         <v>846</v>
@@ -10028,7 +10028,7 @@
         <v>808</v>
       </c>
       <c r="W105">
-        <v>0.1494482899584643</v>
+        <v>0.1494284821219683</v>
       </c>
       <c r="X105" t="s">
         <v>846</v>
@@ -10048,7 +10048,7 @@
         <v>1095</v>
       </c>
       <c r="E106">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="F106">
         <v>9</v>
@@ -10063,7 +10063,7 @@
         <v>6</v>
       </c>
       <c r="J106" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K106" t="s">
         <v>34</v>
@@ -10090,13 +10090,13 @@
         <v>3</v>
       </c>
       <c r="U106">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="V106">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="W106">
-        <v>0.08234634345541331</v>
+        <v>0.08227729758964608</v>
       </c>
       <c r="X106" t="s">
         <v>846</v>
@@ -10107,7 +10107,7 @@
         <v>4121</v>
       </c>
       <c r="B107">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -10116,7 +10116,7 @@
         <v>5780</v>
       </c>
       <c r="E107">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="F107">
         <v>10</v>
@@ -10161,10 +10161,10 @@
         <v>981</v>
       </c>
       <c r="V107">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="W107">
-        <v>0.0949903904831069</v>
+        <v>0.09485974123083167</v>
       </c>
       <c r="X107" t="s">
         <v>846</v>
@@ -10175,7 +10175,7 @@
         <v>4123</v>
       </c>
       <c r="B108">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C108">
         <v>5</v>
@@ -10199,7 +10199,7 @@
         <v>6</v>
       </c>
       <c r="J108" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K108" t="s">
         <v>34</v>
@@ -10223,13 +10223,13 @@
         <v>4</v>
       </c>
       <c r="U108">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V108">
         <v>1041</v>
       </c>
       <c r="W108">
-        <v>0.1105163447132199</v>
+        <v>0.1103970890183549</v>
       </c>
       <c r="X108" t="s">
         <v>846</v>
@@ -10297,7 +10297,7 @@
         <v>1029</v>
       </c>
       <c r="W109">
-        <v>0.4693397168806109</v>
+        <v>0.4692743596278763</v>
       </c>
       <c r="X109" t="s">
         <v>846</v>
@@ -10308,7 +10308,7 @@
         <v>4218</v>
       </c>
       <c r="B110">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C110">
         <v>4</v>
@@ -10359,13 +10359,13 @@
         <v>3</v>
       </c>
       <c r="U110">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="V110">
         <v>1013</v>
       </c>
       <c r="W110">
-        <v>0.09514725241351363</v>
+        <v>0.09508173335517774</v>
       </c>
       <c r="X110" t="s">
         <v>846</v>
@@ -10376,7 +10376,7 @@
         <v>4240</v>
       </c>
       <c r="B111">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -10400,7 +10400,7 @@
         <v>6</v>
       </c>
       <c r="J111" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K111" t="s">
         <v>34</v>
@@ -10427,13 +10427,13 @@
         <v>3</v>
       </c>
       <c r="U111">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="V111">
         <v>1005</v>
       </c>
       <c r="W111">
-        <v>0.01338152468870412</v>
+        <v>0.01325384593126946</v>
       </c>
       <c r="X111" t="s">
         <v>845</v>
@@ -10498,7 +10498,7 @@
         <v>999</v>
       </c>
       <c r="W112">
-        <v>0.1003518489647389</v>
+        <v>0.100343666730437</v>
       </c>
       <c r="X112" t="s">
         <v>846</v>
@@ -10509,7 +10509,7 @@
         <v>4298</v>
       </c>
       <c r="B113">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C113">
         <v>6</v>
@@ -10533,7 +10533,7 @@
         <v>8</v>
       </c>
       <c r="J113" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K113" t="s">
         <v>34</v>
@@ -10560,13 +10560,13 @@
         <v>5</v>
       </c>
       <c r="U113">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="V113">
         <v>1377</v>
       </c>
       <c r="W113">
-        <v>0.002266097314018765</v>
+        <v>0.002238136526989867</v>
       </c>
       <c r="X113" t="s">
         <v>845</v>
@@ -10577,7 +10577,7 @@
         <v>4524</v>
       </c>
       <c r="B114">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C114">
         <v>5</v>
@@ -10586,7 +10586,7 @@
         <v>1880</v>
       </c>
       <c r="E114">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F114">
         <v>10</v>
@@ -10631,10 +10631,10 @@
         <v>907</v>
       </c>
       <c r="V114">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="W114">
-        <v>0.134862381042707</v>
+        <v>0.134663188968052</v>
       </c>
       <c r="X114" t="s">
         <v>846</v>
@@ -10654,7 +10654,7 @@
         <v>2710</v>
       </c>
       <c r="E115">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="F115">
         <v>8</v>
@@ -10696,13 +10696,13 @@
         <v>5</v>
       </c>
       <c r="U115">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="V115">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="W115">
-        <v>0.09881065128125921</v>
+        <v>0.09878786119404158</v>
       </c>
       <c r="X115" t="s">
         <v>846</v>
@@ -10713,7 +10713,7 @@
         <v>4623</v>
       </c>
       <c r="B116">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C116">
         <v>5</v>
@@ -10722,7 +10722,7 @@
         <v>3355</v>
       </c>
       <c r="E116">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="F116">
         <v>6</v>
@@ -10737,7 +10737,7 @@
         <v>8</v>
       </c>
       <c r="J116" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K116" t="s">
         <v>34</v>
@@ -10767,10 +10767,10 @@
         <v>653</v>
       </c>
       <c r="V116">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="W116">
-        <v>0.02963043624821821</v>
+        <v>0.02951157743406969</v>
       </c>
       <c r="X116" t="s">
         <v>845</v>
@@ -10781,7 +10781,7 @@
         <v>4683</v>
       </c>
       <c r="B117">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C117">
         <v>6</v>
@@ -10790,7 +10790,7 @@
         <v>1430</v>
       </c>
       <c r="E117">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="F117">
         <v>9</v>
@@ -10805,7 +10805,7 @@
         <v>5</v>
       </c>
       <c r="J117" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K117" t="s">
         <v>34</v>
@@ -10835,10 +10835,10 @@
         <v>690</v>
       </c>
       <c r="V117">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="W117">
-        <v>0.1442262756750825</v>
+        <v>0.1438563546264894</v>
       </c>
       <c r="X117" t="s">
         <v>846</v>
@@ -10849,7 +10849,7 @@
         <v>4703</v>
       </c>
       <c r="B118">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C118">
         <v>5</v>
@@ -10858,7 +10858,7 @@
         <v>2360</v>
       </c>
       <c r="E118">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="F118">
         <v>8</v>
@@ -10903,10 +10903,10 @@
         <v>466</v>
       </c>
       <c r="V118">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="W118">
-        <v>0.06675803029834684</v>
+        <v>0.0664536113653424</v>
       </c>
       <c r="X118" t="s">
         <v>846</v>
@@ -10926,7 +10926,7 @@
         <v>830</v>
       </c>
       <c r="E119">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F119">
         <v>8</v>
@@ -10968,13 +10968,13 @@
         <v>3</v>
       </c>
       <c r="U119">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="V119">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="W119">
-        <v>0.07254058199486266</v>
+        <v>0.07251053477246476</v>
       </c>
       <c r="X119" t="s">
         <v>846</v>
@@ -11039,7 +11039,7 @@
         <v>825</v>
       </c>
       <c r="W120">
-        <v>0.1187695278007776</v>
+        <v>0.1187577940775333</v>
       </c>
       <c r="X120" t="s">
         <v>846</v>
@@ -11050,7 +11050,7 @@
         <v>4874</v>
       </c>
       <c r="B121">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -11059,7 +11059,7 @@
         <v>2214</v>
       </c>
       <c r="E121">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="F121">
         <v>7</v>
@@ -11104,10 +11104,10 @@
         <v>935</v>
       </c>
       <c r="V121">
-        <v>1594</v>
+        <v>1595</v>
       </c>
       <c r="W121">
-        <v>0.03983711662730185</v>
+        <v>0.03974915029954908</v>
       </c>
       <c r="X121" t="s">
         <v>845</v>
@@ -11142,7 +11142,7 @@
         <v>5</v>
       </c>
       <c r="J122" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K122" t="s">
         <v>34</v>
@@ -11175,7 +11175,7 @@
         <v>818</v>
       </c>
       <c r="W122">
-        <v>0.0940120348873739</v>
+        <v>0.09398207684456544</v>
       </c>
       <c r="X122" t="s">
         <v>846</v>
@@ -11243,7 +11243,7 @@
         <v>1034</v>
       </c>
       <c r="W123">
-        <v>0.04486868204763549</v>
+        <v>0.04484014470483217</v>
       </c>
       <c r="X123" t="s">
         <v>845</v>
@@ -11263,7 +11263,7 @@
         <v>1740.03</v>
       </c>
       <c r="E124">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="F124">
         <v>10</v>
@@ -11305,13 +11305,13 @@
         <v>3</v>
       </c>
       <c r="U124">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="V124">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="W124">
-        <v>0.1192589304773253</v>
+        <v>0.1191223329087214</v>
       </c>
       <c r="X124" t="s">
         <v>846</v>
@@ -11322,7 +11322,7 @@
         <v>5056</v>
       </c>
       <c r="B125">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -11373,13 +11373,13 @@
         <v>3</v>
       </c>
       <c r="U125">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="V125">
         <v>777</v>
       </c>
       <c r="W125">
-        <v>0.1148998747569819</v>
+        <v>0.1147715212914725</v>
       </c>
       <c r="X125" t="s">
         <v>846</v>
@@ -11414,7 +11414,7 @@
         <v>4</v>
       </c>
       <c r="J126" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K126" t="s">
         <v>34</v>
@@ -11444,7 +11444,7 @@
         <v>752</v>
       </c>
       <c r="W126">
-        <v>0.1823395972700478</v>
+        <v>0.1822780827499525</v>
       </c>
       <c r="X126" t="s">
         <v>846</v>
@@ -11455,7 +11455,7 @@
         <v>5151</v>
       </c>
       <c r="B127">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C127">
         <v>4</v>
@@ -11464,7 +11464,7 @@
         <v>1359</v>
       </c>
       <c r="E127">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="F127">
         <v>10</v>
@@ -11506,10 +11506,10 @@
         <v>609</v>
       </c>
       <c r="V127">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="W127">
-        <v>0.1170756697907032</v>
+        <v>0.116816900115165</v>
       </c>
       <c r="X127" t="s">
         <v>846</v>
@@ -11529,7 +11529,7 @@
         <v>2795.01</v>
       </c>
       <c r="E128">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F128">
         <v>6</v>
@@ -11544,7 +11544,7 @@
         <v>7</v>
       </c>
       <c r="J128" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K128" t="s">
         <v>34</v>
@@ -11568,13 +11568,13 @@
         <v>5</v>
       </c>
       <c r="U128">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V128">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="W128">
-        <v>0.01164073061800762</v>
+        <v>0.01168293203990138</v>
       </c>
       <c r="X128" t="s">
         <v>845</v>
@@ -11594,7 +11594,7 @@
         <v>1828</v>
       </c>
       <c r="E129">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="F129">
         <v>7</v>
@@ -11633,13 +11633,13 @@
         <v>4</v>
       </c>
       <c r="U129">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="V129">
-        <v>1567</v>
+        <v>1568</v>
       </c>
       <c r="W129">
-        <v>0.04339201640411288</v>
+        <v>0.04338359394307609</v>
       </c>
       <c r="X129" t="s">
         <v>845</v>
@@ -11650,7 +11650,7 @@
         <v>5260</v>
       </c>
       <c r="B130">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -11674,7 +11674,7 @@
         <v>9</v>
       </c>
       <c r="J130" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K130" t="s">
         <v>34</v>
@@ -11698,13 +11698,13 @@
         <v>4</v>
       </c>
       <c r="U130">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V130">
         <v>1691</v>
       </c>
       <c r="W130">
-        <v>0.03848370919862957</v>
+        <v>0.03835789957014515</v>
       </c>
       <c r="X130" t="s">
         <v>845</v>
@@ -11724,7 +11724,7 @@
         <v>3974</v>
       </c>
       <c r="E131">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="F131">
         <v>8</v>
@@ -11766,13 +11766,13 @@
         <v>6</v>
       </c>
       <c r="U131">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="V131">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="W131">
-        <v>0.02198367665149568</v>
+        <v>0.02211628432704844</v>
       </c>
       <c r="X131" t="s">
         <v>845</v>
@@ -11840,7 +11840,7 @@
         <v>1002</v>
       </c>
       <c r="W132">
-        <v>0.01381675716028252</v>
+        <v>0.01380538944978579</v>
       </c>
       <c r="X132" t="s">
         <v>845</v>
@@ -11860,7 +11860,7 @@
         <v>4298.9</v>
       </c>
       <c r="E133">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="F133">
         <v>10</v>
@@ -11899,13 +11899,13 @@
         <v>5</v>
       </c>
       <c r="U133">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="V133">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="W133">
-        <v>0.1829834517213427</v>
+        <v>0.1827787777653252</v>
       </c>
       <c r="X133" t="s">
         <v>846</v>
@@ -11925,7 +11925,7 @@
         <v>1750</v>
       </c>
       <c r="E134">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="F134">
         <v>9</v>
@@ -11940,7 +11940,7 @@
         <v>4</v>
       </c>
       <c r="J134" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K134" t="s">
         <v>34</v>
@@ -11964,13 +11964,13 @@
         <v>3</v>
       </c>
       <c r="U134">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="V134">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="W134">
-        <v>0.1068787328651875</v>
+        <v>0.1067665379618921</v>
       </c>
       <c r="X134" t="s">
         <v>846</v>
@@ -12005,7 +12005,7 @@
         <v>4</v>
       </c>
       <c r="J135" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K135" t="s">
         <v>34</v>
@@ -12038,7 +12038,7 @@
         <v>633</v>
       </c>
       <c r="W135">
-        <v>0.1929017981738795</v>
+        <v>0.1928237124783625</v>
       </c>
       <c r="X135" t="s">
         <v>846</v>
@@ -12073,7 +12073,7 @@
         <v>3</v>
       </c>
       <c r="J136" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K136" t="s">
         <v>34</v>
@@ -12103,7 +12103,7 @@
         <v>603</v>
       </c>
       <c r="W136">
-        <v>0.11505965530638</v>
+        <v>0.1150166085975612</v>
       </c>
       <c r="X136" t="s">
         <v>846</v>
@@ -12114,7 +12114,7 @@
         <v>5582</v>
       </c>
       <c r="B137">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -12123,7 +12123,7 @@
         <v>860</v>
       </c>
       <c r="E137">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="F137">
         <v>8</v>
@@ -12168,10 +12168,10 @@
         <v>261</v>
       </c>
       <c r="V137">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="W137">
-        <v>0.07030628909024185</v>
+        <v>0.06993067369808402</v>
       </c>
       <c r="X137" t="s">
         <v>846</v>
@@ -12182,7 +12182,7 @@
         <v>5603</v>
       </c>
       <c r="B138">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -12191,7 +12191,7 @@
         <v>2045</v>
       </c>
       <c r="E138">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="F138">
         <v>10</v>
@@ -12236,10 +12236,10 @@
         <v>523</v>
       </c>
       <c r="V138">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="W138">
-        <v>0.1493406387265279</v>
+        <v>0.1489862119793758</v>
       </c>
       <c r="X138" t="s">
         <v>846</v>
@@ -12274,7 +12274,7 @@
         <v>3</v>
       </c>
       <c r="J139" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K139" t="s">
         <v>34</v>
@@ -12310,7 +12310,7 @@
         <v>420</v>
       </c>
       <c r="W139">
-        <v>0.07849557332742227</v>
+        <v>0.07846029660068241</v>
       </c>
       <c r="X139" t="s">
         <v>846</v>
@@ -12330,7 +12330,7 @@
         <v>2150</v>
       </c>
       <c r="E140">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="F140">
         <v>6</v>
@@ -12345,7 +12345,7 @@
         <v>9</v>
       </c>
       <c r="J140" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K140" t="s">
         <v>34</v>
@@ -12372,13 +12372,13 @@
         <v>3</v>
       </c>
       <c r="U140">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="V140">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="W140">
-        <v>0.03272525818799835</v>
+        <v>0.03271664266342281</v>
       </c>
       <c r="X140" t="s">
         <v>845</v>
@@ -12443,7 +12443,7 @@
         <v>530</v>
       </c>
       <c r="W141">
-        <v>0.3059579079519739</v>
+        <v>0.3058249817125754</v>
       </c>
       <c r="X141" t="s">
         <v>846</v>
@@ -12454,7 +12454,7 @@
         <v>5754</v>
       </c>
       <c r="B142">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C142">
         <v>9</v>
@@ -12505,13 +12505,13 @@
         <v>8</v>
       </c>
       <c r="U142">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="V142">
         <v>526</v>
       </c>
       <c r="W142">
-        <v>0.3875124152793549</v>
+        <v>0.3871004181384589</v>
       </c>
       <c r="X142" t="s">
         <v>846</v>
@@ -12531,7 +12531,7 @@
         <v>3429</v>
       </c>
       <c r="E143">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -12573,13 +12573,13 @@
         <v>3</v>
       </c>
       <c r="U143">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="V143">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="W143">
-        <v>0.1822799245148699</v>
+        <v>0.1819578668305594</v>
       </c>
       <c r="X143" t="s">
         <v>846</v>
@@ -12590,7 +12590,7 @@
         <v>5945</v>
       </c>
       <c r="B144">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -12599,7 +12599,7 @@
         <v>1310</v>
       </c>
       <c r="E144">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F144">
         <v>9</v>
@@ -12614,7 +12614,7 @@
         <v>3</v>
       </c>
       <c r="J144" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K144" t="s">
         <v>34</v>
@@ -12641,10 +12641,10 @@
         <v>268</v>
       </c>
       <c r="V144">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="W144">
-        <v>0.1383900878869854</v>
+        <v>0.1377548931030852</v>
       </c>
       <c r="X144" t="s">
         <v>846</v>
@@ -12664,7 +12664,7 @@
         <v>6694.1</v>
       </c>
       <c r="E145">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -12709,13 +12709,13 @@
         <v>24</v>
       </c>
       <c r="U145">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="V145">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="W145">
-        <v>0.5024029637292011</v>
+        <v>0.5020158101176749</v>
       </c>
       <c r="X145" t="s">
         <v>846</v>
@@ -12780,7 +12780,7 @@
         <v>432</v>
       </c>
       <c r="W146">
-        <v>0.8559356653524816</v>
+        <v>0.8555737725588279</v>
       </c>
       <c r="X146" t="s">
         <v>846</v>
@@ -12800,7 +12800,7 @@
         <v>1505</v>
       </c>
       <c r="E147">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="F147">
         <v>9</v>
@@ -12815,7 +12815,7 @@
         <v>4</v>
       </c>
       <c r="J147" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K147" t="s">
         <v>34</v>
@@ -12842,13 +12842,13 @@
         <v>3</v>
       </c>
       <c r="U147">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="V147">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="W147">
-        <v>0.09163377230277421</v>
+        <v>0.09157978500267022</v>
       </c>
       <c r="X147" t="s">
         <v>846</v>
@@ -12859,7 +12859,7 @@
         <v>6006</v>
       </c>
       <c r="B148">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -12868,7 +12868,7 @@
         <v>10580</v>
       </c>
       <c r="E148">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="F148">
         <v>9</v>
@@ -12883,7 +12883,7 @@
         <v>10</v>
       </c>
       <c r="J148" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K148" t="s">
         <v>34</v>
@@ -12913,10 +12913,10 @@
         <v>1432</v>
       </c>
       <c r="V148">
-        <v>1734</v>
+        <v>1735</v>
       </c>
       <c r="W148">
-        <v>0.05530135416190878</v>
+        <v>0.05524015328225884</v>
       </c>
       <c r="X148" t="s">
         <v>845</v>
@@ -12936,7 +12936,7 @@
         <v>1265</v>
       </c>
       <c r="E149">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F149">
         <v>9</v>
@@ -12951,7 +12951,7 @@
         <v>2</v>
       </c>
       <c r="J149" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K149" t="s">
         <v>34</v>
@@ -12978,13 +12978,13 @@
         <v>3</v>
       </c>
       <c r="U149">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="V149">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="W149">
-        <v>0.06777748837565575</v>
+        <v>0.0680128422269729</v>
       </c>
       <c r="X149" t="s">
         <v>846</v>
@@ -13004,7 +13004,7 @@
         <v>1130</v>
       </c>
       <c r="E150">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F150">
         <v>10</v>
@@ -13046,13 +13046,13 @@
         <v>3</v>
       </c>
       <c r="U150">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="V150">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="W150">
-        <v>0.1690551771406895</v>
+        <v>0.1687810597005177</v>
       </c>
       <c r="X150" t="s">
         <v>846</v>
@@ -13063,7 +13063,7 @@
         <v>6115</v>
       </c>
       <c r="B151">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -13072,7 +13072,7 @@
         <v>1265</v>
       </c>
       <c r="E151">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F151">
         <v>10</v>
@@ -13120,10 +13120,10 @@
         <v>250</v>
       </c>
       <c r="V151">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="W151">
-        <v>0.1708018327283508</v>
+        <v>0.1700267428038915</v>
       </c>
       <c r="X151" t="s">
         <v>846</v>
@@ -13191,7 +13191,7 @@
         <v>378</v>
       </c>
       <c r="W152">
-        <v>0.0306472508498044</v>
+        <v>0.03064330174611665</v>
       </c>
       <c r="X152" t="s">
         <v>845</v>
@@ -13211,7 +13211,7 @@
         <v>1538</v>
       </c>
       <c r="E153">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F153">
         <v>10</v>
@@ -13256,13 +13256,13 @@
         <v>9</v>
       </c>
       <c r="U153">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="V153">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="W153">
-        <v>0.409919342726522</v>
+        <v>0.4095480902594592</v>
       </c>
       <c r="X153" t="s">
         <v>846</v>
@@ -13273,7 +13273,7 @@
         <v>6219</v>
       </c>
       <c r="B154">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C154">
         <v>4</v>
@@ -13282,7 +13282,7 @@
         <v>5430</v>
       </c>
       <c r="E154">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F154">
         <v>9</v>
@@ -13297,7 +13297,7 @@
         <v>2</v>
       </c>
       <c r="J154" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K154" t="s">
         <v>34</v>
@@ -13324,10 +13324,10 @@
         <v>167</v>
       </c>
       <c r="V154">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="W154">
-        <v>0.1281988440680987</v>
+        <v>0.1273717607967673</v>
       </c>
       <c r="X154" t="s">
         <v>846</v>
@@ -13338,7 +13338,7 @@
         <v>6293</v>
       </c>
       <c r="B155">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C155">
         <v>7</v>
@@ -13347,7 +13347,7 @@
         <v>4940</v>
       </c>
       <c r="E155">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="F155">
         <v>8</v>
@@ -13389,10 +13389,10 @@
         <v>1012</v>
       </c>
       <c r="V155">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="W155">
-        <v>0.1081786958925967</v>
+        <v>0.1079239417918395</v>
       </c>
       <c r="X155" t="s">
         <v>846</v>
@@ -13403,7 +13403,7 @@
         <v>6352</v>
       </c>
       <c r="B156">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C156">
         <v>5</v>
@@ -13454,13 +13454,13 @@
         <v>4</v>
       </c>
       <c r="U156">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V156">
         <v>1106</v>
       </c>
       <c r="W156">
-        <v>0.1101445687548148</v>
+        <v>0.1100644226333734</v>
       </c>
       <c r="X156" t="s">
         <v>846</v>
@@ -13480,7 +13480,7 @@
         <v>1000</v>
       </c>
       <c r="E157">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F157">
         <v>9</v>
@@ -13495,7 +13495,7 @@
         <v>3</v>
       </c>
       <c r="J157" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K157" t="s">
         <v>34</v>
@@ -13519,13 +13519,13 @@
         <v>3</v>
       </c>
       <c r="U157">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="V157">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="W157">
-        <v>0.08370457334809475</v>
+        <v>0.08386506161851272</v>
       </c>
       <c r="X157" t="s">
         <v>846</v>
@@ -13590,7 +13590,7 @@
         <v>412</v>
       </c>
       <c r="W158">
-        <v>0.3400500820755675</v>
+        <v>0.3399495319586343</v>
       </c>
       <c r="X158" t="s">
         <v>846</v>
@@ -13610,7 +13610,7 @@
         <v>1510</v>
       </c>
       <c r="E159">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="F159">
         <v>10</v>
@@ -13655,13 +13655,13 @@
         <v>4</v>
       </c>
       <c r="U159">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="V159">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="W159">
-        <v>0.3889947372388046</v>
+        <v>0.3878232556770663</v>
       </c>
       <c r="X159" t="s">
         <v>846</v>
@@ -13672,7 +13672,7 @@
         <v>6539</v>
       </c>
       <c r="B160">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C160">
         <v>6</v>
@@ -13681,7 +13681,7 @@
         <v>590</v>
       </c>
       <c r="E160">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -13723,10 +13723,10 @@
         <v>177</v>
       </c>
       <c r="V160">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="W160">
-        <v>0.4758842642694603</v>
+        <v>0.4733910629205937</v>
       </c>
       <c r="X160" t="s">
         <v>846</v>
@@ -13746,7 +13746,7 @@
         <v>3917.5</v>
       </c>
       <c r="E161">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F161">
         <v>10</v>
@@ -13785,13 +13785,13 @@
         <v>4</v>
       </c>
       <c r="U161">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V161">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="W161">
-        <v>0.2972841841864658</v>
+        <v>0.2971478460781379</v>
       </c>
       <c r="X161" t="s">
         <v>846</v>
@@ -13811,7 +13811,7 @@
         <v>1456</v>
       </c>
       <c r="E162">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="F162">
         <v>9</v>
@@ -13826,7 +13826,7 @@
         <v>6</v>
       </c>
       <c r="J162" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K162" t="s">
         <v>34</v>
@@ -13850,13 +13850,13 @@
         <v>3</v>
       </c>
       <c r="U162">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="V162">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="W162">
-        <v>0.08736472641687552</v>
+        <v>0.08728772561103056</v>
       </c>
       <c r="X162" t="s">
         <v>846</v>
@@ -13867,7 +13867,7 @@
         <v>6929</v>
       </c>
       <c r="B163">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C163">
         <v>5</v>
@@ -13918,13 +13918,13 @@
         <v>4</v>
       </c>
       <c r="U163">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V163">
         <v>1114</v>
       </c>
       <c r="W163">
-        <v>0.1126790494949188</v>
+        <v>0.1126169696396953</v>
       </c>
       <c r="X163" t="s">
         <v>846</v>
@@ -13992,7 +13992,7 @@
         <v>2049</v>
       </c>
       <c r="W164">
-        <v>0.03893362566406081</v>
+        <v>0.0389207871238816</v>
       </c>
       <c r="X164" t="s">
         <v>845</v>
@@ -14027,7 +14027,7 @@
         <v>10</v>
       </c>
       <c r="J165" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K165" t="s">
         <v>34</v>
@@ -14057,7 +14057,7 @@
         <v>1997</v>
       </c>
       <c r="W165">
-        <v>0.03084396637399723</v>
+        <v>0.03082728215700426</v>
       </c>
       <c r="X165" t="s">
         <v>845</v>
@@ -14068,7 +14068,7 @@
         <v>7517</v>
       </c>
       <c r="B166">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -14119,13 +14119,13 @@
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="V166">
         <v>1985</v>
       </c>
       <c r="W166">
-        <v>0.05409932302006338</v>
+        <v>0.05408695835830967</v>
       </c>
       <c r="X166" t="s">
         <v>845</v>
@@ -14145,7 +14145,7 @@
         <v>1480</v>
       </c>
       <c r="E167">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="F167">
         <v>6</v>
@@ -14160,7 +14160,7 @@
         <v>10</v>
       </c>
       <c r="J167" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K167" t="s">
         <v>34</v>
@@ -14187,13 +14187,13 @@
         <v>4</v>
       </c>
       <c r="U167">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="V167">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="W167">
-        <v>0.03437903522463728</v>
+        <v>0.03437630391138709</v>
       </c>
       <c r="X167" t="s">
         <v>845</v>
@@ -14204,7 +14204,7 @@
         <v>7962</v>
       </c>
       <c r="B168">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="C168">
         <v>6</v>
@@ -14213,7 +14213,7 @@
         <v>4000</v>
       </c>
       <c r="E168">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="F168">
         <v>6</v>
@@ -14228,7 +14228,7 @@
         <v>8</v>
       </c>
       <c r="J168" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K168" t="s">
         <v>34</v>
@@ -14255,10 +14255,10 @@
         <v>551</v>
       </c>
       <c r="V168">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="W168">
-        <v>0.0127407815341838</v>
+        <v>0.012671629583536</v>
       </c>
       <c r="X168" t="s">
         <v>845</v>
@@ -14293,7 +14293,7 @@
         <v>9</v>
       </c>
       <c r="J169" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K169" t="s">
         <v>34</v>
@@ -14326,7 +14326,7 @@
         <v>1653</v>
       </c>
       <c r="W169">
-        <v>0.02842660508316349</v>
+        <v>0.02840687125642718</v>
       </c>
       <c r="X169" t="s">
         <v>845</v>
@@ -14361,7 +14361,7 @@
         <v>7</v>
       </c>
       <c r="J170" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K170" t="s">
         <v>34</v>
@@ -14394,7 +14394,7 @@
         <v>1279</v>
       </c>
       <c r="W170">
-        <v>0.02570032072197251</v>
+        <v>0.02567971502785315</v>
       </c>
       <c r="X170" t="s">
         <v>845</v>
@@ -14405,7 +14405,7 @@
         <v>8658</v>
       </c>
       <c r="B171">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -14453,13 +14453,13 @@
         <v>3</v>
       </c>
       <c r="U171">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="V171">
         <v>1286</v>
       </c>
       <c r="W171">
-        <v>0.001406843298794175</v>
+        <v>0.001387677451175659</v>
       </c>
       <c r="X171" t="s">
         <v>845</v>
@@ -14470,7 +14470,7 @@
         <v>8704</v>
       </c>
       <c r="B172">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C172">
         <v>4</v>
@@ -14494,7 +14494,7 @@
         <v>9</v>
       </c>
       <c r="J172" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K172" t="s">
         <v>34</v>
@@ -14518,13 +14518,13 @@
         <v>3</v>
       </c>
       <c r="U172">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="V172">
         <v>1678</v>
       </c>
       <c r="W172">
-        <v>0.02104092189006348</v>
+        <v>0.02095274301675139</v>
       </c>
       <c r="X172" t="s">
         <v>845</v>
@@ -14544,7 +14544,7 @@
         <v>2164</v>
       </c>
       <c r="E173">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F173">
         <v>8</v>
@@ -14583,13 +14583,13 @@
         <v>4</v>
       </c>
       <c r="U173">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V173">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="W173">
-        <v>0.06101733199564156</v>
+        <v>0.06105059562885196</v>
       </c>
       <c r="X173" t="s">
         <v>846</v>
@@ -14600,7 +14600,7 @@
         <v>9094</v>
       </c>
       <c r="B174">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C174">
         <v>5</v>
@@ -14609,7 +14609,7 @@
         <v>2057.91</v>
       </c>
       <c r="E174">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="F174">
         <v>6</v>
@@ -14624,7 +14624,7 @@
         <v>5</v>
       </c>
       <c r="J174" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K174" t="s">
         <v>34</v>
@@ -14654,10 +14654,10 @@
         <v>173</v>
       </c>
       <c r="V174">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="W174">
-        <v>0.003302863610901999</v>
+        <v>0.003281645092517281</v>
       </c>
       <c r="X174" t="s">
         <v>845</v>
@@ -14668,7 +14668,7 @@
         <v>9230</v>
       </c>
       <c r="B175">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -14692,7 +14692,7 @@
         <v>5</v>
       </c>
       <c r="J175" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K175" t="s">
         <v>34</v>
@@ -14719,13 +14719,13 @@
         <v>3</v>
       </c>
       <c r="U175">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V175">
         <v>939</v>
       </c>
       <c r="W175">
-        <v>0.006043543288740635</v>
+        <v>0.005964734770328336</v>
       </c>
       <c r="X175" t="s">
         <v>845</v>
@@ -14736,7 +14736,7 @@
         <v>9247</v>
       </c>
       <c r="B176">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C176">
         <v>28</v>
@@ -14745,7 +14745,7 @@
         <v>3856</v>
       </c>
       <c r="E176">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="F176">
         <v>10</v>
@@ -14790,10 +14790,10 @@
         <v>690</v>
       </c>
       <c r="V176">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="W176">
-        <v>0.8915697866544205</v>
+        <v>0.8883330670098127</v>
       </c>
       <c r="X176" t="s">
         <v>846</v>
@@ -14804,7 +14804,7 @@
         <v>9621</v>
       </c>
       <c r="B177">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C177">
         <v>9</v>
@@ -14852,13 +14852,13 @@
         <v>8</v>
       </c>
       <c r="U177">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="V177">
         <v>465</v>
       </c>
       <c r="W177">
-        <v>0.005873337336409025</v>
+        <v>0.005684495309412965</v>
       </c>
       <c r="X177" t="s">
         <v>845</v>
@@ -14869,7 +14869,7 @@
         <v>9658</v>
       </c>
       <c r="B178">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C178">
         <v>8</v>
@@ -14893,7 +14893,7 @@
         <v>3</v>
       </c>
       <c r="J178" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K178" t="s">
         <v>34</v>
@@ -14917,13 +14917,13 @@
         <v>7</v>
       </c>
       <c r="U178">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="V178">
         <v>426</v>
       </c>
       <c r="W178">
-        <v>0.01740506159548838</v>
+        <v>0.01691051754724767</v>
       </c>
       <c r="X178" t="s">
         <v>845</v>
@@ -14943,7 +14943,7 @@
         <v>825</v>
       </c>
       <c r="E179">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F179">
         <v>9</v>
@@ -14958,7 +14958,7 @@
         <v>2</v>
       </c>
       <c r="J179" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K179" t="s">
         <v>34</v>
@@ -14982,13 +14982,13 @@
         <v>3</v>
       </c>
       <c r="U179">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="V179">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="W179">
-        <v>0.1357507672854635</v>
+        <v>0.1357979157349224</v>
       </c>
       <c r="X179" t="s">
         <v>846</v>
@@ -15056,7 +15056,7 @@
         <v>318</v>
       </c>
       <c r="W180">
-        <v>0.1881346246279653</v>
+        <v>0.1880558212174828</v>
       </c>
       <c r="X180" t="s">
         <v>846</v>
@@ -15067,7 +15067,7 @@
         <v>9807</v>
       </c>
       <c r="B181">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C181">
         <v>11</v>
@@ -15076,7 +15076,7 @@
         <v>614</v>
       </c>
       <c r="E181">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F181">
         <v>10</v>
@@ -15118,10 +15118,10 @@
         <v>202</v>
       </c>
       <c r="V181">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="W181">
-        <v>0.7538100841693409</v>
+        <v>0.7487388569742364</v>
       </c>
       <c r="X181" t="s">
         <v>846</v>
@@ -15132,7 +15132,7 @@
         <v>9890</v>
       </c>
       <c r="B182">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C182">
         <v>11</v>
@@ -15141,7 +15141,7 @@
         <v>2521</v>
       </c>
       <c r="E182">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F182">
         <v>10</v>
@@ -15183,10 +15183,10 @@
         <v>178</v>
       </c>
       <c r="V182">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="W182">
-        <v>0.7654271430052335</v>
+        <v>0.7593081780248719</v>
       </c>
       <c r="X182" t="s">
         <v>846</v>
@@ -15206,7 +15206,7 @@
         <v>3687.9</v>
       </c>
       <c r="E183">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F183">
         <v>10</v>
@@ -15248,13 +15248,13 @@
         <v>4</v>
       </c>
       <c r="U183">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="V183">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="W183">
-        <v>0.4325200693412337</v>
+        <v>0.4310669118401553</v>
       </c>
       <c r="X183" t="s">
         <v>846</v>
@@ -15265,7 +15265,7 @@
         <v>19765</v>
       </c>
       <c r="B184">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C184">
         <v>8</v>
@@ -15274,7 +15274,7 @@
         <v>664</v>
       </c>
       <c r="E184">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="F184">
         <v>10</v>
@@ -15316,10 +15316,10 @@
         <v>1606</v>
       </c>
       <c r="V184">
-        <v>1624</v>
+        <v>1625</v>
       </c>
       <c r="W184">
-        <v>0.131822226430169</v>
+        <v>0.131702067137959</v>
       </c>
       <c r="X184" t="s">
         <v>846</v>
@@ -15330,7 +15330,7 @@
         <v>20544</v>
       </c>
       <c r="B185">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C185">
         <v>4</v>
@@ -15339,7 +15339,7 @@
         <v>1005</v>
       </c>
       <c r="E185">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F185">
         <v>6</v>
@@ -15354,7 +15354,7 @@
         <v>6</v>
       </c>
       <c r="J185" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K185" t="s">
         <v>34</v>
@@ -15384,10 +15384,10 @@
         <v>202</v>
       </c>
       <c r="V185">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="W185">
-        <v>0.005873406024923413</v>
+        <v>0.005843088937112758</v>
       </c>
       <c r="X185" t="s">
         <v>845</v>
@@ -15398,7 +15398,7 @@
         <v>20552</v>
       </c>
       <c r="B186">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C186">
         <v>4</v>
@@ -15422,7 +15422,7 @@
         <v>6</v>
       </c>
       <c r="J186" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K186" t="s">
         <v>34</v>
@@ -15449,13 +15449,13 @@
         <v>3</v>
       </c>
       <c r="U186">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="V186">
         <v>991</v>
       </c>
       <c r="W186">
-        <v>0.08483662181093886</v>
+        <v>0.08471280212904192</v>
       </c>
       <c r="X186" t="s">
         <v>846</v>
@@ -15466,7 +15466,7 @@
         <v>20569</v>
       </c>
       <c r="B187">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C187">
         <v>4</v>
@@ -15520,13 +15520,13 @@
         <v>3</v>
       </c>
       <c r="U187">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="V187">
         <v>983</v>
       </c>
       <c r="W187">
-        <v>0.04366494837421175</v>
+        <v>0.04344544292442061</v>
       </c>
       <c r="X187" t="s">
         <v>845</v>
@@ -15537,7 +15537,7 @@
         <v>20724</v>
       </c>
       <c r="B188">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C188">
         <v>5</v>
@@ -15546,7 +15546,7 @@
         <v>1965</v>
       </c>
       <c r="E188">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="F188">
         <v>8</v>
@@ -15594,10 +15594,10 @@
         <v>1604</v>
       </c>
       <c r="V188">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="W188">
-        <v>0.05781563018833073</v>
+        <v>0.0577470197366307</v>
       </c>
       <c r="X188" t="s">
         <v>846</v>
@@ -15608,7 +15608,7 @@
         <v>20738</v>
       </c>
       <c r="B189">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -15632,7 +15632,7 @@
         <v>7</v>
       </c>
       <c r="J189" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K189" t="s">
         <v>34</v>
@@ -15662,13 +15662,13 @@
         <v>3</v>
       </c>
       <c r="U189">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V189">
         <v>1273</v>
       </c>
       <c r="W189">
-        <v>0.01396355365414121</v>
+        <v>0.01386202916493033</v>
       </c>
       <c r="X189" t="s">
         <v>845</v>
@@ -15679,7 +15679,7 @@
         <v>20741</v>
       </c>
       <c r="B190">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -15733,13 +15733,13 @@
         <v>4</v>
       </c>
       <c r="U190">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="V190">
         <v>950</v>
       </c>
       <c r="W190">
-        <v>0.02472578849197368</v>
+        <v>0.02449603047591242</v>
       </c>
       <c r="X190" t="s">
         <v>845</v>
@@ -15750,7 +15750,7 @@
         <v>20757</v>
       </c>
       <c r="B191">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -15804,13 +15804,13 @@
         <v>4</v>
       </c>
       <c r="U191">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="V191">
         <v>943</v>
       </c>
       <c r="W191">
-        <v>0.08876896375964845</v>
+        <v>0.08848655344277326</v>
       </c>
       <c r="X191" t="s">
         <v>846</v>
@@ -15821,7 +15821,7 @@
         <v>20764</v>
       </c>
       <c r="B192">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C192">
         <v>6</v>
@@ -15830,7 +15830,7 @@
         <v>4348.02</v>
       </c>
       <c r="E192">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="F192">
         <v>9</v>
@@ -15845,7 +15845,7 @@
         <v>5</v>
       </c>
       <c r="J192" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K192" t="s">
         <v>34</v>
@@ -15878,10 +15878,10 @@
         <v>754</v>
       </c>
       <c r="V192">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="W192">
-        <v>0.1389834469472828</v>
+        <v>0.1386613826538752</v>
       </c>
       <c r="X192" t="s">
         <v>846</v>
@@ -15901,7 +15901,7 @@
         <v>940</v>
       </c>
       <c r="E193">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F193">
         <v>9</v>
@@ -15916,7 +15916,7 @@
         <v>5</v>
       </c>
       <c r="J193" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K193" t="s">
         <v>34</v>
@@ -15943,13 +15943,13 @@
         <v>4</v>
       </c>
       <c r="U193">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="V193">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="W193">
-        <v>0.1063387118129283</v>
+        <v>0.1062531025162381</v>
       </c>
       <c r="X193" t="s">
         <v>846</v>
@@ -15960,7 +15960,7 @@
         <v>20937</v>
       </c>
       <c r="B194">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C194">
         <v>8</v>
@@ -16014,13 +16014,13 @@
         <v>7</v>
       </c>
       <c r="U194">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V194">
         <v>886</v>
       </c>
       <c r="W194">
-        <v>0.2193099525672513</v>
+        <v>0.2191135442400717</v>
       </c>
       <c r="X194" t="s">
         <v>846</v>
@@ -16031,7 +16031,7 @@
         <v>20940</v>
       </c>
       <c r="B195">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C195">
         <v>4</v>
@@ -16055,7 +16055,7 @@
         <v>5</v>
       </c>
       <c r="J195" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K195" t="s">
         <v>34</v>
@@ -16082,13 +16082,13 @@
         <v>3</v>
       </c>
       <c r="U195">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V195">
         <v>885</v>
       </c>
       <c r="W195">
-        <v>0.08486661301886943</v>
+        <v>0.08468070816521783</v>
       </c>
       <c r="X195" t="s">
         <v>846</v>
@@ -16099,7 +16099,7 @@
         <v>20941</v>
       </c>
       <c r="B196">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -16123,7 +16123,7 @@
         <v>5</v>
       </c>
       <c r="J196" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K196" t="s">
         <v>34</v>
@@ -16153,13 +16153,13 @@
         <v>4</v>
       </c>
       <c r="U196">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="V196">
         <v>885</v>
       </c>
       <c r="W196">
-        <v>0.1097111330178617</v>
+        <v>0.1094619841773161</v>
       </c>
       <c r="X196" t="s">
         <v>846</v>
@@ -16170,7 +16170,7 @@
         <v>20970</v>
       </c>
       <c r="B197">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -16179,7 +16179,7 @@
         <v>4775.01</v>
       </c>
       <c r="E197">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F197">
         <v>10</v>
@@ -16227,10 +16227,10 @@
         <v>729</v>
       </c>
       <c r="V197">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="W197">
-        <v>0.2045952195408221</v>
+        <v>0.2040699088628323</v>
       </c>
       <c r="X197" t="s">
         <v>846</v>
@@ -16241,7 +16241,7 @@
         <v>20982</v>
       </c>
       <c r="B198">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C198">
         <v>4</v>
@@ -16250,7 +16250,7 @@
         <v>1020.01</v>
       </c>
       <c r="E198">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F198">
         <v>7</v>
@@ -16295,10 +16295,10 @@
         <v>230</v>
       </c>
       <c r="V198">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="W198">
-        <v>0.01476312152400078</v>
+        <v>0.01468210162445151</v>
       </c>
       <c r="X198" t="s">
         <v>845</v>
@@ -16318,7 +16318,7 @@
         <v>2747.01</v>
       </c>
       <c r="E199">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -16360,13 +16360,13 @@
         <v>9</v>
       </c>
       <c r="U199">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="V199">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="W199">
-        <v>0.2810867614160479</v>
+        <v>0.2807738537861155</v>
       </c>
       <c r="X199" t="s">
         <v>846</v>
@@ -16431,7 +16431,7 @@
         <v>834</v>
       </c>
       <c r="W200">
-        <v>0.05375313649817914</v>
+        <v>0.0537163286424126</v>
       </c>
       <c r="X200" t="s">
         <v>845</v>
@@ -16451,7 +16451,7 @@
         <v>2795.1</v>
       </c>
       <c r="E201">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F201">
         <v>8</v>
@@ -16493,13 +16493,13 @@
         <v>3</v>
       </c>
       <c r="U201">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V201">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="W201">
-        <v>0.07120360650861178</v>
+        <v>0.07118251997574351</v>
       </c>
       <c r="X201" t="s">
         <v>846</v>
@@ -16567,7 +16567,7 @@
         <v>827</v>
       </c>
       <c r="W202">
-        <v>0.0502656446420226</v>
+        <v>0.05023358220323153</v>
       </c>
       <c r="X202" t="s">
         <v>845</v>
@@ -16635,7 +16635,7 @@
         <v>1225</v>
       </c>
       <c r="W203">
-        <v>0.03105129831234889</v>
+        <v>0.03102480202865434</v>
       </c>
       <c r="X203" t="s">
         <v>845</v>
@@ -16706,7 +16706,7 @@
         <v>811</v>
       </c>
       <c r="W204">
-        <v>0.1710186693981376</v>
+        <v>0.1709861747286631</v>
       </c>
       <c r="X204" t="s">
         <v>846</v>
@@ -16717,7 +16717,7 @@
         <v>21329</v>
       </c>
       <c r="B205">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C205">
         <v>7</v>
@@ -16726,7 +16726,7 @@
         <v>3429.01</v>
       </c>
       <c r="E205">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="F205">
         <v>10</v>
@@ -16771,10 +16771,10 @@
         <v>640</v>
       </c>
       <c r="V205">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="W205">
-        <v>0.1979374391669692</v>
+        <v>0.197408672961272</v>
       </c>
       <c r="X205" t="s">
         <v>846</v>
@@ -16794,7 +16794,7 @@
         <v>3149.01</v>
       </c>
       <c r="E206">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="F206">
         <v>9</v>
@@ -16809,7 +16809,7 @@
         <v>4</v>
       </c>
       <c r="J206" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K206" t="s">
         <v>34</v>
@@ -16833,13 +16833,13 @@
         <v>5</v>
       </c>
       <c r="U206">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="V206">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="W206">
-        <v>0.1379429943065541</v>
+        <v>0.1378710757148836</v>
       </c>
       <c r="X206" t="s">
         <v>846</v>
@@ -16907,7 +16907,7 @@
         <v>677</v>
       </c>
       <c r="W207">
-        <v>0.1646467750439644</v>
+        <v>0.1646131004496484</v>
       </c>
       <c r="X207" t="s">
         <v>846</v>
@@ -16918,7 +16918,7 @@
         <v>21741</v>
       </c>
       <c r="B208">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C208">
         <v>4</v>
@@ -16966,13 +16966,13 @@
         <v>3</v>
       </c>
       <c r="U208">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V208">
         <v>668</v>
       </c>
       <c r="W208">
-        <v>0.1405042368348804</v>
+        <v>0.140404991213163</v>
       </c>
       <c r="X208" t="s">
         <v>846</v>
@@ -16983,7 +16983,7 @@
         <v>21759</v>
       </c>
       <c r="B209">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C209">
         <v>4</v>
@@ -17034,13 +17034,13 @@
         <v>3</v>
       </c>
       <c r="U209">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="V209">
         <v>657</v>
       </c>
       <c r="W209">
-        <v>0.04955430513700002</v>
+        <v>0.04915503030698502</v>
       </c>
       <c r="X209" t="s">
         <v>845</v>
@@ -17051,7 +17051,7 @@
         <v>21816</v>
       </c>
       <c r="B210">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C210">
         <v>6</v>
@@ -17102,13 +17102,13 @@
         <v>5</v>
       </c>
       <c r="U210">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="V210">
         <v>619</v>
       </c>
       <c r="W210">
-        <v>0.02484402503738473</v>
+        <v>0.02444082714487916</v>
       </c>
       <c r="X210" t="s">
         <v>845</v>
@@ -17176,7 +17176,7 @@
         <v>612</v>
       </c>
       <c r="W211">
-        <v>0.04707136893509464</v>
+        <v>0.04704218271167536</v>
       </c>
       <c r="X211" t="s">
         <v>845</v>
@@ -17187,7 +17187,7 @@
         <v>21944</v>
       </c>
       <c r="B212">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C212">
         <v>6</v>
@@ -17238,13 +17238,13 @@
         <v>5</v>
       </c>
       <c r="U212">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="V212">
         <v>1438</v>
       </c>
       <c r="W212">
-        <v>0.1065172385290163</v>
+        <v>0.1064593725299393</v>
       </c>
       <c r="X212" t="s">
         <v>846</v>
@@ -17255,7 +17255,7 @@
         <v>21959</v>
       </c>
       <c r="B213">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C213">
         <v>4</v>
@@ -17264,7 +17264,7 @@
         <v>1299.02</v>
       </c>
       <c r="E213">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F213">
         <v>9</v>
@@ -17279,7 +17279,7 @@
         <v>3</v>
       </c>
       <c r="J213" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K213" t="s">
         <v>34</v>
@@ -17309,10 +17309,10 @@
         <v>408</v>
       </c>
       <c r="V213">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="W213">
-        <v>0.1220483176034606</v>
+        <v>0.1216443434829107</v>
       </c>
       <c r="X213" t="s">
         <v>846</v>
@@ -17323,7 +17323,7 @@
         <v>22130</v>
       </c>
       <c r="B214">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C214">
         <v>11</v>
@@ -17374,13 +17374,13 @@
         <v>10</v>
       </c>
       <c r="U214">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V214">
         <v>566</v>
       </c>
       <c r="W214">
-        <v>0.01825672383145875</v>
+        <v>0.01776765887551602</v>
       </c>
       <c r="X214" t="s">
         <v>845</v>
@@ -17391,7 +17391,7 @@
         <v>22180</v>
       </c>
       <c r="B215">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -17442,13 +17442,13 @@
         <v>3</v>
       </c>
       <c r="U215">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="V215">
         <v>543</v>
       </c>
       <c r="W215">
-        <v>0.16294811605688</v>
+        <v>0.1627871032939611</v>
       </c>
       <c r="X215" t="s">
         <v>846</v>
@@ -17513,7 +17513,7 @@
         <v>1687</v>
       </c>
       <c r="W216">
-        <v>0.05564798433873223</v>
+        <v>0.05562604993212912</v>
       </c>
       <c r="X216" t="s">
         <v>845</v>
@@ -17524,7 +17524,7 @@
         <v>22213</v>
       </c>
       <c r="B217">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C217">
         <v>4</v>
@@ -17533,7 +17533,7 @@
         <v>1985</v>
       </c>
       <c r="E217">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F217">
         <v>8</v>
@@ -17578,10 +17578,10 @@
         <v>165</v>
       </c>
       <c r="V217">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="W217">
-        <v>0.04872436599024518</v>
+        <v>0.04839080742348336</v>
       </c>
       <c r="X217" t="s">
         <v>845</v>
@@ -17601,7 +17601,7 @@
         <v>1186.91</v>
       </c>
       <c r="E218">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F218">
         <v>9</v>
@@ -17616,7 +17616,7 @@
         <v>3</v>
       </c>
       <c r="J218" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K218" t="s">
         <v>34</v>
@@ -17640,13 +17640,13 @@
         <v>4</v>
       </c>
       <c r="U218">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="V218">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="W218">
-        <v>0.142264819166623</v>
+        <v>0.1422089274039395</v>
       </c>
       <c r="X218" t="s">
         <v>846</v>
@@ -17657,7 +17657,7 @@
         <v>22389</v>
       </c>
       <c r="B219">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C219">
         <v>4</v>
@@ -17666,7 +17666,7 @@
         <v>1370.01</v>
       </c>
       <c r="E219">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F219">
         <v>9</v>
@@ -17681,7 +17681,7 @@
         <v>3</v>
       </c>
       <c r="J219" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K219" t="s">
         <v>34</v>
@@ -17711,10 +17711,10 @@
         <v>202</v>
       </c>
       <c r="V219">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="W219">
-        <v>0.08464375107707447</v>
+        <v>0.08412696573235232</v>
       </c>
       <c r="X219" t="s">
         <v>846</v>
@@ -17725,7 +17725,7 @@
         <v>22579</v>
       </c>
       <c r="B220">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C220">
         <v>5</v>
@@ -17734,7 +17734,7 @@
         <v>4323.9</v>
       </c>
       <c r="E220">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F220">
         <v>9</v>
@@ -17749,7 +17749,7 @@
         <v>6</v>
       </c>
       <c r="J220" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K220" t="s">
         <v>34</v>
@@ -17779,10 +17779,10 @@
         <v>745</v>
       </c>
       <c r="V220">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="W220">
-        <v>0.09339768552129674</v>
+        <v>0.09316554521955181</v>
       </c>
       <c r="X220" t="s">
         <v>846</v>
@@ -17793,7 +17793,7 @@
         <v>22738</v>
       </c>
       <c r="B221">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C221">
         <v>11</v>
@@ -17847,13 +17847,13 @@
         <v>10</v>
       </c>
       <c r="U221">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="V221">
         <v>389</v>
       </c>
       <c r="W221">
-        <v>9.257983729109884E-05</v>
+        <v>8.733135816037422E-05</v>
       </c>
       <c r="X221" t="s">
         <v>845</v>
@@ -17864,7 +17864,7 @@
         <v>22780</v>
       </c>
       <c r="B222">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C222">
         <v>9</v>
@@ -17873,7 +17873,7 @@
         <v>8458.9</v>
       </c>
       <c r="E222">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F222">
         <v>9</v>
@@ -17888,7 +17888,7 @@
         <v>8</v>
       </c>
       <c r="J222" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K222" t="s">
         <v>34</v>
@@ -17915,10 +17915,10 @@
         <v>1040</v>
       </c>
       <c r="V222">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="W222">
-        <v>0.1356639732203199</v>
+        <v>0.1352837509668758</v>
       </c>
       <c r="X222" t="s">
         <v>846</v>
@@ -17929,7 +17929,7 @@
         <v>24357</v>
       </c>
       <c r="B223">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -17953,7 +17953,7 @@
         <v>10</v>
       </c>
       <c r="J223" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K223" t="s">
         <v>34</v>
@@ -17977,13 +17977,13 @@
         <v>4</v>
       </c>
       <c r="U223">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="V223">
         <v>2014</v>
       </c>
       <c r="W223">
-        <v>0.003264934371478049</v>
+        <v>0.003239648117301673</v>
       </c>
       <c r="X223" t="s">
         <v>845</v>
@@ -17994,7 +17994,7 @@
         <v>24369</v>
       </c>
       <c r="B224">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C224">
         <v>4</v>
@@ -18042,13 +18042,13 @@
         <v>3</v>
       </c>
       <c r="U224">
-        <v>1490</v>
+        <v>1489</v>
       </c>
       <c r="V224">
         <v>2013</v>
       </c>
       <c r="W224">
-        <v>0.04361994601277371</v>
+        <v>0.04357912032926591</v>
       </c>
       <c r="X224" t="s">
         <v>845</v>
@@ -18059,7 +18059,7 @@
         <v>25430</v>
       </c>
       <c r="B225">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -18068,7 +18068,7 @@
         <v>1950</v>
       </c>
       <c r="E225">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="F225">
         <v>6</v>
@@ -18083,7 +18083,7 @@
         <v>10</v>
       </c>
       <c r="J225" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K225" t="s">
         <v>34</v>
@@ -18116,10 +18116,10 @@
         <v>994</v>
       </c>
       <c r="V225">
-        <v>1733</v>
+        <v>1734</v>
       </c>
       <c r="W225">
-        <v>0.03718594859933533</v>
+        <v>0.03708331696433929</v>
       </c>
       <c r="X225" t="s">
         <v>845</v>
@@ -18139,7 +18139,7 @@
         <v>639</v>
       </c>
       <c r="E226">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="F226">
         <v>6</v>
@@ -18154,7 +18154,7 @@
         <v>9</v>
       </c>
       <c r="J226" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K226" t="s">
         <v>34</v>
@@ -18181,13 +18181,13 @@
         <v>3</v>
       </c>
       <c r="U226">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="V226">
-        <v>1711</v>
+        <v>1712</v>
       </c>
       <c r="W226">
-        <v>0.03051988468479792</v>
+        <v>0.03051418538270816</v>
       </c>
       <c r="X226" t="s">
         <v>845</v>
@@ -18207,7 +18207,7 @@
         <v>1270</v>
       </c>
       <c r="E227">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="F227">
         <v>6</v>
@@ -18222,7 +18222,7 @@
         <v>9</v>
       </c>
       <c r="J227" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K227" t="s">
         <v>34</v>
@@ -18249,13 +18249,13 @@
         <v>3</v>
       </c>
       <c r="U227">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="V227">
-        <v>1707</v>
+        <v>1708</v>
       </c>
       <c r="W227">
-        <v>0.03810482022934307</v>
+        <v>0.03808924813347247</v>
       </c>
       <c r="X227" t="s">
         <v>845</v>
@@ -18290,7 +18290,7 @@
         <v>9</v>
       </c>
       <c r="J228" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K228" t="s">
         <v>34</v>
@@ -18323,7 +18323,7 @@
         <v>1707</v>
       </c>
       <c r="W228">
-        <v>0.002761579125299641</v>
+        <v>0.002758569418396004</v>
       </c>
       <c r="X228" t="s">
         <v>845</v>
@@ -18343,7 +18343,7 @@
         <v>2535</v>
       </c>
       <c r="E229">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="F229">
         <v>3</v>
@@ -18358,7 +18358,7 @@
         <v>9</v>
       </c>
       <c r="J229" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K229" t="s">
         <v>34</v>
@@ -18385,13 +18385,13 @@
         <v>4</v>
       </c>
       <c r="U229">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="V229">
-        <v>1705</v>
+        <v>1706</v>
       </c>
       <c r="W229">
-        <v>0.002599418301842175</v>
+        <v>0.002609923951003147</v>
       </c>
       <c r="X229" t="s">
         <v>845</v>
@@ -18411,7 +18411,7 @@
         <v>6956.4</v>
       </c>
       <c r="E230">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="F230">
         <v>7</v>
@@ -18453,13 +18453,13 @@
         <v>9</v>
       </c>
       <c r="U230">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="V230">
-        <v>1704</v>
+        <v>1705</v>
       </c>
       <c r="W230">
-        <v>0.07108136646794434</v>
+        <v>0.07108109650850696</v>
       </c>
       <c r="X230" t="s">
         <v>846</v>
@@ -18524,7 +18524,7 @@
         <v>1632</v>
       </c>
       <c r="W231">
-        <v>0.06442081707070334</v>
+        <v>0.06440194731422683</v>
       </c>
       <c r="X231" t="s">
         <v>846</v>
@@ -18535,7 +18535,7 @@
         <v>25845</v>
       </c>
       <c r="B232">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="C232">
         <v>4</v>
@@ -18544,7 +18544,7 @@
         <v>2510</v>
       </c>
       <c r="E232">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="F232">
         <v>5</v>
@@ -18559,7 +18559,7 @@
         <v>9</v>
       </c>
       <c r="J232" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K232" t="s">
         <v>34</v>
@@ -18586,10 +18586,10 @@
         <v>638</v>
       </c>
       <c r="V232">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="W232">
-        <v>0.0155872158346499</v>
+        <v>0.01553435172071391</v>
       </c>
       <c r="X232" t="s">
         <v>845</v>
@@ -18600,7 +18600,7 @@
         <v>25859</v>
       </c>
       <c r="B233">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C233">
         <v>4</v>
@@ -18609,7 +18609,7 @@
         <v>1469</v>
       </c>
       <c r="E233">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="F233">
         <v>10</v>
@@ -18651,10 +18651,10 @@
         <v>1474</v>
       </c>
       <c r="V233">
-        <v>1622</v>
+        <v>1623</v>
       </c>
       <c r="W233">
-        <v>0.06250796624467796</v>
+        <v>0.06244655424211355</v>
       </c>
       <c r="X233" t="s">
         <v>846</v>
@@ -18665,7 +18665,7 @@
         <v>25864</v>
       </c>
       <c r="B234">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C234">
         <v>12</v>
@@ -18674,7 +18674,7 @@
         <v>4087</v>
       </c>
       <c r="E234">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="F234">
         <v>10</v>
@@ -18716,10 +18716,10 @@
         <v>1476</v>
       </c>
       <c r="V234">
-        <v>1620</v>
+        <v>1621</v>
       </c>
       <c r="W234">
-        <v>0.1873826627557799</v>
+        <v>0.1871178997113822</v>
       </c>
       <c r="X234" t="s">
         <v>846</v>
@@ -18730,7 +18730,7 @@
         <v>25879</v>
       </c>
       <c r="B235">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -18754,7 +18754,7 @@
         <v>9</v>
       </c>
       <c r="J235" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K235" t="s">
         <v>34</v>
@@ -18778,13 +18778,13 @@
         <v>3</v>
       </c>
       <c r="U235">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="V235">
         <v>1618</v>
       </c>
       <c r="W235">
-        <v>0.01452413413965881</v>
+        <v>0.0144450410102705</v>
       </c>
       <c r="X235" t="s">
         <v>845</v>
@@ -18795,7 +18795,7 @@
         <v>25918</v>
       </c>
       <c r="B236">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C236">
         <v>4</v>
@@ -18843,13 +18843,13 @@
         <v>3</v>
       </c>
       <c r="U236">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="V236">
         <v>1238</v>
       </c>
       <c r="W236">
-        <v>0.05197842419633074</v>
+        <v>0.05184188586909462</v>
       </c>
       <c r="X236" t="s">
         <v>845</v>
@@ -18884,7 +18884,7 @@
         <v>8</v>
       </c>
       <c r="J237" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K237" t="s">
         <v>34</v>
@@ -18917,7 +18917,7 @@
         <v>1320</v>
       </c>
       <c r="W237">
-        <v>0.0893589830769404</v>
+        <v>0.08934344804388056</v>
       </c>
       <c r="X237" t="s">
         <v>846</v>
@@ -18982,7 +18982,7 @@
         <v>1546</v>
       </c>
       <c r="W238">
-        <v>1.807975113725814E-05</v>
+        <v>1.809531410442202E-05</v>
       </c>
       <c r="X238" t="s">
         <v>845</v>
@@ -19017,7 +19017,7 @@
         <v>9</v>
       </c>
       <c r="J239" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K239" t="s">
         <v>34</v>
@@ -19047,7 +19047,7 @@
         <v>1543</v>
       </c>
       <c r="W239">
-        <v>0.0008411828924743567</v>
+        <v>0.0008404713697391973</v>
       </c>
       <c r="X239" t="s">
         <v>845</v>
@@ -19067,7 +19067,7 @@
         <v>3649</v>
       </c>
       <c r="E240">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="F240">
         <v>10</v>
@@ -19106,13 +19106,13 @@
         <v>7</v>
       </c>
       <c r="U240">
-        <v>1513</v>
+        <v>1514</v>
       </c>
       <c r="V240">
-        <v>1533</v>
+        <v>1534</v>
       </c>
       <c r="W240">
-        <v>0.1388305502822436</v>
+        <v>0.1387380312561053</v>
       </c>
       <c r="X240" t="s">
         <v>846</v>
@@ -19132,7 +19132,7 @@
         <v>781.9</v>
       </c>
       <c r="E241">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F241">
         <v>7</v>
@@ -19174,13 +19174,13 @@
         <v>5</v>
       </c>
       <c r="U241">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="V241">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="W241">
-        <v>0.0437511138463251</v>
+        <v>0.04375548375346845</v>
       </c>
       <c r="X241" t="s">
         <v>845</v>
@@ -19200,7 +19200,7 @@
         <v>1084</v>
       </c>
       <c r="E242">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="F242">
         <v>6</v>
@@ -19215,7 +19215,7 @@
         <v>9</v>
       </c>
       <c r="J242" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K242" t="s">
         <v>34</v>
@@ -19239,13 +19239,13 @@
         <v>3</v>
       </c>
       <c r="U242">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="V242">
-        <v>1518</v>
+        <v>1519</v>
       </c>
       <c r="W242">
-        <v>0.02908474342156688</v>
+        <v>0.02908760249838268</v>
       </c>
       <c r="X242" t="s">
         <v>845</v>
@@ -19256,7 +19256,7 @@
         <v>26358</v>
       </c>
       <c r="B243">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C243">
         <v>4</v>
@@ -19265,7 +19265,7 @@
         <v>1859</v>
       </c>
       <c r="E243">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="F243">
         <v>7</v>
@@ -19307,10 +19307,10 @@
         <v>837</v>
       </c>
       <c r="V243">
-        <v>1496</v>
+        <v>1497</v>
       </c>
       <c r="W243">
-        <v>0.0391035072606474</v>
+        <v>0.03900713173519355</v>
       </c>
       <c r="X243" t="s">
         <v>845</v>
@@ -19321,7 +19321,7 @@
         <v>26458</v>
       </c>
       <c r="B244">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C244">
         <v>4</v>
@@ -19330,7 +19330,7 @@
         <v>2400</v>
       </c>
       <c r="E244">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="F244">
         <v>7</v>
@@ -19375,10 +19375,10 @@
         <v>830</v>
       </c>
       <c r="V244">
-        <v>1463</v>
+        <v>1464</v>
       </c>
       <c r="W244">
-        <v>0.04102711697140592</v>
+        <v>0.04092670394601187</v>
       </c>
       <c r="X244" t="s">
         <v>845</v>
@@ -19389,7 +19389,7 @@
         <v>26522</v>
       </c>
       <c r="B245">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -19398,7 +19398,7 @@
         <v>534.9</v>
       </c>
       <c r="E245">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F245">
         <v>8</v>
@@ -19443,10 +19443,10 @@
         <v>988</v>
       </c>
       <c r="V245">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="W245">
-        <v>0.05452440550539808</v>
+        <v>0.05442532168517922</v>
       </c>
       <c r="X245" t="s">
         <v>845</v>
@@ -19457,7 +19457,7 @@
         <v>26539</v>
       </c>
       <c r="B246">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C246">
         <v>7</v>
@@ -19466,7 +19466,7 @@
         <v>4960</v>
       </c>
       <c r="E246">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="F246">
         <v>8</v>
@@ -19511,10 +19511,10 @@
         <v>1055</v>
       </c>
       <c r="V246">
-        <v>1445</v>
+        <v>1446</v>
       </c>
       <c r="W246">
-        <v>0.09076818081495944</v>
+        <v>0.09053388921498484</v>
       </c>
       <c r="X246" t="s">
         <v>846</v>
@@ -19525,7 +19525,7 @@
         <v>26563</v>
       </c>
       <c r="B247">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="C247">
         <v>4</v>
@@ -19534,7 +19534,7 @@
         <v>1519</v>
       </c>
       <c r="E247">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F247">
         <v>6</v>
@@ -19549,7 +19549,7 @@
         <v>8</v>
       </c>
       <c r="J247" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K247" t="s">
         <v>34</v>
@@ -19579,10 +19579,10 @@
         <v>614</v>
       </c>
       <c r="V247">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="W247">
-        <v>0.02259904722415749</v>
+        <v>0.02252202873140117</v>
       </c>
       <c r="X247" t="s">
         <v>845</v>
@@ -19593,7 +19593,7 @@
         <v>26587</v>
       </c>
       <c r="B248">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C248">
         <v>5</v>
@@ -19644,13 +19644,13 @@
         <v>4</v>
       </c>
       <c r="U248">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="V248">
         <v>1432</v>
       </c>
       <c r="W248">
-        <v>0.04785199527924465</v>
+        <v>0.04768841116553253</v>
       </c>
       <c r="X248" t="s">
         <v>845</v>
@@ -19670,7 +19670,7 @@
         <v>1250</v>
       </c>
       <c r="E249">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F249">
         <v>7</v>
@@ -19712,13 +19712,13 @@
         <v>3</v>
       </c>
       <c r="U249">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="V249">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="W249">
-        <v>0.03622247327697643</v>
+        <v>0.03621911739684931</v>
       </c>
       <c r="X249" t="s">
         <v>845</v>
@@ -19738,7 +19738,7 @@
         <v>895.9</v>
       </c>
       <c r="E250">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F250">
         <v>10</v>
@@ -19783,13 +19783,13 @@
         <v>3</v>
       </c>
       <c r="U250">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="V250">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="W250">
-        <v>0.07144579460027554</v>
+        <v>0.07139593878993578</v>
       </c>
       <c r="X250" t="s">
         <v>846</v>
@@ -19800,7 +19800,7 @@
         <v>26674</v>
       </c>
       <c r="B251">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -19809,7 +19809,7 @@
         <v>1265</v>
       </c>
       <c r="E251">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F251">
         <v>7</v>
@@ -19857,10 +19857,10 @@
         <v>757</v>
       </c>
       <c r="V251">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="W251">
-        <v>0.03960078909138219</v>
+        <v>0.03946474679930612</v>
       </c>
       <c r="X251" t="s">
         <v>845</v>
@@ -19871,7 +19871,7 @@
         <v>26694</v>
       </c>
       <c r="B252">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C252">
         <v>4</v>
@@ -19880,7 +19880,7 @@
         <v>3142.9</v>
       </c>
       <c r="E252">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="F252">
         <v>7</v>
@@ -19928,10 +19928,10 @@
         <v>498</v>
       </c>
       <c r="V252">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="W252">
-        <v>0.02983263672398798</v>
+        <v>0.0297188901708264</v>
       </c>
       <c r="X252" t="s">
         <v>845</v>
@@ -19942,7 +19942,7 @@
         <v>26800</v>
       </c>
       <c r="B253">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C253">
         <v>6</v>
@@ -19951,7 +19951,7 @@
         <v>1055</v>
       </c>
       <c r="E253">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F253">
         <v>6</v>
@@ -19966,7 +19966,7 @@
         <v>8</v>
       </c>
       <c r="J253" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K253" t="s">
         <v>34</v>
@@ -19996,10 +19996,10 @@
         <v>662</v>
       </c>
       <c r="V253">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="W253">
-        <v>0.02557165098620753</v>
+        <v>0.02544724005640389</v>
       </c>
       <c r="X253" t="s">
         <v>845</v>
@@ -20010,7 +20010,7 @@
         <v>26827</v>
       </c>
       <c r="B254">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C254">
         <v>6</v>
@@ -20034,7 +20034,7 @@
         <v>8</v>
       </c>
       <c r="J254" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K254" t="s">
         <v>34</v>
@@ -20064,13 +20064,13 @@
         <v>5</v>
       </c>
       <c r="U254">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V254">
         <v>1354</v>
       </c>
       <c r="W254">
-        <v>0.09927827413503378</v>
+        <v>0.09914859563944317</v>
       </c>
       <c r="X254" t="s">
         <v>846</v>
@@ -20105,7 +20105,7 @@
         <v>8</v>
       </c>
       <c r="J255" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K255" t="s">
         <v>34</v>
@@ -20135,7 +20135,7 @@
         <v>1337</v>
       </c>
       <c r="W255">
-        <v>0.02222779438806574</v>
+        <v>0.02220738873653663</v>
       </c>
       <c r="X255" t="s">
         <v>845</v>
@@ -20146,7 +20146,7 @@
         <v>26881</v>
       </c>
       <c r="B256">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C256">
         <v>4</v>
@@ -20155,7 +20155,7 @@
         <v>2357</v>
       </c>
       <c r="E256">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F256">
         <v>5</v>
@@ -20170,7 +20170,7 @@
         <v>8</v>
       </c>
       <c r="J256" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K256" t="s">
         <v>34</v>
@@ -20200,10 +20200,10 @@
         <v>462</v>
       </c>
       <c r="V256">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="W256">
-        <v>0.0146145819769416</v>
+        <v>0.01455584803865801</v>
       </c>
       <c r="X256" t="s">
         <v>845</v>
@@ -20214,7 +20214,7 @@
         <v>26892</v>
       </c>
       <c r="B257">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="C257">
         <v>4</v>
@@ -20223,7 +20223,7 @@
         <v>5903</v>
       </c>
       <c r="E257">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F257">
         <v>4</v>
@@ -20271,10 +20271,10 @@
         <v>186</v>
       </c>
       <c r="V257">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="W257">
-        <v>0.001301151214565026</v>
+        <v>0.001295566167832253</v>
       </c>
       <c r="X257" t="s">
         <v>845</v>
@@ -20285,7 +20285,7 @@
         <v>26923</v>
       </c>
       <c r="B258">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C258">
         <v>4</v>
@@ -20294,7 +20294,7 @@
         <v>553</v>
       </c>
       <c r="E258">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F258">
         <v>6</v>
@@ -20309,7 +20309,7 @@
         <v>7</v>
       </c>
       <c r="J258" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K258" t="s">
         <v>34</v>
@@ -20339,10 +20339,10 @@
         <v>485</v>
       </c>
       <c r="V258">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="W258">
-        <v>0.02228749560566567</v>
+        <v>0.02220004441051738</v>
       </c>
       <c r="X258" t="s">
         <v>845</v>
@@ -20362,7 +20362,7 @@
         <v>1419</v>
       </c>
       <c r="E259">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="F259">
         <v>8</v>
@@ -20407,13 +20407,13 @@
         <v>5</v>
       </c>
       <c r="U259">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="V259">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="W259">
-        <v>0.07754616135711276</v>
+        <v>0.07751183699402511</v>
       </c>
       <c r="X259" t="s">
         <v>846</v>
@@ -20424,7 +20424,7 @@
         <v>26965</v>
       </c>
       <c r="B260">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -20433,7 +20433,7 @@
         <v>4860</v>
       </c>
       <c r="E260">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F260">
         <v>8</v>
@@ -20475,10 +20475,10 @@
         <v>867</v>
       </c>
       <c r="V260">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="W260">
-        <v>0.05938915467824573</v>
+        <v>0.05926881074658003</v>
       </c>
       <c r="X260" t="s">
         <v>846</v>
@@ -20489,7 +20489,7 @@
         <v>26973</v>
       </c>
       <c r="B261">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="C261">
         <v>4</v>
@@ -20498,7 +20498,7 @@
         <v>835</v>
       </c>
       <c r="E261">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F261">
         <v>4</v>
@@ -20546,10 +20546,10 @@
         <v>217</v>
       </c>
       <c r="V261">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="W261">
-        <v>0.002115274627142425</v>
+        <v>0.002105938185888984</v>
       </c>
       <c r="X261" t="s">
         <v>845</v>
@@ -20560,7 +20560,7 @@
         <v>26994</v>
       </c>
       <c r="B262">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C262">
         <v>6</v>
@@ -20569,7 +20569,7 @@
         <v>2105</v>
       </c>
       <c r="E262">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F262">
         <v>10</v>
@@ -20614,10 +20614,10 @@
         <v>1132</v>
       </c>
       <c r="V262">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="W262">
-        <v>0.1139741454546848</v>
+        <v>0.1138105399299078</v>
       </c>
       <c r="X262" t="s">
         <v>846</v>
@@ -20628,7 +20628,7 @@
         <v>27008</v>
       </c>
       <c r="B263">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C263">
         <v>5</v>
@@ -20637,7 +20637,7 @@
         <v>1455</v>
       </c>
       <c r="E263">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F263">
         <v>10</v>
@@ -20682,10 +20682,10 @@
         <v>1154</v>
       </c>
       <c r="V263">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="W263">
-        <v>0.09670348743209911</v>
+        <v>0.09657814188267635</v>
       </c>
       <c r="X263" t="s">
         <v>846</v>
@@ -20696,7 +20696,7 @@
         <v>27016</v>
       </c>
       <c r="B264">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="C264">
         <v>5</v>
@@ -20705,7 +20705,7 @@
         <v>3994</v>
       </c>
       <c r="E264">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="F264">
         <v>5</v>
@@ -20720,7 +20720,7 @@
         <v>7</v>
       </c>
       <c r="J264" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K264" t="s">
         <v>34</v>
@@ -20750,10 +20750,10 @@
         <v>305</v>
       </c>
       <c r="V264">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="W264">
-        <v>0.002759445844100904</v>
+        <v>0.00274519132719945</v>
       </c>
       <c r="X264" t="s">
         <v>845</v>
@@ -20788,7 +20788,7 @@
         <v>7</v>
       </c>
       <c r="J265" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K265" t="s">
         <v>34</v>
@@ -20818,7 +20818,7 @@
         <v>1264</v>
       </c>
       <c r="W265">
-        <v>0.07050125703999464</v>
+        <v>0.07048656326574403</v>
       </c>
       <c r="X265" t="s">
         <v>846</v>
@@ -20829,7 +20829,7 @@
         <v>27079</v>
       </c>
       <c r="B266">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C266">
         <v>4</v>
@@ -20838,7 +20838,7 @@
         <v>588.9</v>
       </c>
       <c r="E266">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F266">
         <v>5</v>
@@ -20853,7 +20853,7 @@
         <v>7</v>
       </c>
       <c r="J266" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K266" t="s">
         <v>34</v>
@@ -20883,10 +20883,10 @@
         <v>275</v>
       </c>
       <c r="V266">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="W266">
-        <v>0.004633883968827753</v>
+        <v>0.004612880942411002</v>
       </c>
       <c r="X266" t="s">
         <v>845</v>
@@ -20954,7 +20954,7 @@
         <v>1203</v>
       </c>
       <c r="W267">
-        <v>0.04645552714119245</v>
+        <v>0.04642944555083279</v>
       </c>
       <c r="X267" t="s">
         <v>845</v>
@@ -20965,7 +20965,7 @@
         <v>27243</v>
       </c>
       <c r="B268">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C268">
         <v>4</v>
@@ -21013,13 +21013,13 @@
         <v>3</v>
       </c>
       <c r="U268">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="V268">
         <v>1196</v>
       </c>
       <c r="W268">
-        <v>0.06437296240173362</v>
+        <v>0.06425631486691401</v>
       </c>
       <c r="X268" t="s">
         <v>846</v>
@@ -21030,7 +21030,7 @@
         <v>27270</v>
       </c>
       <c r="B269">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C269">
         <v>5</v>
@@ -21039,7 +21039,7 @@
         <v>1280</v>
       </c>
       <c r="E269">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="F269">
         <v>9</v>
@@ -21054,7 +21054,7 @@
         <v>7</v>
       </c>
       <c r="J269" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K269" t="s">
         <v>34</v>
@@ -21084,10 +21084,10 @@
         <v>888</v>
       </c>
       <c r="V269">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="W269">
-        <v>0.08882263753337147</v>
+        <v>0.08864148696484722</v>
       </c>
       <c r="X269" t="s">
         <v>846</v>
@@ -21122,7 +21122,7 @@
         <v>7</v>
       </c>
       <c r="J270" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K270" t="s">
         <v>34</v>
@@ -21155,7 +21155,7 @@
         <v>1173</v>
       </c>
       <c r="W270">
-        <v>0.002014517535151035</v>
+        <v>0.002013112051794464</v>
       </c>
       <c r="X270" t="s">
         <v>845</v>
@@ -21166,7 +21166,7 @@
         <v>27292</v>
       </c>
       <c r="B271">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C271">
         <v>5</v>
@@ -21190,7 +21190,7 @@
         <v>6</v>
       </c>
       <c r="J271" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="K271" t="s">
         <v>34</v>
@@ -21214,13 +21214,13 @@
         <v>4</v>
       </c>
       <c r="U271">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="V271">
         <v>1121</v>
       </c>
       <c r="W271">
-        <v>0.004138498467918511</v>
+        <v>0.00408558034214497</v>
       </c>
       <c r="X271" t="s">
         <v>845</v>
@@ -21231,7 +21231,7 @@
         <v>27514</v>
       </c>
       <c r="B272">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C272">
         <v>7</v>
@@ -21243,7 +21243,7 @@
         <v>1069</v>
       </c>
       <c r="F272">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G272">
         <v>2</v>
@@ -21255,7 +21255,7 @@
         <v>6</v>
       </c>
       <c r="J272" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="K272" t="s">
         <v>34</v>
@@ -21282,13 +21282,13 @@
         <v>6</v>
       </c>
       <c r="U272">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="V272">
         <v>1069</v>
       </c>
       <c r="W272">
-        <v>0.1504977466792474</v>
+        <v>0.1502965630936225</v>
       </c>
       <c r="X272" t="s">
         <v>846</v>
@@ -21308,7 +21308,7 @@
         <v>1410</v>
       </c>
       <c r="E273">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F273">
         <v>10</v>
@@ -21350,13 +21350,13 @@
         <v>3</v>
       </c>
       <c r="U273">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="V273">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="W273">
-        <v>0.09345806013526504</v>
+        <v>0.09337067293193042</v>
       </c>
       <c r="X273" t="s">
         <v>846</v>
@@ -21421,7 +21421,7 @@
         <v>909</v>
       </c>
       <c r="W274">
-        <v>0.05722760841172985</v>
+        <v>0.05719519702300347</v>
       </c>
       <c r="X274" t="s">
         <v>846</v>
@@ -21489,7 +21489,7 @@
         <v>902</v>
       </c>
       <c r="W275">
-        <v>0.01032569010665458</v>
+        <v>0.01031829619897427</v>
       </c>
       <c r="X275" t="s">
         <v>845</v>
@@ -21500,7 +21500,7 @@
         <v>27899</v>
       </c>
       <c r="B276">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -21524,7 +21524,7 @@
         <v>5</v>
       </c>
       <c r="J276" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K276" t="s">
         <v>34</v>
@@ -21551,13 +21551,13 @@
         <v>3</v>
       </c>
       <c r="U276">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="V276">
         <v>855</v>
       </c>
       <c r="W276">
-        <v>0.09938295073618428</v>
+        <v>0.09924001058651639</v>
       </c>
       <c r="X276" t="s">
         <v>846</v>
@@ -21568,7 +21568,7 @@
         <v>28131</v>
       </c>
       <c r="B277">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C277">
         <v>4</v>
@@ -21619,13 +21619,13 @@
         <v>3</v>
       </c>
       <c r="U277">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="V277">
         <v>740</v>
       </c>
       <c r="W277">
-        <v>0.003204333775330981</v>
+        <v>0.003142810799865906</v>
       </c>
       <c r="X277" t="s">
         <v>845</v>
@@ -21660,7 +21660,7 @@
         <v>4</v>
       </c>
       <c r="J278" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K278" t="s">
         <v>34</v>
@@ -21693,7 +21693,7 @@
         <v>651</v>
       </c>
       <c r="W278">
-        <v>0.1152318888729216</v>
+        <v>0.1151943501171545</v>
       </c>
       <c r="X278" t="s">
         <v>846</v>
@@ -21758,7 +21758,7 @@
         <v>472</v>
       </c>
       <c r="W279">
-        <v>0.389441822873429</v>
+        <v>0.3893268522954292</v>
       </c>
       <c r="X279" t="s">
         <v>846</v>

--- a/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
@@ -88,34 +88,34 @@
     <t>categoria_previsao</t>
   </si>
   <si>
-    <t>312.0-510.6</t>
-  </si>
-  <si>
-    <t>0.0-170.0</t>
-  </si>
-  <si>
-    <t>1037.0-1216.0</t>
-  </si>
-  <si>
-    <t>699.0-870.0</t>
-  </si>
-  <si>
-    <t>870.0-1037.0</t>
-  </si>
-  <si>
-    <t>1676.0-2495.0</t>
-  </si>
-  <si>
-    <t>170.0-312.0</t>
-  </si>
-  <si>
-    <t>1216.0-1412.0</t>
-  </si>
-  <si>
-    <t>510.6-699.0</t>
-  </si>
-  <si>
-    <t>1412.0-1676.0</t>
+    <t>313.0-510.0</t>
+  </si>
+  <si>
+    <t>0.0-170.9</t>
+  </si>
+  <si>
+    <t>1038.0-1217.0</t>
+  </si>
+  <si>
+    <t>700.0-871.0</t>
+  </si>
+  <si>
+    <t>871.0-1038.0</t>
+  </si>
+  <si>
+    <t>1677.0-2496.0</t>
+  </si>
+  <si>
+    <t>170.9-313.0</t>
+  </si>
+  <si>
+    <t>1217.0-1413.0</t>
+  </si>
+  <si>
+    <t>510.0-700.0</t>
+  </si>
+  <si>
+    <t>1413.0-1677.0</t>
   </si>
   <si>
     <t>2.0-35.0</t>
@@ -136,34 +136,34 @@
     <t>390.0-480.0</t>
   </si>
   <si>
-    <t>1714.0-2495.0</t>
-  </si>
-  <si>
-    <t>1500.0-1714.0</t>
-  </si>
-  <si>
-    <t>1321.0-1500.0</t>
-  </si>
-  <si>
-    <t>1149.0-1321.0</t>
-  </si>
-  <si>
-    <t>989.0-1149.0</t>
-  </si>
-  <si>
-    <t>631.0-822.0</t>
-  </si>
-  <si>
-    <t>822.0-989.0</t>
-  </si>
-  <si>
-    <t>422.0-631.0</t>
-  </si>
-  <si>
-    <t>225.0-422.0</t>
-  </si>
-  <si>
-    <t>0.0-225.0</t>
+    <t>1715.0-2496.0</t>
+  </si>
+  <si>
+    <t>1501.0-1715.0</t>
+  </si>
+  <si>
+    <t>1322.0-1501.0</t>
+  </si>
+  <si>
+    <t>1150.0-1322.0</t>
+  </si>
+  <si>
+    <t>990.0-1150.0</t>
+  </si>
+  <si>
+    <t>632.0-823.0</t>
+  </si>
+  <si>
+    <t>823.0-990.0</t>
+  </si>
+  <si>
+    <t>423.0-632.0</t>
+  </si>
+  <si>
+    <t>225.8-423.0</t>
+  </si>
+  <si>
+    <t>0.0-225.8</t>
   </si>
   <si>
     <t>Sumidos</t>
@@ -3015,7 +3015,7 @@
         <v>244</v>
       </c>
       <c r="B2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3024,7 +3024,7 @@
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -3066,10 +3066,10 @@
         <v>1575</v>
       </c>
       <c r="V2">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="W2">
-        <v>0.04527427391530884</v>
+        <v>0.04520773617492243</v>
       </c>
       <c r="X2" t="s">
         <v>851</v>
@@ -3080,7 +3080,7 @@
         <v>339</v>
       </c>
       <c r="B3">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3089,7 +3089,7 @@
         <v>6300</v>
       </c>
       <c r="E3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -3131,13 +3131,13 @@
         <v>19</v>
       </c>
       <c r="U3">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="V3">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="W3">
-        <v>0.1077884512269589</v>
+        <v>0.1061419028877301</v>
       </c>
       <c r="X3" t="s">
         <v>852</v>
@@ -3148,7 +3148,7 @@
         <v>351</v>
       </c>
       <c r="B4">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -3157,7 +3157,7 @@
         <v>1760</v>
       </c>
       <c r="E4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -3205,10 +3205,10 @@
         <v>1555</v>
       </c>
       <c r="V4">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="W4">
-        <v>0.06553867047994257</v>
+        <v>0.06541581738628986</v>
       </c>
       <c r="X4" t="s">
         <v>852</v>
@@ -3219,7 +3219,7 @@
         <v>490</v>
       </c>
       <c r="B5">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3228,7 +3228,7 @@
         <v>1420</v>
       </c>
       <c r="E5">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -3273,10 +3273,10 @@
         <v>1932</v>
       </c>
       <c r="V5">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="W5">
-        <v>0.06758837615177596</v>
+        <v>0.06752832847286599</v>
       </c>
       <c r="X5" t="s">
         <v>852</v>
@@ -3287,7 +3287,7 @@
         <v>623</v>
       </c>
       <c r="B6">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3296,7 +3296,7 @@
         <v>700</v>
       </c>
       <c r="E6">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3341,10 +3341,10 @@
         <v>790</v>
       </c>
       <c r="V6">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="W6">
-        <v>0.01364268560098098</v>
+        <v>0.0135842927716659</v>
       </c>
       <c r="X6" t="s">
         <v>851</v>
@@ -3355,7 +3355,7 @@
         <v>632</v>
       </c>
       <c r="B7">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -3364,7 +3364,7 @@
         <v>1015</v>
       </c>
       <c r="E7">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -3406,10 +3406,10 @@
         <v>1079</v>
       </c>
       <c r="V7">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="W7">
-        <v>0.02922257788911447</v>
+        <v>0.02913589818353506</v>
       </c>
       <c r="X7" t="s">
         <v>851</v>
@@ -3420,7 +3420,7 @@
         <v>640</v>
       </c>
       <c r="B8">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3429,7 +3429,7 @@
         <v>800</v>
       </c>
       <c r="E8">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3471,10 +3471,10 @@
         <v>1070</v>
       </c>
       <c r="V8">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="W8">
-        <v>0.02873769440348415</v>
+        <v>0.02865129908038234</v>
       </c>
       <c r="X8" t="s">
         <v>851</v>
@@ -3485,7 +3485,7 @@
         <v>657</v>
       </c>
       <c r="B9">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3494,7 +3494,7 @@
         <v>3520</v>
       </c>
       <c r="E9">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3539,10 +3539,10 @@
         <v>956</v>
       </c>
       <c r="V9">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="W9">
-        <v>0.02260941123729933</v>
+        <v>0.02252972980101124</v>
       </c>
       <c r="X9" t="s">
         <v>851</v>
@@ -3553,7 +3553,7 @@
         <v>688</v>
       </c>
       <c r="B10">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3562,7 +3562,7 @@
         <v>3980</v>
       </c>
       <c r="E10">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3607,10 +3607,10 @@
         <v>1824</v>
       </c>
       <c r="V10">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="W10">
-        <v>0.06928117308598142</v>
+        <v>0.06921455350362546</v>
       </c>
       <c r="X10" t="s">
         <v>852</v>
@@ -3621,7 +3621,7 @@
         <v>739</v>
       </c>
       <c r="B11">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3630,7 +3630,7 @@
         <v>829.9</v>
       </c>
       <c r="E11">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3675,10 +3675,10 @@
         <v>1007</v>
       </c>
       <c r="V11">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="W11">
-        <v>0.02650370486059119</v>
+        <v>0.02641773427232063</v>
       </c>
       <c r="X11" t="s">
         <v>851</v>
@@ -3689,7 +3689,7 @@
         <v>745</v>
       </c>
       <c r="B12">
-        <v>1721</v>
+        <v>1722</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3698,7 +3698,7 @@
         <v>900</v>
       </c>
       <c r="E12">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3743,10 +3743,10 @@
         <v>196</v>
       </c>
       <c r="V12">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="W12">
-        <v>0.000242366312642342</v>
+        <v>0.0002410192482142226</v>
       </c>
       <c r="X12" t="s">
         <v>851</v>
@@ -3757,7 +3757,7 @@
         <v>772</v>
       </c>
       <c r="B13">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3766,7 +3766,7 @@
         <v>2743</v>
       </c>
       <c r="E13">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -3811,10 +3811,10 @@
         <v>1847</v>
       </c>
       <c r="V13">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="W13">
-        <v>0.05520445315742949</v>
+        <v>0.05515279568749096</v>
       </c>
       <c r="X13" t="s">
         <v>851</v>
@@ -3825,7 +3825,7 @@
         <v>777</v>
       </c>
       <c r="B14">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3834,7 +3834,7 @@
         <v>825</v>
       </c>
       <c r="E14">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -3879,10 +3879,10 @@
         <v>1616</v>
       </c>
       <c r="V14">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="W14">
-        <v>0.05127918888205147</v>
+        <v>0.0512150169586852</v>
       </c>
       <c r="X14" t="s">
         <v>851</v>
@@ -3893,7 +3893,7 @@
         <v>781</v>
       </c>
       <c r="B15">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3902,7 +3902,7 @@
         <v>2045</v>
       </c>
       <c r="E15">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3947,13 +3947,13 @@
         <v>3</v>
       </c>
       <c r="U15">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V15">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="W15">
-        <v>0.02755685280000657</v>
+        <v>0.02741278562590035</v>
       </c>
       <c r="X15" t="s">
         <v>851</v>
@@ -3964,7 +3964,7 @@
         <v>785</v>
       </c>
       <c r="B16">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3973,7 +3973,7 @@
         <v>4350</v>
       </c>
       <c r="E16">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4021,10 +4021,10 @@
         <v>678</v>
       </c>
       <c r="V16">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="W16">
-        <v>0.009436484699037127</v>
+        <v>0.009392131396895308</v>
       </c>
       <c r="X16" t="s">
         <v>851</v>
@@ -4035,7 +4035,7 @@
         <v>790</v>
       </c>
       <c r="B17">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -4044,7 +4044,7 @@
         <v>1380.01</v>
       </c>
       <c r="E17">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4089,10 +4089,10 @@
         <v>1574</v>
       </c>
       <c r="V17">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="W17">
-        <v>0.05052625360508214</v>
+        <v>0.05045941581135822</v>
       </c>
       <c r="X17" t="s">
         <v>851</v>
@@ -4103,7 +4103,7 @@
         <v>834</v>
       </c>
       <c r="B18">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -4112,7 +4112,7 @@
         <v>1290</v>
       </c>
       <c r="E18">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4154,13 +4154,13 @@
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="V18">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="W18">
-        <v>0.05644943116684989</v>
+        <v>0.05638717152283463</v>
       </c>
       <c r="X18" t="s">
         <v>852</v>
@@ -4171,7 +4171,7 @@
         <v>866</v>
       </c>
       <c r="B19">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4180,7 +4180,7 @@
         <v>1390</v>
       </c>
       <c r="E19">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -4225,10 +4225,10 @@
         <v>533</v>
       </c>
       <c r="V19">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="W19">
-        <v>0.00472073687648385</v>
+        <v>0.004696411059044577</v>
       </c>
       <c r="X19" t="s">
         <v>851</v>
@@ -4239,7 +4239,7 @@
         <v>980</v>
       </c>
       <c r="B20">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4248,7 +4248,7 @@
         <v>1550</v>
       </c>
       <c r="E20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4290,10 +4290,10 @@
         <v>175</v>
       </c>
       <c r="V20">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="W20">
-        <v>0.0001443157652906818</v>
+        <v>0.000143527153105765</v>
       </c>
       <c r="X20" t="s">
         <v>851</v>
@@ -4304,7 +4304,7 @@
         <v>1223</v>
       </c>
       <c r="B21">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4313,7 +4313,7 @@
         <v>2905</v>
       </c>
       <c r="E21">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4358,10 +4358,10 @@
         <v>743</v>
       </c>
       <c r="V21">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="W21">
-        <v>0.01564387215844021</v>
+        <v>0.01557585929876724</v>
       </c>
       <c r="X21" t="s">
         <v>851</v>
@@ -4372,7 +4372,7 @@
         <v>1236</v>
       </c>
       <c r="B22">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4381,7 +4381,7 @@
         <v>2219.01</v>
       </c>
       <c r="E22">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -4429,10 +4429,10 @@
         <v>1523</v>
       </c>
       <c r="V22">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="W22">
-        <v>0.0679198700234124</v>
+        <v>0.06782633701758969</v>
       </c>
       <c r="X22" t="s">
         <v>852</v>
@@ -4443,7 +4443,7 @@
         <v>1290</v>
       </c>
       <c r="B23">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4452,7 +4452,7 @@
         <v>940</v>
       </c>
       <c r="E23">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -4500,10 +4500,10 @@
         <v>643</v>
       </c>
       <c r="V23">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="W23">
-        <v>0.007246540935827411</v>
+        <v>0.007205200173772543</v>
       </c>
       <c r="X23" t="s">
         <v>851</v>
@@ -4514,7 +4514,7 @@
         <v>1358</v>
       </c>
       <c r="B24">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4523,7 +4523,7 @@
         <v>1075</v>
       </c>
       <c r="E24">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -4568,10 +4568,10 @@
         <v>1680</v>
       </c>
       <c r="V24">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="W24">
-        <v>0.07419473993154237</v>
+        <v>0.07411817533001158</v>
       </c>
       <c r="X24" t="s">
         <v>852</v>
@@ -4582,7 +4582,7 @@
         <v>1412</v>
       </c>
       <c r="B25">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4591,7 +4591,7 @@
         <v>489</v>
       </c>
       <c r="E25">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -4636,10 +4636,10 @@
         <v>991</v>
       </c>
       <c r="V25">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="W25">
-        <v>0.03370285170629556</v>
+        <v>0.03360167592407363</v>
       </c>
       <c r="X25" t="s">
         <v>851</v>
@@ -4650,7 +4650,7 @@
         <v>1487</v>
       </c>
       <c r="B26">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4659,7 +4659,7 @@
         <v>3299</v>
       </c>
       <c r="E26">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -4704,10 +4704,10 @@
         <v>698</v>
       </c>
       <c r="V26">
-        <v>1737</v>
+        <v>1738</v>
       </c>
       <c r="W26">
-        <v>0.01510712736676318</v>
+        <v>0.01503913386275371</v>
       </c>
       <c r="X26" t="s">
         <v>851</v>
@@ -4718,7 +4718,7 @@
         <v>1671</v>
       </c>
       <c r="B27">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4727,7 +4727,7 @@
         <v>1230</v>
       </c>
       <c r="E27">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -4772,10 +4772,10 @@
         <v>472</v>
       </c>
       <c r="V27">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="W27">
-        <v>0.005270277371609813</v>
+        <v>0.005241909613051422</v>
       </c>
       <c r="X27" t="s">
         <v>851</v>
@@ -4786,7 +4786,7 @@
         <v>1684</v>
       </c>
       <c r="B28">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -4795,7 +4795,7 @@
         <v>4315</v>
       </c>
       <c r="E28">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -4840,10 +4840,10 @@
         <v>1656</v>
       </c>
       <c r="V28">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="W28">
-        <v>0.1422976277986932</v>
+        <v>0.1421560624358712</v>
       </c>
       <c r="X28" t="s">
         <v>852</v>
@@ -4854,7 +4854,7 @@
         <v>1698</v>
       </c>
       <c r="B29">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4863,7 +4863,7 @@
         <v>1629</v>
       </c>
       <c r="E29">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -4908,10 +4908,10 @@
         <v>1419</v>
       </c>
       <c r="V29">
-        <v>1689</v>
+        <v>1690</v>
       </c>
       <c r="W29">
-        <v>0.07116604038971566</v>
+        <v>0.0710611505945266</v>
       </c>
       <c r="X29" t="s">
         <v>852</v>
@@ -4922,7 +4922,7 @@
         <v>1744</v>
       </c>
       <c r="B30">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4931,7 +4931,7 @@
         <v>1614</v>
       </c>
       <c r="E30">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -4976,10 +4976,10 @@
         <v>364</v>
       </c>
       <c r="V30">
-        <v>1678</v>
+        <v>1679</v>
       </c>
       <c r="W30">
-        <v>0.00252952959112974</v>
+        <v>0.002515238167134607</v>
       </c>
       <c r="X30" t="s">
         <v>851</v>
@@ -4990,7 +4990,7 @@
         <v>1767</v>
       </c>
       <c r="B31">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -4999,7 +4999,7 @@
         <v>2225</v>
       </c>
       <c r="E31">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5044,10 +5044,10 @@
         <v>1104</v>
       </c>
       <c r="V31">
-        <v>1669</v>
+        <v>1670</v>
       </c>
       <c r="W31">
-        <v>0.04546933153103969</v>
+        <v>0.04536453036556859</v>
       </c>
       <c r="X31" t="s">
         <v>851</v>
@@ -5058,7 +5058,7 @@
         <v>1773</v>
       </c>
       <c r="B32">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5067,7 +5067,7 @@
         <v>1350</v>
       </c>
       <c r="E32">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5112,10 +5112,10 @@
         <v>1104</v>
       </c>
       <c r="V32">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="W32">
-        <v>0.04553270143453508</v>
+        <v>0.04542784948407221</v>
       </c>
       <c r="X32" t="s">
         <v>851</v>
@@ -5126,7 +5126,7 @@
         <v>1776</v>
       </c>
       <c r="B33">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5135,7 +5135,7 @@
         <v>1425</v>
       </c>
       <c r="E33">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -5180,10 +5180,10 @@
         <v>1316</v>
       </c>
       <c r="V33">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="W33">
-        <v>0.05532248075654972</v>
+        <v>0.05523488524843982</v>
       </c>
       <c r="X33" t="s">
         <v>851</v>
@@ -5194,7 +5194,7 @@
         <v>1783</v>
       </c>
       <c r="B34">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5203,7 +5203,7 @@
         <v>3330</v>
       </c>
       <c r="E34">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5245,13 +5245,13 @@
         <v>4</v>
       </c>
       <c r="U34">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V34">
-        <v>1662</v>
+        <v>1663</v>
       </c>
       <c r="W34">
-        <v>0.04904709891429428</v>
+        <v>0.04880284756229263</v>
       </c>
       <c r="X34" t="s">
         <v>851</v>
@@ -5262,7 +5262,7 @@
         <v>1898</v>
       </c>
       <c r="B35">
-        <v>1466</v>
+        <v>1467</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5271,7 +5271,7 @@
         <v>1695</v>
       </c>
       <c r="E35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -5319,10 +5319,10 @@
         <v>553</v>
       </c>
       <c r="V35">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="W35">
-        <v>0.001954805543768614</v>
+        <v>0.001943518722338274</v>
       </c>
       <c r="X35" t="s">
         <v>851</v>
@@ -5333,7 +5333,7 @@
         <v>1919</v>
       </c>
       <c r="B36">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5342,7 +5342,7 @@
         <v>1410</v>
       </c>
       <c r="E36">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -5384,13 +5384,13 @@
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="V36">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="W36">
-        <v>0.05639112086799669</v>
+        <v>0.05627495278288676</v>
       </c>
       <c r="X36" t="s">
         <v>852</v>
@@ -5401,7 +5401,7 @@
         <v>1945</v>
       </c>
       <c r="B37">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5410,7 +5410,7 @@
         <v>670</v>
       </c>
       <c r="E37">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="F37">
         <v>7</v>
@@ -5455,10 +5455,10 @@
         <v>926</v>
       </c>
       <c r="V37">
-        <v>1613</v>
+        <v>1614</v>
       </c>
       <c r="W37">
-        <v>0.03763909257056491</v>
+        <v>0.03752483518795196</v>
       </c>
       <c r="X37" t="s">
         <v>851</v>
@@ -5469,7 +5469,7 @@
         <v>2097</v>
       </c>
       <c r="B38">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5478,7 +5478,7 @@
         <v>1451</v>
       </c>
       <c r="E38">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -5523,10 +5523,10 @@
         <v>1303</v>
       </c>
       <c r="V38">
-        <v>1553</v>
+        <v>1554</v>
       </c>
       <c r="W38">
-        <v>0.07685060327802926</v>
+        <v>0.07673069109382702</v>
       </c>
       <c r="X38" t="s">
         <v>852</v>
@@ -5537,7 +5537,7 @@
         <v>2100</v>
       </c>
       <c r="B39">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5546,7 +5546,7 @@
         <v>2667</v>
       </c>
       <c r="E39">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -5591,10 +5591,10 @@
         <v>407</v>
       </c>
       <c r="V39">
-        <v>1552</v>
+        <v>1553</v>
       </c>
       <c r="W39">
-        <v>0.002592170690962507</v>
+        <v>0.002575345810304456</v>
       </c>
       <c r="X39" t="s">
         <v>851</v>
@@ -5605,7 +5605,7 @@
         <v>2112</v>
       </c>
       <c r="B40">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5614,7 +5614,7 @@
         <v>2010</v>
       </c>
       <c r="E40">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -5656,10 +5656,10 @@
         <v>275</v>
       </c>
       <c r="V40">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="W40">
-        <v>0.001642879618771385</v>
+        <v>0.001633135007441334</v>
       </c>
       <c r="X40" t="s">
         <v>851</v>
@@ -5670,7 +5670,7 @@
         <v>2131</v>
       </c>
       <c r="B41">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5679,7 +5679,7 @@
         <v>1475</v>
       </c>
       <c r="E41">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -5724,10 +5724,10 @@
         <v>342</v>
       </c>
       <c r="V41">
-        <v>1542</v>
+        <v>1543</v>
       </c>
       <c r="W41">
-        <v>0.003133505792505722</v>
+        <v>0.003115254909521302</v>
       </c>
       <c r="X41" t="s">
         <v>851</v>
@@ -5738,7 +5738,7 @@
         <v>2135</v>
       </c>
       <c r="B42">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5747,7 +5747,7 @@
         <v>720</v>
       </c>
       <c r="E42">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -5792,10 +5792,10 @@
         <v>982</v>
       </c>
       <c r="V42">
-        <v>1438</v>
+        <v>1439</v>
       </c>
       <c r="W42">
-        <v>0.06442403607987028</v>
+        <v>0.06424543960852881</v>
       </c>
       <c r="X42" t="s">
         <v>852</v>
@@ -5806,7 +5806,7 @@
         <v>2178</v>
       </c>
       <c r="B43">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5815,7 +5815,7 @@
         <v>1435</v>
       </c>
       <c r="E43">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -5860,10 +5860,10 @@
         <v>388</v>
       </c>
       <c r="V43">
-        <v>1531</v>
+        <v>1532</v>
       </c>
       <c r="W43">
-        <v>0.004684442783760834</v>
+        <v>0.004657651972730119</v>
       </c>
       <c r="X43" t="s">
         <v>851</v>
@@ -5874,7 +5874,7 @@
         <v>2196</v>
       </c>
       <c r="B44">
-        <v>1383</v>
+        <v>1384</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5883,7 +5883,7 @@
         <v>3080</v>
       </c>
       <c r="E44">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -5925,10 +5925,10 @@
         <v>144</v>
       </c>
       <c r="V44">
-        <v>1527</v>
+        <v>1528</v>
       </c>
       <c r="W44">
-        <v>9.351464020098601E-05</v>
+        <v>9.28927753450562E-05</v>
       </c>
       <c r="X44" t="s">
         <v>851</v>
@@ -5939,7 +5939,7 @@
         <v>2290</v>
       </c>
       <c r="B45">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5948,7 +5948,7 @@
         <v>5259.9</v>
       </c>
       <c r="E45">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -5990,13 +5990,13 @@
         <v>4</v>
       </c>
       <c r="U45">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="V45">
-        <v>1502</v>
+        <v>1503</v>
       </c>
       <c r="W45">
-        <v>0.08497759177502799</v>
+        <v>0.08483927723313679</v>
       </c>
       <c r="X45" t="s">
         <v>852</v>
@@ -6007,7 +6007,7 @@
         <v>2338</v>
       </c>
       <c r="B46">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -6016,7 +6016,7 @@
         <v>3409.9</v>
       </c>
       <c r="E46">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -6055,13 +6055,13 @@
         <v>5</v>
       </c>
       <c r="U46">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="V46">
-        <v>1492</v>
+        <v>1493</v>
       </c>
       <c r="W46">
-        <v>0.1056525875070965</v>
+        <v>0.1055031380759337</v>
       </c>
       <c r="X46" t="s">
         <v>852</v>
@@ -6072,7 +6072,7 @@
         <v>2371</v>
       </c>
       <c r="B47">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -6081,7 +6081,7 @@
         <v>2375</v>
       </c>
       <c r="E47">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -6126,10 +6126,10 @@
         <v>721</v>
       </c>
       <c r="V47">
-        <v>1482</v>
+        <v>1483</v>
       </c>
       <c r="W47">
-        <v>0.02724507331025688</v>
+        <v>0.02710877463986717</v>
       </c>
       <c r="X47" t="s">
         <v>851</v>
@@ -6140,7 +6140,7 @@
         <v>2410</v>
       </c>
       <c r="B48">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6149,7 +6149,7 @@
         <v>3319</v>
       </c>
       <c r="E48">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -6194,10 +6194,10 @@
         <v>873</v>
       </c>
       <c r="V48">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="W48">
-        <v>0.04769072583668088</v>
+        <v>0.04751340491423039</v>
       </c>
       <c r="X48" t="s">
         <v>851</v>
@@ -6208,7 +6208,7 @@
         <v>2419</v>
       </c>
       <c r="B49">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -6217,7 +6217,7 @@
         <v>1040</v>
       </c>
       <c r="E49">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -6265,10 +6265,10 @@
         <v>98</v>
       </c>
       <c r="V49">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="W49">
-        <v>0.0002046910273248767</v>
+        <v>0.0002034369017394805</v>
       </c>
       <c r="X49" t="s">
         <v>851</v>
@@ -6279,7 +6279,7 @@
         <v>2475</v>
       </c>
       <c r="B50">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -6288,7 +6288,7 @@
         <v>3635</v>
       </c>
       <c r="E50">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -6333,10 +6333,10 @@
         <v>1155</v>
       </c>
       <c r="V50">
-        <v>1455</v>
+        <v>1456</v>
       </c>
       <c r="W50">
-        <v>0.1166565869867654</v>
+        <v>0.1163523593138472</v>
       </c>
       <c r="X50" t="s">
         <v>852</v>
@@ -6347,7 +6347,7 @@
         <v>2476</v>
       </c>
       <c r="B51">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6356,7 +6356,7 @@
         <v>860</v>
       </c>
       <c r="E51">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -6401,10 +6401,10 @@
         <v>575</v>
       </c>
       <c r="V51">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="W51">
-        <v>0.01811731227625276</v>
+        <v>0.01802902546634976</v>
       </c>
       <c r="X51" t="s">
         <v>851</v>
@@ -6415,7 +6415,7 @@
         <v>2502</v>
       </c>
       <c r="B52">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -6424,7 +6424,7 @@
         <v>3885</v>
       </c>
       <c r="E52">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -6469,10 +6469,10 @@
         <v>1030</v>
       </c>
       <c r="V52">
-        <v>1448</v>
+        <v>1449</v>
       </c>
       <c r="W52">
-        <v>0.08985053685465527</v>
+        <v>0.08948640365024951</v>
       </c>
       <c r="X52" t="s">
         <v>852</v>
@@ -6483,7 +6483,7 @@
         <v>2525</v>
       </c>
       <c r="B53">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -6492,7 +6492,7 @@
         <v>2125</v>
       </c>
       <c r="E53">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -6537,10 +6537,10 @@
         <v>410</v>
       </c>
       <c r="V53">
-        <v>1487</v>
+        <v>1488</v>
       </c>
       <c r="W53">
-        <v>0.0007571765306082572</v>
+        <v>0.0007511223462535702</v>
       </c>
       <c r="X53" t="s">
         <v>851</v>
@@ -6551,7 +6551,7 @@
         <v>2537</v>
       </c>
       <c r="B54">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6560,7 +6560,7 @@
         <v>1030</v>
       </c>
       <c r="E54">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -6602,10 +6602,10 @@
         <v>1242</v>
       </c>
       <c r="V54">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="W54">
-        <v>0.06747935186489992</v>
+        <v>0.06738197277069606</v>
       </c>
       <c r="X54" t="s">
         <v>852</v>
@@ -6616,7 +6616,7 @@
         <v>2543</v>
       </c>
       <c r="B55">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6625,7 +6625,7 @@
         <v>13500</v>
       </c>
       <c r="E55">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -6670,10 +6670,10 @@
         <v>433</v>
       </c>
       <c r="V55">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="W55">
-        <v>0.0085280028838548</v>
+        <v>0.008480148971765985</v>
       </c>
       <c r="X55" t="s">
         <v>851</v>
@@ -6684,7 +6684,7 @@
         <v>2552</v>
       </c>
       <c r="B56">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6693,7 +6693,7 @@
         <v>1860</v>
       </c>
       <c r="E56">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -6738,10 +6738,10 @@
         <v>238</v>
       </c>
       <c r="V56">
-        <v>1439</v>
+        <v>1440</v>
       </c>
       <c r="W56">
-        <v>0.0005860336690336813</v>
+        <v>0.0005820113232284619</v>
       </c>
       <c r="X56" t="s">
         <v>851</v>
@@ -6752,7 +6752,7 @@
         <v>2588</v>
       </c>
       <c r="B57">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6761,7 +6761,7 @@
         <v>820</v>
       </c>
       <c r="E57">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -6806,10 +6806,10 @@
         <v>461</v>
       </c>
       <c r="V57">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="W57">
-        <v>0.01094138334316217</v>
+        <v>0.01088136358041076</v>
       </c>
       <c r="X57" t="s">
         <v>851</v>
@@ -6820,7 +6820,7 @@
         <v>2610</v>
       </c>
       <c r="B58">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -6829,7 +6829,7 @@
         <v>7258</v>
       </c>
       <c r="E58">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -6874,13 +6874,13 @@
         <v>7</v>
       </c>
       <c r="U58">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="V58">
-        <v>1423</v>
+        <v>1424</v>
       </c>
       <c r="W58">
-        <v>0.1433060780316171</v>
+        <v>0.1430320400261763</v>
       </c>
       <c r="X58" t="s">
         <v>852</v>
@@ -6891,7 +6891,7 @@
         <v>2612</v>
       </c>
       <c r="B59">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6900,7 +6900,7 @@
         <v>2310</v>
       </c>
       <c r="E59">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -6945,10 +6945,10 @@
         <v>195</v>
       </c>
       <c r="V59">
-        <v>1422</v>
+        <v>1423</v>
       </c>
       <c r="W59">
-        <v>0.001012695196318277</v>
+        <v>0.001006406831310055</v>
       </c>
       <c r="X59" t="s">
         <v>851</v>
@@ -6959,7 +6959,7 @@
         <v>2684</v>
       </c>
       <c r="B60">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6968,7 +6968,7 @@
         <v>984.9</v>
       </c>
       <c r="E60">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -7010,10 +7010,10 @@
         <v>105</v>
       </c>
       <c r="V60">
-        <v>1405</v>
+        <v>1406</v>
       </c>
       <c r="W60">
-        <v>6.948169581468943E-05</v>
+        <v>6.900451979708463E-05</v>
       </c>
       <c r="X60" t="s">
         <v>851</v>
@@ -7024,7 +7024,7 @@
         <v>2750</v>
       </c>
       <c r="B61">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -7033,7 +7033,7 @@
         <v>3913</v>
       </c>
       <c r="E61">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -7078,10 +7078,10 @@
         <v>768</v>
       </c>
       <c r="V61">
-        <v>1392</v>
+        <v>1393</v>
       </c>
       <c r="W61">
-        <v>0.04222870591146263</v>
+        <v>0.04204585552470079</v>
       </c>
       <c r="X61" t="s">
         <v>851</v>
@@ -7092,7 +7092,7 @@
         <v>2767</v>
       </c>
       <c r="B62">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -7101,7 +7101,7 @@
         <v>1150</v>
       </c>
       <c r="E62">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -7143,13 +7143,13 @@
         <v>4</v>
       </c>
       <c r="U62">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V62">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="W62">
-        <v>0.0148990312539019</v>
+        <v>0.014712315213337</v>
       </c>
       <c r="X62" t="s">
         <v>851</v>
@@ -7160,7 +7160,7 @@
         <v>2797</v>
       </c>
       <c r="B63">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -7169,7 +7169,7 @@
         <v>2160</v>
       </c>
       <c r="E63">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -7214,10 +7214,10 @@
         <v>548</v>
       </c>
       <c r="V63">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="W63">
-        <v>0.01014183605148146</v>
+        <v>0.01006965971881817</v>
       </c>
       <c r="X63" t="s">
         <v>851</v>
@@ -7228,7 +7228,7 @@
         <v>2866</v>
       </c>
       <c r="B64">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -7237,7 +7237,7 @@
         <v>9453</v>
       </c>
       <c r="E64">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -7279,10 +7279,10 @@
         <v>1015</v>
       </c>
       <c r="V64">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="W64">
-        <v>0.01023911139582264</v>
+        <v>0.01017757261199745</v>
       </c>
       <c r="X64" t="s">
         <v>851</v>
@@ -7293,7 +7293,7 @@
         <v>2881</v>
       </c>
       <c r="B65">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -7302,7 +7302,7 @@
         <v>3570</v>
       </c>
       <c r="E65">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -7347,10 +7347,10 @@
         <v>398</v>
       </c>
       <c r="V65">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="W65">
-        <v>0.004894694471914238</v>
+        <v>0.004861491721059645</v>
       </c>
       <c r="X65" t="s">
         <v>851</v>
@@ -7361,7 +7361,7 @@
         <v>2894</v>
       </c>
       <c r="B66">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -7370,7 +7370,7 @@
         <v>1750</v>
       </c>
       <c r="E66">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="F66">
         <v>8</v>
@@ -7415,10 +7415,10 @@
         <v>935</v>
       </c>
       <c r="V66">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="W66">
-        <v>0.06952968933366672</v>
+        <v>0.0693362073970301</v>
       </c>
       <c r="X66" t="s">
         <v>852</v>
@@ -7429,7 +7429,7 @@
         <v>2908</v>
       </c>
       <c r="B67">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -7438,7 +7438,7 @@
         <v>1388.9</v>
       </c>
       <c r="E67">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -7483,10 +7483,10 @@
         <v>1274</v>
       </c>
       <c r="V67">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="W67">
-        <v>0.09408988906954623</v>
+        <v>0.09396841548429655</v>
       </c>
       <c r="X67" t="s">
         <v>852</v>
@@ -7497,7 +7497,7 @@
         <v>2913</v>
       </c>
       <c r="B68">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -7506,7 +7506,7 @@
         <v>2125</v>
       </c>
       <c r="E68">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -7551,10 +7551,10 @@
         <v>1031</v>
       </c>
       <c r="V68">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="W68">
-        <v>0.06509601016846822</v>
+        <v>0.06497033447029373</v>
       </c>
       <c r="X68" t="s">
         <v>852</v>
@@ -7565,7 +7565,7 @@
         <v>2936</v>
       </c>
       <c r="B69">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C69">
         <v>10</v>
@@ -7574,7 +7574,7 @@
         <v>3155</v>
       </c>
       <c r="E69">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -7619,10 +7619,10 @@
         <v>1234</v>
       </c>
       <c r="V69">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="W69">
-        <v>0.1873348945558714</v>
+        <v>0.1870368800412834</v>
       </c>
       <c r="X69" t="s">
         <v>852</v>
@@ -7633,7 +7633,7 @@
         <v>2978</v>
       </c>
       <c r="B70">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -7642,7 +7642,7 @@
         <v>4230</v>
       </c>
       <c r="E70">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -7681,13 +7681,13 @@
         <v>4</v>
       </c>
       <c r="U70">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="V70">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="W70">
-        <v>0.02879877166455077</v>
+        <v>0.02852082259321309</v>
       </c>
       <c r="X70" t="s">
         <v>851</v>
@@ -7698,7 +7698,7 @@
         <v>3117</v>
       </c>
       <c r="B71">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -7707,7 +7707,7 @@
         <v>1365</v>
       </c>
       <c r="E71">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F71">
         <v>8</v>
@@ -7752,10 +7752,10 @@
         <v>789</v>
       </c>
       <c r="V71">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="W71">
-        <v>0.05162621585154899</v>
+        <v>0.05146951422365501</v>
       </c>
       <c r="X71" t="s">
         <v>851</v>
@@ -7766,7 +7766,7 @@
         <v>3138</v>
       </c>
       <c r="B72">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -7775,7 +7775,7 @@
         <v>7900</v>
       </c>
       <c r="E72">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F72">
         <v>9</v>
@@ -7817,10 +7817,10 @@
         <v>1024</v>
       </c>
       <c r="V72">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="W72">
-        <v>0.07014431399762662</v>
+        <v>0.07001555579420014</v>
       </c>
       <c r="X72" t="s">
         <v>852</v>
@@ -7831,7 +7831,7 @@
         <v>3151</v>
       </c>
       <c r="B73">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -7840,7 +7840,7 @@
         <v>1580</v>
       </c>
       <c r="E73">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -7885,10 +7885,10 @@
         <v>537</v>
       </c>
       <c r="V73">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="W73">
-        <v>0.0193745468120375</v>
+        <v>0.01925649498267538</v>
       </c>
       <c r="X73" t="s">
         <v>851</v>
@@ -7899,7 +7899,7 @@
         <v>3154</v>
       </c>
       <c r="B74">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -7908,7 +7908,7 @@
         <v>2615</v>
       </c>
       <c r="E74">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F74">
         <v>9</v>
@@ -7953,10 +7953,10 @@
         <v>1029</v>
       </c>
       <c r="V74">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="W74">
-        <v>0.07069638988738898</v>
+        <v>0.07056828690721405</v>
       </c>
       <c r="X74" t="s">
         <v>852</v>
@@ -7967,7 +7967,7 @@
         <v>3212</v>
       </c>
       <c r="B75">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -7976,7 +7976,7 @@
         <v>4249</v>
       </c>
       <c r="E75">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="F75">
         <v>8</v>
@@ -8021,10 +8021,10 @@
         <v>869</v>
       </c>
       <c r="V75">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="W75">
-        <v>0.06099204491344705</v>
+        <v>0.06083986000370063</v>
       </c>
       <c r="X75" t="s">
         <v>852</v>
@@ -8035,7 +8035,7 @@
         <v>3265</v>
       </c>
       <c r="B76">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -8044,7 +8044,7 @@
         <v>3110</v>
       </c>
       <c r="E76">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -8089,10 +8089,10 @@
         <v>311</v>
       </c>
       <c r="V76">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="W76">
-        <v>0.005960804546556322</v>
+        <v>0.005923725175656811</v>
       </c>
       <c r="X76" t="s">
         <v>851</v>
@@ -8103,7 +8103,7 @@
         <v>3320</v>
       </c>
       <c r="B77">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -8112,7 +8112,7 @@
         <v>1194.9</v>
       </c>
       <c r="E77">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -8154,10 +8154,10 @@
         <v>850</v>
       </c>
       <c r="V77">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="W77">
-        <v>0.07302293641981729</v>
+        <v>0.07280287585328508</v>
       </c>
       <c r="X77" t="s">
         <v>852</v>
@@ -8168,7 +8168,7 @@
         <v>3342</v>
       </c>
       <c r="B78">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -8177,7 +8177,7 @@
         <v>1720</v>
       </c>
       <c r="E78">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -8222,10 +8222,10 @@
         <v>35</v>
       </c>
       <c r="V78">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="W78">
-        <v>0.0001227412474716338</v>
+        <v>0.0001219454933553199</v>
       </c>
       <c r="X78" t="s">
         <v>851</v>
@@ -8236,7 +8236,7 @@
         <v>3358</v>
       </c>
       <c r="B79">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -8245,7 +8245,7 @@
         <v>3649</v>
       </c>
       <c r="E79">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -8290,10 +8290,10 @@
         <v>1233</v>
       </c>
       <c r="V79">
-        <v>1720</v>
+        <v>1721</v>
       </c>
       <c r="W79">
-        <v>0.06652063522222559</v>
+        <v>0.06634604077161359</v>
       </c>
       <c r="X79" t="s">
         <v>852</v>
@@ -8304,7 +8304,7 @@
         <v>3361</v>
       </c>
       <c r="B80">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -8313,7 +8313,7 @@
         <v>6787</v>
       </c>
       <c r="E80">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -8355,13 +8355,13 @@
         <v>8</v>
       </c>
       <c r="U80">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V80">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="W80">
-        <v>0.1762454082220173</v>
+        <v>0.175749581552417</v>
       </c>
       <c r="X80" t="s">
         <v>852</v>
@@ -8372,7 +8372,7 @@
         <v>3367</v>
       </c>
       <c r="B81">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -8381,7 +8381,7 @@
         <v>670</v>
       </c>
       <c r="E81">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -8423,10 +8423,10 @@
         <v>832</v>
       </c>
       <c r="V81">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="W81">
-        <v>0.06199382589106574</v>
+        <v>0.06183305411181352</v>
       </c>
       <c r="X81" t="s">
         <v>852</v>
@@ -8437,7 +8437,7 @@
         <v>3368</v>
       </c>
       <c r="B82">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -8446,7 +8446,7 @@
         <v>1345</v>
       </c>
       <c r="E82">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -8491,10 +8491,10 @@
         <v>1224</v>
       </c>
       <c r="V82">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="W82">
-        <v>0.1044545593813464</v>
+        <v>0.1043247838553976</v>
       </c>
       <c r="X82" t="s">
         <v>852</v>
@@ -8505,7 +8505,7 @@
         <v>3396</v>
       </c>
       <c r="B83">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -8514,7 +8514,7 @@
         <v>1403.9</v>
       </c>
       <c r="E83">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="F83">
         <v>5</v>
@@ -8559,10 +8559,10 @@
         <v>207</v>
       </c>
       <c r="V83">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="W83">
-        <v>0.002335582219162599</v>
+        <v>0.002320263671216291</v>
       </c>
       <c r="X83" t="s">
         <v>851</v>
@@ -8573,7 +8573,7 @@
         <v>3419</v>
       </c>
       <c r="B84">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -8582,7 +8582,7 @@
         <v>1596.5</v>
       </c>
       <c r="E84">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -8627,10 +8627,10 @@
         <v>1074</v>
       </c>
       <c r="V84">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="W84">
-        <v>0.09904384559941772</v>
+        <v>0.09888239800891913</v>
       </c>
       <c r="X84" t="s">
         <v>852</v>
@@ -8641,7 +8641,7 @@
         <v>3465</v>
       </c>
       <c r="B85">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -8650,7 +8650,7 @@
         <v>1765</v>
       </c>
       <c r="E85">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -8695,10 +8695,10 @@
         <v>978</v>
       </c>
       <c r="V85">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="W85">
-        <v>0.07561373765152229</v>
+        <v>0.07547461762527692</v>
       </c>
       <c r="X85" t="s">
         <v>852</v>
@@ -8709,7 +8709,7 @@
         <v>3544</v>
       </c>
       <c r="B86">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -8718,7 +8718,7 @@
         <v>1904.9</v>
       </c>
       <c r="E86">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="F86">
         <v>5</v>
@@ -8760,10 +8760,10 @@
         <v>166</v>
       </c>
       <c r="V86">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="W86">
-        <v>0.0005754703668374962</v>
+        <v>0.0005711401873297891</v>
       </c>
       <c r="X86" t="s">
         <v>851</v>
@@ -8774,7 +8774,7 @@
         <v>3547</v>
       </c>
       <c r="B87">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -8783,7 +8783,7 @@
         <v>1450</v>
       </c>
       <c r="E87">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="F87">
         <v>8</v>
@@ -8828,10 +8828,10 @@
         <v>1367</v>
       </c>
       <c r="V87">
-        <v>1705</v>
+        <v>1707</v>
       </c>
       <c r="W87">
-        <v>0.05475233441993088</v>
+        <v>0.05461335323645099</v>
       </c>
       <c r="X87" t="s">
         <v>851</v>
@@ -8842,7 +8842,7 @@
         <v>3630</v>
       </c>
       <c r="B88">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -8851,7 +8851,7 @@
         <v>1779.9</v>
       </c>
       <c r="E88">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -8896,10 +8896,10 @@
         <v>356</v>
       </c>
       <c r="V88">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="W88">
-        <v>0.007673280685297296</v>
+        <v>0.007617728600017404</v>
       </c>
       <c r="X88" t="s">
         <v>851</v>
@@ -8910,7 +8910,7 @@
         <v>3631</v>
       </c>
       <c r="B89">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -8919,7 +8919,7 @@
         <v>2580</v>
       </c>
       <c r="E89">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -8961,13 +8961,13 @@
         <v>4</v>
       </c>
       <c r="U89">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V89">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="W89">
-        <v>0.007679587275890827</v>
+        <v>0.007548755282210119</v>
       </c>
       <c r="X89" t="s">
         <v>851</v>
@@ -8978,7 +8978,7 @@
         <v>3645</v>
       </c>
       <c r="B90">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -8987,7 +8987,7 @@
         <v>2780</v>
       </c>
       <c r="E90">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -9032,10 +9032,10 @@
         <v>999</v>
       </c>
       <c r="V90">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="W90">
-        <v>0.1607593544057501</v>
+        <v>0.1604138720709983</v>
       </c>
       <c r="X90" t="s">
         <v>852</v>
@@ -9046,7 +9046,7 @@
         <v>3649</v>
       </c>
       <c r="B91">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -9055,7 +9055,7 @@
         <v>1570</v>
       </c>
       <c r="E91">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="F91">
         <v>5</v>
@@ -9097,10 +9097,10 @@
         <v>170</v>
       </c>
       <c r="V91">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="W91">
-        <v>0.001894704292410909</v>
+        <v>0.00188188838611595</v>
       </c>
       <c r="X91" t="s">
         <v>851</v>
@@ -9111,7 +9111,7 @@
         <v>3653</v>
       </c>
       <c r="B92">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -9120,7 +9120,7 @@
         <v>2512.01</v>
       </c>
       <c r="E92">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="F92">
         <v>7</v>
@@ -9162,13 +9162,13 @@
         <v>5</v>
       </c>
       <c r="U92">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V92">
-        <v>1160</v>
+        <v>1162</v>
       </c>
       <c r="W92">
-        <v>0.02368659530227243</v>
+        <v>0.02358821937363445</v>
       </c>
       <c r="X92" t="s">
         <v>851</v>
@@ -9179,7 +9179,7 @@
         <v>3672</v>
       </c>
       <c r="B93">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -9188,7 +9188,7 @@
         <v>2364.8</v>
       </c>
       <c r="E93">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="F93">
         <v>5</v>
@@ -9233,10 +9233,10 @@
         <v>134</v>
       </c>
       <c r="V93">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="W93">
-        <v>0.001162410872525355</v>
+        <v>0.001154489535064384</v>
       </c>
       <c r="X93" t="s">
         <v>851</v>
@@ -9247,7 +9247,7 @@
         <v>3695</v>
       </c>
       <c r="B94">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -9256,7 +9256,7 @@
         <v>1845</v>
       </c>
       <c r="E94">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -9301,10 +9301,10 @@
         <v>1041</v>
       </c>
       <c r="V94">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="W94">
-        <v>0.0848302397716606</v>
+        <v>0.08469952048462405</v>
       </c>
       <c r="X94" t="s">
         <v>852</v>
@@ -9315,7 +9315,7 @@
         <v>3710</v>
       </c>
       <c r="B95">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -9324,7 +9324,7 @@
         <v>2578</v>
       </c>
       <c r="E95">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -9363,13 +9363,13 @@
         <v>6</v>
       </c>
       <c r="U95">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V95">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="W95">
-        <v>0.1555978767030509</v>
+        <v>0.1553127932746547</v>
       </c>
       <c r="X95" t="s">
         <v>852</v>
@@ -9380,7 +9380,7 @@
         <v>3711</v>
       </c>
       <c r="B96">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -9389,7 +9389,7 @@
         <v>3435.01</v>
       </c>
       <c r="E96">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -9434,10 +9434,10 @@
         <v>752</v>
       </c>
       <c r="V96">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="W96">
-        <v>0.08596511348490495</v>
+        <v>0.0854574337857113</v>
       </c>
       <c r="X96" t="s">
         <v>852</v>
@@ -9448,7 +9448,7 @@
         <v>3722</v>
       </c>
       <c r="B97">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -9457,7 +9457,7 @@
         <v>2420</v>
       </c>
       <c r="E97">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -9499,10 +9499,10 @@
         <v>176</v>
       </c>
       <c r="V97">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="W97">
-        <v>0.002179208385407285</v>
+        <v>0.002164408005483727</v>
       </c>
       <c r="X97" t="s">
         <v>851</v>
@@ -9513,7 +9513,7 @@
         <v>3749</v>
       </c>
       <c r="B98">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -9522,7 +9522,7 @@
         <v>1764.9</v>
       </c>
       <c r="E98">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="F98">
         <v>7</v>
@@ -9567,10 +9567,10 @@
         <v>449</v>
       </c>
       <c r="V98">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="W98">
-        <v>0.02469799793502402</v>
+        <v>0.02456506488933683</v>
       </c>
       <c r="X98" t="s">
         <v>851</v>
@@ -9581,7 +9581,7 @@
         <v>3799</v>
       </c>
       <c r="B99">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C99">
         <v>6</v>
@@ -9590,7 +9590,7 @@
         <v>1815</v>
       </c>
       <c r="E99">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -9635,10 +9635,10 @@
         <v>360</v>
       </c>
       <c r="V99">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="W99">
-        <v>0.005626135762300302</v>
+        <v>0.005579239496027231</v>
       </c>
       <c r="X99" t="s">
         <v>851</v>
@@ -9649,7 +9649,7 @@
         <v>3805</v>
       </c>
       <c r="B100">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -9658,7 +9658,7 @@
         <v>2430</v>
       </c>
       <c r="E100">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -9703,10 +9703,10 @@
         <v>386</v>
       </c>
       <c r="V100">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="W100">
-        <v>0.01245914243835809</v>
+        <v>0.01237031169829632</v>
       </c>
       <c r="X100" t="s">
         <v>851</v>
@@ -9717,7 +9717,7 @@
         <v>3829</v>
       </c>
       <c r="B101">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -9726,7 +9726,7 @@
         <v>2150</v>
       </c>
       <c r="E101">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="F101">
         <v>6</v>
@@ -9771,10 +9771,10 @@
         <v>357</v>
       </c>
       <c r="V101">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="W101">
-        <v>0.009805178340912629</v>
+        <v>0.009733501959722118</v>
       </c>
       <c r="X101" t="s">
         <v>851</v>
@@ -9785,7 +9785,7 @@
         <v>3926</v>
       </c>
       <c r="B102">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -9794,7 +9794,7 @@
         <v>2400</v>
       </c>
       <c r="E102">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -9839,10 +9839,10 @@
         <v>938</v>
       </c>
       <c r="V102">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="W102">
-        <v>0.1291791535502511</v>
+        <v>0.1289250644795603</v>
       </c>
       <c r="X102" t="s">
         <v>852</v>
@@ -9853,7 +9853,7 @@
         <v>3963</v>
       </c>
       <c r="B103">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -9862,7 +9862,7 @@
         <v>2823.8</v>
       </c>
       <c r="E103">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="F103">
         <v>4</v>
@@ -9907,10 +9907,10 @@
         <v>63</v>
       </c>
       <c r="V103">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="W103">
-        <v>0.0003761726520693579</v>
+        <v>0.0003735854169168292</v>
       </c>
       <c r="X103" t="s">
         <v>851</v>
@@ -9921,7 +9921,7 @@
         <v>3964</v>
       </c>
       <c r="B104">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -9930,7 +9930,7 @@
         <v>1208</v>
       </c>
       <c r="E104">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="F104">
         <v>9</v>
@@ -9975,10 +9975,10 @@
         <v>854</v>
       </c>
       <c r="V104">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="W104">
-        <v>0.08229822756352867</v>
+        <v>0.08212840770960136</v>
       </c>
       <c r="X104" t="s">
         <v>852</v>
@@ -9989,7 +9989,7 @@
         <v>4016</v>
       </c>
       <c r="B105">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -9998,7 +9998,7 @@
         <v>1320</v>
       </c>
       <c r="E105">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -10043,10 +10043,10 @@
         <v>588</v>
       </c>
       <c r="V105">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="W105">
-        <v>0.05556313569816859</v>
+        <v>0.05529088714279602</v>
       </c>
       <c r="X105" t="s">
         <v>851</v>
@@ -10057,7 +10057,7 @@
         <v>4020</v>
       </c>
       <c r="B106">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -10066,7 +10066,7 @@
         <v>1795</v>
       </c>
       <c r="E106">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -10111,10 +10111,10 @@
         <v>776</v>
       </c>
       <c r="V106">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="W106">
-        <v>0.1481188777240914</v>
+        <v>0.1478459514272308</v>
       </c>
       <c r="X106" t="s">
         <v>852</v>
@@ -10125,7 +10125,7 @@
         <v>4053</v>
       </c>
       <c r="B107">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -10134,7 +10134,7 @@
         <v>1095</v>
       </c>
       <c r="E107">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="F107">
         <v>9</v>
@@ -10179,10 +10179,10 @@
         <v>762</v>
       </c>
       <c r="V107">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="W107">
-        <v>0.08134261400304618</v>
+        <v>0.08114729239459197</v>
       </c>
       <c r="X107" t="s">
         <v>852</v>
@@ -10193,7 +10193,7 @@
         <v>4121</v>
       </c>
       <c r="B108">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -10202,7 +10202,7 @@
         <v>5780</v>
       </c>
       <c r="E108">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="F108">
         <v>10</v>
@@ -10247,10 +10247,10 @@
         <v>981</v>
       </c>
       <c r="V108">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="W108">
-        <v>0.09424638984110306</v>
+        <v>0.09410046010288114</v>
       </c>
       <c r="X108" t="s">
         <v>852</v>
@@ -10261,7 +10261,7 @@
         <v>4123</v>
       </c>
       <c r="B109">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -10270,7 +10270,7 @@
         <v>1383</v>
       </c>
       <c r="E109">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="F109">
         <v>9</v>
@@ -10309,13 +10309,13 @@
         <v>4</v>
       </c>
       <c r="U109">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V109">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="W109">
-        <v>0.1093837817292155</v>
+        <v>0.1090578950304855</v>
       </c>
       <c r="X109" t="s">
         <v>852</v>
@@ -10326,7 +10326,7 @@
         <v>4165</v>
       </c>
       <c r="B110">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C110">
         <v>19</v>
@@ -10335,7 +10335,7 @@
         <v>2638</v>
       </c>
       <c r="E110">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -10380,10 +10380,10 @@
         <v>993</v>
       </c>
       <c r="V110">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="W110">
-        <v>0.465487889664711</v>
+        <v>0.4646463804717816</v>
       </c>
       <c r="X110" t="s">
         <v>852</v>
@@ -10394,7 +10394,7 @@
         <v>4218</v>
       </c>
       <c r="B111">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -10403,7 +10403,7 @@
         <v>1150</v>
       </c>
       <c r="E111">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -10448,10 +10448,10 @@
         <v>914</v>
       </c>
       <c r="V111">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="W111">
-        <v>0.09432942658856448</v>
+        <v>0.09416882127295469</v>
       </c>
       <c r="X111" t="s">
         <v>852</v>
@@ -10462,7 +10462,7 @@
         <v>4240</v>
       </c>
       <c r="B112">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -10471,7 +10471,7 @@
         <v>1520</v>
       </c>
       <c r="E112">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -10516,10 +10516,10 @@
         <v>288</v>
       </c>
       <c r="V112">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="W112">
-        <v>0.01290278203525669</v>
+        <v>0.01281748895235942</v>
       </c>
       <c r="X112" t="s">
         <v>851</v>
@@ -10530,7 +10530,7 @@
         <v>4264</v>
       </c>
       <c r="B113">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -10539,7 +10539,7 @@
         <v>1065</v>
       </c>
       <c r="E113">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -10581,10 +10581,10 @@
         <v>988</v>
       </c>
       <c r="V113">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="W113">
-        <v>0.09960486443276262</v>
+        <v>0.0994575554326277</v>
       </c>
       <c r="X113" t="s">
         <v>852</v>
@@ -10595,7 +10595,7 @@
         <v>4298</v>
       </c>
       <c r="B114">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -10604,7 +10604,7 @@
         <v>1618.9</v>
       </c>
       <c r="E114">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="F114">
         <v>5</v>
@@ -10649,10 +10649,10 @@
         <v>392</v>
       </c>
       <c r="V114">
-        <v>1382</v>
+        <v>1383</v>
       </c>
       <c r="W114">
-        <v>0.002171361550467298</v>
+        <v>0.002154887627061614</v>
       </c>
       <c r="X114" t="s">
         <v>851</v>
@@ -10663,7 +10663,7 @@
         <v>4524</v>
       </c>
       <c r="B115">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -10672,7 +10672,7 @@
         <v>1880</v>
       </c>
       <c r="E115">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -10717,10 +10717,10 @@
         <v>907</v>
       </c>
       <c r="V115">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="W115">
-        <v>0.1338158677463981</v>
+        <v>0.1336027212832837</v>
       </c>
       <c r="X115" t="s">
         <v>852</v>
@@ -10731,7 +10731,7 @@
         <v>4594</v>
       </c>
       <c r="B116">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C116">
         <v>6</v>
@@ -10740,7 +10740,7 @@
         <v>2710</v>
       </c>
       <c r="E116">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F116">
         <v>8</v>
@@ -10785,10 +10785,10 @@
         <v>573</v>
       </c>
       <c r="V116">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W116">
-        <v>0.09631690629740293</v>
+        <v>0.09583520103747274</v>
       </c>
       <c r="X116" t="s">
         <v>852</v>
@@ -10799,7 +10799,7 @@
         <v>4623</v>
       </c>
       <c r="B117">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -10808,7 +10808,7 @@
         <v>3355</v>
       </c>
       <c r="E117">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="F117">
         <v>6</v>
@@ -10853,10 +10853,10 @@
         <v>653</v>
       </c>
       <c r="V117">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="W117">
-        <v>0.02882030998645934</v>
+        <v>0.02866843883824959</v>
       </c>
       <c r="X117" t="s">
         <v>851</v>
@@ -10867,7 +10867,7 @@
         <v>4683</v>
       </c>
       <c r="B118">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C118">
         <v>6</v>
@@ -10876,7 +10876,7 @@
         <v>1430</v>
       </c>
       <c r="E118">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="F118">
         <v>9</v>
@@ -10921,10 +10921,10 @@
         <v>690</v>
       </c>
       <c r="V118">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="W118">
-        <v>0.1421452929248977</v>
+        <v>0.1417275537586054</v>
       </c>
       <c r="X118" t="s">
         <v>852</v>
@@ -10935,7 +10935,7 @@
         <v>4703</v>
       </c>
       <c r="B119">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -10944,7 +10944,7 @@
         <v>2360</v>
       </c>
       <c r="E119">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="F119">
         <v>8</v>
@@ -10989,10 +10989,10 @@
         <v>466</v>
       </c>
       <c r="V119">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="W119">
-        <v>0.06484014418334172</v>
+        <v>0.06447710650166359</v>
       </c>
       <c r="X119" t="s">
         <v>852</v>
@@ -11003,7 +11003,7 @@
         <v>4755</v>
       </c>
       <c r="B120">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -11012,7 +11012,7 @@
         <v>830</v>
       </c>
       <c r="E120">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="F120">
         <v>8</v>
@@ -11057,10 +11057,10 @@
         <v>497</v>
       </c>
       <c r="V120">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="W120">
-        <v>0.07105614294084486</v>
+        <v>0.07077104737278582</v>
       </c>
       <c r="X120" t="s">
         <v>852</v>
@@ -11071,7 +11071,7 @@
         <v>4873</v>
       </c>
       <c r="B121">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -11080,7 +11080,7 @@
         <v>1180</v>
       </c>
       <c r="E121">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -11119,13 +11119,13 @@
         <v>3</v>
       </c>
       <c r="U121">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V121">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="W121">
-        <v>0.1178341705039047</v>
+        <v>0.1175820173669862</v>
       </c>
       <c r="X121" t="s">
         <v>852</v>
@@ -11136,7 +11136,7 @@
         <v>4874</v>
       </c>
       <c r="B122">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -11145,7 +11145,7 @@
         <v>2214</v>
       </c>
       <c r="E122">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -11187,13 +11187,13 @@
         <v>3</v>
       </c>
       <c r="U122">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="V122">
-        <v>1599</v>
+        <v>1601</v>
       </c>
       <c r="W122">
-        <v>0.03922727273801533</v>
+        <v>0.03911673382629346</v>
       </c>
       <c r="X122" t="s">
         <v>851</v>
@@ -11204,7 +11204,7 @@
         <v>4943</v>
       </c>
       <c r="B123">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -11213,7 +11213,7 @@
         <v>830</v>
       </c>
       <c r="E123">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="F123">
         <v>9</v>
@@ -11225,7 +11225,7 @@
         <v>8</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J123" t="s">
         <v>30</v>
@@ -11237,7 +11237,7 @@
         <v>37</v>
       </c>
       <c r="M123" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N123" t="s">
         <v>51</v>
@@ -11255,13 +11255,13 @@
         <v>3</v>
       </c>
       <c r="U123">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="V123">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="W123">
-        <v>0.09258404930065303</v>
+        <v>0.09224505548313937</v>
       </c>
       <c r="X123" t="s">
         <v>852</v>
@@ -11272,7 +11272,7 @@
         <v>4956</v>
       </c>
       <c r="B124">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -11281,7 +11281,7 @@
         <v>1485</v>
       </c>
       <c r="E124">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="F124">
         <v>7</v>
@@ -11326,10 +11326,10 @@
         <v>505</v>
       </c>
       <c r="V124">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="W124">
-        <v>0.04379791697980227</v>
+        <v>0.04359602992984348</v>
       </c>
       <c r="X124" t="s">
         <v>851</v>
@@ -11340,7 +11340,7 @@
         <v>4957</v>
       </c>
       <c r="B125">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -11349,7 +11349,7 @@
         <v>1740.03</v>
       </c>
       <c r="E125">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -11394,10 +11394,10 @@
         <v>774</v>
       </c>
       <c r="V125">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="W125">
-        <v>0.1181873641738544</v>
+        <v>0.1179719581503993</v>
       </c>
       <c r="X125" t="s">
         <v>852</v>
@@ -11408,7 +11408,7 @@
         <v>5056</v>
       </c>
       <c r="B126">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -11417,7 +11417,7 @@
         <v>1276.9</v>
       </c>
       <c r="E126">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -11459,13 +11459,13 @@
         <v>3</v>
       </c>
       <c r="U126">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="V126">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="W126">
-        <v>0.1136878484136326</v>
+        <v>0.1133178262017433</v>
       </c>
       <c r="X126" t="s">
         <v>852</v>
@@ -11476,7 +11476,7 @@
         <v>5133</v>
       </c>
       <c r="B127">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -11485,7 +11485,7 @@
         <v>3460</v>
       </c>
       <c r="E127">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F127">
         <v>9</v>
@@ -11527,10 +11527,10 @@
         <v>574</v>
       </c>
       <c r="V127">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="W127">
-        <v>0.1788340607968973</v>
+        <v>0.1781295664297971</v>
       </c>
       <c r="X127" t="s">
         <v>852</v>
@@ -11541,7 +11541,7 @@
         <v>5151</v>
       </c>
       <c r="B128">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -11550,7 +11550,7 @@
         <v>1359</v>
       </c>
       <c r="E128">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -11592,10 +11592,10 @@
         <v>609</v>
       </c>
       <c r="V128">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="W128">
-        <v>0.1156375116655966</v>
+        <v>0.1153502812446231</v>
       </c>
       <c r="X128" t="s">
         <v>852</v>
@@ -11606,7 +11606,7 @@
         <v>5195</v>
       </c>
       <c r="B129">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -11615,7 +11615,7 @@
         <v>2795.01</v>
       </c>
       <c r="E129">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -11654,13 +11654,13 @@
         <v>5</v>
       </c>
       <c r="U129">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V129">
-        <v>1188</v>
+        <v>1190</v>
       </c>
       <c r="W129">
-        <v>0.01115861387797921</v>
+        <v>0.01112277778648912</v>
       </c>
       <c r="X129" t="s">
         <v>851</v>
@@ -11671,7 +11671,7 @@
         <v>5219</v>
       </c>
       <c r="B130">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -11680,7 +11680,7 @@
         <v>1828</v>
       </c>
       <c r="E130">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="F130">
         <v>7</v>
@@ -11722,10 +11722,10 @@
         <v>916</v>
       </c>
       <c r="V130">
-        <v>1572</v>
+        <v>1573</v>
       </c>
       <c r="W130">
-        <v>0.04255859376707245</v>
+        <v>0.042399518043365</v>
       </c>
       <c r="X130" t="s">
         <v>851</v>
@@ -11736,7 +11736,7 @@
         <v>5260</v>
       </c>
       <c r="B131">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -11745,7 +11745,7 @@
         <v>2750</v>
       </c>
       <c r="E131">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -11787,10 +11787,10 @@
         <v>973</v>
       </c>
       <c r="V131">
-        <v>1696</v>
+        <v>1697</v>
       </c>
       <c r="W131">
-        <v>0.03774696661991335</v>
+        <v>0.03760647533076463</v>
       </c>
       <c r="X131" t="s">
         <v>851</v>
@@ -11801,7 +11801,7 @@
         <v>5262</v>
       </c>
       <c r="B132">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -11810,7 +11810,7 @@
         <v>3974</v>
       </c>
       <c r="E132">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="F132">
         <v>8</v>
@@ -11852,13 +11852,13 @@
         <v>6</v>
       </c>
       <c r="U132">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V132">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="W132">
-        <v>0.02096610520635605</v>
+        <v>0.02040664700676793</v>
       </c>
       <c r="X132" t="s">
         <v>851</v>
@@ -11869,7 +11869,7 @@
         <v>5340</v>
       </c>
       <c r="B133">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -11878,7 +11878,7 @@
         <v>858</v>
       </c>
       <c r="E133">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -11923,10 +11923,10 @@
         <v>336</v>
       </c>
       <c r="V133">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="W133">
-        <v>0.01325282380561835</v>
+        <v>0.01315243208097093</v>
       </c>
       <c r="X133" t="s">
         <v>851</v>
@@ -11937,7 +11937,7 @@
         <v>5464</v>
       </c>
       <c r="B134">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C134">
         <v>6</v>
@@ -11946,7 +11946,7 @@
         <v>4298.9</v>
       </c>
       <c r="E134">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -11988,10 +11988,10 @@
         <v>479</v>
       </c>
       <c r="V134">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="W134">
-        <v>0.1794652804752082</v>
+        <v>0.178755828727108</v>
       </c>
       <c r="X134" t="s">
         <v>852</v>
@@ -12002,7 +12002,7 @@
         <v>5475</v>
       </c>
       <c r="B135">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -12011,7 +12011,7 @@
         <v>1750</v>
       </c>
       <c r="E135">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="F135">
         <v>9</v>
@@ -12053,10 +12053,10 @@
         <v>577</v>
       </c>
       <c r="V135">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="W135">
-        <v>0.1053815502949656</v>
+        <v>0.1050854372571352</v>
       </c>
       <c r="X135" t="s">
         <v>852</v>
@@ -12067,7 +12067,7 @@
         <v>5476</v>
       </c>
       <c r="B136">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C136">
         <v>7</v>
@@ -12076,7 +12076,7 @@
         <v>1950</v>
       </c>
       <c r="E136">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="F136">
         <v>9</v>
@@ -12121,10 +12121,10 @@
         <v>453</v>
       </c>
       <c r="V136">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="W136">
-        <v>0.1879720051764812</v>
+        <v>0.1869914148334411</v>
       </c>
       <c r="X136" t="s">
         <v>852</v>
@@ -12135,7 +12135,7 @@
         <v>5558</v>
       </c>
       <c r="B137">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -12144,7 +12144,7 @@
         <v>880</v>
       </c>
       <c r="E137">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="F137">
         <v>9</v>
@@ -12186,10 +12186,10 @@
         <v>385</v>
       </c>
       <c r="V137">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="W137">
-        <v>0.1130639848171451</v>
+        <v>0.1122346643426742</v>
       </c>
       <c r="X137" t="s">
         <v>852</v>
@@ -12200,7 +12200,7 @@
         <v>5582</v>
       </c>
       <c r="B138">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -12209,7 +12209,7 @@
         <v>860</v>
       </c>
       <c r="E138">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="F138">
         <v>8</v>
@@ -12254,10 +12254,10 @@
         <v>261</v>
       </c>
       <c r="V138">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="W138">
-        <v>0.06796805069176776</v>
+        <v>0.067531041349825</v>
       </c>
       <c r="X138" t="s">
         <v>852</v>
@@ -12268,7 +12268,7 @@
         <v>5603</v>
       </c>
       <c r="B139">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -12277,7 +12277,7 @@
         <v>2045</v>
       </c>
       <c r="E139">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -12322,10 +12322,10 @@
         <v>523</v>
       </c>
       <c r="V139">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="W139">
-        <v>0.147493695987733</v>
+        <v>0.1471163339388468</v>
       </c>
       <c r="X139" t="s">
         <v>852</v>
@@ -12336,7 +12336,7 @@
         <v>5611</v>
       </c>
       <c r="B140">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -12345,7 +12345,7 @@
         <v>517</v>
       </c>
       <c r="E140">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F140">
         <v>9</v>
@@ -12393,10 +12393,10 @@
         <v>167</v>
       </c>
       <c r="V140">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="W140">
-        <v>0.07340854254165867</v>
+        <v>0.07249808761478571</v>
       </c>
       <c r="X140" t="s">
         <v>852</v>
@@ -12407,7 +12407,7 @@
         <v>5625</v>
       </c>
       <c r="B141">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -12416,7 +12416,7 @@
         <v>2150</v>
       </c>
       <c r="E141">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="F141">
         <v>6</v>
@@ -12461,10 +12461,10 @@
         <v>938</v>
       </c>
       <c r="V141">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="W141">
-        <v>0.03218278567005934</v>
+        <v>0.03207982765558875</v>
       </c>
       <c r="X141" t="s">
         <v>851</v>
@@ -12475,7 +12475,7 @@
         <v>5744</v>
       </c>
       <c r="B142">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C142">
         <v>10</v>
@@ -12484,7 +12484,7 @@
         <v>7860</v>
       </c>
       <c r="E142">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -12523,13 +12523,13 @@
         <v>9</v>
       </c>
       <c r="U142">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V142">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="W142">
-        <v>0.2964225503986901</v>
+        <v>0.2921790157557533</v>
       </c>
       <c r="X142" t="s">
         <v>852</v>
@@ -12540,7 +12540,7 @@
         <v>5754</v>
       </c>
       <c r="B143">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -12549,7 +12549,7 @@
         <v>2465</v>
       </c>
       <c r="E143">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -12594,10 +12594,10 @@
         <v>511</v>
       </c>
       <c r="V143">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="W143">
-        <v>0.3829610039418634</v>
+        <v>0.3819682023281004</v>
       </c>
       <c r="X143" t="s">
         <v>852</v>
@@ -12608,7 +12608,7 @@
         <v>5899</v>
       </c>
       <c r="B144">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -12617,7 +12617,7 @@
         <v>3429</v>
       </c>
       <c r="E144">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -12662,10 +12662,10 @@
         <v>447</v>
       </c>
       <c r="V144">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="W144">
-        <v>0.1799116378307136</v>
+        <v>0.1794183844659599</v>
       </c>
       <c r="X144" t="s">
         <v>852</v>
@@ -12676,7 +12676,7 @@
         <v>5945</v>
       </c>
       <c r="B145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -12685,7 +12685,7 @@
         <v>1690</v>
       </c>
       <c r="E145">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -12727,10 +12727,10 @@
         <v>455</v>
       </c>
       <c r="V145">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="W145">
-        <v>0.2387908784181851</v>
+        <v>0.2381605791188431</v>
       </c>
       <c r="X145" t="s">
         <v>852</v>
@@ -12741,7 +12741,7 @@
         <v>5986</v>
       </c>
       <c r="B146">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C146">
         <v>25</v>
@@ -12750,7 +12750,7 @@
         <v>6694.1</v>
       </c>
       <c r="E146">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F146">
         <v>10</v>
@@ -12795,13 +12795,13 @@
         <v>24</v>
       </c>
       <c r="U146">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="V146">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="W146">
-        <v>0.4999740921209985</v>
+        <v>0.4991899376240575</v>
       </c>
       <c r="X146" t="s">
         <v>852</v>
@@ -12812,7 +12812,7 @@
         <v>5988</v>
       </c>
       <c r="B147">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C147">
         <v>27</v>
@@ -12821,7 +12821,7 @@
         <v>6850.9</v>
       </c>
       <c r="E147">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F147">
         <v>10</v>
@@ -12863,10 +12863,10 @@
         <v>361</v>
       </c>
       <c r="V147">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="W147">
-        <v>0.7619085035083624</v>
+        <v>0.7432745882892353</v>
       </c>
       <c r="X147" t="s">
         <v>852</v>
@@ -12877,7 +12877,7 @@
         <v>5993</v>
       </c>
       <c r="B148">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -12886,7 +12886,7 @@
         <v>1505</v>
       </c>
       <c r="E148">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F148">
         <v>9</v>
@@ -12931,10 +12931,10 @@
         <v>417</v>
       </c>
       <c r="V148">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="W148">
-        <v>0.08966727440015994</v>
+        <v>0.08928647981572999</v>
       </c>
       <c r="X148" t="s">
         <v>852</v>
@@ -12945,7 +12945,7 @@
         <v>6006</v>
       </c>
       <c r="B149">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -12954,7 +12954,7 @@
         <v>10580</v>
       </c>
       <c r="E149">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="F149">
         <v>9</v>
@@ -12999,10 +12999,10 @@
         <v>1432</v>
       </c>
       <c r="V149">
-        <v>1739</v>
+        <v>1740</v>
       </c>
       <c r="W149">
-        <v>0.05488764385032358</v>
+        <v>0.05481027507660015</v>
       </c>
       <c r="X149" t="s">
         <v>851</v>
@@ -13013,7 +13013,7 @@
         <v>6010</v>
       </c>
       <c r="B150">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -13022,7 +13022,7 @@
         <v>1265</v>
       </c>
       <c r="E150">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F150">
         <v>9</v>
@@ -13067,10 +13067,10 @@
         <v>126</v>
       </c>
       <c r="V150">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="W150">
-        <v>0.06449507190462571</v>
+        <v>0.06390401396667403</v>
       </c>
       <c r="X150" t="s">
         <v>852</v>
@@ -13081,7 +13081,7 @@
         <v>6047</v>
       </c>
       <c r="B151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -13090,7 +13090,7 @@
         <v>1130</v>
       </c>
       <c r="E151">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F151">
         <v>10</v>
@@ -13135,10 +13135,10 @@
         <v>528</v>
       </c>
       <c r="V151">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W151">
-        <v>0.1671431180681684</v>
+        <v>0.166745780418799</v>
       </c>
       <c r="X151" t="s">
         <v>852</v>
@@ -13149,7 +13149,7 @@
         <v>6115</v>
       </c>
       <c r="B152">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -13158,7 +13158,7 @@
         <v>1265</v>
       </c>
       <c r="E152">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F152">
         <v>10</v>
@@ -13206,10 +13206,10 @@
         <v>250</v>
       </c>
       <c r="V152">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="W152">
-        <v>0.1666276236775819</v>
+        <v>0.1657925366869679</v>
       </c>
       <c r="X152" t="s">
         <v>852</v>
@@ -13220,7 +13220,7 @@
         <v>6132</v>
       </c>
       <c r="B153">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -13229,7 +13229,7 @@
         <v>4630</v>
       </c>
       <c r="E153">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F153">
         <v>8</v>
@@ -13271,13 +13271,13 @@
         <v>3</v>
       </c>
       <c r="U153">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="V153">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="W153">
-        <v>0.029268891567956</v>
+        <v>0.02839321643645671</v>
       </c>
       <c r="X153" t="s">
         <v>851</v>
@@ -13288,7 +13288,7 @@
         <v>6136</v>
       </c>
       <c r="B154">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C154">
         <v>10</v>
@@ -13297,7 +13297,7 @@
         <v>1538</v>
       </c>
       <c r="E154">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F154">
         <v>10</v>
@@ -13345,10 +13345,10 @@
         <v>276</v>
       </c>
       <c r="V154">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="W154">
-        <v>0.3918506727297378</v>
+        <v>0.3882222884263664</v>
       </c>
       <c r="X154" t="s">
         <v>852</v>
@@ -13359,7 +13359,7 @@
         <v>6219</v>
       </c>
       <c r="B155">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -13368,7 +13368,7 @@
         <v>5430</v>
       </c>
       <c r="E155">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F155">
         <v>9</v>
@@ -13410,10 +13410,10 @@
         <v>167</v>
       </c>
       <c r="V155">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="W155">
-        <v>0.1234217205905064</v>
+        <v>0.1225115254119968</v>
       </c>
       <c r="X155" t="s">
         <v>852</v>
@@ -13424,7 +13424,7 @@
         <v>6293</v>
       </c>
       <c r="B156">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C156">
         <v>7</v>
@@ -13433,7 +13433,7 @@
         <v>4940</v>
       </c>
       <c r="E156">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F156">
         <v>8</v>
@@ -13475,10 +13475,10 @@
         <v>1012</v>
       </c>
       <c r="V156">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="W156">
-        <v>0.1066407349675406</v>
+        <v>0.1063373201382724</v>
       </c>
       <c r="X156" t="s">
         <v>852</v>
@@ -13489,7 +13489,7 @@
         <v>6352</v>
       </c>
       <c r="B157">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -13498,7 +13498,7 @@
         <v>1650</v>
       </c>
       <c r="E157">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="F157">
         <v>10</v>
@@ -13543,10 +13543,10 @@
         <v>996</v>
       </c>
       <c r="V157">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="W157">
-        <v>0.1092317753568928</v>
+        <v>0.1090498983294354</v>
       </c>
       <c r="X157" t="s">
         <v>852</v>
@@ -13557,7 +13557,7 @@
         <v>6390</v>
       </c>
       <c r="B158">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C158">
         <v>4</v>
@@ -13566,7 +13566,7 @@
         <v>1000</v>
       </c>
       <c r="E158">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F158">
         <v>9</v>
@@ -13608,10 +13608,10 @@
         <v>158</v>
       </c>
       <c r="V158">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="W158">
-        <v>0.08014463871585059</v>
+        <v>0.07948862892113469</v>
       </c>
       <c r="X158" t="s">
         <v>852</v>
@@ -13622,7 +13622,7 @@
         <v>6460</v>
       </c>
       <c r="B159">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C159">
         <v>7</v>
@@ -13631,7 +13631,7 @@
         <v>656</v>
       </c>
       <c r="E159">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F159">
         <v>10</v>
@@ -13673,10 +13673,10 @@
         <v>355</v>
       </c>
       <c r="V159">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W159">
-        <v>0.3338111598988467</v>
+        <v>0.3324907281299552</v>
       </c>
       <c r="X159" t="s">
         <v>852</v>
@@ -13687,7 +13687,7 @@
         <v>6486</v>
       </c>
       <c r="B160">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -13696,7 +13696,7 @@
         <v>1510</v>
       </c>
       <c r="E160">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -13741,13 +13741,13 @@
         <v>4</v>
       </c>
       <c r="U160">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V160">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="W160">
-        <v>0.3820657125702651</v>
+        <v>0.3799516589746951</v>
       </c>
       <c r="X160" t="s">
         <v>852</v>
@@ -13758,7 +13758,7 @@
         <v>6539</v>
       </c>
       <c r="B161">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -13767,7 +13767,7 @@
         <v>590</v>
       </c>
       <c r="E161">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F161">
         <v>10</v>
@@ -13809,10 +13809,10 @@
         <v>177</v>
       </c>
       <c r="V161">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="W161">
-        <v>0.4642705062762825</v>
+        <v>0.4617626035237677</v>
       </c>
       <c r="X161" t="s">
         <v>852</v>
@@ -13823,7 +13823,7 @@
         <v>6544</v>
       </c>
       <c r="B162">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -13832,7 +13832,7 @@
         <v>4046.5</v>
       </c>
       <c r="E162">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F162">
         <v>10</v>
@@ -13871,13 +13871,13 @@
         <v>5</v>
       </c>
       <c r="U162">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="V162">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="W162">
-        <v>0.5405425150919577</v>
+        <v>0.5370796045862517</v>
       </c>
       <c r="X162" t="s">
         <v>852</v>
@@ -13888,7 +13888,7 @@
         <v>6634</v>
       </c>
       <c r="B163">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -13897,7 +13897,7 @@
         <v>1456</v>
       </c>
       <c r="E163">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F163">
         <v>9</v>
@@ -13939,10 +13939,10 @@
         <v>899</v>
       </c>
       <c r="V163">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="W163">
-        <v>0.0865412617816243</v>
+        <v>0.08638062342524078</v>
       </c>
       <c r="X163" t="s">
         <v>852</v>
@@ -13953,7 +13953,7 @@
         <v>6929</v>
       </c>
       <c r="B164">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C164">
         <v>5</v>
@@ -13962,7 +13962,7 @@
         <v>1580</v>
       </c>
       <c r="E164">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="F164">
         <v>10</v>
@@ -14007,10 +14007,10 @@
         <v>1060</v>
       </c>
       <c r="V164">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="W164">
-        <v>0.1118563838713524</v>
+        <v>0.1116919765637881</v>
       </c>
       <c r="X164" t="s">
         <v>852</v>
@@ -14021,7 +14021,7 @@
         <v>7244</v>
       </c>
       <c r="B165">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C165">
         <v>4</v>
@@ -14030,7 +14030,7 @@
         <v>609</v>
       </c>
       <c r="E165">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="F165">
         <v>7</v>
@@ -14075,10 +14075,10 @@
         <v>1396</v>
       </c>
       <c r="V165">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="W165">
-        <v>0.03852880532364446</v>
+        <v>0.038452758503057</v>
       </c>
       <c r="X165" t="s">
         <v>851</v>
@@ -14089,7 +14089,7 @@
         <v>7465</v>
       </c>
       <c r="B166">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -14098,7 +14098,7 @@
         <v>1325</v>
       </c>
       <c r="E166">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="F166">
         <v>6</v>
@@ -14137,13 +14137,13 @@
         <v>3</v>
       </c>
       <c r="U166">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V166">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="W166">
-        <v>0.03045135545409205</v>
+        <v>0.03031831002131977</v>
       </c>
       <c r="X166" t="s">
         <v>851</v>
@@ -14154,7 +14154,7 @@
         <v>7517</v>
       </c>
       <c r="B167">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C167">
         <v>4</v>
@@ -14163,7 +14163,7 @@
         <v>809</v>
       </c>
       <c r="E167">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="F167">
         <v>10</v>
@@ -14205,13 +14205,13 @@
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="V167">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="W167">
-        <v>0.05384199303062306</v>
+        <v>0.05378442898586104</v>
       </c>
       <c r="X167" t="s">
         <v>851</v>
@@ -14222,7 +14222,7 @@
         <v>7706</v>
       </c>
       <c r="B168">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -14231,7 +14231,7 @@
         <v>740</v>
       </c>
       <c r="E168">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="F168">
         <v>1</v>
@@ -14273,13 +14273,13 @@
         <v>3</v>
       </c>
       <c r="U168">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V168">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="W168">
-        <v>1.869204623715563E-05</v>
+        <v>1.897129483218854E-05</v>
       </c>
       <c r="X168" t="s">
         <v>851</v>
@@ -14290,7 +14290,7 @@
         <v>7891</v>
       </c>
       <c r="B169">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C169">
         <v>5</v>
@@ -14299,7 +14299,7 @@
         <v>1480</v>
       </c>
       <c r="E169">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="F169">
         <v>6</v>
@@ -14341,13 +14341,13 @@
         <v>4</v>
       </c>
       <c r="U169">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="V169">
-        <v>1738</v>
+        <v>1740</v>
       </c>
       <c r="W169">
-        <v>0.03368912715671035</v>
+        <v>0.0335795178499061</v>
       </c>
       <c r="X169" t="s">
         <v>851</v>
@@ -14358,7 +14358,7 @@
         <v>7962</v>
       </c>
       <c r="B170">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C170">
         <v>6</v>
@@ -14367,7 +14367,7 @@
         <v>4000</v>
       </c>
       <c r="E170">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="F170">
         <v>6</v>
@@ -14409,10 +14409,10 @@
         <v>551</v>
       </c>
       <c r="V170">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="W170">
-        <v>0.01226163102787444</v>
+        <v>0.01217440736348612</v>
       </c>
       <c r="X170" t="s">
         <v>851</v>
@@ -14423,7 +14423,7 @@
         <v>8054</v>
       </c>
       <c r="B171">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C171">
         <v>4</v>
@@ -14432,7 +14432,7 @@
         <v>1055</v>
       </c>
       <c r="E171">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="F171">
         <v>6</v>
@@ -14474,13 +14474,13 @@
         <v>3</v>
       </c>
       <c r="U171">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="V171">
-        <v>1657</v>
+        <v>1659</v>
       </c>
       <c r="W171">
-        <v>0.02786888649504977</v>
+        <v>0.02778556148603621</v>
       </c>
       <c r="X171" t="s">
         <v>851</v>
@@ -14491,7 +14491,7 @@
         <v>8514</v>
       </c>
       <c r="B172">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C172">
         <v>4</v>
@@ -14500,7 +14500,7 @@
         <v>1315</v>
       </c>
       <c r="E172">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -14545,10 +14545,10 @@
         <v>543</v>
       </c>
       <c r="V172">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="W172">
-        <v>0.02504887449329799</v>
+        <v>0.02492719545526774</v>
       </c>
       <c r="X172" t="s">
         <v>851</v>
@@ -14559,7 +14559,7 @@
         <v>8658</v>
       </c>
       <c r="B173">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="C173">
         <v>4</v>
@@ -14568,7 +14568,7 @@
         <v>1229.8</v>
       </c>
       <c r="E173">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="F173">
         <v>4</v>
@@ -14610,10 +14610,10 @@
         <v>182</v>
       </c>
       <c r="V173">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="W173">
-        <v>0.001353935101149452</v>
+        <v>0.001345183611277931</v>
       </c>
       <c r="X173" t="s">
         <v>851</v>
@@ -14624,7 +14624,7 @@
         <v>8704</v>
       </c>
       <c r="B174">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -14633,7 +14633,7 @@
         <v>2145</v>
       </c>
       <c r="E174">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="F174">
         <v>5</v>
@@ -14675,10 +14675,10 @@
         <v>749</v>
       </c>
       <c r="V174">
-        <v>1683</v>
+        <v>1684</v>
       </c>
       <c r="W174">
-        <v>0.02058588843567778</v>
+        <v>0.02050002873365839</v>
       </c>
       <c r="X174" t="s">
         <v>851</v>
@@ -14689,7 +14689,7 @@
         <v>9084</v>
       </c>
       <c r="B175">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C175">
         <v>5</v>
@@ -14698,7 +14698,7 @@
         <v>2164</v>
       </c>
       <c r="E175">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="F175">
         <v>8</v>
@@ -14740,10 +14740,10 @@
         <v>464</v>
       </c>
       <c r="V175">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="W175">
-        <v>0.0592104405712381</v>
+        <v>0.05886977630825063</v>
       </c>
       <c r="X175" t="s">
         <v>852</v>
@@ -14754,7 +14754,7 @@
         <v>9094</v>
       </c>
       <c r="B176">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -14763,7 +14763,7 @@
         <v>2057.91</v>
       </c>
       <c r="E176">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="F176">
         <v>6</v>
@@ -14805,13 +14805,13 @@
         <v>4</v>
       </c>
       <c r="U176">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V176">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="W176">
-        <v>0.003137344130096295</v>
+        <v>0.003059368038940075</v>
       </c>
       <c r="X176" t="s">
         <v>851</v>
@@ -14822,7 +14822,7 @@
         <v>9230</v>
       </c>
       <c r="B177">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C177">
         <v>4</v>
@@ -14831,7 +14831,7 @@
         <v>1350</v>
       </c>
       <c r="E177">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F177">
         <v>6</v>
@@ -14873,13 +14873,13 @@
         <v>3</v>
       </c>
       <c r="U177">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V177">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="W177">
-        <v>0.005794246193012407</v>
+        <v>0.005680454640464356</v>
       </c>
       <c r="X177" t="s">
         <v>851</v>
@@ -14890,7 +14890,7 @@
         <v>9247</v>
       </c>
       <c r="B178">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C178">
         <v>28</v>
@@ -14899,7 +14899,7 @@
         <v>3856</v>
       </c>
       <c r="E178">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="F178">
         <v>10</v>
@@ -14944,10 +14944,10 @@
         <v>690</v>
       </c>
       <c r="V178">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="W178">
-        <v>0.8751951145601224</v>
+        <v>0.8715941110235722</v>
       </c>
       <c r="X178" t="s">
         <v>852</v>
@@ -14958,7 +14958,7 @@
         <v>9621</v>
       </c>
       <c r="B179">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C179">
         <v>9</v>
@@ -14967,7 +14967,7 @@
         <v>1184</v>
       </c>
       <c r="E179">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F179">
         <v>8</v>
@@ -15009,10 +15009,10 @@
         <v>134</v>
       </c>
       <c r="V179">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="W179">
-        <v>0.005259318686789011</v>
+        <v>0.005159768037092072</v>
       </c>
       <c r="X179" t="s">
         <v>851</v>
@@ -15023,7 +15023,7 @@
         <v>9658</v>
       </c>
       <c r="B180">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C180">
         <v>8</v>
@@ -15032,7 +15032,7 @@
         <v>628</v>
       </c>
       <c r="E180">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F180">
         <v>9</v>
@@ -15074,10 +15074,10 @@
         <v>132</v>
       </c>
       <c r="V180">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="W180">
-        <v>0.015705099895063</v>
+        <v>0.01542256615834071</v>
       </c>
       <c r="X180" t="s">
         <v>851</v>
@@ -15088,7 +15088,7 @@
         <v>9764</v>
       </c>
       <c r="B181">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C181">
         <v>4</v>
@@ -15097,7 +15097,7 @@
         <v>825</v>
       </c>
       <c r="E181">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F181">
         <v>9</v>
@@ -15139,10 +15139,10 @@
         <v>144</v>
       </c>
       <c r="V181">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="W181">
-        <v>0.130336162561267</v>
+        <v>0.1293069630117923</v>
       </c>
       <c r="X181" t="s">
         <v>852</v>
@@ -15153,7 +15153,7 @@
         <v>9781</v>
       </c>
       <c r="B182">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -15162,7 +15162,7 @@
         <v>1275</v>
       </c>
       <c r="E182">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F182">
         <v>10</v>
@@ -15207,10 +15207,10 @@
         <v>187</v>
       </c>
       <c r="V182">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="W182">
-        <v>0.1826003673703276</v>
+        <v>0.1814988352708133</v>
       </c>
       <c r="X182" t="s">
         <v>852</v>
@@ -15221,7 +15221,7 @@
         <v>9807</v>
       </c>
       <c r="B183">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C183">
         <v>11</v>
@@ -15230,7 +15230,7 @@
         <v>614</v>
       </c>
       <c r="E183">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F183">
         <v>10</v>
@@ -15272,10 +15272,10 @@
         <v>202</v>
       </c>
       <c r="V183">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="W183">
-        <v>0.7288624821908833</v>
+        <v>0.7235041155702948</v>
       </c>
       <c r="X183" t="s">
         <v>852</v>
@@ -15286,7 +15286,7 @@
         <v>9890</v>
       </c>
       <c r="B184">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C184">
         <v>11</v>
@@ -15295,7 +15295,7 @@
         <v>2521</v>
       </c>
       <c r="E184">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F184">
         <v>10</v>
@@ -15334,13 +15334,13 @@
         <v>10</v>
       </c>
       <c r="U184">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V184">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="W184">
-        <v>0.7348001049106235</v>
+        <v>0.727029384245108</v>
       </c>
       <c r="X184" t="s">
         <v>852</v>
@@ -15351,7 +15351,7 @@
         <v>10087</v>
       </c>
       <c r="B185">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C185">
         <v>5</v>
@@ -15360,7 +15360,7 @@
         <v>3687.9</v>
       </c>
       <c r="E185">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F185">
         <v>10</v>
@@ -15405,10 +15405,10 @@
         <v>175</v>
       </c>
       <c r="V185">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="W185">
-        <v>0.4229145581748954</v>
+        <v>0.4208214248635335</v>
       </c>
       <c r="X185" t="s">
         <v>852</v>
@@ -15419,7 +15419,7 @@
         <v>19765</v>
       </c>
       <c r="B186">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C186">
         <v>8</v>
@@ -15428,7 +15428,7 @@
         <v>664</v>
       </c>
       <c r="E186">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="F186">
         <v>10</v>
@@ -15470,10 +15470,10 @@
         <v>1606</v>
       </c>
       <c r="V186">
-        <v>1629</v>
+        <v>1630</v>
       </c>
       <c r="W186">
-        <v>0.1311772799171471</v>
+        <v>0.1310461534729329</v>
       </c>
       <c r="X186" t="s">
         <v>852</v>
@@ -15484,7 +15484,7 @@
         <v>20544</v>
       </c>
       <c r="B187">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="C187">
         <v>4</v>
@@ -15493,7 +15493,7 @@
         <v>1005</v>
       </c>
       <c r="E187">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="F187">
         <v>6</v>
@@ -15535,13 +15535,13 @@
         <v>3</v>
       </c>
       <c r="U187">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V187">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="W187">
-        <v>0.005639386504634225</v>
+        <v>0.005533502441823212</v>
       </c>
       <c r="X187" t="s">
         <v>851</v>
@@ -15552,7 +15552,7 @@
         <v>20552</v>
       </c>
       <c r="B188">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -15561,7 +15561,7 @@
         <v>1104</v>
       </c>
       <c r="E188">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F188">
         <v>9</v>
@@ -15606,10 +15606,10 @@
         <v>736</v>
       </c>
       <c r="V188">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="W188">
-        <v>0.08378209836078586</v>
+        <v>0.08357650951247197</v>
       </c>
       <c r="X188" t="s">
         <v>852</v>
@@ -15620,7 +15620,7 @@
         <v>20569</v>
       </c>
       <c r="B189">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -15629,7 +15629,7 @@
         <v>1200</v>
       </c>
       <c r="E189">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="F189">
         <v>7</v>
@@ -15674,13 +15674,13 @@
         <v>3</v>
       </c>
       <c r="U189">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V189">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="W189">
-        <v>0.04249611119772925</v>
+        <v>0.04233700406758849</v>
       </c>
       <c r="X189" t="s">
         <v>851</v>
@@ -15691,7 +15691,7 @@
         <v>20724</v>
       </c>
       <c r="B190">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C190">
         <v>5</v>
@@ -15700,7 +15700,7 @@
         <v>1965</v>
       </c>
       <c r="E190">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="F190">
         <v>8</v>
@@ -15748,10 +15748,10 @@
         <v>1604</v>
       </c>
       <c r="V190">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="W190">
-        <v>0.0573510595875677</v>
+        <v>0.05726273682776416</v>
       </c>
       <c r="X190" t="s">
         <v>852</v>
@@ -15762,7 +15762,7 @@
         <v>20738</v>
       </c>
       <c r="B191">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C191">
         <v>4</v>
@@ -15771,7 +15771,7 @@
         <v>2230</v>
       </c>
       <c r="E191">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="F191">
         <v>6</v>
@@ -15816,13 +15816,13 @@
         <v>3</v>
       </c>
       <c r="U191">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V191">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="W191">
-        <v>0.01354463261743181</v>
+        <v>0.01338183917777142</v>
       </c>
       <c r="X191" t="s">
         <v>851</v>
@@ -15833,7 +15833,7 @@
         <v>20741</v>
       </c>
       <c r="B192">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C192">
         <v>5</v>
@@ -15842,7 +15842,7 @@
         <v>1373</v>
       </c>
       <c r="E192">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="F192">
         <v>7</v>
@@ -15887,13 +15887,13 @@
         <v>4</v>
       </c>
       <c r="U192">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V192">
-        <v>954</v>
+        <v>956</v>
       </c>
       <c r="W192">
-        <v>0.0236852983111771</v>
+        <v>0.02359959186359733</v>
       </c>
       <c r="X192" t="s">
         <v>851</v>
@@ -15904,7 +15904,7 @@
         <v>20757</v>
       </c>
       <c r="B193">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -15913,7 +15913,7 @@
         <v>2338</v>
       </c>
       <c r="E193">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="F193">
         <v>8</v>
@@ -15958,13 +15958,13 @@
         <v>4</v>
       </c>
       <c r="U193">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="V193">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="W193">
-        <v>0.08700870684952916</v>
+        <v>0.08642273533653617</v>
       </c>
       <c r="X193" t="s">
         <v>852</v>
@@ -15975,7 +15975,7 @@
         <v>20764</v>
       </c>
       <c r="B194">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C194">
         <v>6</v>
@@ -15984,7 +15984,7 @@
         <v>4348.02</v>
       </c>
       <c r="E194">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="F194">
         <v>9</v>
@@ -16029,13 +16029,13 @@
         <v>5</v>
       </c>
       <c r="U194">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V194">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="W194">
-        <v>0.1371689181385829</v>
+        <v>0.1366065050503101</v>
       </c>
       <c r="X194" t="s">
         <v>852</v>
@@ -16046,7 +16046,7 @@
         <v>20798</v>
       </c>
       <c r="B195">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C195">
         <v>5</v>
@@ -16055,7 +16055,7 @@
         <v>940</v>
       </c>
       <c r="E195">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F195">
         <v>9</v>
@@ -16097,13 +16097,13 @@
         <v>4</v>
       </c>
       <c r="U195">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V195">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="W195">
-        <v>0.1048444851101603</v>
+        <v>0.1043056381448329</v>
       </c>
       <c r="X195" t="s">
         <v>852</v>
@@ -16114,7 +16114,7 @@
         <v>20937</v>
       </c>
       <c r="B196">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C196">
         <v>8</v>
@@ -16123,7 +16123,7 @@
         <v>3240</v>
       </c>
       <c r="E196">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F196">
         <v>10</v>
@@ -16168,13 +16168,13 @@
         <v>7</v>
       </c>
       <c r="U196">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V196">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="W196">
-        <v>0.2172928680813983</v>
+        <v>0.2166996309099945</v>
       </c>
       <c r="X196" t="s">
         <v>852</v>
@@ -16185,7 +16185,7 @@
         <v>20940</v>
       </c>
       <c r="B197">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C197">
         <v>4</v>
@@ -16194,7 +16194,7 @@
         <v>5004</v>
       </c>
       <c r="E197">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F197">
         <v>9</v>
@@ -16236,13 +16236,13 @@
         <v>3</v>
       </c>
       <c r="U197">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V197">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="W197">
-        <v>0.08351777641872214</v>
+        <v>0.08309675295491255</v>
       </c>
       <c r="X197" t="s">
         <v>852</v>
@@ -16253,7 +16253,7 @@
         <v>20941</v>
       </c>
       <c r="B198">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C198">
         <v>5</v>
@@ -16262,7 +16262,7 @@
         <v>1535.02</v>
       </c>
       <c r="E198">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -16310,10 +16310,10 @@
         <v>633</v>
       </c>
       <c r="V198">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="W198">
-        <v>0.1079346264627713</v>
+        <v>0.1075844632036347</v>
       </c>
       <c r="X198" t="s">
         <v>852</v>
@@ -16324,7 +16324,7 @@
         <v>20970</v>
       </c>
       <c r="B199">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C199">
         <v>8</v>
@@ -16333,7 +16333,7 @@
         <v>4775.01</v>
       </c>
       <c r="E199">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="F199">
         <v>10</v>
@@ -16381,10 +16381,10 @@
         <v>729</v>
       </c>
       <c r="V199">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="W199">
-        <v>0.2017645881115687</v>
+        <v>0.2011848229180725</v>
       </c>
       <c r="X199" t="s">
         <v>852</v>
@@ -16395,7 +16395,7 @@
         <v>20982</v>
       </c>
       <c r="B200">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C200">
         <v>4</v>
@@ -16404,7 +16404,7 @@
         <v>1020.01</v>
       </c>
       <c r="E200">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="F200">
         <v>7</v>
@@ -16449,10 +16449,10 @@
         <v>230</v>
       </c>
       <c r="V200">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="W200">
-        <v>0.01418184275188488</v>
+        <v>0.01401279925142413</v>
       </c>
       <c r="X200" t="s">
         <v>851</v>
@@ -16463,7 +16463,7 @@
         <v>21003</v>
       </c>
       <c r="B201">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C201">
         <v>10</v>
@@ -16472,7 +16472,7 @@
         <v>2747.01</v>
       </c>
       <c r="E201">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="F201">
         <v>10</v>
@@ -16517,10 +16517,10 @@
         <v>777</v>
       </c>
       <c r="V201">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="W201">
-        <v>0.2780620196743375</v>
+        <v>0.2774231662143598</v>
       </c>
       <c r="X201" t="s">
         <v>852</v>
@@ -16531,7 +16531,7 @@
         <v>21128</v>
       </c>
       <c r="B202">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C202">
         <v>5</v>
@@ -16540,7 +16540,7 @@
         <v>2395</v>
       </c>
       <c r="E202">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="F202">
         <v>8</v>
@@ -16582,10 +16582,10 @@
         <v>400</v>
       </c>
       <c r="V202">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="W202">
-        <v>0.05193176404248344</v>
+        <v>0.05159243938200204</v>
       </c>
       <c r="X202" t="s">
         <v>851</v>
@@ -16596,7 +16596,7 @@
         <v>21132</v>
       </c>
       <c r="B203">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C203">
         <v>4</v>
@@ -16605,7 +16605,7 @@
         <v>2795.1</v>
       </c>
       <c r="E203">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="F203">
         <v>8</v>
@@ -16647,13 +16647,13 @@
         <v>3</v>
       </c>
       <c r="U203">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V203">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="W203">
-        <v>0.06964554837896023</v>
+        <v>0.0693641304964582</v>
       </c>
       <c r="X203" t="s">
         <v>852</v>
@@ -16664,7 +16664,7 @@
         <v>21142</v>
       </c>
       <c r="B204">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C204">
         <v>4</v>
@@ -16673,7 +16673,7 @@
         <v>1184</v>
       </c>
       <c r="E204">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F204">
         <v>8</v>
@@ -16718,10 +16718,10 @@
         <v>375</v>
       </c>
       <c r="V204">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="W204">
-        <v>0.0488378271272291</v>
+        <v>0.04857068333699515</v>
       </c>
       <c r="X204" t="s">
         <v>851</v>
@@ -16732,7 +16732,7 @@
         <v>21162</v>
       </c>
       <c r="B205">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C205">
         <v>6</v>
@@ -16741,7 +16741,7 @@
         <v>2660.02</v>
       </c>
       <c r="E205">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="F205">
         <v>7</v>
@@ -16786,10 +16786,10 @@
         <v>603</v>
       </c>
       <c r="V205">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="W205">
-        <v>0.02999395583196403</v>
+        <v>0.02979760301579574</v>
       </c>
       <c r="X205" t="s">
         <v>851</v>
@@ -16800,7 +16800,7 @@
         <v>21164</v>
       </c>
       <c r="B206">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C206">
         <v>6</v>
@@ -16809,7 +16809,7 @@
         <v>16278</v>
       </c>
       <c r="E206">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="F206">
         <v>10</v>
@@ -16854,13 +16854,13 @@
         <v>5</v>
       </c>
       <c r="U206">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="V206">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="W206">
-        <v>0.1693019368143047</v>
+        <v>0.1687587698979552</v>
       </c>
       <c r="X206" t="s">
         <v>852</v>
@@ -16871,7 +16871,7 @@
         <v>21329</v>
       </c>
       <c r="B207">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C207">
         <v>7</v>
@@ -16880,7 +16880,7 @@
         <v>3429.01</v>
       </c>
       <c r="E207">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="F207">
         <v>10</v>
@@ -16925,10 +16925,10 @@
         <v>640</v>
       </c>
       <c r="V207">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="W207">
-        <v>0.1951061318726202</v>
+        <v>0.1940440163801155</v>
       </c>
       <c r="X207" t="s">
         <v>852</v>
@@ -16939,7 +16939,7 @@
         <v>21571</v>
       </c>
       <c r="B208">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C208">
         <v>6</v>
@@ -16948,7 +16948,7 @@
         <v>3149.01</v>
       </c>
       <c r="E208">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="F208">
         <v>9</v>
@@ -16990,10 +16990,10 @@
         <v>462</v>
       </c>
       <c r="V208">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="W208">
-        <v>0.1343900035636401</v>
+        <v>0.1336948994460586</v>
       </c>
       <c r="X208" t="s">
         <v>852</v>
@@ -17004,7 +17004,7 @@
         <v>21721</v>
       </c>
       <c r="B209">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C209">
         <v>5</v>
@@ -17013,7 +17013,7 @@
         <v>1165</v>
       </c>
       <c r="E209">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="F209">
         <v>10</v>
@@ -17058,10 +17058,10 @@
         <v>588</v>
       </c>
       <c r="V209">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="W209">
-        <v>0.1626379750038206</v>
+        <v>0.1622260906967914</v>
       </c>
       <c r="X209" t="s">
         <v>852</v>
@@ -17072,7 +17072,7 @@
         <v>21741</v>
       </c>
       <c r="B210">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C210">
         <v>4</v>
@@ -17081,7 +17081,7 @@
         <v>1780</v>
       </c>
       <c r="E210">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="F210">
         <v>10</v>
@@ -17120,13 +17120,13 @@
         <v>3</v>
       </c>
       <c r="U210">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V210">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="W210">
-        <v>0.1391144600296187</v>
+        <v>0.1387474564219117</v>
       </c>
       <c r="X210" t="s">
         <v>852</v>
@@ -17137,7 +17137,7 @@
         <v>21759</v>
       </c>
       <c r="B211">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C211">
         <v>4</v>
@@ -17146,7 +17146,7 @@
         <v>1525.01</v>
       </c>
       <c r="E211">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="F211">
         <v>8</v>
@@ -17191,10 +17191,10 @@
         <v>254</v>
       </c>
       <c r="V211">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="W211">
-        <v>0.04777708171426957</v>
+        <v>0.04745082126352447</v>
       </c>
       <c r="X211" t="s">
         <v>851</v>
@@ -17205,7 +17205,7 @@
         <v>21816</v>
       </c>
       <c r="B212">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C212">
         <v>6</v>
@@ -17214,7 +17214,7 @@
         <v>850.04</v>
       </c>
       <c r="E212">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="F212">
         <v>8</v>
@@ -17259,10 +17259,10 @@
         <v>214</v>
       </c>
       <c r="V212">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="W212">
-        <v>0.02334721100100648</v>
+        <v>0.02308665786554594</v>
       </c>
       <c r="X212" t="s">
         <v>851</v>
@@ -17273,7 +17273,7 @@
         <v>21933</v>
       </c>
       <c r="B213">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="C213">
         <v>5</v>
@@ -17282,7 +17282,7 @@
         <v>1380</v>
       </c>
       <c r="E213">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="F213">
         <v>8</v>
@@ -17327,10 +17327,10 @@
         <v>236</v>
       </c>
       <c r="V213">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="W213">
-        <v>0.0448592306013353</v>
+        <v>0.04446042327328483</v>
       </c>
       <c r="X213" t="s">
         <v>851</v>
@@ -17341,7 +17341,7 @@
         <v>21944</v>
       </c>
       <c r="B214">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C214">
         <v>6</v>
@@ -17350,7 +17350,7 @@
         <v>970.02</v>
       </c>
       <c r="E214">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F214">
         <v>10</v>
@@ -17395,10 +17395,10 @@
         <v>1337</v>
       </c>
       <c r="V214">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="W214">
-        <v>0.1058214868046297</v>
+        <v>0.1056832282141865</v>
       </c>
       <c r="X214" t="s">
         <v>852</v>
@@ -17409,7 +17409,7 @@
         <v>21959</v>
       </c>
       <c r="B215">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C215">
         <v>4</v>
@@ -17418,7 +17418,7 @@
         <v>1299.02</v>
       </c>
       <c r="E215">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="F215">
         <v>9</v>
@@ -17460,13 +17460,13 @@
         <v>3</v>
       </c>
       <c r="U215">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V215">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="W215">
-        <v>0.1197640640849913</v>
+        <v>0.1190353911179692</v>
       </c>
       <c r="X215" t="s">
         <v>852</v>
@@ -17477,7 +17477,7 @@
         <v>22130</v>
       </c>
       <c r="B216">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C216">
         <v>11</v>
@@ -17486,7 +17486,7 @@
         <v>5960</v>
       </c>
       <c r="E216">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="F216">
         <v>9</v>
@@ -17531,10 +17531,10 @@
         <v>260</v>
       </c>
       <c r="V216">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="W216">
-        <v>0.0164219087739492</v>
+        <v>0.01610798743700782</v>
       </c>
       <c r="X216" t="s">
         <v>851</v>
@@ -17545,7 +17545,7 @@
         <v>22180</v>
       </c>
       <c r="B217">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C217">
         <v>4</v>
@@ -17554,7 +17554,7 @@
         <v>1135.01</v>
       </c>
       <c r="E217">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F217">
         <v>10</v>
@@ -17599,10 +17599,10 @@
         <v>507</v>
       </c>
       <c r="V217">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="W217">
-        <v>0.1609762663796395</v>
+        <v>0.1605693241428637</v>
       </c>
       <c r="X217" t="s">
         <v>852</v>
@@ -17613,7 +17613,7 @@
         <v>22194</v>
       </c>
       <c r="B218">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C218">
         <v>5</v>
@@ -17622,7 +17622,7 @@
         <v>2020</v>
       </c>
       <c r="E218">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F218">
         <v>7</v>
@@ -17664,10 +17664,10 @@
         <v>1155</v>
       </c>
       <c r="V218">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="W218">
-        <v>0.05491596855626074</v>
+        <v>0.05477534377256638</v>
       </c>
       <c r="X218" t="s">
         <v>851</v>
@@ -17678,7 +17678,7 @@
         <v>22213</v>
       </c>
       <c r="B219">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C219">
         <v>4</v>
@@ -17687,7 +17687,7 @@
         <v>1985</v>
       </c>
       <c r="E219">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F219">
         <v>8</v>
@@ -17729,13 +17729,13 @@
         <v>3</v>
       </c>
       <c r="U219">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V219">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="W219">
-        <v>0.04656235722413196</v>
+        <v>0.04636894604944316</v>
       </c>
       <c r="X219" t="s">
         <v>851</v>
@@ -17746,7 +17746,7 @@
         <v>22349</v>
       </c>
       <c r="B220">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C220">
         <v>5</v>
@@ -17755,7 +17755,7 @@
         <v>1186.91</v>
       </c>
       <c r="E220">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F220">
         <v>9</v>
@@ -17797,10 +17797,10 @@
         <v>295</v>
       </c>
       <c r="V220">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="W220">
-        <v>0.1378887347301116</v>
+        <v>0.1370389876367762</v>
       </c>
       <c r="X220" t="s">
         <v>852</v>
@@ -17811,7 +17811,7 @@
         <v>22389</v>
       </c>
       <c r="B221">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C221">
         <v>4</v>
@@ -17820,7 +17820,7 @@
         <v>1370.01</v>
       </c>
       <c r="E221">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F221">
         <v>9</v>
@@ -17865,10 +17865,10 @@
         <v>202</v>
       </c>
       <c r="V221">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="W221">
-        <v>0.08149427817183774</v>
+        <v>0.08045141945888666</v>
       </c>
       <c r="X221" t="s">
         <v>852</v>
@@ -17879,7 +17879,7 @@
         <v>22579</v>
       </c>
       <c r="B222">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C222">
         <v>5</v>
@@ -17888,7 +17888,7 @@
         <v>4323.9</v>
       </c>
       <c r="E222">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F222">
         <v>9</v>
@@ -17933,10 +17933,10 @@
         <v>745</v>
       </c>
       <c r="V222">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="W222">
-        <v>0.09199306899267742</v>
+        <v>0.09171809292341326</v>
       </c>
       <c r="X222" t="s">
         <v>852</v>
@@ -17947,7 +17947,7 @@
         <v>22738</v>
       </c>
       <c r="B223">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C223">
         <v>11</v>
@@ -17956,7 +17956,7 @@
         <v>1221</v>
       </c>
       <c r="E223">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F223">
         <v>8</v>
@@ -18004,10 +18004,10 @@
         <v>41</v>
       </c>
       <c r="V223">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="W223">
-        <v>7.900974226596779E-05</v>
+        <v>7.708706257397792E-05</v>
       </c>
       <c r="X223" t="s">
         <v>851</v>
@@ -18018,7 +18018,7 @@
         <v>22780</v>
       </c>
       <c r="B224">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="C224">
         <v>9</v>
@@ -18027,7 +18027,7 @@
         <v>8458.9</v>
       </c>
       <c r="E224">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F224">
         <v>9</v>
@@ -18069,10 +18069,10 @@
         <v>1040</v>
       </c>
       <c r="V224">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="W224">
-        <v>0.1334136976112788</v>
+        <v>0.1329673949252654</v>
       </c>
       <c r="X224" t="s">
         <v>852</v>
@@ -18083,7 +18083,7 @@
         <v>24357</v>
       </c>
       <c r="B225">
-        <v>1397</v>
+        <v>1398</v>
       </c>
       <c r="C225">
         <v>5</v>
@@ -18092,7 +18092,7 @@
         <v>2108</v>
       </c>
       <c r="E225">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="F225">
         <v>3</v>
@@ -18134,10 +18134,10 @@
         <v>622</v>
       </c>
       <c r="V225">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="W225">
-        <v>0.00316741597598369</v>
+        <v>0.003149472731313136</v>
       </c>
       <c r="X225" t="s">
         <v>851</v>
@@ -18148,7 +18148,7 @@
         <v>24369</v>
       </c>
       <c r="B226">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C226">
         <v>4</v>
@@ -18157,7 +18157,7 @@
         <v>789</v>
       </c>
       <c r="E226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F226">
         <v>7</v>
@@ -18199,10 +18199,10 @@
         <v>1490</v>
       </c>
       <c r="V226">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W226">
-        <v>0.04323629904270246</v>
+        <v>0.04316468077180979</v>
       </c>
       <c r="X226" t="s">
         <v>851</v>
@@ -18213,7 +18213,7 @@
         <v>25430</v>
       </c>
       <c r="B227">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C227">
         <v>5</v>
@@ -18222,7 +18222,7 @@
         <v>1950</v>
       </c>
       <c r="E227">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="F227">
         <v>6</v>
@@ -18270,10 +18270,10 @@
         <v>994</v>
       </c>
       <c r="V227">
-        <v>1738</v>
+        <v>1739</v>
       </c>
       <c r="W227">
-        <v>0.03647731165754184</v>
+        <v>0.03634219387663729</v>
       </c>
       <c r="X227" t="s">
         <v>851</v>
@@ -18284,7 +18284,7 @@
         <v>25533</v>
       </c>
       <c r="B228">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C228">
         <v>4</v>
@@ -18293,7 +18293,7 @@
         <v>639</v>
       </c>
       <c r="E228">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="F228">
         <v>6</v>
@@ -18338,10 +18338,10 @@
         <v>906</v>
       </c>
       <c r="V228">
-        <v>1716</v>
+        <v>1717</v>
       </c>
       <c r="W228">
-        <v>0.02998733378289432</v>
+        <v>0.02988630569596457</v>
       </c>
       <c r="X228" t="s">
         <v>851</v>
@@ -18352,7 +18352,7 @@
         <v>25539</v>
       </c>
       <c r="B229">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C229">
         <v>4</v>
@@ -18361,7 +18361,7 @@
         <v>1270</v>
       </c>
       <c r="E229">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="F229">
         <v>7</v>
@@ -18406,10 +18406,10 @@
         <v>1016</v>
       </c>
       <c r="V229">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="W229">
-        <v>0.03755184021243388</v>
+        <v>0.03744685833819959</v>
       </c>
       <c r="X229" t="s">
         <v>851</v>
@@ -18420,7 +18420,7 @@
         <v>25547</v>
       </c>
       <c r="B230">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -18429,7 +18429,7 @@
         <v>1785</v>
       </c>
       <c r="E230">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="F230">
         <v>3</v>
@@ -18474,10 +18474,10 @@
         <v>383</v>
       </c>
       <c r="V230">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="W230">
-        <v>0.002678325546574662</v>
+        <v>0.002663367076692915</v>
       </c>
       <c r="X230" t="s">
         <v>851</v>
@@ -18488,7 +18488,7 @@
         <v>25552</v>
       </c>
       <c r="B231">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C231">
         <v>5</v>
@@ -18497,7 +18497,7 @@
         <v>2535</v>
       </c>
       <c r="E231">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="F231">
         <v>3</v>
@@ -18542,10 +18542,10 @@
         <v>465</v>
       </c>
       <c r="V231">
-        <v>1710</v>
+        <v>1711</v>
       </c>
       <c r="W231">
-        <v>0.002512581934124728</v>
+        <v>0.002497019438202703</v>
       </c>
       <c r="X231" t="s">
         <v>851</v>
@@ -18556,7 +18556,7 @@
         <v>25553</v>
       </c>
       <c r="B232">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C232">
         <v>10</v>
@@ -18565,7 +18565,7 @@
         <v>6956.4</v>
       </c>
       <c r="E232">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="F232">
         <v>7</v>
@@ -18610,10 +18610,10 @@
         <v>1189</v>
       </c>
       <c r="V232">
-        <v>1709</v>
+        <v>1710</v>
       </c>
       <c r="W232">
-        <v>0.0690968981855558</v>
+        <v>0.06871602021935996</v>
       </c>
       <c r="X232" t="s">
         <v>852</v>
@@ -18624,7 +18624,7 @@
         <v>25820</v>
       </c>
       <c r="B233">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C233">
         <v>5</v>
@@ -18633,7 +18633,7 @@
         <v>988</v>
       </c>
       <c r="E233">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="F233">
         <v>8</v>
@@ -18675,10 +18675,10 @@
         <v>1207</v>
       </c>
       <c r="V233">
-        <v>1637</v>
+        <v>1638</v>
       </c>
       <c r="W233">
-        <v>0.06371425693881165</v>
+        <v>0.06357813250321755</v>
       </c>
       <c r="X233" t="s">
         <v>852</v>
@@ -18689,7 +18689,7 @@
         <v>25845</v>
       </c>
       <c r="B234">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="C234">
         <v>4</v>
@@ -18698,7 +18698,7 @@
         <v>2510</v>
       </c>
       <c r="E234">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F234">
         <v>5</v>
@@ -18740,10 +18740,10 @@
         <v>638</v>
       </c>
       <c r="V234">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="W234">
-        <v>0.0152057226969574</v>
+        <v>0.0151342814761197</v>
       </c>
       <c r="X234" t="s">
         <v>851</v>
@@ -18754,7 +18754,7 @@
         <v>25859</v>
       </c>
       <c r="B235">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -18763,7 +18763,7 @@
         <v>1469</v>
       </c>
       <c r="E235">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="F235">
         <v>10</v>
@@ -18805,10 +18805,10 @@
         <v>1474</v>
       </c>
       <c r="V235">
-        <v>1627</v>
+        <v>1628</v>
       </c>
       <c r="W235">
-        <v>0.06210908594011273</v>
+        <v>0.06203454585658888</v>
       </c>
       <c r="X235" t="s">
         <v>852</v>
@@ -18819,16 +18819,16 @@
         <v>25864</v>
       </c>
       <c r="B236">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C236">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D236">
-        <v>4887</v>
+        <v>5086</v>
       </c>
       <c r="E236">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="F236">
         <v>10</v>
@@ -18864,16 +18864,16 @@
         <v>568</v>
       </c>
       <c r="T236">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U236">
         <v>1624</v>
       </c>
       <c r="V236">
-        <v>1625</v>
+        <v>1626</v>
       </c>
       <c r="W236">
-        <v>0.2165765165663555</v>
+        <v>0.2332361340578022</v>
       </c>
       <c r="X236" t="s">
         <v>852</v>
@@ -18884,7 +18884,7 @@
         <v>25879</v>
       </c>
       <c r="B237">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C237">
         <v>4</v>
@@ -18893,7 +18893,7 @@
         <v>1089</v>
       </c>
       <c r="E237">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="F237">
         <v>5</v>
@@ -18932,13 +18932,13 @@
         <v>3</v>
       </c>
       <c r="U237">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="V237">
-        <v>1622</v>
+        <v>1624</v>
       </c>
       <c r="W237">
-        <v>0.01413240031070502</v>
+        <v>0.01409307834033647</v>
       </c>
       <c r="X237" t="s">
         <v>851</v>
@@ -18949,7 +18949,7 @@
         <v>25918</v>
       </c>
       <c r="B238">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C238">
         <v>4</v>
@@ -18958,7 +18958,7 @@
         <v>542.9</v>
       </c>
       <c r="E238">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="F238">
         <v>7</v>
@@ -19000,10 +19000,10 @@
         <v>731</v>
       </c>
       <c r="V238">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="W238">
-        <v>0.05110159341077183</v>
+        <v>0.05093420164830295</v>
       </c>
       <c r="X238" t="s">
         <v>851</v>
@@ -19014,7 +19014,7 @@
         <v>25941</v>
       </c>
       <c r="B239">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="C239">
         <v>5</v>
@@ -19023,7 +19023,7 @@
         <v>435</v>
       </c>
       <c r="E239">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="F239">
         <v>9</v>
@@ -19068,10 +19068,10 @@
         <v>1106</v>
       </c>
       <c r="V239">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="W239">
-        <v>0.08856683800632402</v>
+        <v>0.08841174125564438</v>
       </c>
       <c r="X239" t="s">
         <v>852</v>
@@ -19082,7 +19082,7 @@
         <v>26149</v>
       </c>
       <c r="B240">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="C240">
         <v>4</v>
@@ -19091,7 +19091,7 @@
         <v>670</v>
       </c>
       <c r="E240">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F240">
         <v>2</v>
@@ -19133,10 +19133,10 @@
         <v>1</v>
       </c>
       <c r="V240">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="W240">
-        <v>1.723400090801209E-05</v>
+        <v>1.713518229689296E-05</v>
       </c>
       <c r="X240" t="s">
         <v>851</v>
@@ -19147,7 +19147,7 @@
         <v>26164</v>
       </c>
       <c r="B241">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -19156,7 +19156,7 @@
         <v>1200</v>
       </c>
       <c r="E241">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="F241">
         <v>3</v>
@@ -19198,10 +19198,10 @@
         <v>210</v>
       </c>
       <c r="V241">
-        <v>1548</v>
+        <v>1549</v>
       </c>
       <c r="W241">
-        <v>0.0008120316436292779</v>
+        <v>0.0008071589791021831</v>
       </c>
       <c r="X241" t="s">
         <v>851</v>
@@ -19212,7 +19212,7 @@
         <v>26206</v>
       </c>
       <c r="B242">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C242">
         <v>8</v>
@@ -19221,7 +19221,7 @@
         <v>3649</v>
       </c>
       <c r="E242">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F242">
         <v>10</v>
@@ -19263,10 +19263,10 @@
         <v>1513</v>
       </c>
       <c r="V242">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="W242">
-        <v>0.1381175988013329</v>
+        <v>0.137971931727334</v>
       </c>
       <c r="X242" t="s">
         <v>852</v>
@@ -19277,7 +19277,7 @@
         <v>26221</v>
       </c>
       <c r="B243">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C243">
         <v>6</v>
@@ -19286,7 +19286,7 @@
         <v>781.9</v>
       </c>
       <c r="E243">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="F243">
         <v>7</v>
@@ -19331,10 +19331,10 @@
         <v>890</v>
       </c>
       <c r="V243">
-        <v>1535</v>
+        <v>1536</v>
       </c>
       <c r="W243">
-        <v>0.04269959643721959</v>
+        <v>0.04249955962580963</v>
       </c>
       <c r="X243" t="s">
         <v>851</v>
@@ -19345,7 +19345,7 @@
         <v>26273</v>
       </c>
       <c r="B244">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C244">
         <v>4</v>
@@ -19354,7 +19354,7 @@
         <v>1084</v>
       </c>
       <c r="E244">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="F244">
         <v>6</v>
@@ -19396,10 +19396,10 @@
         <v>740</v>
       </c>
       <c r="V244">
-        <v>1523</v>
+        <v>1524</v>
       </c>
       <c r="W244">
-        <v>0.02849069877859902</v>
+        <v>0.02837840817906244</v>
       </c>
       <c r="X244" t="s">
         <v>851</v>
@@ -19410,7 +19410,7 @@
         <v>26358</v>
       </c>
       <c r="B245">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -19419,7 +19419,7 @@
         <v>1859</v>
       </c>
       <c r="E245">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="F245">
         <v>7</v>
@@ -19461,10 +19461,10 @@
         <v>837</v>
       </c>
       <c r="V245">
-        <v>1501</v>
+        <v>1502</v>
       </c>
       <c r="W245">
-        <v>0.03843986801506516</v>
+        <v>0.03831377783411218</v>
       </c>
       <c r="X245" t="s">
         <v>851</v>
@@ -19475,7 +19475,7 @@
         <v>26458</v>
       </c>
       <c r="B246">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C246">
         <v>4</v>
@@ -19484,7 +19484,7 @@
         <v>2400</v>
       </c>
       <c r="E246">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="F246">
         <v>7</v>
@@ -19529,10 +19529,10 @@
         <v>830</v>
       </c>
       <c r="V246">
-        <v>1468</v>
+        <v>1469</v>
       </c>
       <c r="W246">
-        <v>0.04033954985191874</v>
+        <v>0.04020883267579653</v>
       </c>
       <c r="X246" t="s">
         <v>851</v>
@@ -19543,7 +19543,7 @@
         <v>26522</v>
       </c>
       <c r="B247">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C247">
         <v>4</v>
@@ -19552,7 +19552,7 @@
         <v>534.9</v>
       </c>
       <c r="E247">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F247">
         <v>8</v>
@@ -19597,10 +19597,10 @@
         <v>988</v>
       </c>
       <c r="V247">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="W247">
-        <v>0.05386425196197809</v>
+        <v>0.05373834121455261</v>
       </c>
       <c r="X247" t="s">
         <v>851</v>
@@ -19611,7 +19611,7 @@
         <v>26539</v>
       </c>
       <c r="B248">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C248">
         <v>7</v>
@@ -19620,7 +19620,7 @@
         <v>4960</v>
       </c>
       <c r="E248">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="F248">
         <v>8</v>
@@ -19665,10 +19665,10 @@
         <v>1055</v>
       </c>
       <c r="V248">
-        <v>1450</v>
+        <v>1451</v>
       </c>
       <c r="W248">
-        <v>0.08930902213637319</v>
+        <v>0.08902386699629503</v>
       </c>
       <c r="X248" t="s">
         <v>852</v>
@@ -19679,7 +19679,7 @@
         <v>26563</v>
       </c>
       <c r="B249">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C249">
         <v>4</v>
@@ -19688,7 +19688,7 @@
         <v>1519</v>
       </c>
       <c r="E249">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F249">
         <v>6</v>
@@ -19733,10 +19733,10 @@
         <v>614</v>
       </c>
       <c r="V249">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="W249">
-        <v>0.02205614684938965</v>
+        <v>0.02195439067605305</v>
       </c>
       <c r="X249" t="s">
         <v>851</v>
@@ -19747,7 +19747,7 @@
         <v>26587</v>
       </c>
       <c r="B250">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C250">
         <v>5</v>
@@ -19756,7 +19756,7 @@
         <v>1340</v>
       </c>
       <c r="E250">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="F250">
         <v>7</v>
@@ -19801,10 +19801,10 @@
         <v>838</v>
       </c>
       <c r="V250">
-        <v>1437</v>
+        <v>1438</v>
       </c>
       <c r="W250">
-        <v>0.0468983859851631</v>
+        <v>0.04671631571471678</v>
       </c>
       <c r="X250" t="s">
         <v>851</v>
@@ -19815,7 +19815,7 @@
         <v>26621</v>
       </c>
       <c r="B251">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C251">
         <v>4</v>
@@ -19824,7 +19824,7 @@
         <v>1250</v>
       </c>
       <c r="E251">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="F251">
         <v>7</v>
@@ -19869,10 +19869,10 @@
         <v>741</v>
       </c>
       <c r="V251">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="W251">
-        <v>0.03552702831973713</v>
+        <v>0.0353952197044055</v>
       </c>
       <c r="X251" t="s">
         <v>851</v>
@@ -19883,7 +19883,7 @@
         <v>26656</v>
       </c>
       <c r="B252">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C252">
         <v>4</v>
@@ -19892,7 +19892,7 @@
         <v>895.9</v>
       </c>
       <c r="E252">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="F252">
         <v>10</v>
@@ -19940,10 +19940,10 @@
         <v>1295</v>
       </c>
       <c r="V252">
-        <v>1415</v>
+        <v>1416</v>
       </c>
       <c r="W252">
-        <v>0.07096045493424222</v>
+        <v>0.07086831588099875</v>
       </c>
       <c r="X252" t="s">
         <v>852</v>
@@ -19954,7 +19954,7 @@
         <v>26674</v>
       </c>
       <c r="B253">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C253">
         <v>5</v>
@@ -19963,7 +19963,7 @@
         <v>1265</v>
       </c>
       <c r="E253">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="F253">
         <v>7</v>
@@ -20011,10 +20011,10 @@
         <v>757</v>
       </c>
       <c r="V253">
-        <v>1410</v>
+        <v>1411</v>
       </c>
       <c r="W253">
-        <v>0.03868418093220363</v>
+        <v>0.0385104091250856</v>
       </c>
       <c r="X253" t="s">
         <v>851</v>
@@ -20025,7 +20025,7 @@
         <v>26694</v>
       </c>
       <c r="B254">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C254">
         <v>4</v>
@@ -20034,7 +20034,7 @@
         <v>3142.9</v>
       </c>
       <c r="E254">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F254">
         <v>7</v>
@@ -20082,10 +20082,10 @@
         <v>498</v>
       </c>
       <c r="V254">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="W254">
-        <v>0.02905355189137356</v>
+        <v>0.02890819071667187</v>
       </c>
       <c r="X254" t="s">
         <v>851</v>
@@ -20096,7 +20096,7 @@
         <v>26800</v>
       </c>
       <c r="B255">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C255">
         <v>6</v>
@@ -20105,7 +20105,7 @@
         <v>1055</v>
       </c>
       <c r="E255">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="F255">
         <v>6</v>
@@ -20150,10 +20150,10 @@
         <v>662</v>
       </c>
       <c r="V255">
-        <v>1368</v>
+        <v>1369</v>
       </c>
       <c r="W255">
-        <v>0.02473192836686059</v>
+        <v>0.02457584535131024</v>
       </c>
       <c r="X255" t="s">
         <v>851</v>
@@ -20164,7 +20164,7 @@
         <v>26827</v>
       </c>
       <c r="B256">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C256">
         <v>6</v>
@@ -20173,7 +20173,7 @@
         <v>1910</v>
       </c>
       <c r="E256">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="F256">
         <v>9</v>
@@ -20221,10 +20221,10 @@
         <v>1085</v>
       </c>
       <c r="V256">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="W256">
-        <v>0.09821591769899371</v>
+        <v>0.0980063494902805</v>
       </c>
       <c r="X256" t="s">
         <v>852</v>
@@ -20235,7 +20235,7 @@
         <v>26865</v>
       </c>
       <c r="B257">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C257">
         <v>6</v>
@@ -20244,7 +20244,7 @@
         <v>5934.9</v>
       </c>
       <c r="E257">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="F257">
         <v>6</v>
@@ -20283,13 +20283,13 @@
         <v>5</v>
       </c>
       <c r="U257">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V257">
-        <v>1341</v>
+        <v>1343</v>
       </c>
       <c r="W257">
-        <v>0.021406191295738</v>
+        <v>0.02132100439511648</v>
       </c>
       <c r="X257" t="s">
         <v>851</v>
@@ -20300,7 +20300,7 @@
         <v>26881</v>
       </c>
       <c r="B258">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C258">
         <v>4</v>
@@ -20309,7 +20309,7 @@
         <v>2357</v>
       </c>
       <c r="E258">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="F258">
         <v>5</v>
@@ -20354,10 +20354,10 @@
         <v>462</v>
       </c>
       <c r="V258">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="W258">
-        <v>0.01419318846108547</v>
+        <v>0.01411567201791787</v>
       </c>
       <c r="X258" t="s">
         <v>851</v>
@@ -20368,7 +20368,7 @@
         <v>26892</v>
       </c>
       <c r="B259">
-        <v>1141</v>
+        <v>1143</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -20377,7 +20377,7 @@
         <v>5903</v>
       </c>
       <c r="E259">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="F259">
         <v>4</v>
@@ -20422,13 +20422,13 @@
         <v>3</v>
       </c>
       <c r="U259">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V259">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="W259">
-        <v>0.001252822730564588</v>
+        <v>0.001228886778441869</v>
       </c>
       <c r="X259" t="s">
         <v>851</v>
@@ -20439,7 +20439,7 @@
         <v>26923</v>
       </c>
       <c r="B260">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -20448,7 +20448,7 @@
         <v>553</v>
       </c>
       <c r="E260">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="F260">
         <v>6</v>
@@ -20493,10 +20493,10 @@
         <v>485</v>
       </c>
       <c r="V260">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="W260">
-        <v>0.0216760987742721</v>
+        <v>0.02156273400239044</v>
       </c>
       <c r="X260" t="s">
         <v>851</v>
@@ -20507,7 +20507,7 @@
         <v>26925</v>
       </c>
       <c r="B261">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C261">
         <v>6</v>
@@ -20516,7 +20516,7 @@
         <v>1419</v>
       </c>
       <c r="E261">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="F261">
         <v>8</v>
@@ -20564,10 +20564,10 @@
         <v>887</v>
       </c>
       <c r="V261">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="W261">
-        <v>0.07613890343065688</v>
+        <v>0.07586618654763769</v>
       </c>
       <c r="X261" t="s">
         <v>852</v>
@@ -20578,7 +20578,7 @@
         <v>26965</v>
       </c>
       <c r="B262">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C262">
         <v>4</v>
@@ -20587,7 +20587,7 @@
         <v>4860</v>
       </c>
       <c r="E262">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="F262">
         <v>8</v>
@@ -20629,10 +20629,10 @@
         <v>867</v>
       </c>
       <c r="V262">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="W262">
-        <v>0.05860435093078315</v>
+        <v>0.0584539888390569</v>
       </c>
       <c r="X262" t="s">
         <v>852</v>
@@ -20643,7 +20643,7 @@
         <v>26973</v>
       </c>
       <c r="B263">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -20652,7 +20652,7 @@
         <v>835</v>
       </c>
       <c r="E263">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="F263">
         <v>4</v>
@@ -20700,10 +20700,10 @@
         <v>217</v>
       </c>
       <c r="V263">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="W263">
-        <v>0.002038144916569091</v>
+        <v>0.002025083952393293</v>
       </c>
       <c r="X263" t="s">
         <v>851</v>
@@ -20714,7 +20714,7 @@
         <v>26994</v>
       </c>
       <c r="B264">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C264">
         <v>6</v>
@@ -20723,7 +20723,7 @@
         <v>2105</v>
       </c>
       <c r="E264">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="F264">
         <v>10</v>
@@ -20768,10 +20768,10 @@
         <v>1132</v>
       </c>
       <c r="V264">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="W264">
-        <v>0.113038982981223</v>
+        <v>0.1128522410396481</v>
       </c>
       <c r="X264" t="s">
         <v>852</v>
@@ -20782,7 +20782,7 @@
         <v>27008</v>
       </c>
       <c r="B265">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C265">
         <v>5</v>
@@ -20791,7 +20791,7 @@
         <v>1455</v>
       </c>
       <c r="E265">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F265">
         <v>10</v>
@@ -20836,10 +20836,10 @@
         <v>1154</v>
       </c>
       <c r="V265">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="W265">
-        <v>0.09597434276064931</v>
+        <v>0.09583080727526519</v>
       </c>
       <c r="X265" t="s">
         <v>852</v>
@@ -20850,7 +20850,7 @@
         <v>27016</v>
       </c>
       <c r="B266">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C266">
         <v>5</v>
@@ -20859,7 +20859,7 @@
         <v>3994</v>
       </c>
       <c r="E266">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="F266">
         <v>5</v>
@@ -20904,10 +20904,10 @@
         <v>305</v>
       </c>
       <c r="V266">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="W266">
-        <v>0.002649422361773847</v>
+        <v>0.002630452894502169</v>
       </c>
       <c r="X266" t="s">
         <v>851</v>
@@ -20918,7 +20918,7 @@
         <v>27049</v>
       </c>
       <c r="B267">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C267">
         <v>4</v>
@@ -20927,7 +20927,7 @@
         <v>1270</v>
       </c>
       <c r="E267">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="F267">
         <v>9</v>
@@ -20969,10 +20969,10 @@
         <v>980</v>
       </c>
       <c r="V267">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="W267">
-        <v>0.06979188977020923</v>
+        <v>0.06965548551196712</v>
       </c>
       <c r="X267" t="s">
         <v>852</v>
@@ -20983,7 +20983,7 @@
         <v>27079</v>
       </c>
       <c r="B268">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C268">
         <v>4</v>
@@ -20992,7 +20992,7 @@
         <v>588.9</v>
       </c>
       <c r="E268">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="F268">
         <v>5</v>
@@ -21037,10 +21037,10 @@
         <v>275</v>
       </c>
       <c r="V268">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="W268">
-        <v>0.004471253938789229</v>
+        <v>0.004442828294950054</v>
       </c>
       <c r="X268" t="s">
         <v>851</v>
@@ -21051,7 +21051,7 @@
         <v>27217</v>
       </c>
       <c r="B269">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -21060,7 +21060,7 @@
         <v>1860</v>
       </c>
       <c r="E269">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="F269">
         <v>7</v>
@@ -21105,10 +21105,10 @@
         <v>653</v>
       </c>
       <c r="V269">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="W269">
-        <v>0.04555124014708489</v>
+        <v>0.04537938765140303</v>
       </c>
       <c r="X269" t="s">
         <v>851</v>
@@ -21119,7 +21119,7 @@
         <v>27243</v>
       </c>
       <c r="B270">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C270">
         <v>4</v>
@@ -21128,7 +21128,7 @@
         <v>1280</v>
       </c>
       <c r="E270">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="F270">
         <v>8</v>
@@ -21170,10 +21170,10 @@
         <v>805</v>
       </c>
       <c r="V270">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="W270">
-        <v>0.06349754354295162</v>
+        <v>0.06332925402144712</v>
       </c>
       <c r="X270" t="s">
         <v>852</v>
@@ -21184,7 +21184,7 @@
         <v>27270</v>
       </c>
       <c r="B271">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C271">
         <v>5</v>
@@ -21193,7 +21193,7 @@
         <v>1280</v>
       </c>
       <c r="E271">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="F271">
         <v>9</v>
@@ -21238,10 +21238,10 @@
         <v>888</v>
       </c>
       <c r="V271">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="W271">
-        <v>0.0877184714371522</v>
+        <v>0.08750236008957288</v>
       </c>
       <c r="X271" t="s">
         <v>852</v>
@@ -21252,7 +21252,7 @@
         <v>27290</v>
       </c>
       <c r="B272">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="C272">
         <v>5</v>
@@ -21261,7 +21261,7 @@
         <v>2310</v>
       </c>
       <c r="E272">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="F272">
         <v>5</v>
@@ -21306,10 +21306,10 @@
         <v>243</v>
       </c>
       <c r="V272">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="W272">
-        <v>0.001928310107972438</v>
+        <v>0.001913822975351105</v>
       </c>
       <c r="X272" t="s">
         <v>851</v>
@@ -21320,7 +21320,7 @@
         <v>27292</v>
       </c>
       <c r="B273">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C273">
         <v>5</v>
@@ -21329,7 +21329,7 @@
         <v>1794.9</v>
       </c>
       <c r="E273">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="F273">
         <v>6</v>
@@ -21368,13 +21368,13 @@
         <v>4</v>
       </c>
       <c r="U273">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V273">
-        <v>1125</v>
+        <v>1127</v>
       </c>
       <c r="W273">
-        <v>0.003934866551830445</v>
+        <v>0.003933658059753842</v>
       </c>
       <c r="X273" t="s">
         <v>851</v>
@@ -21385,7 +21385,7 @@
         <v>27514</v>
       </c>
       <c r="B274">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C274">
         <v>7</v>
@@ -21394,7 +21394,7 @@
         <v>1409</v>
       </c>
       <c r="E274">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="F274">
         <v>9</v>
@@ -21439,10 +21439,10 @@
         <v>903</v>
       </c>
       <c r="V274">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="W274">
-        <v>0.1488209878307482</v>
+        <v>0.1484815939967875</v>
       </c>
       <c r="X274" t="s">
         <v>852</v>
@@ -21453,7 +21453,7 @@
         <v>27665</v>
       </c>
       <c r="B275">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C275">
         <v>4</v>
@@ -21462,7 +21462,7 @@
         <v>1410</v>
       </c>
       <c r="E275">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F275">
         <v>10</v>
@@ -21507,10 +21507,10 @@
         <v>854</v>
       </c>
       <c r="V275">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="W275">
-        <v>0.09256626144157626</v>
+        <v>0.09239127420266453</v>
       </c>
       <c r="X275" t="s">
         <v>852</v>
@@ -21521,7 +21521,7 @@
         <v>27814</v>
       </c>
       <c r="B276">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -21530,7 +21530,7 @@
         <v>1450</v>
       </c>
       <c r="E276">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="F276">
         <v>8</v>
@@ -21569,13 +21569,13 @@
         <v>3</v>
       </c>
       <c r="U276">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V276">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="W276">
-        <v>0.05609407283891141</v>
+        <v>0.05562880626616807</v>
       </c>
       <c r="X276" t="s">
         <v>851</v>
@@ -21586,7 +21586,7 @@
         <v>27829</v>
       </c>
       <c r="B277">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C277">
         <v>5</v>
@@ -21595,7 +21595,7 @@
         <v>1360</v>
       </c>
       <c r="E277">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F277">
         <v>7</v>
@@ -21640,10 +21640,10 @@
         <v>261</v>
       </c>
       <c r="V277">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="W277">
-        <v>0.00985707452062206</v>
+        <v>0.009775566061598477</v>
       </c>
       <c r="X277" t="s">
         <v>851</v>
@@ -21654,7 +21654,7 @@
         <v>27899</v>
       </c>
       <c r="B278">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C278">
         <v>4</v>
@@ -21663,7 +21663,7 @@
         <v>1965</v>
       </c>
       <c r="E278">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F278">
         <v>9</v>
@@ -21708,10 +21708,10 @@
         <v>655</v>
       </c>
       <c r="V278">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="W278">
-        <v>0.09811949112647857</v>
+        <v>0.09787054350715521</v>
       </c>
       <c r="X278" t="s">
         <v>852</v>
@@ -21722,7 +21722,7 @@
         <v>28131</v>
       </c>
       <c r="B279">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C279">
         <v>4</v>
@@ -21731,7 +21731,7 @@
         <v>1440</v>
       </c>
       <c r="E279">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="F279">
         <v>7</v>
@@ -21776,10 +21776,10 @@
         <v>75</v>
       </c>
       <c r="V279">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="W279">
-        <v>0.003040595658418959</v>
+        <v>0.003014996996295718</v>
       </c>
       <c r="X279" t="s">
         <v>851</v>
@@ -21790,7 +21790,7 @@
         <v>28268</v>
       </c>
       <c r="B280">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C280">
         <v>4</v>
@@ -21799,7 +21799,7 @@
         <v>1580</v>
       </c>
       <c r="E280">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F280">
         <v>9</v>
@@ -21844,10 +21844,10 @@
         <v>447</v>
       </c>
       <c r="V280">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="W280">
-        <v>0.113197648849625</v>
+        <v>0.1127957365649701</v>
       </c>
       <c r="X280" t="s">
         <v>852</v>
@@ -21858,7 +21858,7 @@
         <v>28502</v>
       </c>
       <c r="B281">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C281">
         <v>9</v>
@@ -21867,7 +21867,7 @@
         <v>1935</v>
       </c>
       <c r="E281">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F281">
         <v>10</v>
@@ -21909,10 +21909,10 @@
         <v>405</v>
       </c>
       <c r="V281">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="W281">
-        <v>0.3818817679324812</v>
+        <v>0.3802857040473523</v>
       </c>
       <c r="X281" t="s">
         <v>852</v>

--- a/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
+++ b/dados/BIBI/Dados_BIBI_PF/rfma_previsoes_ajustado.xlsx
@@ -88,43 +88,43 @@
     <t>categoria_previsao</t>
   </si>
   <si>
-    <t>313.0-510.0</t>
-  </si>
-  <si>
-    <t>0.0-170.1</t>
-  </si>
-  <si>
-    <t>1038.0-1217.7</t>
-  </si>
-  <si>
-    <t>701.0-870.0</t>
-  </si>
-  <si>
-    <t>870.0-1038.0</t>
-  </si>
-  <si>
-    <t>1679.0-2498.0</t>
-  </si>
-  <si>
-    <t>170.1-313.0</t>
-  </si>
-  <si>
-    <t>1217.7-1414.8</t>
+    <t>314.0-510.0</t>
+  </si>
+  <si>
+    <t>0.0-170.5</t>
+  </si>
+  <si>
+    <t>1039.0-1218.0</t>
+  </si>
+  <si>
+    <t>701.0-871.0</t>
+  </si>
+  <si>
+    <t>871.0-1039.0</t>
+  </si>
+  <si>
+    <t>1680.0-2499.0</t>
+  </si>
+  <si>
+    <t>170.5-314.0</t>
+  </si>
+  <si>
+    <t>1218.0-1415.0</t>
   </si>
   <si>
     <t>510.0-701.0</t>
   </si>
   <si>
-    <t>1414.8-1679.0</t>
+    <t>1415.0-1680.0</t>
   </si>
   <si>
     <t>2.0-35.0</t>
   </si>
   <si>
-    <t>845.0-1487.7</t>
-  </si>
-  <si>
-    <t>1487.7-16278.0</t>
+    <t>845.0-1488.5</t>
+  </si>
+  <si>
+    <t>1488.5-16278.0</t>
   </si>
   <si>
     <t>630.0-845.0</t>
@@ -136,34 +136,34 @@
     <t>390.0-480.0</t>
   </si>
   <si>
-    <t>1717.0-2498.0</t>
-  </si>
-  <si>
-    <t>1503.0-1717.0</t>
-  </si>
-  <si>
-    <t>1323.0-1503.0</t>
-  </si>
-  <si>
-    <t>1149.0-1323.0</t>
-  </si>
-  <si>
-    <t>991.5-1149.0</t>
-  </si>
-  <si>
-    <t>631.0-823.4</t>
-  </si>
-  <si>
-    <t>823.4-991.5</t>
-  </si>
-  <si>
-    <t>421.0-631.0</t>
+    <t>1718.0-2499.0</t>
+  </si>
+  <si>
+    <t>1504.0-1718.0</t>
+  </si>
+  <si>
+    <t>1324.0-1504.0</t>
+  </si>
+  <si>
+    <t>1150.0-1324.0</t>
+  </si>
+  <si>
+    <t>992.0-1150.0</t>
+  </si>
+  <si>
+    <t>632.0-824.0</t>
+  </si>
+  <si>
+    <t>824.0-992.0</t>
+  </si>
+  <si>
+    <t>422.0-632.0</t>
   </si>
   <si>
     <t>0.0-225.0</t>
   </si>
   <si>
-    <t>225.0-421.0</t>
+    <t>225.0-422.0</t>
   </si>
   <si>
     <t>Sumidos</t>
@@ -3021,7 +3021,7 @@
         <v>244</v>
       </c>
       <c r="B2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C2">
         <v>4</v>
@@ -3030,7 +3030,7 @@
         <v>1200</v>
       </c>
       <c r="E2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="F2">
         <v>8</v>
@@ -3072,10 +3072,10 @@
         <v>1575</v>
       </c>
       <c r="V2">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="W2">
-        <v>0.04522831616791399</v>
+        <v>0.04516272462433759</v>
       </c>
       <c r="X2" t="s">
         <v>853</v>
@@ -3086,7 +3086,7 @@
         <v>339</v>
       </c>
       <c r="B3">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -3095,7 +3095,7 @@
         <v>6300</v>
       </c>
       <c r="E3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="F3">
         <v>8</v>
@@ -3137,13 +3137,13 @@
         <v>19</v>
       </c>
       <c r="U3">
-        <v>1607</v>
+        <v>1606</v>
       </c>
       <c r="V3">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="W3">
-        <v>0.1060750410072632</v>
+        <v>0.1044738449992394</v>
       </c>
       <c r="X3" t="s">
         <v>854</v>
@@ -3154,7 +3154,7 @@
         <v>351</v>
       </c>
       <c r="B4">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C4">
         <v>6</v>
@@ -3163,7 +3163,7 @@
         <v>1760</v>
       </c>
       <c r="E4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="F4">
         <v>8</v>
@@ -3211,10 +3211,10 @@
         <v>1555</v>
       </c>
       <c r="V4">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="W4">
-        <v>0.06539429363285489</v>
+        <v>0.06527648568458133</v>
       </c>
       <c r="X4" t="s">
         <v>854</v>
@@ -3225,7 +3225,7 @@
         <v>490</v>
       </c>
       <c r="B5">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>5</v>
@@ -3234,7 +3234,7 @@
         <v>1420</v>
       </c>
       <c r="E5">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="F5">
         <v>10</v>
@@ -3279,10 +3279,10 @@
         <v>1932</v>
       </c>
       <c r="V5">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="W5">
-        <v>0.06753253709590872</v>
+        <v>0.06747047887990358</v>
       </c>
       <c r="X5" t="s">
         <v>854</v>
@@ -3293,7 +3293,7 @@
         <v>623</v>
       </c>
       <c r="B6">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="C6">
         <v>4</v>
@@ -3302,7 +3302,7 @@
         <v>700</v>
       </c>
       <c r="E6">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="F6">
         <v>4</v>
@@ -3347,10 +3347,10 @@
         <v>790</v>
       </c>
       <c r="V6">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="W6">
-        <v>0.01357030396811996</v>
+        <v>0.01351806094712605</v>
       </c>
       <c r="X6" t="s">
         <v>853</v>
@@ -3361,7 +3361,7 @@
         <v>632</v>
       </c>
       <c r="B7">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C7">
         <v>4</v>
@@ -3370,7 +3370,7 @@
         <v>1015</v>
       </c>
       <c r="E7">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="F7">
         <v>6</v>
@@ -3412,10 +3412,10 @@
         <v>1079</v>
       </c>
       <c r="V7">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="W7">
-        <v>0.0291317152280377</v>
+        <v>0.02905165667660098</v>
       </c>
       <c r="X7" t="s">
         <v>853</v>
@@ -3426,7 +3426,7 @@
         <v>640</v>
       </c>
       <c r="B8">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="C8">
         <v>4</v>
@@ -3435,7 +3435,7 @@
         <v>800</v>
       </c>
       <c r="E8">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -3477,10 +3477,10 @@
         <v>1070</v>
       </c>
       <c r="V8">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="W8">
-        <v>0.0286465916606022</v>
+        <v>0.02856688719051126</v>
       </c>
       <c r="X8" t="s">
         <v>853</v>
@@ -3491,7 +3491,7 @@
         <v>657</v>
       </c>
       <c r="B9">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="C9">
         <v>4</v>
@@ -3500,7 +3500,7 @@
         <v>3520</v>
       </c>
       <c r="E9">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -3545,10 +3545,10 @@
         <v>956</v>
       </c>
       <c r="V9">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="W9">
-        <v>0.02251917896404079</v>
+        <v>0.0224466412353253</v>
       </c>
       <c r="X9" t="s">
         <v>853</v>
@@ -3559,7 +3559,7 @@
         <v>688</v>
       </c>
       <c r="B10">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C10">
         <v>5</v>
@@ -3568,7 +3568,7 @@
         <v>3980</v>
       </c>
       <c r="E10">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="F10">
         <v>10</v>
@@ -3613,10 +3613,10 @@
         <v>1824</v>
       </c>
       <c r="V10">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="W10">
-        <v>0.06921442511949362</v>
+        <v>0.06914613902138921</v>
       </c>
       <c r="X10" t="s">
         <v>854</v>
@@ -3627,7 +3627,7 @@
         <v>739</v>
       </c>
       <c r="B11">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="C11">
         <v>4</v>
@@ -3636,7 +3636,7 @@
         <v>829.9</v>
       </c>
       <c r="E11">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -3681,10 +3681,10 @@
         <v>1007</v>
       </c>
       <c r="V11">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="W11">
-        <v>0.02640925703924535</v>
+        <v>0.02633035474991325</v>
       </c>
       <c r="X11" t="s">
         <v>853</v>
@@ -3695,7 +3695,7 @@
         <v>745</v>
       </c>
       <c r="B12">
-        <v>1724</v>
+        <v>1725</v>
       </c>
       <c r="C12">
         <v>4</v>
@@ -3704,7 +3704,7 @@
         <v>900</v>
       </c>
       <c r="E12">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3749,10 +3749,10 @@
         <v>196</v>
       </c>
       <c r="V12">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="W12">
-        <v>0.0002407244723721948</v>
+        <v>0.0002395295611657684</v>
       </c>
       <c r="X12" t="s">
         <v>853</v>
@@ -3763,7 +3763,7 @@
         <v>772</v>
       </c>
       <c r="B13">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C13">
         <v>4</v>
@@ -3772,7 +3772,7 @@
         <v>2743</v>
       </c>
       <c r="E13">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="F13">
         <v>10</v>
@@ -3817,10 +3817,10 @@
         <v>1847</v>
       </c>
       <c r="V13">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="W13">
-        <v>0.05517432772172694</v>
+        <v>0.05512014322670018</v>
       </c>
       <c r="X13" t="s">
         <v>853</v>
@@ -3831,7 +3831,7 @@
         <v>777</v>
       </c>
       <c r="B14">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C14">
         <v>4</v>
@@ -3840,7 +3840,7 @@
         <v>825</v>
       </c>
       <c r="E14">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="F14">
         <v>9</v>
@@ -3885,10 +3885,10 @@
         <v>1616</v>
       </c>
       <c r="V14">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="W14">
-        <v>0.05123416747835302</v>
+        <v>0.05116946400932987</v>
       </c>
       <c r="X14" t="s">
         <v>853</v>
@@ -3899,7 +3899,7 @@
         <v>781</v>
       </c>
       <c r="B15">
-        <v>890</v>
+        <v>892</v>
       </c>
       <c r="C15">
         <v>4</v>
@@ -3908,7 +3908,7 @@
         <v>2045</v>
       </c>
       <c r="E15">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="F15">
         <v>5</v>
@@ -3953,13 +3953,13 @@
         <v>3</v>
       </c>
       <c r="U15">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V15">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="W15">
-        <v>0.02746162296068871</v>
+        <v>0.02732456112557081</v>
       </c>
       <c r="X15" t="s">
         <v>853</v>
@@ -3970,7 +3970,7 @@
         <v>785</v>
       </c>
       <c r="B16">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="C16">
         <v>4</v>
@@ -3979,7 +3979,7 @@
         <v>4350</v>
       </c>
       <c r="E16">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -4027,10 +4027,10 @@
         <v>678</v>
       </c>
       <c r="V16">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="W16">
-        <v>0.009378674856552957</v>
+        <v>0.00933926291924494</v>
       </c>
       <c r="X16" t="s">
         <v>853</v>
@@ -4041,7 +4041,7 @@
         <v>790</v>
       </c>
       <c r="B17">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -4050,7 +4050,7 @@
         <v>1380.01</v>
       </c>
       <c r="E17">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="F17">
         <v>8</v>
@@ -4095,10 +4095,10 @@
         <v>1574</v>
       </c>
       <c r="V17">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="W17">
-        <v>0.050477621670616</v>
+        <v>0.0504106765593991</v>
       </c>
       <c r="X17" t="s">
         <v>853</v>
@@ -4109,7 +4109,7 @@
         <v>834</v>
       </c>
       <c r="B18">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C18">
         <v>4</v>
@@ -4118,7 +4118,7 @@
         <v>1290</v>
       </c>
       <c r="E18">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="F18">
         <v>10</v>
@@ -4160,16 +4160,16 @@
         <v>3</v>
       </c>
       <c r="U18">
-        <v>1885</v>
+        <v>1884</v>
       </c>
       <c r="V18">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="W18">
-        <v>0.05642035930953954</v>
+        <v>0.05635515732679936</v>
       </c>
       <c r="X18" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -4177,7 +4177,7 @@
         <v>866</v>
       </c>
       <c r="B19">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -4186,7 +4186,7 @@
         <v>1390</v>
       </c>
       <c r="E19">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -4231,10 +4231,10 @@
         <v>533</v>
       </c>
       <c r="V19">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="W19">
-        <v>0.004687455842400502</v>
+        <v>0.004666012083805386</v>
       </c>
       <c r="X19" t="s">
         <v>853</v>
@@ -4245,7 +4245,7 @@
         <v>980</v>
       </c>
       <c r="B20">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -4254,7 +4254,7 @@
         <v>1550</v>
       </c>
       <c r="E20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="F20">
         <v>1</v>
@@ -4296,10 +4296,10 @@
         <v>175</v>
       </c>
       <c r="V20">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="W20">
-        <v>0.0001433965152056346</v>
+        <v>0.0001426977879881176</v>
       </c>
       <c r="X20" t="s">
         <v>853</v>
@@ -4310,7 +4310,7 @@
         <v>1223</v>
       </c>
       <c r="B21">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C21">
         <v>4</v>
@@ -4319,7 +4319,7 @@
         <v>2905</v>
       </c>
       <c r="E21">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="F21">
         <v>4</v>
@@ -4364,10 +4364,10 @@
         <v>743</v>
       </c>
       <c r="V21">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="W21">
-        <v>0.015557604147994</v>
+        <v>0.01549633663461356</v>
       </c>
       <c r="X21" t="s">
         <v>853</v>
@@ -4378,7 +4378,7 @@
         <v>1236</v>
       </c>
       <c r="B22">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C22">
         <v>5</v>
@@ -4387,7 +4387,7 @@
         <v>2219.01</v>
       </c>
       <c r="E22">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="F22">
         <v>9</v>
@@ -4435,10 +4435,10 @@
         <v>1523</v>
       </c>
       <c r="V22">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="W22">
-        <v>0.06781560916722383</v>
+        <v>0.06772299615884894</v>
       </c>
       <c r="X22" t="s">
         <v>854</v>
@@ -4449,7 +4449,7 @@
         <v>1290</v>
       </c>
       <c r="B23">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C23">
         <v>5</v>
@@ -4458,7 +4458,7 @@
         <v>940</v>
       </c>
       <c r="E23">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="F23">
         <v>4</v>
@@ -4506,10 +4506,10 @@
         <v>643</v>
       </c>
       <c r="V23">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="W23">
-        <v>0.00719075943075996</v>
+        <v>0.007153545388888256</v>
       </c>
       <c r="X23" t="s">
         <v>853</v>
@@ -4520,7 +4520,7 @@
         <v>1358</v>
       </c>
       <c r="B24">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C24">
         <v>5</v>
@@ -4529,7 +4529,7 @@
         <v>1075</v>
       </c>
       <c r="E24">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="F24">
         <v>10</v>
@@ -4574,10 +4574,10 @@
         <v>1680</v>
       </c>
       <c r="V24">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="W24">
-        <v>0.0741075549675837</v>
+        <v>0.07402948508137298</v>
       </c>
       <c r="X24" t="s">
         <v>854</v>
@@ -4588,7 +4588,7 @@
         <v>1412</v>
       </c>
       <c r="B25">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="C25">
         <v>4</v>
@@ -4597,7 +4597,7 @@
         <v>489</v>
       </c>
       <c r="E25">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="F25">
         <v>6</v>
@@ -4642,10 +4642,10 @@
         <v>991</v>
       </c>
       <c r="V25">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="W25">
-        <v>0.03358927488525253</v>
+        <v>0.03349513219765567</v>
       </c>
       <c r="X25" t="s">
         <v>853</v>
@@ -4656,7 +4656,7 @@
         <v>1487</v>
       </c>
       <c r="B26">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C26">
         <v>4</v>
@@ -4665,7 +4665,7 @@
         <v>3299</v>
       </c>
       <c r="E26">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="F26">
         <v>4</v>
@@ -4710,10 +4710,10 @@
         <v>698</v>
       </c>
       <c r="V26">
-        <v>1740</v>
+        <v>1741</v>
       </c>
       <c r="W26">
-        <v>0.01501904052340147</v>
+        <v>0.01495774820161094</v>
       </c>
       <c r="X26" t="s">
         <v>853</v>
@@ -4724,7 +4724,7 @@
         <v>1671</v>
       </c>
       <c r="B27">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C27">
         <v>4</v>
@@ -4733,7 +4733,7 @@
         <v>1230</v>
       </c>
       <c r="E27">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="F27">
         <v>3</v>
@@ -4778,10 +4778,10 @@
         <v>472</v>
       </c>
       <c r="V27">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="W27">
-        <v>0.005230954738230191</v>
+        <v>0.005205698576524101</v>
       </c>
       <c r="X27" t="s">
         <v>853</v>
@@ -4792,7 +4792,7 @@
         <v>1684</v>
       </c>
       <c r="B28">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C28">
         <v>9</v>
@@ -4801,7 +4801,7 @@
         <v>4315</v>
       </c>
       <c r="E28">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F28">
         <v>10</v>
@@ -4846,10 +4846,10 @@
         <v>1656</v>
       </c>
       <c r="V28">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="W28">
-        <v>0.1420137365989588</v>
+        <v>0.1418731065773606</v>
       </c>
       <c r="X28" t="s">
         <v>854</v>
@@ -4860,7 +4860,7 @@
         <v>1698</v>
       </c>
       <c r="B29">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C29">
         <v>5</v>
@@ -4869,7 +4869,7 @@
         <v>1629</v>
       </c>
       <c r="E29">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F29">
         <v>9</v>
@@ -4914,10 +4914,10 @@
         <v>1419</v>
       </c>
       <c r="V29">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="W29">
-        <v>0.07103999605908978</v>
+        <v>0.07093647861419368</v>
       </c>
       <c r="X29" t="s">
         <v>854</v>
@@ -4928,7 +4928,7 @@
         <v>1744</v>
       </c>
       <c r="B30">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="C30">
         <v>4</v>
@@ -4937,7 +4937,7 @@
         <v>1614</v>
       </c>
       <c r="E30">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="F30">
         <v>3</v>
@@ -4982,10 +4982,10 @@
         <v>364</v>
       </c>
       <c r="V30">
-        <v>1681</v>
+        <v>1682</v>
       </c>
       <c r="W30">
-        <v>0.002509683634826797</v>
+        <v>0.002496975376397577</v>
       </c>
       <c r="X30" t="s">
         <v>853</v>
@@ -4996,7 +4996,7 @@
         <v>1767</v>
       </c>
       <c r="B31">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C31">
         <v>4</v>
@@ -5005,7 +5005,7 @@
         <v>2225</v>
       </c>
       <c r="E31">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="F31">
         <v>7</v>
@@ -5050,10 +5050,10 @@
         <v>1104</v>
       </c>
       <c r="V31">
-        <v>1672</v>
+        <v>1673</v>
       </c>
       <c r="W31">
-        <v>0.04535682907565795</v>
+        <v>0.04525681423153503</v>
       </c>
       <c r="X31" t="s">
         <v>853</v>
@@ -5064,7 +5064,7 @@
         <v>1773</v>
       </c>
       <c r="B32">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="C32">
         <v>4</v>
@@ -5073,7 +5073,7 @@
         <v>1350</v>
       </c>
       <c r="E32">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="F32">
         <v>7</v>
@@ -5118,10 +5118,10 @@
         <v>1104</v>
       </c>
       <c r="V32">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="W32">
-        <v>0.04542011337670732</v>
+        <v>0.04532003829406574</v>
       </c>
       <c r="X32" t="s">
         <v>853</v>
@@ -5132,7 +5132,7 @@
         <v>1776</v>
       </c>
       <c r="B33">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C33">
         <v>4</v>
@@ -5141,7 +5141,7 @@
         <v>1425</v>
       </c>
       <c r="E33">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="F33">
         <v>8</v>
@@ -5186,10 +5186,10 @@
         <v>1316</v>
       </c>
       <c r="V33">
-        <v>1668</v>
+        <v>1669</v>
       </c>
       <c r="W33">
-        <v>0.05523756606002603</v>
+        <v>0.05515095142300091</v>
       </c>
       <c r="X33" t="s">
         <v>853</v>
@@ -5200,7 +5200,7 @@
         <v>1783</v>
       </c>
       <c r="B34">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="C34">
         <v>5</v>
@@ -5209,7 +5209,7 @@
         <v>3330</v>
       </c>
       <c r="E34">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="F34">
         <v>7</v>
@@ -5251,13 +5251,13 @@
         <v>4</v>
       </c>
       <c r="U34">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V34">
-        <v>1665</v>
+        <v>1666</v>
       </c>
       <c r="W34">
-        <v>0.04885812725554822</v>
+        <v>0.04862287829398864</v>
       </c>
       <c r="X34" t="s">
         <v>853</v>
@@ -5268,7 +5268,7 @@
         <v>1898</v>
       </c>
       <c r="B35">
-        <v>1469</v>
+        <v>1470</v>
       </c>
       <c r="C35">
         <v>5</v>
@@ -5277,7 +5277,7 @@
         <v>1695</v>
       </c>
       <c r="E35">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -5325,10 +5325,10 @@
         <v>553</v>
       </c>
       <c r="V35">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W35">
-        <v>0.001939701082386175</v>
+        <v>0.001929699892597293</v>
       </c>
       <c r="X35" t="s">
         <v>853</v>
@@ -5339,7 +5339,7 @@
         <v>1919</v>
       </c>
       <c r="B36">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C36">
         <v>4</v>
@@ -5348,7 +5348,7 @@
         <v>1410</v>
       </c>
       <c r="E36">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="F36">
         <v>8</v>
@@ -5390,13 +5390,13 @@
         <v>3</v>
       </c>
       <c r="U36">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="V36">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="W36">
-        <v>0.05629822214740777</v>
+        <v>0.05618341951783053</v>
       </c>
       <c r="X36" t="s">
         <v>853</v>
@@ -5407,7 +5407,7 @@
         <v>1945</v>
       </c>
       <c r="B37">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C37">
         <v>4</v>
@@ -5416,7 +5416,7 @@
         <v>670</v>
       </c>
       <c r="E37">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="F37">
         <v>7</v>
@@ -5461,10 +5461,10 @@
         <v>926</v>
       </c>
       <c r="V37">
-        <v>1616</v>
+        <v>1617</v>
       </c>
       <c r="W37">
-        <v>0.03750367096551029</v>
+        <v>0.0373967732573235</v>
       </c>
       <c r="X37" t="s">
         <v>853</v>
@@ -5475,7 +5475,7 @@
         <v>2097</v>
       </c>
       <c r="B38">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C38">
         <v>5</v>
@@ -5484,7 +5484,7 @@
         <v>1451</v>
       </c>
       <c r="E38">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="F38">
         <v>9</v>
@@ -5529,10 +5529,10 @@
         <v>1303</v>
       </c>
       <c r="V38">
-        <v>1556</v>
+        <v>1557</v>
       </c>
       <c r="W38">
-        <v>0.07669260580424143</v>
+        <v>0.07657439073164989</v>
       </c>
       <c r="X38" t="s">
         <v>854</v>
@@ -5543,7 +5543,7 @@
         <v>2100</v>
       </c>
       <c r="B39">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="C39">
         <v>5</v>
@@ -5552,7 +5552,7 @@
         <v>2667</v>
       </c>
       <c r="E39">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="F39">
         <v>4</v>
@@ -5597,10 +5597,10 @@
         <v>407</v>
       </c>
       <c r="V39">
-        <v>1555</v>
+        <v>1556</v>
       </c>
       <c r="W39">
-        <v>0.002569125110407206</v>
+        <v>0.00255382752030763</v>
       </c>
       <c r="X39" t="s">
         <v>853</v>
@@ -5611,7 +5611,7 @@
         <v>2112</v>
       </c>
       <c r="B40">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="C40">
         <v>4</v>
@@ -5620,7 +5620,7 @@
         <v>2010</v>
       </c>
       <c r="E40">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="F40">
         <v>3</v>
@@ -5662,10 +5662,10 @@
         <v>275</v>
       </c>
       <c r="V40">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="W40">
-        <v>0.001629696080855132</v>
+        <v>0.00162093982721186</v>
       </c>
       <c r="X40" t="s">
         <v>853</v>
@@ -5676,7 +5676,7 @@
         <v>2131</v>
       </c>
       <c r="B41">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C41">
         <v>4</v>
@@ -5685,7 +5685,7 @@
         <v>1475</v>
       </c>
       <c r="E41">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="F41">
         <v>4</v>
@@ -5730,10 +5730,10 @@
         <v>342</v>
       </c>
       <c r="V41">
-        <v>1545</v>
+        <v>1546</v>
       </c>
       <c r="W41">
-        <v>0.003108090376437255</v>
+        <v>0.003091715792692268</v>
       </c>
       <c r="X41" t="s">
         <v>853</v>
@@ -5744,7 +5744,7 @@
         <v>2135</v>
       </c>
       <c r="B42">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="C42">
         <v>5</v>
@@ -5753,7 +5753,7 @@
         <v>720</v>
       </c>
       <c r="E42">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="F42">
         <v>8</v>
@@ -5798,10 +5798,10 @@
         <v>982</v>
       </c>
       <c r="V42">
-        <v>1441</v>
+        <v>1442</v>
       </c>
       <c r="W42">
-        <v>0.06417503098238332</v>
+        <v>0.06400489237832108</v>
       </c>
       <c r="X42" t="s">
         <v>854</v>
@@ -5812,7 +5812,7 @@
         <v>2178</v>
       </c>
       <c r="B43">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="C43">
         <v>4</v>
@@ -5821,7 +5821,7 @@
         <v>1435</v>
       </c>
       <c r="E43">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="F43">
         <v>4</v>
@@ -5866,10 +5866,10 @@
         <v>388</v>
       </c>
       <c r="V43">
-        <v>1534</v>
+        <v>1535</v>
       </c>
       <c r="W43">
-        <v>0.004646849517161139</v>
+        <v>0.004622790006431114</v>
       </c>
       <c r="X43" t="s">
         <v>853</v>
@@ -5880,7 +5880,7 @@
         <v>2196</v>
       </c>
       <c r="B44">
-        <v>1386</v>
+        <v>1387</v>
       </c>
       <c r="C44">
         <v>5</v>
@@ -5889,7 +5889,7 @@
         <v>3080</v>
       </c>
       <c r="E44">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="F44">
         <v>3</v>
@@ -5931,10 +5931,10 @@
         <v>144</v>
       </c>
       <c r="V44">
-        <v>1530</v>
+        <v>1531</v>
       </c>
       <c r="W44">
-        <v>9.296823382253183E-05</v>
+        <v>9.237953469013978E-05</v>
       </c>
       <c r="X44" t="s">
         <v>853</v>
@@ -5945,7 +5945,7 @@
         <v>2290</v>
       </c>
       <c r="B45">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5954,7 +5954,7 @@
         <v>5259.9</v>
       </c>
       <c r="E45">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="F45">
         <v>10</v>
@@ -5999,10 +5999,10 @@
         <v>1395</v>
       </c>
       <c r="V45">
-        <v>1505</v>
+        <v>1506</v>
       </c>
       <c r="W45">
-        <v>0.08479806475998405</v>
+        <v>0.08469252365828565</v>
       </c>
       <c r="X45" t="s">
         <v>854</v>
@@ -6013,7 +6013,7 @@
         <v>2338</v>
       </c>
       <c r="B46">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C46">
         <v>6</v>
@@ -6022,7 +6022,7 @@
         <v>3409.9</v>
       </c>
       <c r="E46">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="F46">
         <v>10</v>
@@ -6061,13 +6061,13 @@
         <v>5</v>
       </c>
       <c r="U46">
-        <v>1460</v>
+        <v>1459</v>
       </c>
       <c r="V46">
-        <v>1495</v>
+        <v>1496</v>
       </c>
       <c r="W46">
-        <v>0.1054575345564168</v>
+        <v>0.1053070803847775</v>
       </c>
       <c r="X46" t="s">
         <v>854</v>
@@ -6078,7 +6078,7 @@
         <v>2371</v>
       </c>
       <c r="B47">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -6087,7 +6087,7 @@
         <v>2375</v>
       </c>
       <c r="E47">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="F47">
         <v>6</v>
@@ -6132,10 +6132,10 @@
         <v>721</v>
       </c>
       <c r="V47">
-        <v>1485</v>
+        <v>1486</v>
       </c>
       <c r="W47">
-        <v>0.0270540433321374</v>
+        <v>0.0269283243829895</v>
       </c>
       <c r="X47" t="s">
         <v>853</v>
@@ -6146,7 +6146,7 @@
         <v>2410</v>
       </c>
       <c r="B48">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6155,7 +6155,7 @@
         <v>3319</v>
       </c>
       <c r="E48">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="F48">
         <v>7</v>
@@ -6200,10 +6200,10 @@
         <v>873</v>
       </c>
       <c r="V48">
-        <v>1474</v>
+        <v>1475</v>
       </c>
       <c r="W48">
-        <v>0.0474454287220579</v>
+        <v>0.04727933524054057</v>
       </c>
       <c r="X48" t="s">
         <v>853</v>
@@ -6214,7 +6214,7 @@
         <v>2419</v>
       </c>
       <c r="B49">
-        <v>1374</v>
+        <v>1375</v>
       </c>
       <c r="C49">
         <v>4</v>
@@ -6223,7 +6223,7 @@
         <v>1040</v>
       </c>
       <c r="E49">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="F49">
         <v>3</v>
@@ -6271,10 +6271,10 @@
         <v>98</v>
       </c>
       <c r="V49">
-        <v>1472</v>
+        <v>1473</v>
       </c>
       <c r="W49">
-        <v>0.0002035656684320928</v>
+        <v>0.0002023906094369959</v>
       </c>
       <c r="X49" t="s">
         <v>853</v>
@@ -6285,7 +6285,7 @@
         <v>2475</v>
       </c>
       <c r="B50">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C50">
         <v>8</v>
@@ -6294,7 +6294,7 @@
         <v>3635</v>
       </c>
       <c r="E50">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="F50">
         <v>9</v>
@@ -6339,10 +6339,10 @@
         <v>1155</v>
       </c>
       <c r="V50">
-        <v>1458</v>
+        <v>1459</v>
       </c>
       <c r="W50">
-        <v>0.1161262062196818</v>
+        <v>0.1158336687937398</v>
       </c>
       <c r="X50" t="s">
         <v>854</v>
@@ -6353,7 +6353,7 @@
         <v>2476</v>
       </c>
       <c r="B51">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="C51">
         <v>4</v>
@@ -6362,7 +6362,7 @@
         <v>860</v>
       </c>
       <c r="E51">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F51">
         <v>5</v>
@@ -6407,10 +6407,10 @@
         <v>575</v>
       </c>
       <c r="V51">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="W51">
-        <v>0.01799528307156971</v>
+        <v>0.01791473574763187</v>
       </c>
       <c r="X51" t="s">
         <v>853</v>
@@ -6421,7 +6421,7 @@
         <v>2502</v>
       </c>
       <c r="B52">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C52">
         <v>8</v>
@@ -6430,7 +6430,7 @@
         <v>3885</v>
       </c>
       <c r="E52">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="F52">
         <v>8</v>
@@ -6475,10 +6475,10 @@
         <v>1030</v>
       </c>
       <c r="V52">
-        <v>1451</v>
+        <v>1452</v>
       </c>
       <c r="W52">
-        <v>0.0892432495668835</v>
+        <v>0.08889735622500525</v>
       </c>
       <c r="X52" t="s">
         <v>854</v>
@@ -6489,7 +6489,7 @@
         <v>2525</v>
       </c>
       <c r="B53">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C53">
         <v>7</v>
@@ -6498,7 +6498,7 @@
         <v>2125</v>
       </c>
       <c r="E53">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="F53">
         <v>4</v>
@@ -6543,10 +6543,10 @@
         <v>410</v>
       </c>
       <c r="V53">
-        <v>1490</v>
+        <v>1491</v>
       </c>
       <c r="W53">
-        <v>0.0007489591054219265</v>
+        <v>0.000743300297573344</v>
       </c>
       <c r="X53" t="s">
         <v>853</v>
@@ -6557,7 +6557,7 @@
         <v>2537</v>
       </c>
       <c r="B54">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6566,7 +6566,7 @@
         <v>1030</v>
       </c>
       <c r="E54">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="F54">
         <v>9</v>
@@ -6608,10 +6608,10 @@
         <v>1242</v>
       </c>
       <c r="V54">
-        <v>1443</v>
+        <v>1444</v>
       </c>
       <c r="W54">
-        <v>0.06736697162443145</v>
+        <v>0.06726907139066984</v>
       </c>
       <c r="X54" t="s">
         <v>854</v>
@@ -6622,7 +6622,7 @@
         <v>2543</v>
       </c>
       <c r="B55">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6631,7 +6631,7 @@
         <v>13500</v>
       </c>
       <c r="E55">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F55">
         <v>5</v>
@@ -6676,10 +6676,10 @@
         <v>433</v>
       </c>
       <c r="V55">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="W55">
-        <v>0.008460241937680401</v>
+        <v>0.008416935708346169</v>
       </c>
       <c r="X55" t="s">
         <v>853</v>
@@ -6690,7 +6690,7 @@
         <v>2552</v>
       </c>
       <c r="B56">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C56">
         <v>5</v>
@@ -6699,7 +6699,7 @@
         <v>1860</v>
       </c>
       <c r="E56">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="F56">
         <v>4</v>
@@ -6744,10 +6744,10 @@
         <v>238</v>
       </c>
       <c r="V56">
-        <v>1442</v>
+        <v>1443</v>
       </c>
       <c r="W56">
-        <v>0.0005811400226927325</v>
+        <v>0.0005774118502511554</v>
       </c>
       <c r="X56" t="s">
         <v>853</v>
@@ -6758,7 +6758,7 @@
         <v>2588</v>
       </c>
       <c r="B57">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6767,7 +6767,7 @@
         <v>820</v>
       </c>
       <c r="E57">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="F57">
         <v>5</v>
@@ -6812,10 +6812,10 @@
         <v>461</v>
       </c>
       <c r="V57">
-        <v>1419</v>
+        <v>1420</v>
       </c>
       <c r="W57">
-        <v>0.01085632513762006</v>
+        <v>0.0108018464803829</v>
       </c>
       <c r="X57" t="s">
         <v>853</v>
@@ -6826,7 +6826,7 @@
         <v>2610</v>
       </c>
       <c r="B58">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C58">
         <v>8</v>
@@ -6835,7 +6835,7 @@
         <v>7258</v>
       </c>
       <c r="E58">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="F58">
         <v>10</v>
@@ -6880,13 +6880,13 @@
         <v>7</v>
       </c>
       <c r="U58">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="V58">
-        <v>1426</v>
+        <v>1427</v>
       </c>
       <c r="W58">
-        <v>0.1429146454510048</v>
+        <v>0.1426431208527487</v>
       </c>
       <c r="X58" t="s">
         <v>854</v>
@@ -6897,7 +6897,7 @@
         <v>2612</v>
       </c>
       <c r="B59">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6906,7 +6906,7 @@
         <v>2310</v>
       </c>
       <c r="E59">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="F59">
         <v>3</v>
@@ -6951,10 +6951,10 @@
         <v>195</v>
       </c>
       <c r="V59">
-        <v>1425</v>
+        <v>1426</v>
       </c>
       <c r="W59">
-        <v>0.00100476267652644</v>
+        <v>0.0009990206807092563</v>
       </c>
       <c r="X59" t="s">
         <v>853</v>
@@ -6965,7 +6965,7 @@
         <v>2684</v>
       </c>
       <c r="B60">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="C60">
         <v>5</v>
@@ -6974,7 +6974,7 @@
         <v>984.9</v>
       </c>
       <c r="E60">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -7016,10 +7016,10 @@
         <v>105</v>
       </c>
       <c r="V60">
-        <v>1408</v>
+        <v>1409</v>
       </c>
       <c r="W60">
-        <v>6.914636883028347E-05</v>
+        <v>6.868420299495091E-05</v>
       </c>
       <c r="X60" t="s">
         <v>853</v>
@@ -7030,7 +7030,7 @@
         <v>2750</v>
       </c>
       <c r="B61">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C61">
         <v>5</v>
@@ -7039,7 +7039,7 @@
         <v>3913</v>
       </c>
       <c r="E61">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="F61">
         <v>7</v>
@@ -7084,10 +7084,10 @@
         <v>768</v>
       </c>
       <c r="V61">
-        <v>1395</v>
+        <v>1396</v>
       </c>
       <c r="W61">
-        <v>0.04196684837745417</v>
+        <v>0.04179622477286983</v>
       </c>
       <c r="X61" t="s">
         <v>853</v>
@@ -7098,7 +7098,7 @@
         <v>2767</v>
       </c>
       <c r="B62">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -7107,7 +7107,7 @@
         <v>1150</v>
       </c>
       <c r="E62">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="F62">
         <v>6</v>
@@ -7149,13 +7149,13 @@
         <v>4</v>
       </c>
       <c r="U62">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="V62">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="W62">
-        <v>0.01476838436479189</v>
+        <v>0.01458967080717476</v>
       </c>
       <c r="X62" t="s">
         <v>853</v>
@@ -7166,7 +7166,7 @@
         <v>2797</v>
       </c>
       <c r="B63">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="C63">
         <v>6</v>
@@ -7175,7 +7175,7 @@
         <v>2160</v>
       </c>
       <c r="E63">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -7220,10 +7220,10 @@
         <v>548</v>
       </c>
       <c r="V63">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="W63">
-        <v>0.01003516161379681</v>
+        <v>0.009968390672134222</v>
       </c>
       <c r="X63" t="s">
         <v>853</v>
@@ -7234,7 +7234,7 @@
         <v>2866</v>
       </c>
       <c r="B64">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="C64">
         <v>7</v>
@@ -7243,7 +7243,7 @@
         <v>9453</v>
       </c>
       <c r="E64">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="F64">
         <v>4</v>
@@ -7285,10 +7285,10 @@
         <v>1015</v>
       </c>
       <c r="V64">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="W64">
-        <v>0.0101580839594675</v>
+        <v>0.01010218912552375</v>
       </c>
       <c r="X64" t="s">
         <v>853</v>
@@ -7299,7 +7299,7 @@
         <v>2881</v>
       </c>
       <c r="B65">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="C65">
         <v>5</v>
@@ -7308,7 +7308,7 @@
         <v>3570</v>
       </c>
       <c r="E65">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="F65">
         <v>5</v>
@@ -7353,10 +7353,10 @@
         <v>398</v>
       </c>
       <c r="V65">
-        <v>1366</v>
+        <v>1367</v>
       </c>
       <c r="W65">
-        <v>0.004847610840956998</v>
+        <v>0.004817112251030362</v>
       </c>
       <c r="X65" t="s">
         <v>853</v>
@@ -7367,7 +7367,7 @@
         <v>2894</v>
       </c>
       <c r="B66">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C66">
         <v>5</v>
@@ -7376,7 +7376,7 @@
         <v>1750</v>
       </c>
       <c r="E66">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="F66">
         <v>8</v>
@@ -7421,10 +7421,10 @@
         <v>935</v>
       </c>
       <c r="V66">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="W66">
-        <v>0.06924839050124511</v>
+        <v>0.06906351434595824</v>
       </c>
       <c r="X66" t="s">
         <v>854</v>
@@ -7435,7 +7435,7 @@
         <v>2908</v>
       </c>
       <c r="B67">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67">
         <v>5</v>
@@ -7444,7 +7444,7 @@
         <v>1388.9</v>
       </c>
       <c r="E67">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="F67">
         <v>10</v>
@@ -7489,10 +7489,10 @@
         <v>1274</v>
       </c>
       <c r="V67">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="W67">
-        <v>0.0939012014126846</v>
+        <v>0.09377900776391533</v>
       </c>
       <c r="X67" t="s">
         <v>854</v>
@@ -7503,7 +7503,7 @@
         <v>2913</v>
       </c>
       <c r="B68">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C68">
         <v>4</v>
@@ -7512,7 +7512,7 @@
         <v>2125</v>
       </c>
       <c r="E68">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="F68">
         <v>8</v>
@@ -7557,10 +7557,10 @@
         <v>1031</v>
       </c>
       <c r="V68">
-        <v>1355</v>
+        <v>1356</v>
       </c>
       <c r="W68">
-        <v>0.06493684679091186</v>
+        <v>0.06481358541177915</v>
       </c>
       <c r="X68" t="s">
         <v>854</v>
@@ -7571,7 +7571,7 @@
         <v>2936</v>
       </c>
       <c r="B69">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C69">
         <v>10</v>
@@ -7580,7 +7580,7 @@
         <v>3155</v>
       </c>
       <c r="E69">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="F69">
         <v>10</v>
@@ -7625,10 +7625,10 @@
         <v>1234</v>
       </c>
       <c r="V69">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="W69">
-        <v>0.1866825965410406</v>
+        <v>0.1863911139249279</v>
       </c>
       <c r="X69" t="s">
         <v>854</v>
@@ -7639,7 +7639,7 @@
         <v>2978</v>
       </c>
       <c r="B70">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C70">
         <v>5</v>
@@ -7648,7 +7648,7 @@
         <v>4230</v>
       </c>
       <c r="E70">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="F70">
         <v>6</v>
@@ -7675,7 +7675,7 @@
         <v>42</v>
       </c>
       <c r="N70" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O70" t="s">
         <v>123</v>
@@ -7687,13 +7687,13 @@
         <v>4</v>
       </c>
       <c r="U70">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="V70">
-        <v>1416</v>
+        <v>1417</v>
       </c>
       <c r="W70">
-        <v>0.02858830938679972</v>
+        <v>0.02832199514180224</v>
       </c>
       <c r="X70" t="s">
         <v>853</v>
@@ -7704,7 +7704,7 @@
         <v>3117</v>
       </c>
       <c r="B71">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C71">
         <v>4</v>
@@ -7713,7 +7713,7 @@
         <v>1365</v>
       </c>
       <c r="E71">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F71">
         <v>7</v>
@@ -7758,10 +7758,10 @@
         <v>789</v>
       </c>
       <c r="V71">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="W71">
-        <v>0.05141314755762399</v>
+        <v>0.05126430509496808</v>
       </c>
       <c r="X71" t="s">
         <v>853</v>
@@ -7772,7 +7772,7 @@
         <v>3138</v>
       </c>
       <c r="B72">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C72">
         <v>4</v>
@@ -7781,7 +7781,7 @@
         <v>7900</v>
       </c>
       <c r="E72">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="F72">
         <v>9</v>
@@ -7823,10 +7823,10 @@
         <v>1024</v>
       </c>
       <c r="V72">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="W72">
-        <v>0.06997437557682808</v>
+        <v>0.06984727249720334</v>
       </c>
       <c r="X72" t="s">
         <v>854</v>
@@ -7837,7 +7837,7 @@
         <v>3151</v>
       </c>
       <c r="B73">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C73">
         <v>5</v>
@@ -7846,7 +7846,7 @@
         <v>1580</v>
       </c>
       <c r="E73">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="F73">
         <v>6</v>
@@ -7891,10 +7891,10 @@
         <v>537</v>
       </c>
       <c r="V73">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="W73">
-        <v>0.01919971413885518</v>
+        <v>0.01909059033225396</v>
       </c>
       <c r="X73" t="s">
         <v>853</v>
@@ -7905,7 +7905,7 @@
         <v>3154</v>
       </c>
       <c r="B74">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C74">
         <v>4</v>
@@ -7914,7 +7914,7 @@
         <v>2615</v>
       </c>
       <c r="E74">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F74">
         <v>9</v>
@@ -7959,10 +7959,10 @@
         <v>1029</v>
       </c>
       <c r="V74">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="W74">
-        <v>0.07052699493298267</v>
+        <v>0.07040038339237875</v>
       </c>
       <c r="X74" t="s">
         <v>854</v>
@@ -7973,7 +7973,7 @@
         <v>3212</v>
       </c>
       <c r="B75">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C75">
         <v>4</v>
@@ -7982,7 +7982,7 @@
         <v>4249</v>
       </c>
       <c r="E75">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="F75">
         <v>8</v>
@@ -8027,10 +8027,10 @@
         <v>869</v>
       </c>
       <c r="V75">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="W75">
-        <v>0.06078608372884765</v>
+        <v>0.06063939329592966</v>
       </c>
       <c r="X75" t="s">
         <v>854</v>
@@ -8041,7 +8041,7 @@
         <v>3265</v>
       </c>
       <c r="B76">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C76">
         <v>4</v>
@@ -8050,7 +8050,7 @@
         <v>3110</v>
       </c>
       <c r="E76">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -8095,10 +8095,10 @@
         <v>311</v>
       </c>
       <c r="V76">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="W76">
-        <v>0.005907786248537048</v>
+        <v>0.005873895981892866</v>
       </c>
       <c r="X76" t="s">
         <v>853</v>
@@ -8109,7 +8109,7 @@
         <v>3320</v>
       </c>
       <c r="B77">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C77">
         <v>5</v>
@@ -8118,7 +8118,7 @@
         <v>1194.9</v>
       </c>
       <c r="E77">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="F77">
         <v>8</v>
@@ -8160,10 +8160,10 @@
         <v>850</v>
       </c>
       <c r="V77">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="W77">
-        <v>0.07268693746758717</v>
+        <v>0.07247668458764844</v>
       </c>
       <c r="X77" t="s">
         <v>854</v>
@@ -8174,7 +8174,7 @@
         <v>3342</v>
       </c>
       <c r="B78">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="C78">
         <v>4</v>
@@ -8183,7 +8183,7 @@
         <v>1720</v>
       </c>
       <c r="E78">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="F78">
         <v>4</v>
@@ -8228,10 +8228,10 @@
         <v>35</v>
       </c>
       <c r="V78">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="W78">
-        <v>0.000122392531532204</v>
+        <v>0.0001216059055352488</v>
       </c>
       <c r="X78" t="s">
         <v>853</v>
@@ -8242,7 +8242,7 @@
         <v>3358</v>
       </c>
       <c r="B79">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C79">
         <v>6</v>
@@ -8251,7 +8251,7 @@
         <v>3649</v>
       </c>
       <c r="E79">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="F79">
         <v>8</v>
@@ -8296,10 +8296,10 @@
         <v>1233</v>
       </c>
       <c r="V79">
-        <v>1723</v>
+        <v>1724</v>
       </c>
       <c r="W79">
-        <v>0.06628600059517606</v>
+        <v>0.06612032005213062</v>
       </c>
       <c r="X79" t="s">
         <v>854</v>
@@ -8310,7 +8310,7 @@
         <v>3361</v>
       </c>
       <c r="B80">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C80">
         <v>9</v>
@@ -8319,7 +8319,7 @@
         <v>6787</v>
       </c>
       <c r="E80">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F80">
         <v>10</v>
@@ -8361,13 +8361,13 @@
         <v>8</v>
       </c>
       <c r="U80">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V80">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="W80">
-        <v>0.1755371183971546</v>
+        <v>0.1750478189297845</v>
       </c>
       <c r="X80" t="s">
         <v>854</v>
@@ -8378,7 +8378,7 @@
         <v>3367</v>
       </c>
       <c r="B81">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C81">
         <v>4</v>
@@ -8387,7 +8387,7 @@
         <v>670</v>
       </c>
       <c r="E81">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="F81">
         <v>8</v>
@@ -8429,10 +8429,10 @@
         <v>832</v>
       </c>
       <c r="V81">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="W81">
-        <v>0.06177057975392857</v>
+        <v>0.06161577365944225</v>
       </c>
       <c r="X81" t="s">
         <v>854</v>
@@ -8443,7 +8443,7 @@
         <v>3368</v>
       </c>
       <c r="B82">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C82">
         <v>5</v>
@@ -8452,7 +8452,7 @@
         <v>1345</v>
       </c>
       <c r="E82">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F82">
         <v>10</v>
@@ -8497,10 +8497,10 @@
         <v>1224</v>
       </c>
       <c r="V82">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="W82">
-        <v>0.1042320505344708</v>
+        <v>0.1041008286394366</v>
       </c>
       <c r="X82" t="s">
         <v>854</v>
@@ -8511,7 +8511,7 @@
         <v>3396</v>
       </c>
       <c r="B83">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C83">
         <v>4</v>
@@ -8520,7 +8520,7 @@
         <v>1403.9</v>
       </c>
       <c r="E83">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="F83">
         <v>5</v>
@@ -8565,10 +8565,10 @@
         <v>207</v>
       </c>
       <c r="V83">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="W83">
-        <v>0.002315132670666905</v>
+        <v>0.002301011089160529</v>
       </c>
       <c r="X83" t="s">
         <v>853</v>
@@ -8579,7 +8579,7 @@
         <v>3419</v>
       </c>
       <c r="B84">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C84">
         <v>5</v>
@@ -8588,7 +8588,7 @@
         <v>1596.5</v>
       </c>
       <c r="E84">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="F84">
         <v>10</v>
@@ -8633,10 +8633,10 @@
         <v>1074</v>
       </c>
       <c r="V84">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="W84">
-        <v>0.09877772070249592</v>
+        <v>0.0986177379714492</v>
       </c>
       <c r="X84" t="s">
         <v>854</v>
@@ -8647,7 +8647,7 @@
         <v>3465</v>
       </c>
       <c r="B85">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C85">
         <v>4</v>
@@ -8656,7 +8656,7 @@
         <v>1765</v>
       </c>
       <c r="E85">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="F85">
         <v>9</v>
@@ -8701,10 +8701,10 @@
         <v>978</v>
       </c>
       <c r="V85">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="W85">
-        <v>0.07541828538190616</v>
+        <v>0.07528060212309645</v>
       </c>
       <c r="X85" t="s">
         <v>854</v>
@@ -8715,7 +8715,7 @@
         <v>3544</v>
       </c>
       <c r="B86">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="C86">
         <v>5</v>
@@ -8724,7 +8724,7 @@
         <v>1904.9</v>
       </c>
       <c r="E86">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="F86">
         <v>5</v>
@@ -8766,10 +8766,10 @@
         <v>166</v>
       </c>
       <c r="V86">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="W86">
-        <v>0.0005705478709590769</v>
+        <v>0.0005664299205159164</v>
       </c>
       <c r="X86" t="s">
         <v>853</v>
@@ -8780,7 +8780,7 @@
         <v>3547</v>
       </c>
       <c r="B87">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C87">
         <v>4</v>
@@ -8789,7 +8789,7 @@
         <v>1450</v>
       </c>
       <c r="E87">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="F87">
         <v>8</v>
@@ -8834,10 +8834,10 @@
         <v>1367</v>
       </c>
       <c r="V87">
-        <v>1708</v>
+        <v>1710</v>
       </c>
       <c r="W87">
-        <v>0.05467565491410498</v>
+        <v>0.05453737125806188</v>
       </c>
       <c r="X87" t="s">
         <v>853</v>
@@ -8848,7 +8848,7 @@
         <v>3630</v>
       </c>
       <c r="B88">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="C88">
         <v>5</v>
@@ -8857,7 +8857,7 @@
         <v>1779.9</v>
       </c>
       <c r="E88">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F88">
         <v>6</v>
@@ -8902,10 +8902,10 @@
         <v>356</v>
       </c>
       <c r="V88">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="W88">
-        <v>0.007591307093416871</v>
+        <v>0.007539696323122</v>
       </c>
       <c r="X88" t="s">
         <v>853</v>
@@ -8916,7 +8916,7 @@
         <v>3631</v>
       </c>
       <c r="B89">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="C89">
         <v>5</v>
@@ -8925,7 +8925,7 @@
         <v>2580</v>
       </c>
       <c r="E89">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="F89">
         <v>6</v>
@@ -8967,13 +8967,13 @@
         <v>4</v>
       </c>
       <c r="U89">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="V89">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="W89">
-        <v>0.007597648882836897</v>
+        <v>0.007471523478830589</v>
       </c>
       <c r="X89" t="s">
         <v>853</v>
@@ -8984,7 +8984,7 @@
         <v>3645</v>
       </c>
       <c r="B90">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C90">
         <v>8</v>
@@ -8993,7 +8993,7 @@
         <v>2780</v>
       </c>
       <c r="E90">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F90">
         <v>10</v>
@@ -9038,10 +9038,10 @@
         <v>999</v>
       </c>
       <c r="V90">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="W90">
-        <v>0.1600509020941706</v>
+        <v>0.1597145696231849</v>
       </c>
       <c r="X90" t="s">
         <v>854</v>
@@ -9052,7 +9052,7 @@
         <v>3649</v>
       </c>
       <c r="B91">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C91">
         <v>4</v>
@@ -9061,7 +9061,7 @@
         <v>1570</v>
       </c>
       <c r="E91">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="F91">
         <v>5</v>
@@ -9103,10 +9103,10 @@
         <v>170</v>
       </c>
       <c r="V91">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="W91">
-        <v>0.001878245043619712</v>
+        <v>0.001866319185707418</v>
       </c>
       <c r="X91" t="s">
         <v>853</v>
@@ -9117,7 +9117,7 @@
         <v>3653</v>
       </c>
       <c r="B92">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C92">
         <v>6</v>
@@ -9126,7 +9126,7 @@
         <v>2512.01</v>
       </c>
       <c r="E92">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="F92">
         <v>7</v>
@@ -9168,13 +9168,13 @@
         <v>5</v>
       </c>
       <c r="U92">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="V92">
-        <v>1163</v>
+        <v>1165</v>
       </c>
       <c r="W92">
-        <v>0.02341611025261398</v>
+        <v>0.02332831345473205</v>
       </c>
       <c r="X92" t="s">
         <v>853</v>
@@ -9185,7 +9185,7 @@
         <v>3672</v>
       </c>
       <c r="B93">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C93">
         <v>4</v>
@@ -9194,7 +9194,7 @@
         <v>2364.8</v>
       </c>
       <c r="E93">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="F93">
         <v>5</v>
@@ -9239,10 +9239,10 @@
         <v>134</v>
       </c>
       <c r="V93">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="W93">
-        <v>0.001153056813549622</v>
+        <v>0.001145621138281216</v>
       </c>
       <c r="X93" t="s">
         <v>853</v>
@@ -9253,7 +9253,7 @@
         <v>3695</v>
       </c>
       <c r="B94">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C94">
         <v>4</v>
@@ -9262,7 +9262,7 @@
         <v>1845</v>
       </c>
       <c r="E94">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="F94">
         <v>10</v>
@@ -9307,10 +9307,10 @@
         <v>1041</v>
       </c>
       <c r="V94">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="W94">
-        <v>0.08463589166977395</v>
+        <v>0.08450427291525399</v>
       </c>
       <c r="X94" t="s">
         <v>854</v>
@@ -9321,7 +9321,7 @@
         <v>3710</v>
       </c>
       <c r="B95">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C95">
         <v>7</v>
@@ -9330,7 +9330,7 @@
         <v>2578</v>
       </c>
       <c r="E95">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F95">
         <v>10</v>
@@ -9369,13 +9369,13 @@
         <v>6</v>
       </c>
       <c r="U95">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V95">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="W95">
-        <v>0.1551319372373505</v>
+        <v>0.1548484166860677</v>
       </c>
       <c r="X95" t="s">
         <v>854</v>
@@ -9386,7 +9386,7 @@
         <v>3711</v>
       </c>
       <c r="B96">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="C96">
         <v>8</v>
@@ -9395,7 +9395,7 @@
         <v>3435.01</v>
       </c>
       <c r="E96">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="F96">
         <v>8</v>
@@ -9440,10 +9440,10 @@
         <v>752</v>
       </c>
       <c r="V96">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="W96">
-        <v>0.08505233984393014</v>
+        <v>0.08456949594533043</v>
       </c>
       <c r="X96" t="s">
         <v>854</v>
@@ -9454,7 +9454,7 @@
         <v>3722</v>
       </c>
       <c r="B97">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="C97">
         <v>4</v>
@@ -9463,7 +9463,7 @@
         <v>2420</v>
       </c>
       <c r="E97">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="F97">
         <v>5</v>
@@ -9505,10 +9505,10 @@
         <v>176</v>
       </c>
       <c r="V97">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="W97">
-        <v>0.002159899555939427</v>
+        <v>0.002146130870644507</v>
       </c>
       <c r="X97" t="s">
         <v>853</v>
@@ -9519,7 +9519,7 @@
         <v>3749</v>
       </c>
       <c r="B98">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C98">
         <v>4</v>
@@ -9528,7 +9528,7 @@
         <v>1764.9</v>
       </c>
       <c r="E98">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="F98">
         <v>7</v>
@@ -9573,10 +9573,10 @@
         <v>449</v>
       </c>
       <c r="V98">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="W98">
-        <v>0.0244985697376014</v>
+        <v>0.0243753426138037</v>
       </c>
       <c r="X98" t="s">
         <v>853</v>
@@ -9587,7 +9587,7 @@
         <v>3799</v>
       </c>
       <c r="B99">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="C99">
         <v>6</v>
@@ -9596,7 +9596,7 @@
         <v>1815</v>
       </c>
       <c r="E99">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="F99">
         <v>6</v>
@@ -9641,10 +9641,10 @@
         <v>360</v>
       </c>
       <c r="V99">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="W99">
-        <v>0.00555558510097417</v>
+        <v>0.005511540309488096</v>
       </c>
       <c r="X99" t="s">
         <v>853</v>
@@ -9655,7 +9655,7 @@
         <v>3805</v>
       </c>
       <c r="B100">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C100">
         <v>5</v>
@@ -9664,7 +9664,7 @@
         <v>2430</v>
       </c>
       <c r="E100">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F100">
         <v>6</v>
@@ -9709,10 +9709,10 @@
         <v>386</v>
       </c>
       <c r="V100">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="W100">
-        <v>0.0123243614111701</v>
+        <v>0.0122416856507302</v>
       </c>
       <c r="X100" t="s">
         <v>853</v>
@@ -9723,7 +9723,7 @@
         <v>3829</v>
       </c>
       <c r="B101">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="C101">
         <v>5</v>
@@ -9732,7 +9732,7 @@
         <v>2150</v>
       </c>
       <c r="E101">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="F101">
         <v>6</v>
@@ -9777,10 +9777,10 @@
         <v>357</v>
       </c>
       <c r="V101">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="W101">
-        <v>0.009697452072670082</v>
+        <v>0.009630691619286697</v>
       </c>
       <c r="X101" t="s">
         <v>853</v>
@@ -9791,7 +9791,7 @@
         <v>3926</v>
       </c>
       <c r="B102">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C102">
         <v>6</v>
@@ -9800,7 +9800,7 @@
         <v>2400</v>
       </c>
       <c r="E102">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="F102">
         <v>10</v>
@@ -9845,10 +9845,10 @@
         <v>938</v>
       </c>
       <c r="V102">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="W102">
-        <v>0.1286913015604016</v>
+        <v>0.1284424662331004</v>
       </c>
       <c r="X102" t="s">
         <v>854</v>
@@ -9859,7 +9859,7 @@
         <v>3963</v>
       </c>
       <c r="B103">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="C103">
         <v>4</v>
@@ -9868,7 +9868,7 @@
         <v>2823.8</v>
       </c>
       <c r="E103">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="F103">
         <v>4</v>
@@ -9913,10 +9913,10 @@
         <v>63</v>
       </c>
       <c r="V103">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="W103">
-        <v>0.0003740794013054285</v>
+        <v>0.0003715700850881695</v>
       </c>
       <c r="X103" t="s">
         <v>853</v>
@@ -9927,7 +9927,7 @@
         <v>3964</v>
       </c>
       <c r="B104">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C104">
         <v>4</v>
@@ -9936,7 +9936,7 @@
         <v>1208</v>
       </c>
       <c r="E104">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="F104">
         <v>9</v>
@@ -9981,10 +9981,10 @@
         <v>854</v>
       </c>
       <c r="V104">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="W104">
-        <v>0.08203627870862801</v>
+        <v>0.08186900719925154</v>
       </c>
       <c r="X104" t="s">
         <v>854</v>
@@ -9995,7 +9995,7 @@
         <v>4016</v>
       </c>
       <c r="B105">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C105">
         <v>5</v>
@@ -10004,7 +10004,7 @@
         <v>1320</v>
       </c>
       <c r="E105">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F105">
         <v>8</v>
@@ -10049,10 +10049,10 @@
         <v>588</v>
       </c>
       <c r="V105">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="W105">
-        <v>0.05512281017964227</v>
+        <v>0.05486593678173333</v>
       </c>
       <c r="X105" t="s">
         <v>853</v>
@@ -10063,7 +10063,7 @@
         <v>4020</v>
       </c>
       <c r="B106">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C106">
         <v>5</v>
@@ -10072,7 +10072,7 @@
         <v>1795</v>
       </c>
       <c r="E106">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="F106">
         <v>10</v>
@@ -10117,10 +10117,10 @@
         <v>776</v>
       </c>
       <c r="V106">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="W106">
-        <v>0.1475264125388916</v>
+        <v>0.1472560486948389</v>
       </c>
       <c r="X106" t="s">
         <v>854</v>
@@ -10131,7 +10131,7 @@
         <v>4053</v>
       </c>
       <c r="B107">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C107">
         <v>4</v>
@@ -10140,7 +10140,7 @@
         <v>1095</v>
       </c>
       <c r="E107">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="F107">
         <v>9</v>
@@ -10185,10 +10185,10 @@
         <v>762</v>
       </c>
       <c r="V107">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="W107">
-        <v>0.08103281969591854</v>
+        <v>0.08084211529545537</v>
       </c>
       <c r="X107" t="s">
         <v>854</v>
@@ -10199,7 +10199,7 @@
         <v>4121</v>
       </c>
       <c r="B108">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C108">
         <v>4</v>
@@ -10208,7 +10208,7 @@
         <v>5780</v>
       </c>
       <c r="E108">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="F108">
         <v>10</v>
@@ -10253,10 +10253,10 @@
         <v>981</v>
       </c>
       <c r="V108">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="W108">
-        <v>0.09400789010151497</v>
+        <v>0.0938606497677688</v>
       </c>
       <c r="X108" t="s">
         <v>854</v>
@@ -10267,7 +10267,7 @@
         <v>4123</v>
       </c>
       <c r="B109">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C109">
         <v>5</v>
@@ -10276,7 +10276,7 @@
         <v>1383</v>
       </c>
       <c r="E109">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="F109">
         <v>9</v>
@@ -10315,13 +10315,13 @@
         <v>4</v>
       </c>
       <c r="U109">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="V109">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="W109">
-        <v>0.1089797154410928</v>
+        <v>0.108657589293337</v>
       </c>
       <c r="X109" t="s">
         <v>854</v>
@@ -10332,16 +10332,16 @@
         <v>4165</v>
       </c>
       <c r="B110">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="C110">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D110">
-        <v>2638</v>
+        <v>2837</v>
       </c>
       <c r="E110">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="F110">
         <v>10</v>
@@ -10380,16 +10380,16 @@
         <v>744</v>
       </c>
       <c r="T110">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="U110">
-        <v>993</v>
+        <v>1038</v>
       </c>
       <c r="V110">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="W110">
-        <v>0.4631258476861745</v>
+        <v>0.500241151120693</v>
       </c>
       <c r="X110" t="s">
         <v>854</v>
@@ -10400,7 +10400,7 @@
         <v>4218</v>
       </c>
       <c r="B111">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C111">
         <v>4</v>
@@ -10409,7 +10409,7 @@
         <v>1150</v>
       </c>
       <c r="E111">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="F111">
         <v>10</v>
@@ -10454,10 +10454,10 @@
         <v>914</v>
       </c>
       <c r="V111">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="W111">
-        <v>0.09406406524477273</v>
+        <v>0.09390320018146239</v>
       </c>
       <c r="X111" t="s">
         <v>854</v>
@@ -10468,7 +10468,7 @@
         <v>4240</v>
       </c>
       <c r="B112">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C112">
         <v>4</v>
@@ -10477,7 +10477,7 @@
         <v>1520</v>
       </c>
       <c r="E112">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="F112">
         <v>6</v>
@@ -10522,10 +10522,10 @@
         <v>288</v>
       </c>
       <c r="V112">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="W112">
-        <v>0.01277360369507415</v>
+        <v>0.01269431728011484</v>
       </c>
       <c r="X112" t="s">
         <v>853</v>
@@ -10536,7 +10536,7 @@
         <v>4264</v>
       </c>
       <c r="B113">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C113">
         <v>4</v>
@@ -10545,7 +10545,7 @@
         <v>1065</v>
       </c>
       <c r="E113">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F113">
         <v>10</v>
@@ -10587,10 +10587,10 @@
         <v>988</v>
       </c>
       <c r="V113">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="W113">
-        <v>0.09935308674142886</v>
+        <v>0.09920374360138874</v>
       </c>
       <c r="X113" t="s">
         <v>854</v>
@@ -10601,7 +10601,7 @@
         <v>4298</v>
       </c>
       <c r="B114">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="C114">
         <v>6</v>
@@ -10610,7 +10610,7 @@
         <v>1618.9</v>
       </c>
       <c r="E114">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="F114">
         <v>5</v>
@@ -10655,10 +10655,10 @@
         <v>392</v>
       </c>
       <c r="V114">
-        <v>1385</v>
+        <v>1386</v>
       </c>
       <c r="W114">
-        <v>0.002148354022377808</v>
+        <v>0.002133055383673985</v>
       </c>
       <c r="X114" t="s">
         <v>853</v>
@@ -10669,7 +10669,7 @@
         <v>4524</v>
       </c>
       <c r="B115">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C115">
         <v>5</v>
@@ -10678,7 +10678,7 @@
         <v>1880</v>
       </c>
       <c r="E115">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="F115">
         <v>10</v>
@@ -10723,10 +10723,10 @@
         <v>907</v>
       </c>
       <c r="V115">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="W115">
-        <v>0.1333769197330751</v>
+        <v>0.1331643418344061</v>
       </c>
       <c r="X115" t="s">
         <v>854</v>
@@ -10737,7 +10737,7 @@
         <v>4594</v>
       </c>
       <c r="B116">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C116">
         <v>6</v>
@@ -10746,7 +10746,7 @@
         <v>2710</v>
       </c>
       <c r="E116">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F116">
         <v>8</v>
@@ -10791,10 +10791,10 @@
         <v>573</v>
       </c>
       <c r="V116">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="W116">
-        <v>0.09542804454450181</v>
+        <v>0.09496766047551351</v>
       </c>
       <c r="X116" t="s">
         <v>854</v>
@@ -10805,7 +10805,7 @@
         <v>4623</v>
       </c>
       <c r="B117">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C117">
         <v>5</v>
@@ -10814,7 +10814,7 @@
         <v>3355</v>
       </c>
       <c r="E117">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="F117">
         <v>6</v>
@@ -10859,10 +10859,10 @@
         <v>653</v>
       </c>
       <c r="V117">
-        <v>1365</v>
+        <v>1366</v>
       </c>
       <c r="W117">
-        <v>0.02859958768806188</v>
+        <v>0.02845893615321111</v>
       </c>
       <c r="X117" t="s">
         <v>853</v>
@@ -10873,7 +10873,7 @@
         <v>4683</v>
       </c>
       <c r="B118">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C118">
         <v>6</v>
@@ -10882,7 +10882,7 @@
         <v>1430</v>
       </c>
       <c r="E118">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F118">
         <v>9</v>
@@ -10927,10 +10927,10 @@
         <v>690</v>
       </c>
       <c r="V118">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="W118">
-        <v>0.1413015027441582</v>
+        <v>0.1408961626694169</v>
       </c>
       <c r="X118" t="s">
         <v>854</v>
@@ -10941,7 +10941,7 @@
         <v>4703</v>
       </c>
       <c r="B119">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C119">
         <v>5</v>
@@ -10950,7 +10950,7 @@
         <v>2360</v>
       </c>
       <c r="E119">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="F119">
         <v>8</v>
@@ -10995,10 +10995,10 @@
         <v>466</v>
       </c>
       <c r="V119">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="W119">
-        <v>0.06420661607183631</v>
+        <v>0.06386199905964796</v>
       </c>
       <c r="X119" t="s">
         <v>854</v>
@@ -11009,7 +11009,7 @@
         <v>4755</v>
       </c>
       <c r="B120">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="C120">
         <v>4</v>
@@ -11018,7 +11018,7 @@
         <v>830</v>
       </c>
       <c r="E120">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="F120">
         <v>8</v>
@@ -11063,10 +11063,10 @@
         <v>497</v>
       </c>
       <c r="V120">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="W120">
-        <v>0.07057102907898054</v>
+        <v>0.07029841701936439</v>
       </c>
       <c r="X120" t="s">
         <v>854</v>
@@ -11077,7 +11077,7 @@
         <v>4873</v>
       </c>
       <c r="B121">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C121">
         <v>4</v>
@@ -11086,7 +11086,7 @@
         <v>1180</v>
       </c>
       <c r="E121">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="F121">
         <v>10</v>
@@ -11125,13 +11125,13 @@
         <v>3</v>
       </c>
       <c r="U121">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="V121">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="W121">
-        <v>0.1174456053189134</v>
+        <v>0.1171919703866387</v>
       </c>
       <c r="X121" t="s">
         <v>854</v>
@@ -11142,7 +11142,7 @@
         <v>4874</v>
       </c>
       <c r="B122">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C122">
         <v>4</v>
@@ -11151,7 +11151,7 @@
         <v>2214</v>
       </c>
       <c r="E122">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="F122">
         <v>7</v>
@@ -11193,13 +11193,13 @@
         <v>3</v>
       </c>
       <c r="U122">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="V122">
-        <v>1602</v>
+        <v>1604</v>
       </c>
       <c r="W122">
-        <v>0.03909008332822571</v>
+        <v>0.03898691610385</v>
       </c>
       <c r="X122" t="s">
         <v>853</v>
@@ -11210,7 +11210,7 @@
         <v>4943</v>
       </c>
       <c r="B123">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C123">
         <v>4</v>
@@ -11219,7 +11219,7 @@
         <v>830</v>
       </c>
       <c r="E123">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="F123">
         <v>9</v>
@@ -11261,13 +11261,13 @@
         <v>3</v>
       </c>
       <c r="U123">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="V123">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="W123">
-        <v>0.09206567433188395</v>
+        <v>0.09173682163957841</v>
       </c>
       <c r="X123" t="s">
         <v>854</v>
@@ -11278,7 +11278,7 @@
         <v>4956</v>
       </c>
       <c r="B124">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C124">
         <v>4</v>
@@ -11287,7 +11287,7 @@
         <v>1485</v>
       </c>
       <c r="E124">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="F124">
         <v>7</v>
@@ -11332,10 +11332,10 @@
         <v>505</v>
       </c>
       <c r="V124">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="W124">
-        <v>0.04348438728429833</v>
+        <v>0.04329457194590364</v>
       </c>
       <c r="X124" t="s">
         <v>853</v>
@@ -11346,7 +11346,7 @@
         <v>4957</v>
       </c>
       <c r="B125">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C125">
         <v>4</v>
@@ -11355,7 +11355,7 @@
         <v>1740.03</v>
       </c>
       <c r="E125">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="F125">
         <v>10</v>
@@ -11400,10 +11400,10 @@
         <v>774</v>
       </c>
       <c r="V125">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="W125">
-        <v>0.1177654731658256</v>
+        <v>0.1175499349789022</v>
       </c>
       <c r="X125" t="s">
         <v>854</v>
@@ -11414,7 +11414,7 @@
         <v>5056</v>
       </c>
       <c r="B126">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C126">
         <v>4</v>
@@ -11423,7 +11423,7 @@
         <v>1276.9</v>
       </c>
       <c r="E126">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="F126">
         <v>10</v>
@@ -11465,13 +11465,13 @@
         <v>3</v>
       </c>
       <c r="U126">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="V126">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="W126">
-        <v>0.1131807229883653</v>
+        <v>0.1128156828314245</v>
       </c>
       <c r="X126" t="s">
         <v>854</v>
@@ -11482,7 +11482,7 @@
         <v>5133</v>
       </c>
       <c r="B127">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C127">
         <v>7</v>
@@ -11491,7 +11491,7 @@
         <v>3460</v>
       </c>
       <c r="E127">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="F127">
         <v>9</v>
@@ -11533,10 +11533,10 @@
         <v>574</v>
       </c>
       <c r="V127">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="W127">
-        <v>0.1773065339980303</v>
+        <v>0.1766238286615141</v>
       </c>
       <c r="X127" t="s">
         <v>854</v>
@@ -11547,7 +11547,7 @@
         <v>5151</v>
       </c>
       <c r="B128">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C128">
         <v>4</v>
@@ -11556,7 +11556,7 @@
         <v>1359</v>
       </c>
       <c r="E128">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="F128">
         <v>10</v>
@@ -11598,10 +11598,10 @@
         <v>609</v>
       </c>
       <c r="V128">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="W128">
-        <v>0.1150781696552129</v>
+        <v>0.1147956647929216</v>
       </c>
       <c r="X128" t="s">
         <v>854</v>
@@ -11612,7 +11612,7 @@
         <v>5195</v>
       </c>
       <c r="B129">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C129">
         <v>6</v>
@@ -11621,7 +11621,7 @@
         <v>2795.01</v>
       </c>
       <c r="E129">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="F129">
         <v>6</v>
@@ -11660,13 +11660,13 @@
         <v>5</v>
       </c>
       <c r="U129">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="V129">
-        <v>1191</v>
+        <v>1193</v>
       </c>
       <c r="W129">
-        <v>0.01102556124640337</v>
+        <v>0.01099501056351517</v>
       </c>
       <c r="X129" t="s">
         <v>853</v>
@@ -11677,7 +11677,7 @@
         <v>5219</v>
       </c>
       <c r="B130">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C130">
         <v>5</v>
@@ -11686,7 +11686,7 @@
         <v>1828</v>
       </c>
       <c r="E130">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="F130">
         <v>7</v>
@@ -11728,10 +11728,10 @@
         <v>916</v>
       </c>
       <c r="V130">
-        <v>1575</v>
+        <v>1576</v>
       </c>
       <c r="W130">
-        <v>0.04234657995971459</v>
+        <v>0.04219828487623745</v>
       </c>
       <c r="X130" t="s">
         <v>853</v>
@@ -11742,7 +11742,7 @@
         <v>5260</v>
       </c>
       <c r="B131">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C131">
         <v>5</v>
@@ -11751,7 +11751,7 @@
         <v>2750</v>
       </c>
       <c r="E131">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="F131">
         <v>6</v>
@@ -11793,10 +11793,10 @@
         <v>973</v>
       </c>
       <c r="V131">
-        <v>1699</v>
+        <v>1700</v>
       </c>
       <c r="W131">
-        <v>0.03756762763542328</v>
+        <v>0.03743733566809965</v>
       </c>
       <c r="X131" t="s">
         <v>853</v>
@@ -11807,7 +11807,7 @@
         <v>5262</v>
       </c>
       <c r="B132">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C132">
         <v>7</v>
@@ -11816,7 +11816,7 @@
         <v>3974</v>
       </c>
       <c r="E132">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F132">
         <v>8</v>
@@ -11858,13 +11858,13 @@
         <v>6</v>
       </c>
       <c r="U132">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="V132">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="W132">
-        <v>0.02053788744029237</v>
+        <v>0.01999516692504802</v>
       </c>
       <c r="X132" t="s">
         <v>853</v>
@@ -11875,7 +11875,7 @@
         <v>5340</v>
       </c>
       <c r="B133">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C133">
         <v>5</v>
@@ -11884,7 +11884,7 @@
         <v>858</v>
       </c>
       <c r="E133">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F133">
         <v>7</v>
@@ -11929,10 +11929,10 @@
         <v>336</v>
       </c>
       <c r="V133">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="W133">
-        <v>0.01309714697593822</v>
+        <v>0.01300310487101018</v>
       </c>
       <c r="X133" t="s">
         <v>853</v>
@@ -11943,7 +11943,7 @@
         <v>5464</v>
       </c>
       <c r="B134">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C134">
         <v>6</v>
@@ -11952,7 +11952,7 @@
         <v>4298.9</v>
       </c>
       <c r="E134">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="F134">
         <v>10</v>
@@ -11994,10 +11994,10 @@
         <v>479</v>
       </c>
       <c r="V134">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="W134">
-        <v>0.17789087688941</v>
+        <v>0.1772026959859815</v>
       </c>
       <c r="X134" t="s">
         <v>854</v>
@@ -12008,7 +12008,7 @@
         <v>5475</v>
       </c>
       <c r="B135">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C135">
         <v>4</v>
@@ -12017,7 +12017,7 @@
         <v>1750</v>
       </c>
       <c r="E135">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F135">
         <v>9</v>
@@ -12059,10 +12059,10 @@
         <v>577</v>
       </c>
       <c r="V135">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="W135">
-        <v>0.1048266418602971</v>
+        <v>0.1045374593545062</v>
       </c>
       <c r="X135" t="s">
         <v>854</v>
@@ -12073,7 +12073,7 @@
         <v>5476</v>
       </c>
       <c r="B136">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C136">
         <v>7</v>
@@ -12082,7 +12082,7 @@
         <v>1950</v>
       </c>
       <c r="E136">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="F136">
         <v>9</v>
@@ -12127,10 +12127,10 @@
         <v>453</v>
       </c>
       <c r="V136">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="W136">
-        <v>0.1858035013399435</v>
+        <v>0.1848539289260313</v>
       </c>
       <c r="X136" t="s">
         <v>854</v>
@@ -12141,7 +12141,7 @@
         <v>5558</v>
       </c>
       <c r="B137">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C137">
         <v>4</v>
@@ -12150,7 +12150,7 @@
         <v>880</v>
       </c>
       <c r="E137">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="F137">
         <v>9</v>
@@ -12192,10 +12192,10 @@
         <v>385</v>
       </c>
       <c r="V137">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="W137">
-        <v>0.112132083462721</v>
+        <v>0.1113203656057037</v>
       </c>
       <c r="X137" t="s">
         <v>854</v>
@@ -12206,7 +12206,7 @@
         <v>5582</v>
       </c>
       <c r="B138">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C138">
         <v>4</v>
@@ -12215,7 +12215,7 @@
         <v>860</v>
       </c>
       <c r="E138">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="F138">
         <v>8</v>
@@ -12260,10 +12260,10 @@
         <v>261</v>
       </c>
       <c r="V138">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="W138">
-        <v>0.06715257789160987</v>
+        <v>0.06673492897559433</v>
       </c>
       <c r="X138" t="s">
         <v>854</v>
@@ -12274,7 +12274,7 @@
         <v>5603</v>
       </c>
       <c r="B139">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C139">
         <v>4</v>
@@ -12283,7 +12283,7 @@
         <v>2045</v>
       </c>
       <c r="E139">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="F139">
         <v>10</v>
@@ -12328,10 +12328,10 @@
         <v>523</v>
       </c>
       <c r="V139">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="W139">
-        <v>0.1466585816790908</v>
+        <v>0.1462869182633873</v>
       </c>
       <c r="X139" t="s">
         <v>854</v>
@@ -12342,7 +12342,7 @@
         <v>5611</v>
       </c>
       <c r="B140">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C140">
         <v>6</v>
@@ -12351,7 +12351,7 @@
         <v>517</v>
       </c>
       <c r="E140">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F140">
         <v>9</v>
@@ -12399,10 +12399,10 @@
         <v>167</v>
       </c>
       <c r="V140">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="W140">
-        <v>0.07156520034188325</v>
+        <v>0.07068914472633357</v>
       </c>
       <c r="X140" t="s">
         <v>854</v>
@@ -12413,7 +12413,7 @@
         <v>5625</v>
       </c>
       <c r="B141">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C141">
         <v>4</v>
@@ -12422,7 +12422,7 @@
         <v>2150</v>
       </c>
       <c r="E141">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F141">
         <v>6</v>
@@ -12467,10 +12467,10 @@
         <v>938</v>
       </c>
       <c r="V141">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="W141">
-        <v>0.0320633921967104</v>
+        <v>0.03196792044387434</v>
       </c>
       <c r="X141" t="s">
         <v>853</v>
@@ -12481,7 +12481,7 @@
         <v>5744</v>
       </c>
       <c r="B142">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C142">
         <v>10</v>
@@ -12490,7 +12490,7 @@
         <v>7860</v>
       </c>
       <c r="E142">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F142">
         <v>10</v>
@@ -12529,13 +12529,13 @@
         <v>9</v>
       </c>
       <c r="U142">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="V142">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="W142">
-        <v>0.2909367151113954</v>
+        <v>0.2867373363064781</v>
       </c>
       <c r="X142" t="s">
         <v>854</v>
@@ -12546,7 +12546,7 @@
         <v>5754</v>
       </c>
       <c r="B143">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C143">
         <v>9</v>
@@ -12555,7 +12555,7 @@
         <v>2465</v>
       </c>
       <c r="E143">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F143">
         <v>10</v>
@@ -12600,10 +12600,10 @@
         <v>511</v>
       </c>
       <c r="V143">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="W143">
-        <v>0.3801429939541462</v>
+        <v>0.3791767078241352</v>
       </c>
       <c r="X143" t="s">
         <v>854</v>
@@ -12614,7 +12614,7 @@
         <v>5899</v>
       </c>
       <c r="B144">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C144">
         <v>4</v>
@@ -12623,7 +12623,7 @@
         <v>3429</v>
       </c>
       <c r="E144">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F144">
         <v>10</v>
@@ -12668,10 +12668,10 @@
         <v>447</v>
       </c>
       <c r="V144">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="W144">
-        <v>0.1787150790855488</v>
+        <v>0.1782306184522119</v>
       </c>
       <c r="X144" t="s">
         <v>854</v>
@@ -12682,7 +12682,7 @@
         <v>5945</v>
       </c>
       <c r="B145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C145">
         <v>5</v>
@@ -12691,7 +12691,7 @@
         <v>1690</v>
       </c>
       <c r="E145">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F145">
         <v>10</v>
@@ -12733,10 +12733,10 @@
         <v>455</v>
       </c>
       <c r="V145">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="W145">
-        <v>0.2371214593427539</v>
+        <v>0.2365058288217899</v>
       </c>
       <c r="X145" t="s">
         <v>854</v>
@@ -12747,7 +12747,7 @@
         <v>5986</v>
       </c>
       <c r="B146">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C146">
         <v>25</v>
@@ -12756,7 +12756,7 @@
         <v>6694.1</v>
       </c>
       <c r="E146">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F146">
         <v>10</v>
@@ -12801,13 +12801,13 @@
         <v>24</v>
       </c>
       <c r="U146">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="V146">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="W146">
-        <v>0.4982597071267302</v>
+        <v>0.4974785957968629</v>
       </c>
       <c r="X146" t="s">
         <v>854</v>
@@ -12818,7 +12818,7 @@
         <v>5989</v>
       </c>
       <c r="B147">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C147">
         <v>4</v>
@@ -12827,7 +12827,7 @@
         <v>514</v>
       </c>
       <c r="E147">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F147">
         <v>10</v>
@@ -12869,10 +12869,10 @@
         <v>202</v>
       </c>
       <c r="V147">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="W147">
-        <v>0.3292971282364804</v>
+        <v>0.3278832526533838</v>
       </c>
       <c r="X147" t="s">
         <v>854</v>
@@ -12883,7 +12883,7 @@
         <v>5993</v>
       </c>
       <c r="B148">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C148">
         <v>4</v>
@@ -12892,7 +12892,7 @@
         <v>1505</v>
       </c>
       <c r="E148">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="F148">
         <v>9</v>
@@ -12937,10 +12937,10 @@
         <v>417</v>
       </c>
       <c r="V148">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="W148">
-        <v>0.08895866801671463</v>
+        <v>0.08859238499320259</v>
       </c>
       <c r="X148" t="s">
         <v>854</v>
@@ -12951,7 +12951,7 @@
         <v>6006</v>
       </c>
       <c r="B149">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C149">
         <v>4</v>
@@ -12960,7 +12960,7 @@
         <v>10580</v>
       </c>
       <c r="E149">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="F149">
         <v>9</v>
@@ -13005,10 +13005,10 @@
         <v>1432</v>
       </c>
       <c r="V149">
-        <v>1742</v>
+        <v>1743</v>
       </c>
       <c r="W149">
-        <v>0.05481972974276494</v>
+        <v>0.05474243507861523</v>
       </c>
       <c r="X149" t="s">
         <v>853</v>
@@ -13019,7 +13019,7 @@
         <v>6010</v>
       </c>
       <c r="B150">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C150">
         <v>4</v>
@@ -13028,7 +13028,7 @@
         <v>1265</v>
       </c>
       <c r="E150">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F150">
         <v>9</v>
@@ -13073,10 +13073,10 @@
         <v>126</v>
       </c>
       <c r="V150">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="W150">
-        <v>0.06335155818739228</v>
+        <v>0.06278267624163715</v>
       </c>
       <c r="X150" t="s">
         <v>854</v>
@@ -13087,7 +13087,7 @@
         <v>6047</v>
       </c>
       <c r="B151">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C151">
         <v>4</v>
@@ -13096,7 +13096,7 @@
         <v>1130</v>
       </c>
       <c r="E151">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F151">
         <v>10</v>
@@ -13141,10 +13141,10 @@
         <v>528</v>
       </c>
       <c r="V151">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="W151">
-        <v>0.1662011887909807</v>
+        <v>0.1658087538477965</v>
       </c>
       <c r="X151" t="s">
         <v>854</v>
@@ -13155,7 +13155,7 @@
         <v>6115</v>
       </c>
       <c r="B152">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C152">
         <v>4</v>
@@ -13164,7 +13164,7 @@
         <v>1265</v>
       </c>
       <c r="E152">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F152">
         <v>10</v>
@@ -13212,10 +13212,10 @@
         <v>250</v>
       </c>
       <c r="V152">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="W152">
-        <v>0.1647072264843759</v>
+        <v>0.1638979534360578</v>
       </c>
       <c r="X152" t="s">
         <v>854</v>
@@ -13226,7 +13226,7 @@
         <v>6132</v>
       </c>
       <c r="B153">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C153">
         <v>4</v>
@@ -13235,7 +13235,7 @@
         <v>4630</v>
       </c>
       <c r="E153">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F153">
         <v>8</v>
@@ -13280,10 +13280,10 @@
         <v>55</v>
       </c>
       <c r="V153">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="W153">
-        <v>0.02815764746973218</v>
+        <v>0.02784297441882322</v>
       </c>
       <c r="X153" t="s">
         <v>853</v>
@@ -13294,7 +13294,7 @@
         <v>6136</v>
       </c>
       <c r="B154">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C154">
         <v>10</v>
@@ -13303,7 +13303,7 @@
         <v>1538</v>
       </c>
       <c r="E154">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F154">
         <v>10</v>
@@ -13351,10 +13351,10 @@
         <v>276</v>
       </c>
       <c r="V154">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="W154">
-        <v>0.3826598668008957</v>
+        <v>0.3791062536750308</v>
       </c>
       <c r="X154" t="s">
         <v>854</v>
@@ -13365,7 +13365,7 @@
         <v>6219</v>
       </c>
       <c r="B155">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C155">
         <v>4</v>
@@ -13374,7 +13374,7 @@
         <v>5430</v>
       </c>
       <c r="E155">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F155">
         <v>9</v>
@@ -13416,10 +13416,10 @@
         <v>167</v>
       </c>
       <c r="V155">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="W155">
-        <v>0.1214665680902692</v>
+        <v>0.1205889105056099</v>
       </c>
       <c r="X155" t="s">
         <v>854</v>
@@ -13430,7 +13430,7 @@
         <v>6293</v>
       </c>
       <c r="B156">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C156">
         <v>7</v>
@@ -13439,7 +13439,7 @@
         <v>4940</v>
       </c>
       <c r="E156">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="F156">
         <v>8</v>
@@ -13481,10 +13481,10 @@
         <v>1012</v>
       </c>
       <c r="V156">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="W156">
-        <v>0.1061196047989566</v>
+        <v>0.1058282665634795</v>
       </c>
       <c r="X156" t="s">
         <v>854</v>
@@ -13495,7 +13495,7 @@
         <v>6352</v>
       </c>
       <c r="B157">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C157">
         <v>5</v>
@@ -13504,7 +13504,7 @@
         <v>1650</v>
       </c>
       <c r="E157">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="F157">
         <v>10</v>
@@ -13549,10 +13549,10 @@
         <v>996</v>
       </c>
       <c r="V157">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="W157">
-        <v>0.1089084508175081</v>
+        <v>0.1087280419813905</v>
       </c>
       <c r="X157" t="s">
         <v>854</v>
@@ -13563,7 +13563,7 @@
         <v>6390</v>
       </c>
       <c r="B158">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C158">
         <v>4</v>
@@ -13572,7 +13572,7 @@
         <v>1000</v>
       </c>
       <c r="E158">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F158">
         <v>9</v>
@@ -13614,10 +13614,10 @@
         <v>158</v>
       </c>
       <c r="V158">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="W158">
-        <v>0.07884148867536059</v>
+        <v>0.07821078011424142</v>
       </c>
       <c r="X158" t="s">
         <v>854</v>
@@ -13628,7 +13628,7 @@
         <v>6460</v>
       </c>
       <c r="B159">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C159">
         <v>7</v>
@@ -13637,7 +13637,7 @@
         <v>656</v>
       </c>
       <c r="E159">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F159">
         <v>10</v>
@@ -13679,10 +13679,10 @@
         <v>355</v>
       </c>
       <c r="V159">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="W159">
-        <v>0.3302842917310632</v>
+        <v>0.3289992817910006</v>
       </c>
       <c r="X159" t="s">
         <v>854</v>
@@ -13693,7 +13693,7 @@
         <v>6486</v>
       </c>
       <c r="B160">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C160">
         <v>5</v>
@@ -13702,7 +13702,7 @@
         <v>1510</v>
       </c>
       <c r="E160">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F160">
         <v>10</v>
@@ -13747,13 +13747,13 @@
         <v>4</v>
       </c>
       <c r="U160">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="V160">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="W160">
-        <v>0.3773359880262357</v>
+        <v>0.3752708130178929</v>
       </c>
       <c r="X160" t="s">
         <v>854</v>
@@ -13764,7 +13764,7 @@
         <v>6539</v>
       </c>
       <c r="B161">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C161">
         <v>6</v>
@@ -13773,7 +13773,7 @@
         <v>590</v>
       </c>
       <c r="E161">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F161">
         <v>10</v>
@@ -13815,10 +13815,10 @@
         <v>177</v>
       </c>
       <c r="V161">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="W161">
-        <v>0.4569965873273692</v>
+        <v>0.454573674443548</v>
       </c>
       <c r="X161" t="s">
         <v>854</v>
@@ -13829,7 +13829,7 @@
         <v>6544</v>
       </c>
       <c r="B162">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C162">
         <v>6</v>
@@ -13838,7 +13838,7 @@
         <v>4046.5</v>
       </c>
       <c r="E162">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F162">
         <v>10</v>
@@ -13880,10 +13880,10 @@
         <v>171</v>
       </c>
       <c r="V162">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="W162">
-        <v>0.5316027510948335</v>
+        <v>0.5290564681259377</v>
       </c>
       <c r="X162" t="s">
         <v>854</v>
@@ -13894,7 +13894,7 @@
         <v>6634</v>
       </c>
       <c r="B163">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C163">
         <v>4</v>
@@ -13903,7 +13903,7 @@
         <v>1456</v>
       </c>
       <c r="E163">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F163">
         <v>9</v>
@@ -13945,10 +13945,10 @@
         <v>899</v>
       </c>
       <c r="V163">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="W163">
-        <v>0.08628983345828541</v>
+        <v>0.08613027332689915</v>
       </c>
       <c r="X163" t="s">
         <v>854</v>
@@ -13959,7 +13959,7 @@
         <v>6752</v>
       </c>
       <c r="B164">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C164">
         <v>13</v>
@@ -13968,7 +13968,7 @@
         <v>1448</v>
       </c>
       <c r="E164">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F164">
         <v>10</v>
@@ -14010,10 +14010,10 @@
         <v>119</v>
       </c>
       <c r="V164">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="W164">
-        <v>1.339529029602226</v>
+        <v>1.330644601754439</v>
       </c>
       <c r="X164" t="s">
         <v>854</v>
@@ -14024,7 +14024,7 @@
         <v>6929</v>
       </c>
       <c r="B165">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C165">
         <v>5</v>
@@ -14033,7 +14033,7 @@
         <v>1580</v>
       </c>
       <c r="E165">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="F165">
         <v>10</v>
@@ -14078,10 +14078,10 @@
         <v>1060</v>
       </c>
       <c r="V165">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="W165">
-        <v>0.1115586307698103</v>
+        <v>0.1113942117832456</v>
       </c>
       <c r="X165" t="s">
         <v>854</v>
@@ -14092,7 +14092,7 @@
         <v>7244</v>
       </c>
       <c r="B166">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C166">
         <v>4</v>
@@ -14101,7 +14101,7 @@
         <v>609</v>
       </c>
       <c r="E166">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="F166">
         <v>7</v>
@@ -14146,10 +14146,10 @@
         <v>1396</v>
       </c>
       <c r="V166">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="W166">
-        <v>0.03846685175194275</v>
+        <v>0.03839426725372407</v>
       </c>
       <c r="X166" t="s">
         <v>853</v>
@@ -14160,7 +14160,7 @@
         <v>7465</v>
       </c>
       <c r="B167">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C167">
         <v>4</v>
@@ -14169,7 +14169,7 @@
         <v>1325</v>
       </c>
       <c r="E167">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="F167">
         <v>6</v>
@@ -14208,13 +14208,13 @@
         <v>3</v>
       </c>
       <c r="U167">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V167">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="W167">
-        <v>0.03036819612955506</v>
+        <v>0.03024119800751638</v>
       </c>
       <c r="X167" t="s">
         <v>853</v>
@@ -14225,7 +14225,7 @@
         <v>7517</v>
       </c>
       <c r="B168">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C168">
         <v>4</v>
@@ -14234,7 +14234,7 @@
         <v>809</v>
       </c>
       <c r="E168">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="F168">
         <v>10</v>
@@ -14276,13 +14276,13 @@
         <v>3</v>
       </c>
       <c r="U168">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="V168">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="W168">
-        <v>0.05382016808697046</v>
+        <v>0.0537597461790583</v>
       </c>
       <c r="X168" t="s">
         <v>853</v>
@@ -14293,7 +14293,7 @@
         <v>7706</v>
       </c>
       <c r="B169">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C169">
         <v>4</v>
@@ -14302,7 +14302,7 @@
         <v>740</v>
       </c>
       <c r="E169">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="F169">
         <v>1</v>
@@ -14344,13 +14344,13 @@
         <v>3</v>
       </c>
       <c r="U169">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="V169">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="W169">
-        <v>1.86605894964045E-05</v>
+        <v>1.894272357330604E-05</v>
       </c>
       <c r="X169" t="s">
         <v>853</v>
@@ -14361,7 +14361,7 @@
         <v>7891</v>
       </c>
       <c r="B170">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="C170">
         <v>5</v>
@@ -14370,7 +14370,7 @@
         <v>1480</v>
       </c>
       <c r="E170">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="F170">
         <v>6</v>
@@ -14412,13 +14412,13 @@
         <v>4</v>
       </c>
       <c r="U170">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="V170">
-        <v>1741</v>
+        <v>1743</v>
       </c>
       <c r="W170">
-        <v>0.03352266756382721</v>
+        <v>0.0334232649049923</v>
       </c>
       <c r="X170" t="s">
         <v>853</v>
@@ -14429,7 +14429,7 @@
         <v>7962</v>
       </c>
       <c r="B171">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C171">
         <v>6</v>
@@ -14438,7 +14438,7 @@
         <v>4000</v>
       </c>
       <c r="E171">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="F171">
         <v>6</v>
@@ -14480,10 +14480,10 @@
         <v>551</v>
       </c>
       <c r="V171">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="W171">
-        <v>0.01213122212150522</v>
+        <v>0.01205038165408097</v>
       </c>
       <c r="X171" t="s">
         <v>853</v>
@@ -14494,7 +14494,7 @@
         <v>8054</v>
       </c>
       <c r="B172">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C172">
         <v>4</v>
@@ -14503,7 +14503,7 @@
         <v>1055</v>
       </c>
       <c r="E172">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="F172">
         <v>6</v>
@@ -14545,13 +14545,13 @@
         <v>3</v>
       </c>
       <c r="U172">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="V172">
-        <v>1660</v>
+        <v>1662</v>
       </c>
       <c r="W172">
-        <v>0.02774327103913595</v>
+        <v>0.02766819594894964</v>
       </c>
       <c r="X172" t="s">
         <v>853</v>
@@ -14562,7 +14562,7 @@
         <v>8514</v>
       </c>
       <c r="B173">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C173">
         <v>4</v>
@@ -14571,7 +14571,7 @@
         <v>1315</v>
       </c>
       <c r="E173">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="F173">
         <v>6</v>
@@ -14616,10 +14616,10 @@
         <v>543</v>
       </c>
       <c r="V173">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="W173">
-        <v>0.02487442144472815</v>
+        <v>0.02476213625181464</v>
       </c>
       <c r="X173" t="s">
         <v>853</v>
@@ -14630,7 +14630,7 @@
         <v>8658</v>
       </c>
       <c r="B174">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C174">
         <v>4</v>
@@ -14639,7 +14639,7 @@
         <v>1229.8</v>
       </c>
       <c r="E174">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="F174">
         <v>4</v>
@@ -14681,10 +14681,10 @@
         <v>182</v>
       </c>
       <c r="V174">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="W174">
-        <v>0.001342852426427341</v>
+        <v>0.001334783855001042</v>
       </c>
       <c r="X174" t="s">
         <v>853</v>
@@ -14695,7 +14695,7 @@
         <v>8704</v>
       </c>
       <c r="B175">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C175">
         <v>4</v>
@@ -14704,7 +14704,7 @@
         <v>2145</v>
       </c>
       <c r="E175">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F175">
         <v>5</v>
@@ -14746,10 +14746,10 @@
         <v>749</v>
       </c>
       <c r="V175">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="W175">
-        <v>0.02047665767088807</v>
+        <v>0.02039853525610714</v>
       </c>
       <c r="X175" t="s">
         <v>853</v>
@@ -14760,7 +14760,7 @@
         <v>9084</v>
       </c>
       <c r="B176">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C176">
         <v>5</v>
@@ -14769,7 +14769,7 @@
         <v>2164</v>
       </c>
       <c r="E176">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="F176">
         <v>8</v>
@@ -14811,10 +14811,10 @@
         <v>464</v>
       </c>
       <c r="V176">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="W176">
-        <v>0.05862361220989099</v>
+        <v>0.05830084087850227</v>
       </c>
       <c r="X176" t="s">
         <v>854</v>
@@ -14825,7 +14825,7 @@
         <v>9094</v>
       </c>
       <c r="B177">
-        <v>719</v>
+        <v>721</v>
       </c>
       <c r="C177">
         <v>5</v>
@@ -14834,7 +14834,7 @@
         <v>2057.91</v>
       </c>
       <c r="E177">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F177">
         <v>6</v>
@@ -14876,13 +14876,13 @@
         <v>4</v>
       </c>
       <c r="U177">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="V177">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="W177">
-        <v>0.003099694696042757</v>
+        <v>0.00302355252504734</v>
       </c>
       <c r="X177" t="s">
         <v>853</v>
@@ -14893,7 +14893,7 @@
         <v>9230</v>
       </c>
       <c r="B178">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C178">
         <v>4</v>
@@ -14902,7 +14902,7 @@
         <v>1350</v>
       </c>
       <c r="E178">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F178">
         <v>6</v>
@@ -14944,13 +14944,13 @@
         <v>3</v>
       </c>
       <c r="U178">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="V178">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="W178">
-        <v>0.005733908505235152</v>
+        <v>0.005623463043276863</v>
       </c>
       <c r="X178" t="s">
         <v>853</v>
@@ -14961,7 +14961,7 @@
         <v>9247</v>
       </c>
       <c r="B179">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C179">
         <v>28</v>
@@ -14970,7 +14970,7 @@
         <v>3856</v>
       </c>
       <c r="E179">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="F179">
         <v>10</v>
@@ -15015,10 +15015,10 @@
         <v>690</v>
       </c>
       <c r="V179">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="W179">
-        <v>0.8648487968665928</v>
+        <v>0.8611727536536986</v>
       </c>
       <c r="X179" t="s">
         <v>854</v>
@@ -15029,7 +15029,7 @@
         <v>9621</v>
       </c>
       <c r="B180">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C180">
         <v>9</v>
@@ -15038,7 +15038,7 @@
         <v>1184</v>
       </c>
       <c r="E180">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F180">
         <v>8</v>
@@ -15080,10 +15080,10 @@
         <v>134</v>
       </c>
       <c r="V180">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="W180">
-        <v>0.005076759527040597</v>
+        <v>0.004979785503699616</v>
       </c>
       <c r="X180" t="s">
         <v>853</v>
@@ -15094,7 +15094,7 @@
         <v>9658</v>
       </c>
       <c r="B181">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C181">
         <v>8</v>
@@ -15103,7 +15103,7 @@
         <v>628</v>
       </c>
       <c r="E181">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F181">
         <v>9</v>
@@ -15145,10 +15145,10 @@
         <v>132</v>
       </c>
       <c r="V181">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="W181">
-        <v>0.01516606656587564</v>
+        <v>0.01489257377565208</v>
       </c>
       <c r="X181" t="s">
         <v>853</v>
@@ -15159,7 +15159,7 @@
         <v>9764</v>
       </c>
       <c r="B182">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C182">
         <v>4</v>
@@ -15168,7 +15168,7 @@
         <v>825</v>
       </c>
       <c r="E182">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F182">
         <v>9</v>
@@ -15210,10 +15210,10 @@
         <v>144</v>
       </c>
       <c r="V182">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="W182">
-        <v>0.1280926248276499</v>
+        <v>0.1270997861988654</v>
       </c>
       <c r="X182" t="s">
         <v>854</v>
@@ -15224,7 +15224,7 @@
         <v>9781</v>
       </c>
       <c r="B183">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="C183">
         <v>4</v>
@@ -15233,7 +15233,7 @@
         <v>1275</v>
       </c>
       <c r="E183">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F183">
         <v>10</v>
@@ -15278,10 +15278,10 @@
         <v>187</v>
       </c>
       <c r="V183">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="W183">
-        <v>0.1800029921669908</v>
+        <v>0.1789372637640364</v>
       </c>
       <c r="X183" t="s">
         <v>854</v>
@@ -15292,7 +15292,7 @@
         <v>9807</v>
       </c>
       <c r="B184">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C184">
         <v>11</v>
@@ -15301,7 +15301,7 @@
         <v>614</v>
       </c>
       <c r="E184">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F184">
         <v>10</v>
@@ -15343,10 +15343,10 @@
         <v>202</v>
       </c>
       <c r="V184">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="W184">
-        <v>0.7134862405010141</v>
+        <v>0.7081798158087796</v>
       </c>
       <c r="X184" t="s">
         <v>854</v>
@@ -15357,7 +15357,7 @@
         <v>9890</v>
       </c>
       <c r="B185">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C185">
         <v>11</v>
@@ -15366,7 +15366,7 @@
         <v>2521</v>
       </c>
       <c r="E185">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="F185">
         <v>10</v>
@@ -15405,13 +15405,13 @@
         <v>10</v>
       </c>
       <c r="U185">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="V185">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="W185">
-        <v>0.7164131626306848</v>
+        <v>0.7088210372915154</v>
       </c>
       <c r="X185" t="s">
         <v>854</v>
@@ -15422,7 +15422,7 @@
         <v>10087</v>
       </c>
       <c r="B186">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C186">
         <v>5</v>
@@ -15431,7 +15431,7 @@
         <v>3687.9</v>
       </c>
       <c r="E186">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F186">
         <v>10</v>
@@ -15476,10 +15476,10 @@
         <v>175</v>
       </c>
       <c r="V186">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="W186">
-        <v>0.4167382457868337</v>
+        <v>0.414726601949668</v>
       </c>
       <c r="X186" t="s">
         <v>854</v>
@@ -15490,7 +15490,7 @@
         <v>19765</v>
       </c>
       <c r="B187">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C187">
         <v>9</v>
@@ -15499,7 +15499,7 @@
         <v>724</v>
       </c>
       <c r="E187">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="F187">
         <v>10</v>
@@ -15541,10 +15541,10 @@
         <v>1631</v>
       </c>
       <c r="V187">
-        <v>1632</v>
+        <v>1633</v>
       </c>
       <c r="W187">
-        <v>0.1486002942182042</v>
+        <v>0.1484601630708633</v>
       </c>
       <c r="X187" t="s">
         <v>854</v>
@@ -15555,7 +15555,7 @@
         <v>20544</v>
       </c>
       <c r="B188">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C188">
         <v>4</v>
@@ -15564,7 +15564,7 @@
         <v>1005</v>
       </c>
       <c r="E188">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="F188">
         <v>6</v>
@@ -15606,13 +15606,13 @@
         <v>3</v>
       </c>
       <c r="U188">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="V188">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="W188">
-        <v>0.005582351882637512</v>
+        <v>0.005479766798246413</v>
       </c>
       <c r="X188" t="s">
         <v>853</v>
@@ -15623,7 +15623,7 @@
         <v>20552</v>
       </c>
       <c r="B189">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C189">
         <v>4</v>
@@ -15632,7 +15632,7 @@
         <v>1104</v>
       </c>
       <c r="E189">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F189">
         <v>9</v>
@@ -15677,10 +15677,10 @@
         <v>736</v>
       </c>
       <c r="V189">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="W189">
-        <v>0.08344865388646126</v>
+        <v>0.08324794697524679</v>
       </c>
       <c r="X189" t="s">
         <v>854</v>
@@ -15691,7 +15691,7 @@
         <v>20569</v>
       </c>
       <c r="B190">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C190">
         <v>4</v>
@@ -15700,7 +15700,7 @@
         <v>1200</v>
       </c>
       <c r="E190">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="F190">
         <v>7</v>
@@ -15745,13 +15745,13 @@
         <v>3</v>
       </c>
       <c r="U190">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="V190">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="W190">
-        <v>0.04216346357754398</v>
+        <v>0.04201716362597589</v>
       </c>
       <c r="X190" t="s">
         <v>853</v>
@@ -15762,7 +15762,7 @@
         <v>20724</v>
       </c>
       <c r="B191">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C191">
         <v>5</v>
@@ -15771,7 +15771,7 @@
         <v>1965</v>
       </c>
       <c r="E191">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="F191">
         <v>8</v>
@@ -15819,10 +15819,10 @@
         <v>1604</v>
       </c>
       <c r="V191">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="W191">
-        <v>0.05726555885329503</v>
+        <v>0.05717947083155558</v>
       </c>
       <c r="X191" t="s">
         <v>854</v>
@@ -15833,7 +15833,7 @@
         <v>20738</v>
       </c>
       <c r="B192">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C192">
         <v>4</v>
@@ -15842,7 +15842,7 @@
         <v>2230</v>
       </c>
       <c r="E192">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F192">
         <v>6</v>
@@ -15887,13 +15887,13 @@
         <v>3</v>
       </c>
       <c r="U192">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="V192">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="W192">
-        <v>0.01343342190316044</v>
+        <v>0.01327767622495255</v>
       </c>
       <c r="X192" t="s">
         <v>853</v>
@@ -15904,7 +15904,7 @@
         <v>20741</v>
       </c>
       <c r="B193">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C193">
         <v>5</v>
@@ -15913,7 +15913,7 @@
         <v>1373</v>
       </c>
       <c r="E193">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="F193">
         <v>7</v>
@@ -15958,13 +15958,13 @@
         <v>4</v>
       </c>
       <c r="U193">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="V193">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="W193">
-        <v>0.02340694648103921</v>
+        <v>0.02333113648618422</v>
       </c>
       <c r="X193" t="s">
         <v>853</v>
@@ -15975,7 +15975,7 @@
         <v>20757</v>
       </c>
       <c r="B194">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C194">
         <v>5</v>
@@ -15984,7 +15984,7 @@
         <v>2338</v>
       </c>
       <c r="E194">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="F194">
         <v>8</v>
@@ -16029,13 +16029,13 @@
         <v>4</v>
       </c>
       <c r="U194">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="V194">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="W194">
-        <v>0.08641071309503662</v>
+        <v>0.08583938619929903</v>
       </c>
       <c r="X194" t="s">
         <v>854</v>
@@ -16046,7 +16046,7 @@
         <v>20764</v>
       </c>
       <c r="B195">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C195">
         <v>6</v>
@@ -16055,7 +16055,7 @@
         <v>4348.02</v>
       </c>
       <c r="E195">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F195">
         <v>9</v>
@@ -16100,13 +16100,13 @@
         <v>5</v>
       </c>
       <c r="U195">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="V195">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="W195">
-        <v>0.1364460450106691</v>
+        <v>0.1358928217101231</v>
       </c>
       <c r="X195" t="s">
         <v>854</v>
@@ -16117,7 +16117,7 @@
         <v>20798</v>
       </c>
       <c r="B196">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C196">
         <v>5</v>
@@ -16126,7 +16126,7 @@
         <v>940</v>
       </c>
       <c r="E196">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="F196">
         <v>9</v>
@@ -16171,10 +16171,10 @@
         <v>653</v>
       </c>
       <c r="V196">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="W196">
-        <v>0.1040299682270243</v>
+        <v>0.1037071284736035</v>
       </c>
       <c r="X196" t="s">
         <v>854</v>
@@ -16185,7 +16185,7 @@
         <v>20937</v>
       </c>
       <c r="B197">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C197">
         <v>8</v>
@@ -16194,7 +16194,7 @@
         <v>3240</v>
       </c>
       <c r="E197">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="F197">
         <v>10</v>
@@ -16239,13 +16239,13 @@
         <v>7</v>
       </c>
       <c r="U197">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="V197">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="W197">
-        <v>0.2162737672167367</v>
+        <v>0.2156872863354994</v>
       </c>
       <c r="X197" t="s">
         <v>854</v>
@@ -16256,7 +16256,7 @@
         <v>20940</v>
       </c>
       <c r="B198">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C198">
         <v>4</v>
@@ -16265,7 +16265,7 @@
         <v>5004</v>
       </c>
       <c r="E198">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F198">
         <v>9</v>
@@ -16307,13 +16307,13 @@
         <v>3</v>
       </c>
       <c r="U198">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="V198">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="W198">
-        <v>0.08306936023998673</v>
+        <v>0.08265684346244551</v>
       </c>
       <c r="X198" t="s">
         <v>854</v>
@@ -16324,7 +16324,7 @@
         <v>20941</v>
       </c>
       <c r="B199">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C199">
         <v>5</v>
@@ -16333,7 +16333,7 @@
         <v>1535.02</v>
       </c>
       <c r="E199">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="F199">
         <v>9</v>
@@ -16381,10 +16381,10 @@
         <v>633</v>
       </c>
       <c r="V199">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="W199">
-        <v>0.1072858430880775</v>
+        <v>0.1069475845153596</v>
       </c>
       <c r="X199" t="s">
         <v>854</v>
@@ -16395,7 +16395,7 @@
         <v>20970</v>
       </c>
       <c r="B200">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C200">
         <v>8</v>
@@ -16404,7 +16404,7 @@
         <v>4775.01</v>
       </c>
       <c r="E200">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="F200">
         <v>10</v>
@@ -16452,10 +16452,10 @@
         <v>729</v>
       </c>
       <c r="V200">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="W200">
-        <v>0.200464062619064</v>
+        <v>0.1998999070572901</v>
       </c>
       <c r="X200" t="s">
         <v>854</v>
@@ -16466,7 +16466,7 @@
         <v>20982</v>
       </c>
       <c r="B201">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="C201">
         <v>4</v>
@@ -16475,7 +16475,7 @@
         <v>1020.01</v>
       </c>
       <c r="E201">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="F201">
         <v>7</v>
@@ -16520,10 +16520,10 @@
         <v>230</v>
       </c>
       <c r="V201">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="W201">
-        <v>0.01402338695940416</v>
+        <v>0.01386139307951339</v>
       </c>
       <c r="X201" t="s">
         <v>853</v>
@@ -16534,7 +16534,7 @@
         <v>21003</v>
       </c>
       <c r="B202">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C202">
         <v>10</v>
@@ -16543,7 +16543,7 @@
         <v>2747.01</v>
       </c>
       <c r="E202">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="F202">
         <v>10</v>
@@ -16588,10 +16588,10 @@
         <v>777</v>
       </c>
       <c r="V202">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="W202">
-        <v>0.2764559814665959</v>
+        <v>0.2758317440648579</v>
       </c>
       <c r="X202" t="s">
         <v>854</v>
@@ -16602,7 +16602,7 @@
         <v>21128</v>
       </c>
       <c r="B203">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C203">
         <v>5</v>
@@ -16611,7 +16611,7 @@
         <v>2395</v>
       </c>
       <c r="E203">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="F203">
         <v>8</v>
@@ -16653,10 +16653,10 @@
         <v>400</v>
       </c>
       <c r="V203">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="W203">
-        <v>0.05134209289551835</v>
+        <v>0.05102064401481669</v>
       </c>
       <c r="X203" t="s">
         <v>853</v>
@@ -16667,7 +16667,7 @@
         <v>21132</v>
       </c>
       <c r="B204">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C204">
         <v>4</v>
@@ -16676,7 +16676,7 @@
         <v>2795.1</v>
       </c>
       <c r="E204">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="F204">
         <v>8</v>
@@ -16718,13 +16718,13 @@
         <v>3</v>
       </c>
       <c r="U204">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="V204">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="W204">
-        <v>0.06913259020014169</v>
+        <v>0.06886562643008459</v>
       </c>
       <c r="X204" t="s">
         <v>854</v>
@@ -16735,7 +16735,7 @@
         <v>21142</v>
       </c>
       <c r="B205">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="C205">
         <v>4</v>
@@ -16744,7 +16744,7 @@
         <v>1184</v>
       </c>
       <c r="E205">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F205">
         <v>8</v>
@@ -16789,10 +16789,10 @@
         <v>375</v>
       </c>
       <c r="V205">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="W205">
-        <v>0.04838792055733283</v>
+        <v>0.04813521240748475</v>
       </c>
       <c r="X205" t="s">
         <v>853</v>
@@ -16803,7 +16803,7 @@
         <v>21162</v>
       </c>
       <c r="B206">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C206">
         <v>6</v>
@@ -16812,7 +16812,7 @@
         <v>2660.02</v>
       </c>
       <c r="E206">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="F206">
         <v>7</v>
@@ -16857,10 +16857,10 @@
         <v>603</v>
       </c>
       <c r="V206">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="W206">
-        <v>0.02968589974468655</v>
+        <v>0.02950247810186421</v>
       </c>
       <c r="X206" t="s">
         <v>853</v>
@@ -16871,7 +16871,7 @@
         <v>21164</v>
       </c>
       <c r="B207">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C207">
         <v>6</v>
@@ -16880,7 +16880,7 @@
         <v>16278</v>
       </c>
       <c r="E207">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="F207">
         <v>10</v>
@@ -16925,13 +16925,13 @@
         <v>5</v>
       </c>
       <c r="U207">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="V207">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="W207">
-        <v>0.1684474715698629</v>
+        <v>0.1679147035514504</v>
       </c>
       <c r="X207" t="s">
         <v>854</v>
@@ -16942,7 +16942,7 @@
         <v>21329</v>
       </c>
       <c r="B208">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C208">
         <v>7</v>
@@ -16951,7 +16951,7 @@
         <v>3429.01</v>
       </c>
       <c r="E208">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="F208">
         <v>10</v>
@@ -16996,10 +16996,10 @@
         <v>640</v>
       </c>
       <c r="V208">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="W208">
-        <v>0.1937976544209387</v>
+        <v>0.1927516743971688</v>
       </c>
       <c r="X208" t="s">
         <v>854</v>
@@ -17010,7 +17010,7 @@
         <v>21571</v>
       </c>
       <c r="B209">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C209">
         <v>6</v>
@@ -17019,7 +17019,7 @@
         <v>3149.01</v>
       </c>
       <c r="E209">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="F209">
         <v>9</v>
@@ -17061,10 +17061,10 @@
         <v>462</v>
       </c>
       <c r="V209">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="W209">
-        <v>0.132970813433321</v>
+        <v>0.1323013538172577</v>
       </c>
       <c r="X209" t="s">
         <v>854</v>
@@ -17075,7 +17075,7 @@
         <v>21721</v>
       </c>
       <c r="B210">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C210">
         <v>5</v>
@@ -17084,7 +17084,7 @@
         <v>1165</v>
       </c>
       <c r="E210">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="F210">
         <v>10</v>
@@ -17129,10 +17129,10 @@
         <v>588</v>
       </c>
       <c r="V210">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="W210">
-        <v>0.161719474376229</v>
+        <v>0.1613159963684206</v>
       </c>
       <c r="X210" t="s">
         <v>854</v>
@@ -17143,7 +17143,7 @@
         <v>21741</v>
       </c>
       <c r="B211">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C211">
         <v>4</v>
@@ -17152,7 +17152,7 @@
         <v>1780</v>
       </c>
       <c r="E211">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F211">
         <v>10</v>
@@ -17191,13 +17191,13 @@
         <v>3</v>
       </c>
       <c r="U211">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="V211">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="W211">
-        <v>0.1384992275980859</v>
+        <v>0.138133064628814</v>
       </c>
       <c r="X211" t="s">
         <v>854</v>
@@ -17208,7 +17208,7 @@
         <v>21759</v>
       </c>
       <c r="B212">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C212">
         <v>4</v>
@@ -17217,7 +17217,7 @@
         <v>1525.01</v>
       </c>
       <c r="E212">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="F212">
         <v>8</v>
@@ -17262,10 +17262,10 @@
         <v>254</v>
       </c>
       <c r="V212">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="W212">
-        <v>0.04719902560605158</v>
+        <v>0.04688874997575073</v>
       </c>
       <c r="X212" t="s">
         <v>853</v>
@@ -17276,7 +17276,7 @@
         <v>21816</v>
       </c>
       <c r="B213">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C213">
         <v>6</v>
@@ -17285,7 +17285,7 @@
         <v>850.04</v>
       </c>
       <c r="E213">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F213">
         <v>8</v>
@@ -17330,10 +17330,10 @@
         <v>214</v>
       </c>
       <c r="V213">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="W213">
-        <v>0.02288400977572621</v>
+        <v>0.02263400543732446</v>
       </c>
       <c r="X213" t="s">
         <v>853</v>
@@ -17344,7 +17344,7 @@
         <v>21933</v>
       </c>
       <c r="B214">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C214">
         <v>5</v>
@@ -17353,7 +17353,7 @@
         <v>1380</v>
       </c>
       <c r="E214">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="F214">
         <v>8</v>
@@ -17398,10 +17398,10 @@
         <v>236</v>
       </c>
       <c r="V214">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="W214">
-        <v>0.0441331678628908</v>
+        <v>0.04375223163760168</v>
       </c>
       <c r="X214" t="s">
         <v>853</v>
@@ -17412,7 +17412,7 @@
         <v>21944</v>
       </c>
       <c r="B215">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C215">
         <v>6</v>
@@ -17421,7 +17421,7 @@
         <v>970.02</v>
       </c>
       <c r="E215">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F215">
         <v>10</v>
@@ -17466,10 +17466,10 @@
         <v>1337</v>
       </c>
       <c r="V215">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="W215">
-        <v>0.1055902391750211</v>
+        <v>0.1054526690359066</v>
       </c>
       <c r="X215" t="s">
         <v>854</v>
@@ -17480,7 +17480,7 @@
         <v>21959</v>
       </c>
       <c r="B216">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C216">
         <v>4</v>
@@ -17489,7 +17489,7 @@
         <v>1299.02</v>
       </c>
       <c r="E216">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F216">
         <v>9</v>
@@ -17531,13 +17531,13 @@
         <v>3</v>
       </c>
       <c r="U216">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="V216">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="W216">
-        <v>0.1188443994698439</v>
+        <v>0.1181285745970399</v>
       </c>
       <c r="X216" t="s">
         <v>854</v>
@@ -17548,7 +17548,7 @@
         <v>22130</v>
       </c>
       <c r="B217">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C217">
         <v>11</v>
@@ -17557,7 +17557,7 @@
         <v>5960</v>
       </c>
       <c r="E217">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="F217">
         <v>8</v>
@@ -17602,10 +17602,10 @@
         <v>260</v>
       </c>
       <c r="V217">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="W217">
-        <v>0.01578296477343642</v>
+        <v>0.01548265587702076</v>
       </c>
       <c r="X217" t="s">
         <v>853</v>
@@ -17616,7 +17616,7 @@
         <v>22180</v>
       </c>
       <c r="B218">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C218">
         <v>4</v>
@@ -17625,7 +17625,7 @@
         <v>1135.01</v>
       </c>
       <c r="E218">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F218">
         <v>10</v>
@@ -17670,10 +17670,10 @@
         <v>507</v>
       </c>
       <c r="V218">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="W218">
-        <v>0.1600345282351663</v>
+        <v>0.1596335048110711</v>
       </c>
       <c r="X218" t="s">
         <v>854</v>
@@ -17684,7 +17684,7 @@
         <v>22194</v>
       </c>
       <c r="B219">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C219">
         <v>5</v>
@@ -17693,7 +17693,7 @@
         <v>2020</v>
       </c>
       <c r="E219">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="F219">
         <v>7</v>
@@ -17735,10 +17735,10 @@
         <v>1155</v>
       </c>
       <c r="V219">
-        <v>1695</v>
+        <v>1696</v>
       </c>
       <c r="W219">
-        <v>0.05474288546475711</v>
+        <v>0.05460955481078134</v>
       </c>
       <c r="X219" t="s">
         <v>853</v>
@@ -17749,7 +17749,7 @@
         <v>22213</v>
       </c>
       <c r="B220">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C220">
         <v>4</v>
@@ -17758,7 +17758,7 @@
         <v>1985</v>
       </c>
       <c r="E220">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F220">
         <v>8</v>
@@ -17800,13 +17800,13 @@
         <v>3</v>
       </c>
       <c r="U220">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="V220">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="W220">
-        <v>0.04585494987796573</v>
+        <v>0.04567669216944486</v>
       </c>
       <c r="X220" t="s">
         <v>853</v>
@@ -17817,7 +17817,7 @@
         <v>22349</v>
       </c>
       <c r="B221">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C221">
         <v>5</v>
@@ -17826,7 +17826,7 @@
         <v>1186.91</v>
       </c>
       <c r="E221">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F221">
         <v>9</v>
@@ -17868,10 +17868,10 @@
         <v>295</v>
       </c>
       <c r="V221">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="W221">
-        <v>0.1360808327366167</v>
+        <v>0.1352614149524934</v>
       </c>
       <c r="X221" t="s">
         <v>854</v>
@@ -17882,7 +17882,7 @@
         <v>22389</v>
       </c>
       <c r="B222">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C222">
         <v>4</v>
@@ -17891,7 +17891,7 @@
         <v>1370.01</v>
       </c>
       <c r="E222">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F222">
         <v>9</v>
@@ -17936,10 +17936,10 @@
         <v>202</v>
       </c>
       <c r="V222">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="W222">
-        <v>0.08033863869896266</v>
+        <v>0.07932587403075417</v>
       </c>
       <c r="X222" t="s">
         <v>854</v>
@@ -17950,7 +17950,7 @@
         <v>22579</v>
       </c>
       <c r="B223">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C223">
         <v>5</v>
@@ -17959,7 +17959,7 @@
         <v>4323.9</v>
       </c>
       <c r="E223">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="F223">
         <v>9</v>
@@ -18004,10 +18004,10 @@
         <v>745</v>
       </c>
       <c r="V223">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="W223">
-        <v>0.09152488886675117</v>
+        <v>0.09125998361222687</v>
       </c>
       <c r="X223" t="s">
         <v>854</v>
@@ -18018,7 +18018,7 @@
         <v>22738</v>
       </c>
       <c r="B224">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C224">
         <v>11</v>
@@ -18027,7 +18027,7 @@
         <v>1221</v>
       </c>
       <c r="E224">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F224">
         <v>8</v>
@@ -18075,10 +18075,10 @@
         <v>41</v>
       </c>
       <c r="V224">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="W224">
-        <v>7.624522193662754E-05</v>
+        <v>7.428537501242423E-05</v>
       </c>
       <c r="X224" t="s">
         <v>853</v>
@@ -18089,7 +18089,7 @@
         <v>22780</v>
       </c>
       <c r="B225">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C225">
         <v>9</v>
@@ -18098,7 +18098,7 @@
         <v>8458.9</v>
       </c>
       <c r="E225">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F225">
         <v>9</v>
@@ -18140,10 +18140,10 @@
         <v>1040</v>
       </c>
       <c r="V225">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="W225">
-        <v>0.132581790924328</v>
+        <v>0.1321528543354356</v>
       </c>
       <c r="X225" t="s">
         <v>854</v>
@@ -18154,7 +18154,7 @@
         <v>24357</v>
       </c>
       <c r="B226">
-        <v>1400</v>
+        <v>1401</v>
       </c>
       <c r="C226">
         <v>5</v>
@@ -18163,7 +18163,7 @@
         <v>2108</v>
       </c>
       <c r="E226">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="F226">
         <v>3</v>
@@ -18205,10 +18205,10 @@
         <v>622</v>
       </c>
       <c r="V226">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="W226">
-        <v>0.003143521815173918</v>
+        <v>0.003127599816379182</v>
       </c>
       <c r="X226" t="s">
         <v>853</v>
@@ -18219,7 +18219,7 @@
         <v>24369</v>
       </c>
       <c r="B227">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C227">
         <v>4</v>
@@ -18228,7 +18228,7 @@
         <v>789</v>
       </c>
       <c r="E227">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="F227">
         <v>7</v>
@@ -18270,10 +18270,10 @@
         <v>1490</v>
       </c>
       <c r="V227">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="W227">
-        <v>0.04318248685211121</v>
+        <v>0.04311280019657367</v>
       </c>
       <c r="X227" t="s">
         <v>853</v>
@@ -18284,7 +18284,7 @@
         <v>25430</v>
       </c>
       <c r="B228">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="C228">
         <v>5</v>
@@ -18293,7 +18293,7 @@
         <v>1950</v>
       </c>
       <c r="E228">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="F228">
         <v>6</v>
@@ -18341,10 +18341,10 @@
         <v>994</v>
       </c>
       <c r="V228">
-        <v>1741</v>
+        <v>1742</v>
       </c>
       <c r="W228">
-        <v>0.03630729165293224</v>
+        <v>0.0361821754136439</v>
       </c>
       <c r="X228" t="s">
         <v>853</v>
@@ -18355,7 +18355,7 @@
         <v>25533</v>
       </c>
       <c r="B229">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C229">
         <v>4</v>
@@ -18364,7 +18364,7 @@
         <v>639</v>
       </c>
       <c r="E229">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="F229">
         <v>6</v>
@@ -18409,10 +18409,10 @@
         <v>906</v>
       </c>
       <c r="V229">
-        <v>1719</v>
+        <v>1720</v>
       </c>
       <c r="W229">
-        <v>0.02986824754813576</v>
+        <v>0.02977494460113621</v>
       </c>
       <c r="X229" t="s">
         <v>853</v>
@@ -18423,7 +18423,7 @@
         <v>25539</v>
       </c>
       <c r="B230">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C230">
         <v>4</v>
@@ -18432,7 +18432,7 @@
         <v>1270</v>
       </c>
       <c r="E230">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F230">
         <v>7</v>
@@ -18477,10 +18477,10 @@
         <v>1016</v>
       </c>
       <c r="V230">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="W230">
-        <v>0.0374349239996009</v>
+        <v>0.03733650707059128</v>
       </c>
       <c r="X230" t="s">
         <v>853</v>
@@ -18491,7 +18491,7 @@
         <v>25547</v>
       </c>
       <c r="B231">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="C231">
         <v>4</v>
@@ -18500,7 +18500,7 @@
         <v>1785</v>
       </c>
       <c r="E231">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="F231">
         <v>3</v>
@@ -18545,10 +18545,10 @@
         <v>383</v>
       </c>
       <c r="V231">
-        <v>1715</v>
+        <v>1716</v>
       </c>
       <c r="W231">
-        <v>0.002657525638763469</v>
+        <v>0.002644252584739839</v>
       </c>
       <c r="X231" t="s">
         <v>853</v>
@@ -18559,7 +18559,7 @@
         <v>25552</v>
       </c>
       <c r="B232">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C232">
         <v>5</v>
@@ -18568,7 +18568,7 @@
         <v>2535</v>
       </c>
       <c r="E232">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="F232">
         <v>3</v>
@@ -18613,10 +18613,10 @@
         <v>465</v>
       </c>
       <c r="V232">
-        <v>1713</v>
+        <v>1714</v>
       </c>
       <c r="W232">
-        <v>0.002491420514622862</v>
+        <v>0.002477402195881218</v>
       </c>
       <c r="X232" t="s">
         <v>853</v>
@@ -18627,7 +18627,7 @@
         <v>25553</v>
       </c>
       <c r="B233">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C233">
         <v>10</v>
@@ -18636,7 +18636,7 @@
         <v>6956.4</v>
       </c>
       <c r="E233">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="F233">
         <v>7</v>
@@ -18681,10 +18681,10 @@
         <v>1189</v>
       </c>
       <c r="V233">
-        <v>1712</v>
+        <v>1713</v>
       </c>
       <c r="W233">
-        <v>0.06847354418355212</v>
+        <v>0.06811438489786627</v>
       </c>
       <c r="X233" t="s">
         <v>854</v>
@@ -18695,7 +18695,7 @@
         <v>25820</v>
       </c>
       <c r="B234">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C234">
         <v>5</v>
@@ -18704,7 +18704,7 @@
         <v>988</v>
       </c>
       <c r="E234">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="F234">
         <v>8</v>
@@ -18746,10 +18746,10 @@
         <v>1207</v>
       </c>
       <c r="V234">
-        <v>1640</v>
+        <v>1641</v>
       </c>
       <c r="W234">
-        <v>0.06354387132790412</v>
+        <v>0.0634130393474302</v>
       </c>
       <c r="X234" t="s">
         <v>854</v>
@@ -18760,7 +18760,7 @@
         <v>25845</v>
       </c>
       <c r="B235">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C235">
         <v>4</v>
@@ -18769,7 +18769,7 @@
         <v>2510</v>
       </c>
       <c r="E235">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="F235">
         <v>5</v>
@@ -18811,10 +18811,10 @@
         <v>638</v>
       </c>
       <c r="V235">
-        <v>1633</v>
+        <v>1634</v>
       </c>
       <c r="W235">
-        <v>0.01511051664962467</v>
+        <v>0.01504591212209934</v>
       </c>
       <c r="X235" t="s">
         <v>853</v>
@@ -18825,7 +18825,7 @@
         <v>25859</v>
       </c>
       <c r="B236">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C236">
         <v>4</v>
@@ -18834,7 +18834,7 @@
         <v>1469</v>
       </c>
       <c r="E236">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="F236">
         <v>10</v>
@@ -18876,10 +18876,10 @@
         <v>1474</v>
       </c>
       <c r="V236">
-        <v>1630</v>
+        <v>1631</v>
       </c>
       <c r="W236">
-        <v>0.06203921396923891</v>
+        <v>0.06196308887574771</v>
       </c>
       <c r="X236" t="s">
         <v>854</v>
@@ -18890,7 +18890,7 @@
         <v>25864</v>
       </c>
       <c r="B237">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C237">
         <v>14</v>
@@ -18899,7 +18899,7 @@
         <v>5086</v>
       </c>
       <c r="E237">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="F237">
         <v>10</v>
@@ -18941,10 +18941,10 @@
         <v>1624</v>
       </c>
       <c r="V237">
-        <v>1628</v>
+        <v>1629</v>
       </c>
       <c r="W237">
-        <v>0.2329047539209247</v>
+        <v>0.2326903370985228</v>
       </c>
       <c r="X237" t="s">
         <v>854</v>
@@ -18955,7 +18955,7 @@
         <v>25879</v>
       </c>
       <c r="B238">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="C238">
         <v>4</v>
@@ -18964,7 +18964,7 @@
         <v>1089</v>
       </c>
       <c r="E238">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="F238">
         <v>5</v>
@@ -19003,13 +19003,13 @@
         <v>3</v>
       </c>
       <c r="U238">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="V238">
-        <v>1625</v>
+        <v>1627</v>
       </c>
       <c r="W238">
-        <v>0.01404135631756101</v>
+        <v>0.01400853202219094</v>
       </c>
       <c r="X238" t="s">
         <v>853</v>
@@ -19020,7 +19020,7 @@
         <v>25918</v>
       </c>
       <c r="B239">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C239">
         <v>4</v>
@@ -19029,7 +19029,7 @@
         <v>542.9</v>
       </c>
       <c r="E239">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="F239">
         <v>7</v>
@@ -19071,10 +19071,10 @@
         <v>731</v>
       </c>
       <c r="V239">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="W239">
-        <v>0.05086655777336455</v>
+        <v>0.05070793224930159</v>
       </c>
       <c r="X239" t="s">
         <v>853</v>
@@ -19085,7 +19085,7 @@
         <v>25941</v>
       </c>
       <c r="B240">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C240">
         <v>5</v>
@@ -19094,7 +19094,7 @@
         <v>435</v>
       </c>
       <c r="E240">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="F240">
         <v>9</v>
@@ -19139,10 +19139,10 @@
         <v>1106</v>
       </c>
       <c r="V240">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="W240">
-        <v>0.08833081098380241</v>
+        <v>0.08817827128528943</v>
       </c>
       <c r="X240" t="s">
         <v>854</v>
@@ -19153,7 +19153,7 @@
         <v>26149</v>
       </c>
       <c r="B241">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="C241">
         <v>4</v>
@@ -19162,7 +19162,7 @@
         <v>670</v>
       </c>
       <c r="E241">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="F241">
         <v>2</v>
@@ -19204,10 +19204,10 @@
         <v>1</v>
       </c>
       <c r="V241">
-        <v>1554</v>
+        <v>1555</v>
       </c>
       <c r="W241">
-        <v>1.727061663532392E-05</v>
+        <v>1.716902751786981E-05</v>
       </c>
       <c r="X241" t="s">
         <v>853</v>
@@ -19218,7 +19218,7 @@
         <v>26164</v>
       </c>
       <c r="B242">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="C242">
         <v>4</v>
@@ -19227,7 +19227,7 @@
         <v>1200</v>
       </c>
       <c r="E242">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="F242">
         <v>3</v>
@@ -19269,10 +19269,10 @@
         <v>210</v>
       </c>
       <c r="V242">
-        <v>1551</v>
+        <v>1552</v>
       </c>
       <c r="W242">
-        <v>0.0008058468419848727</v>
+        <v>0.0008014402206476338</v>
       </c>
       <c r="X242" t="s">
         <v>853</v>
@@ -19283,7 +19283,7 @@
         <v>26206</v>
       </c>
       <c r="B243">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C243">
         <v>8</v>
@@ -19292,7 +19292,7 @@
         <v>3649</v>
       </c>
       <c r="E243">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="F243">
         <v>10</v>
@@ -19334,10 +19334,10 @@
         <v>1513</v>
       </c>
       <c r="V243">
-        <v>1541</v>
+        <v>1542</v>
       </c>
       <c r="W243">
-        <v>0.1378266593754592</v>
+        <v>0.1376815962931192</v>
       </c>
       <c r="X243" t="s">
         <v>854</v>
@@ -19348,7 +19348,7 @@
         <v>26221</v>
       </c>
       <c r="B244">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C244">
         <v>6</v>
@@ -19357,7 +19357,7 @@
         <v>781.9</v>
       </c>
       <c r="E244">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="F244">
         <v>7</v>
@@ -19402,10 +19402,10 @@
         <v>890</v>
       </c>
       <c r="V244">
-        <v>1538</v>
+        <v>1539</v>
       </c>
       <c r="W244">
-        <v>0.04241156652446192</v>
+        <v>0.04222520309804945</v>
       </c>
       <c r="X244" t="s">
         <v>853</v>
@@ -19416,7 +19416,7 @@
         <v>26273</v>
       </c>
       <c r="B245">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C245">
         <v>4</v>
@@ -19425,7 +19425,7 @@
         <v>1084</v>
       </c>
       <c r="E245">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="F245">
         <v>6</v>
@@ -19467,10 +19467,10 @@
         <v>740</v>
       </c>
       <c r="V245">
-        <v>1526</v>
+        <v>1527</v>
       </c>
       <c r="W245">
-        <v>0.02834473011633565</v>
+        <v>0.02824119729955042</v>
       </c>
       <c r="X245" t="s">
         <v>853</v>
@@ -19481,7 +19481,7 @@
         <v>26358</v>
       </c>
       <c r="B246">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C246">
         <v>4</v>
@@ -19490,7 +19490,7 @@
         <v>1859</v>
       </c>
       <c r="E246">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="F246">
         <v>7</v>
@@ -19532,10 +19532,10 @@
         <v>837</v>
       </c>
       <c r="V246">
-        <v>1504</v>
+        <v>1505</v>
       </c>
       <c r="W246">
-        <v>0.03828111195871789</v>
+        <v>0.03816318570701292</v>
       </c>
       <c r="X246" t="s">
         <v>853</v>
@@ -19546,7 +19546,7 @@
         <v>26458</v>
       </c>
       <c r="B247">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C247">
         <v>4</v>
@@ -19555,7 +19555,7 @@
         <v>2400</v>
       </c>
       <c r="E247">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="F247">
         <v>7</v>
@@ -19600,10 +19600,10 @@
         <v>830</v>
       </c>
       <c r="V247">
-        <v>1471</v>
+        <v>1472</v>
       </c>
       <c r="W247">
-        <v>0.04017324079659754</v>
+        <v>0.0400506789109696</v>
       </c>
       <c r="X247" t="s">
         <v>853</v>
@@ -19614,7 +19614,7 @@
         <v>26522</v>
       </c>
       <c r="B248">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="C248">
         <v>4</v>
@@ -19623,7 +19623,7 @@
         <v>534.9</v>
       </c>
       <c r="E248">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="F248">
         <v>8</v>
@@ -19668,10 +19668,10 @@
         <v>988</v>
       </c>
       <c r="V248">
-        <v>1456</v>
+        <v>1457</v>
       </c>
       <c r="W248">
-        <v>0.05371151152057058</v>
+        <v>0.05359043659499171</v>
       </c>
       <c r="X248" t="s">
         <v>853</v>
@@ -19682,7 +19682,7 @@
         <v>26539</v>
       </c>
       <c r="B249">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C249">
         <v>7</v>
@@ -19691,7 +19691,7 @@
         <v>4960</v>
       </c>
       <c r="E249">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="F249">
         <v>8</v>
@@ -19736,10 +19736,10 @@
         <v>1055</v>
       </c>
       <c r="V249">
-        <v>1453</v>
+        <v>1454</v>
       </c>
       <c r="W249">
-        <v>0.08885024290224482</v>
+        <v>0.08857852654825744</v>
       </c>
       <c r="X249" t="s">
         <v>854</v>
@@ -19750,7 +19750,7 @@
         <v>26563</v>
       </c>
       <c r="B250">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C250">
         <v>4</v>
@@ -19759,7 +19759,7 @@
         <v>1519</v>
       </c>
       <c r="E250">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="F250">
         <v>6</v>
@@ -19804,10 +19804,10 @@
         <v>614</v>
       </c>
       <c r="V250">
-        <v>1446</v>
+        <v>1447</v>
       </c>
       <c r="W250">
-        <v>0.02191670852133223</v>
+        <v>0.02182346668544259</v>
       </c>
       <c r="X250" t="s">
         <v>853</v>
@@ -19818,7 +19818,7 @@
         <v>26587</v>
       </c>
       <c r="B251">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C251">
         <v>5</v>
@@ -19827,7 +19827,7 @@
         <v>1340</v>
       </c>
       <c r="E251">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="F251">
         <v>7</v>
@@ -19872,10 +19872,10 @@
         <v>838</v>
       </c>
       <c r="V251">
-        <v>1440</v>
+        <v>1441</v>
       </c>
       <c r="W251">
-        <v>0.04664279623775194</v>
+        <v>0.04647236182860836</v>
       </c>
       <c r="X251" t="s">
         <v>853</v>
@@ -19886,7 +19886,7 @@
         <v>26621</v>
       </c>
       <c r="B252">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C252">
         <v>4</v>
@@ -19895,7 +19895,7 @@
         <v>1250</v>
       </c>
       <c r="E252">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="F252">
         <v>7</v>
@@ -19940,10 +19940,10 @@
         <v>741</v>
       </c>
       <c r="V252">
-        <v>1427</v>
+        <v>1428</v>
       </c>
       <c r="W252">
-        <v>0.035352475525331</v>
+        <v>0.03522976808267207</v>
       </c>
       <c r="X252" t="s">
         <v>853</v>
@@ -19954,7 +19954,7 @@
         <v>26656</v>
       </c>
       <c r="B253">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C253">
         <v>4</v>
@@ -19963,7 +19963,7 @@
         <v>895.9</v>
       </c>
       <c r="E253">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="F253">
         <v>10</v>
@@ -20011,10 +20011,10 @@
         <v>1295</v>
       </c>
       <c r="V253">
-        <v>1418</v>
+        <v>1419</v>
       </c>
       <c r="W253">
-        <v>0.07085234565495425</v>
+        <v>0.070758591127579</v>
       </c>
       <c r="X253" t="s">
         <v>854</v>
@@ -20025,7 +20025,7 @@
         <v>26674</v>
       </c>
       <c r="B254">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C254">
         <v>5</v>
@@ -20034,7 +20034,7 @@
         <v>1265</v>
       </c>
       <c r="E254">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="F254">
         <v>7</v>
@@ -20082,10 +20082,10 @@
         <v>757</v>
       </c>
       <c r="V254">
-        <v>1413</v>
+        <v>1414</v>
       </c>
       <c r="W254">
-        <v>0.03843658557430821</v>
+        <v>0.03827486108450662</v>
       </c>
       <c r="X254" t="s">
         <v>853</v>
@@ -20096,7 +20096,7 @@
         <v>26694</v>
       </c>
       <c r="B255">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C255">
         <v>4</v>
@@ -20105,7 +20105,7 @@
         <v>3142.9</v>
       </c>
       <c r="E255">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="F255">
         <v>7</v>
@@ -20153,10 +20153,10 @@
         <v>498</v>
       </c>
       <c r="V255">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="W255">
-        <v>0.02883751880316965</v>
+        <v>0.02870252359090598</v>
       </c>
       <c r="X255" t="s">
         <v>853</v>
@@ -20167,7 +20167,7 @@
         <v>26800</v>
       </c>
       <c r="B256">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C256">
         <v>6</v>
@@ -20176,7 +20176,7 @@
         <v>1055</v>
       </c>
       <c r="E256">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="F256">
         <v>6</v>
@@ -20221,10 +20221,10 @@
         <v>662</v>
       </c>
       <c r="V256">
-        <v>1371</v>
+        <v>1372</v>
       </c>
       <c r="W256">
-        <v>0.02449678501211474</v>
+        <v>0.02435183818467912</v>
       </c>
       <c r="X256" t="s">
         <v>853</v>
@@ -20235,7 +20235,7 @@
         <v>26827</v>
       </c>
       <c r="B257">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C257">
         <v>6</v>
@@ -20244,7 +20244,7 @@
         <v>1910</v>
       </c>
       <c r="E257">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="F257">
         <v>9</v>
@@ -20292,10 +20292,10 @@
         <v>1085</v>
       </c>
       <c r="V257">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="W257">
-        <v>0.09787509674706404</v>
+        <v>0.0976719850816908</v>
       </c>
       <c r="X257" t="s">
         <v>854</v>
@@ -20306,7 +20306,7 @@
         <v>26865</v>
       </c>
       <c r="B258">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C258">
         <v>6</v>
@@ -20315,7 +20315,7 @@
         <v>5934.9</v>
       </c>
       <c r="E258">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="F258">
         <v>6</v>
@@ -20354,13 +20354,13 @@
         <v>5</v>
       </c>
       <c r="U258">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="V258">
-        <v>1344</v>
+        <v>1346</v>
       </c>
       <c r="W258">
-        <v>0.02119242567421093</v>
+        <v>0.02111703787531819</v>
       </c>
       <c r="X258" t="s">
         <v>853</v>
@@ -20371,7 +20371,7 @@
         <v>26881</v>
       </c>
       <c r="B259">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="C259">
         <v>4</v>
@@ -20380,7 +20380,7 @@
         <v>2357</v>
       </c>
       <c r="E259">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="F259">
         <v>5</v>
@@ -20425,10 +20425,10 @@
         <v>462</v>
       </c>
       <c r="V259">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="W259">
-        <v>0.01408198906067892</v>
+        <v>0.01401118469486762</v>
       </c>
       <c r="X259" t="s">
         <v>853</v>
@@ -20439,7 +20439,7 @@
         <v>26892</v>
       </c>
       <c r="B260">
-        <v>1144</v>
+        <v>1146</v>
       </c>
       <c r="C260">
         <v>4</v>
@@ -20448,7 +20448,7 @@
         <v>5903</v>
       </c>
       <c r="E260">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="F260">
         <v>4</v>
@@ -20493,13 +20493,13 @@
         <v>3</v>
       </c>
       <c r="U260">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="V260">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="W260">
-        <v>0.001242697368718991</v>
+        <v>0.001219542153271817</v>
       </c>
       <c r="X260" t="s">
         <v>853</v>
@@ -20510,7 +20510,7 @@
         <v>26923</v>
       </c>
       <c r="B261">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="C261">
         <v>4</v>
@@ -20519,7 +20519,7 @@
         <v>553</v>
       </c>
       <c r="E261">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="F261">
         <v>6</v>
@@ -20564,10 +20564,10 @@
         <v>485</v>
       </c>
       <c r="V261">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="W261">
-        <v>0.02151069036122228</v>
+        <v>0.02140619009960065</v>
       </c>
       <c r="X261" t="s">
         <v>853</v>
@@ -20578,7 +20578,7 @@
         <v>26925</v>
       </c>
       <c r="B262">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C262">
         <v>6</v>
@@ -20587,7 +20587,7 @@
         <v>1419</v>
       </c>
       <c r="E262">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="F262">
         <v>8</v>
@@ -20635,10 +20635,10 @@
         <v>887</v>
       </c>
       <c r="V262">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="W262">
-        <v>0.07570771783510198</v>
+        <v>0.07544873320796812</v>
       </c>
       <c r="X262" t="s">
         <v>854</v>
@@ -20649,7 +20649,7 @@
         <v>26965</v>
       </c>
       <c r="B263">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C263">
         <v>4</v>
@@ -20658,7 +20658,7 @@
         <v>4860</v>
       </c>
       <c r="E263">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="F263">
         <v>8</v>
@@ -20700,10 +20700,10 @@
         <v>867</v>
       </c>
       <c r="V263">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="W263">
-        <v>0.05840303933678872</v>
+        <v>0.05825853807747187</v>
       </c>
       <c r="X263" t="s">
         <v>854</v>
@@ -20714,7 +20714,7 @@
         <v>26973</v>
       </c>
       <c r="B264">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C264">
         <v>4</v>
@@ -20723,7 +20723,7 @@
         <v>835</v>
       </c>
       <c r="E264">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="F264">
         <v>4</v>
@@ -20771,10 +20771,10 @@
         <v>217</v>
       </c>
       <c r="V264">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="W264">
-        <v>0.002020767766345626</v>
+        <v>0.002008789858753007</v>
       </c>
       <c r="X264" t="s">
         <v>853</v>
@@ -20785,7 +20785,7 @@
         <v>26994</v>
       </c>
       <c r="B265">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C265">
         <v>6</v>
@@ -20794,7 +20794,7 @@
         <v>2105</v>
       </c>
       <c r="E265">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="F265">
         <v>10</v>
@@ -20839,10 +20839,10 @@
         <v>1132</v>
       </c>
       <c r="V265">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="W265">
-        <v>0.1127102591166985</v>
+        <v>0.112526567740895</v>
       </c>
       <c r="X265" t="s">
         <v>854</v>
@@ -20853,7 +20853,7 @@
         <v>27008</v>
       </c>
       <c r="B266">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C266">
         <v>5</v>
@@ -20862,7 +20862,7 @@
         <v>1455</v>
       </c>
       <c r="E266">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="F266">
         <v>10</v>
@@ -20907,10 +20907,10 @@
         <v>1154</v>
       </c>
       <c r="V266">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="W266">
-        <v>0.09574516795929328</v>
+        <v>0.09560225822501343</v>
       </c>
       <c r="X266" t="s">
         <v>854</v>
@@ -20921,7 +20921,7 @@
         <v>27016</v>
       </c>
       <c r="B267">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="C267">
         <v>5</v>
@@ -20930,7 +20930,7 @@
         <v>3994</v>
       </c>
       <c r="E267">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="F267">
         <v>5</v>
@@ -20975,10 +20975,10 @@
         <v>305</v>
       </c>
       <c r="V267">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="W267">
-        <v>0.002623278238504079</v>
+        <v>0.002605705562366062</v>
       </c>
       <c r="X267" t="s">
         <v>853</v>
@@ -20989,7 +20989,7 @@
         <v>27049</v>
       </c>
       <c r="B268">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C268">
         <v>4</v>
@@ -20998,7 +20998,7 @@
         <v>1270</v>
       </c>
       <c r="E268">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="F268">
         <v>9</v>
@@ -21040,10 +21040,10 @@
         <v>980</v>
       </c>
       <c r="V268">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="W268">
-        <v>0.06960844053816556</v>
+        <v>0.06947439645306953</v>
       </c>
       <c r="X268" t="s">
         <v>854</v>
@@ -21054,7 +21054,7 @@
         <v>27079</v>
       </c>
       <c r="B269">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C269">
         <v>4</v>
@@ -21063,7 +21063,7 @@
         <v>588.9</v>
       </c>
       <c r="E269">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="F269">
         <v>5</v>
@@ -21108,10 +21108,10 @@
         <v>275</v>
       </c>
       <c r="V269">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="W269">
-        <v>0.004431179014001002</v>
+        <v>0.004405151198452834</v>
       </c>
       <c r="X269" t="s">
         <v>853</v>
@@ -21122,7 +21122,7 @@
         <v>27217</v>
       </c>
       <c r="B270">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C270">
         <v>4</v>
@@ -21131,7 +21131,7 @@
         <v>1860</v>
       </c>
       <c r="E270">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="F270">
         <v>7</v>
@@ -21176,10 +21176,10 @@
         <v>653</v>
       </c>
       <c r="V270">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="W270">
-        <v>0.0453037611874493</v>
+        <v>0.04514202864613183</v>
       </c>
       <c r="X270" t="s">
         <v>853</v>
@@ -21190,7 +21190,7 @@
         <v>27243</v>
       </c>
       <c r="B271">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C271">
         <v>4</v>
@@ -21199,7 +21199,7 @@
         <v>1280</v>
       </c>
       <c r="E271">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="F271">
         <v>8</v>
@@ -21241,10 +21241,10 @@
         <v>805</v>
       </c>
       <c r="V271">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="W271">
-        <v>0.06325866346930657</v>
+        <v>0.06309660698936868</v>
       </c>
       <c r="X271" t="s">
         <v>854</v>
@@ -21255,7 +21255,7 @@
         <v>27270</v>
       </c>
       <c r="B272">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C272">
         <v>5</v>
@@ -21264,7 +21264,7 @@
         <v>1280</v>
       </c>
       <c r="E272">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="F272">
         <v>9</v>
@@ -21309,10 +21309,10 @@
         <v>888</v>
       </c>
       <c r="V272">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="W272">
-        <v>0.08737195788330755</v>
+        <v>0.08716285034010264</v>
       </c>
       <c r="X272" t="s">
         <v>854</v>
@@ -21323,7 +21323,7 @@
         <v>27290</v>
       </c>
       <c r="B273">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C273">
         <v>5</v>
@@ -21332,7 +21332,7 @@
         <v>2310</v>
       </c>
       <c r="E273">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="F273">
         <v>5</v>
@@ -21377,10 +21377,10 @@
         <v>243</v>
       </c>
       <c r="V273">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="W273">
-        <v>0.001908934438209159</v>
+        <v>0.001895366646550255</v>
       </c>
       <c r="X273" t="s">
         <v>853</v>
@@ -21391,7 +21391,7 @@
         <v>27292</v>
       </c>
       <c r="B274">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C274">
         <v>5</v>
@@ -21400,7 +21400,7 @@
         <v>1794.9</v>
       </c>
       <c r="E274">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="F274">
         <v>6</v>
@@ -21439,13 +21439,13 @@
         <v>4</v>
       </c>
       <c r="U274">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="V274">
-        <v>1128</v>
+        <v>1130</v>
       </c>
       <c r="W274">
-        <v>0.00389242266597575</v>
+        <v>0.003892874912972735</v>
       </c>
       <c r="X274" t="s">
         <v>853</v>
@@ -21456,7 +21456,7 @@
         <v>27514</v>
       </c>
       <c r="B275">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C275">
         <v>7</v>
@@ -21465,7 +21465,7 @@
         <v>1409</v>
       </c>
       <c r="E275">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="F275">
         <v>9</v>
@@ -21510,10 +21510,10 @@
         <v>903</v>
       </c>
       <c r="V275">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="W275">
-        <v>0.1481376829402771</v>
+        <v>0.1478073017444635</v>
       </c>
       <c r="X275" t="s">
         <v>854</v>
@@ -21524,7 +21524,7 @@
         <v>27665</v>
       </c>
       <c r="B276">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C276">
         <v>4</v>
@@ -21533,7 +21533,7 @@
         <v>1410</v>
       </c>
       <c r="E276">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="F276">
         <v>10</v>
@@ -21578,10 +21578,10 @@
         <v>854</v>
       </c>
       <c r="V276">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="W276">
-        <v>0.09227742070674788</v>
+        <v>0.09210350836505594</v>
       </c>
       <c r="X276" t="s">
         <v>854</v>
@@ -21592,7 +21592,7 @@
         <v>27814</v>
       </c>
       <c r="B277">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C277">
         <v>4</v>
@@ -21601,7 +21601,7 @@
         <v>1450</v>
       </c>
       <c r="E277">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F277">
         <v>8</v>
@@ -21640,13 +21640,13 @@
         <v>3</v>
       </c>
       <c r="U277">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="V277">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="W277">
-        <v>0.05567458910677597</v>
+        <v>0.05522311107842354</v>
       </c>
       <c r="X277" t="s">
         <v>853</v>
@@ -21657,7 +21657,7 @@
         <v>27829</v>
       </c>
       <c r="B278">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C278">
         <v>5</v>
@@ -21666,7 +21666,7 @@
         <v>1360</v>
       </c>
       <c r="E278">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F278">
         <v>7</v>
@@ -21711,10 +21711,10 @@
         <v>261</v>
       </c>
       <c r="V278">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="W278">
-        <v>0.009731318367593495</v>
+        <v>0.009654350466188451</v>
       </c>
       <c r="X278" t="s">
         <v>853</v>
@@ -21725,7 +21725,7 @@
         <v>27899</v>
       </c>
       <c r="B279">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C279">
         <v>4</v>
@@ -21734,7 +21734,7 @@
         <v>1965</v>
       </c>
       <c r="E279">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="F279">
         <v>9</v>
@@ -21779,10 +21779,10 @@
         <v>655</v>
       </c>
       <c r="V279">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="W279">
-        <v>0.09767547514643558</v>
+        <v>0.09743172016670362</v>
       </c>
       <c r="X279" t="s">
         <v>854</v>
@@ -21793,7 +21793,7 @@
         <v>28131</v>
       </c>
       <c r="B280">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C280">
         <v>4</v>
@@ -21802,7 +21802,7 @@
         <v>1440</v>
       </c>
       <c r="E280">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="F280">
         <v>7</v>
@@ -21847,10 +21847,10 @@
         <v>75</v>
       </c>
       <c r="V280">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="W280">
-        <v>0.003009164349877819</v>
+        <v>0.002984273325699483</v>
       </c>
       <c r="X280" t="s">
         <v>853</v>
@@ -21861,7 +21861,7 @@
         <v>28268</v>
       </c>
       <c r="B281">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C281">
         <v>4</v>
@@ -21870,7 +21870,7 @@
         <v>1580</v>
       </c>
       <c r="E281">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="F281">
         <v>9</v>
@@ -21915,10 +21915,10 @@
         <v>447</v>
       </c>
       <c r="V281">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="W281">
-        <v>0.1124018972838831</v>
+        <v>0.1120117590407057</v>
       </c>
       <c r="X281" t="s">
         <v>854</v>
@@ -21929,7 +21929,7 @@
         <v>28502</v>
       </c>
       <c r="B282">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C282">
         <v>9</v>
@@ -21938,7 +21938,7 @@
         <v>1935</v>
       </c>
       <c r="E282">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F282">
         <v>10</v>
@@ -21980,10 +21980,10 @@
         <v>405</v>
       </c>
       <c r="V282">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="W282">
-        <v>0.3776330642410809</v>
+        <v>0.3760727936365905</v>
       </c>
       <c r="X282" t="s">
         <v>854</v>
